--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="235">
   <si>
     <t>NPF975</t>
   </si>
@@ -438,12 +438,6 @@
     <t>Add this to 5th keywords</t>
   </si>
   <si>
-    <t>Done!</t>
-  </si>
-  <si>
-    <t>Look these up too (with chargers)</t>
-  </si>
-  <si>
     <t>Added XT and CH</t>
   </si>
   <si>
@@ -724,6 +718,9 @@
   </si>
   <si>
     <t>Batteries battery camera kamera camcorder dslr digital lithium lithium-ion charger rechargeable</t>
+  </si>
+  <si>
+    <t>(with chargers)</t>
   </si>
 </sst>
 </file>
@@ -1093,11 +1090,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,11 +1105,12 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1120,7 +1118,7 @@
         <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
         <v>98</v>
@@ -1132,18 +1130,18 @@
         <v>138</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="H1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B2" t="str">
-        <f>"XT"&amp;A2</f>
+        <f t="shared" ref="B2:B40" si="0">"XT"&amp;A2</f>
         <v>XTBCF10</v>
       </c>
       <c r="C2" t="str">
@@ -1151,7 +1149,7 @@
         <v>XTCHBCF10</v>
       </c>
       <c r="D2" t="str">
-        <f>RIGHT(B2, LEN(B2)-2)</f>
+        <f t="shared" ref="D2:D40" si="1">RIGHT(B2, LEN(B2)-2)</f>
         <v>BCF10</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1161,29 +1159,26 @@
         <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B3" t="str">
-        <f>"XT"&amp;A3</f>
+        <f t="shared" si="0"/>
         <v>XTBP1130</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">"XTCH"&amp;A3</f>
+        <f t="shared" ref="C3:C66" si="2">"XTCH"&amp;A3</f>
         <v>XTCHBP1130</v>
       </c>
       <c r="D3" t="str">
-        <f>RIGHT(B3, LEN(B3)-2)</f>
+        <f t="shared" si="1"/>
         <v>BP1130</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1193,29 +1188,26 @@
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B4" t="str">
-        <f>"XT"&amp;A4</f>
+        <f t="shared" si="0"/>
         <v>XTENEL23</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHENEL23</v>
       </c>
       <c r="D4" t="str">
-        <f>RIGHT(B4, LEN(B4)-2)</f>
+        <f t="shared" si="1"/>
         <v>ENEL23</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1225,29 +1217,26 @@
         <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="str">
-        <f>"XT"&amp;A5</f>
+        <f t="shared" si="0"/>
         <v>XTNB10L</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNB10L</v>
       </c>
       <c r="D5" t="str">
-        <f>RIGHT(B5, LEN(B5)-2)</f>
+        <f t="shared" si="1"/>
         <v>NB10L</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1257,23 +1246,23 @@
         <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="str">
-        <f>"XT"&amp;A6</f>
+        <f t="shared" si="0"/>
         <v>XTNB11L</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNB11L</v>
       </c>
       <c r="D6" t="str">
-        <f>RIGHT(B6, LEN(B6)-2)</f>
+        <f t="shared" si="1"/>
         <v>NB11L</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1283,23 +1272,23 @@
         <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="str">
-        <f>"XT"&amp;A7</f>
+        <f t="shared" si="0"/>
         <v>XTNB2LH</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNB2LH</v>
       </c>
       <c r="D7" t="str">
-        <f>RIGHT(B7, LEN(B7)-2)</f>
+        <f t="shared" si="1"/>
         <v>NB2LH</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1309,23 +1298,23 @@
         <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="str">
-        <f>"XT"&amp;A8</f>
+        <f t="shared" si="0"/>
         <v>XTNB4L</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNB4L</v>
       </c>
       <c r="D8" t="str">
-        <f>RIGHT(B8, LEN(B8)-2)</f>
+        <f t="shared" si="1"/>
         <v>NB4L</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1335,23 +1324,23 @@
         <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B9" t="str">
-        <f>"XT"&amp;A9</f>
+        <f t="shared" si="0"/>
         <v>XTNB5L</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNB5L</v>
       </c>
       <c r="D9" t="str">
-        <f>RIGHT(B9, LEN(B9)-2)</f>
+        <f t="shared" si="1"/>
         <v>NB5L</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1361,23 +1350,23 @@
         <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="str">
-        <f>"XT"&amp;A10</f>
+        <f t="shared" si="0"/>
         <v>XTNB6L</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNB6L</v>
       </c>
       <c r="D10" t="str">
-        <f>RIGHT(B10, LEN(B10)-2)</f>
+        <f t="shared" si="1"/>
         <v>NB6L</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1387,23 +1376,23 @@
         <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="str">
-        <f>"XT"&amp;A11</f>
+        <f t="shared" si="0"/>
         <v>XTNB7L</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNB7L</v>
       </c>
       <c r="D11" t="str">
-        <f>RIGHT(B11, LEN(B11)-2)</f>
+        <f t="shared" si="1"/>
         <v>NB7L</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1413,23 +1402,23 @@
         <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B12" t="str">
-        <f>"XT"&amp;A12</f>
+        <f t="shared" si="0"/>
         <v>XTNB8L</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNB8L</v>
       </c>
       <c r="D12" t="str">
-        <f>RIGHT(B12, LEN(B12)-2)</f>
+        <f t="shared" si="1"/>
         <v>NB8L</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1439,23 +1428,23 @@
         <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="str">
-        <f>"XT"&amp;A13</f>
+        <f t="shared" si="0"/>
         <v>XTNB9L</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNB9L</v>
       </c>
       <c r="D13" t="str">
-        <f>RIGHT(B13, LEN(B13)-2)</f>
+        <f t="shared" si="1"/>
         <v>NB9L</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1465,23 +1454,23 @@
         <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="str">
-        <f>"XT"&amp;A14</f>
+        <f t="shared" si="0"/>
         <v>XTNP45</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNP45</v>
       </c>
       <c r="D14" t="str">
-        <f>RIGHT(B14, LEN(B14)-2)</f>
+        <f t="shared" si="1"/>
         <v>NP45</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1491,23 +1480,23 @@
         <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B15" t="str">
-        <f>"XT"&amp;A15</f>
+        <f t="shared" si="0"/>
         <v>XTNP48</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNP48</v>
       </c>
       <c r="D15" t="str">
-        <f>RIGHT(B15, LEN(B15)-2)</f>
+        <f t="shared" si="1"/>
         <v>NP48</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1517,23 +1506,23 @@
         <v>112</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="str">
-        <f>"XT"&amp;A16</f>
+        <f t="shared" si="0"/>
         <v>XTNP50</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNP50</v>
       </c>
       <c r="D16" t="str">
-        <f>RIGHT(B16, LEN(B16)-2)</f>
+        <f t="shared" si="1"/>
         <v>NP50</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1543,7 +1532,7 @@
         <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1551,15 +1540,15 @@
         <v>23</v>
       </c>
       <c r="B17" t="str">
-        <f>"XT"&amp;A17</f>
+        <f t="shared" si="0"/>
         <v>XTNP85</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNP85</v>
       </c>
       <c r="D17" t="str">
-        <f>RIGHT(B17, LEN(B17)-2)</f>
+        <f t="shared" si="1"/>
         <v>NP85</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1569,7 +1558,7 @@
         <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1577,15 +1566,15 @@
         <v>22</v>
       </c>
       <c r="B18" t="str">
-        <f>"XT"&amp;A18</f>
+        <f t="shared" si="0"/>
         <v>XTNP95</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNP95</v>
       </c>
       <c r="D18" t="str">
-        <f>RIGHT(B18, LEN(B18)-2)</f>
+        <f t="shared" si="1"/>
         <v>NP95</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1595,7 +1584,7 @@
         <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1603,15 +1592,15 @@
         <v>2</v>
       </c>
       <c r="B19" t="str">
-        <f>"XT"&amp;A19</f>
+        <f t="shared" si="0"/>
         <v>XTNPBG1</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNPBG1</v>
       </c>
       <c r="D19" t="str">
-        <f>RIGHT(B19, LEN(B19)-2)</f>
+        <f t="shared" si="1"/>
         <v>NPBG1</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1621,7 +1610,7 @@
         <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1629,15 +1618,15 @@
         <v>20</v>
       </c>
       <c r="B20" t="str">
-        <f>"XT"&amp;A20</f>
+        <f t="shared" si="0"/>
         <v>XTNPBN1</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNPBN1</v>
       </c>
       <c r="D20" t="str">
-        <f>RIGHT(B20, LEN(B20)-2)</f>
+        <f t="shared" si="1"/>
         <v>NPBN1</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1647,7 +1636,7 @@
         <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1655,15 +1644,15 @@
         <v>19</v>
       </c>
       <c r="B21" t="str">
-        <f>"XT"&amp;A21</f>
+        <f t="shared" si="0"/>
         <v>XTNPBX1</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNPBX1</v>
       </c>
       <c r="D21" t="str">
-        <f>RIGHT(B21, LEN(B21)-2)</f>
+        <f t="shared" si="1"/>
         <v>NPBX1</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1673,7 +1662,7 @@
         <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1681,15 +1670,15 @@
         <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f>"XT"&amp;A22</f>
+        <f t="shared" si="0"/>
         <v>XTNPF975</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNPF975</v>
       </c>
       <c r="D22" t="str">
-        <f>RIGHT(B22, LEN(B22)-2)</f>
+        <f t="shared" si="1"/>
         <v>NPF975</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1699,7 +1688,7 @@
         <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1707,15 +1696,15 @@
         <v>21</v>
       </c>
       <c r="B23" t="str">
-        <f>"XT"&amp;A23</f>
+        <f t="shared" si="0"/>
         <v>XTNPFH50</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNPFH50</v>
       </c>
       <c r="D23" t="str">
-        <f>RIGHT(B23, LEN(B23)-2)</f>
+        <f t="shared" si="1"/>
         <v>NPFH50</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1725,7 +1714,7 @@
         <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1733,15 +1722,15 @@
         <v>1</v>
       </c>
       <c r="B24" t="str">
-        <f>"XT"&amp;A24</f>
+        <f t="shared" si="0"/>
         <v>XTNPFM500H</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNPFM500H</v>
       </c>
       <c r="D24" t="str">
-        <f>RIGHT(B24, LEN(B24)-2)</f>
+        <f t="shared" si="1"/>
         <v>NPFM500H</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1751,7 +1740,7 @@
         <v>121</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1759,15 +1748,15 @@
         <v>15</v>
       </c>
       <c r="B25" t="str">
-        <f>"XT"&amp;A25</f>
+        <f t="shared" si="0"/>
         <v>XTNPFV100</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNPFV100</v>
       </c>
       <c r="D25" t="str">
-        <f>RIGHT(B25, LEN(B25)-2)</f>
+        <f t="shared" si="1"/>
         <v>NPFV100</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1777,7 +1766,7 @@
         <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1785,15 +1774,15 @@
         <v>3</v>
       </c>
       <c r="B26" t="str">
-        <f>"XT"&amp;A26</f>
+        <f t="shared" si="0"/>
         <v>XTNPFV50</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNPFV50</v>
       </c>
       <c r="D26" t="str">
-        <f>RIGHT(B26, LEN(B26)-2)</f>
+        <f t="shared" si="1"/>
         <v>NPFV50</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1803,7 +1792,7 @@
         <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,15 +1800,15 @@
         <v>17</v>
       </c>
       <c r="B27" t="str">
-        <f>"XT"&amp;A27</f>
+        <f t="shared" si="0"/>
         <v>XTNPFV70</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNPFV70</v>
       </c>
       <c r="D27" t="str">
-        <f>RIGHT(B27, LEN(B27)-2)</f>
+        <f t="shared" si="1"/>
         <v>NPFV70</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1829,7 +1818,7 @@
         <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1837,15 +1826,15 @@
         <v>16</v>
       </c>
       <c r="B28" t="str">
-        <f>"XT"&amp;A28</f>
+        <f t="shared" si="0"/>
         <v>XTNPFW50</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNPFW50</v>
       </c>
       <c r="D28" t="str">
-        <f>RIGHT(B28, LEN(B28)-2)</f>
+        <f t="shared" si="1"/>
         <v>NPFW50</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1855,7 +1844,7 @@
         <v>125</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1863,15 +1852,15 @@
         <v>14</v>
       </c>
       <c r="B29" t="str">
-        <f>"XT"&amp;A29</f>
+        <f t="shared" si="0"/>
         <v>XTNPW126</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHNPW126</v>
       </c>
       <c r="D29" t="str">
-        <f>RIGHT(B29, LEN(B29)-2)</f>
+        <f t="shared" si="1"/>
         <v>NPW126</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -1881,7 +1870,7 @@
         <v>126</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1889,15 +1878,15 @@
         <v>33</v>
       </c>
       <c r="B30" t="str">
-        <f>"XT"&amp;A30</f>
+        <f t="shared" si="0"/>
         <v>XTSLB10A</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHSLB10A</v>
       </c>
       <c r="D30" t="str">
-        <f>RIGHT(B30, LEN(B30)-2)</f>
+        <f t="shared" si="1"/>
         <v>SLB10A</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -1907,7 +1896,7 @@
         <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1915,15 +1904,15 @@
         <v>13</v>
       </c>
       <c r="B31" t="str">
-        <f>"XT"&amp;A31</f>
+        <f t="shared" si="0"/>
         <v>XTVBG260</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHVBG260</v>
       </c>
       <c r="D31" t="str">
-        <f>RIGHT(B31, LEN(B31)-2)</f>
+        <f t="shared" si="1"/>
         <v>VBG260</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -1933,7 +1922,7 @@
         <v>128</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1941,15 +1930,15 @@
         <v>12</v>
       </c>
       <c r="B32" t="str">
-        <f>"XT"&amp;A32</f>
+        <f t="shared" si="0"/>
         <v>XTVBG6</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHVBG6</v>
       </c>
       <c r="D32" t="str">
-        <f>RIGHT(B32, LEN(B32)-2)</f>
+        <f t="shared" si="1"/>
         <v>VBG6</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -1959,7 +1948,7 @@
         <v>129</v>
       </c>
       <c r="G32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1967,15 +1956,15 @@
         <v>10</v>
       </c>
       <c r="B33" t="str">
-        <f>"XT"&amp;A33</f>
+        <f t="shared" si="0"/>
         <v>XTVBK180</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHVBK180</v>
       </c>
       <c r="D33" t="str">
-        <f>RIGHT(B33, LEN(B33)-2)</f>
+        <f t="shared" si="1"/>
         <v>VBK180</v>
       </c>
       <c r="E33" s="1"/>
@@ -1983,7 +1972,7 @@
         <v>130</v>
       </c>
       <c r="G33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1991,15 +1980,15 @@
         <v>11</v>
       </c>
       <c r="B34" t="str">
-        <f>"XT"&amp;A34</f>
+        <f t="shared" si="0"/>
         <v>XTVBK360</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHVBK360</v>
       </c>
       <c r="D34" t="str">
-        <f>RIGHT(B34, LEN(B34)-2)</f>
+        <f t="shared" si="1"/>
         <v>VBK360</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -2009,7 +1998,7 @@
         <v>131</v>
       </c>
       <c r="G34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2017,15 +2006,15 @@
         <v>9</v>
       </c>
       <c r="B35" t="str">
-        <f>"XT"&amp;A35</f>
+        <f t="shared" si="0"/>
         <v>XTVBN130</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHVBN130</v>
       </c>
       <c r="D35" t="str">
-        <f>RIGHT(B35, LEN(B35)-2)</f>
+        <f t="shared" si="1"/>
         <v>VBN130</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -2035,7 +2024,7 @@
         <v>132</v>
       </c>
       <c r="G35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2043,15 +2032,15 @@
         <v>8</v>
       </c>
       <c r="B36" t="str">
-        <f>"XT"&amp;A36</f>
+        <f t="shared" si="0"/>
         <v>XTVBN260</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHVBN260</v>
       </c>
       <c r="D36" t="str">
-        <f>RIGHT(B36, LEN(B36)-2)</f>
+        <f t="shared" si="1"/>
         <v>VBN260</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2061,7 +2050,7 @@
         <v>133</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2069,15 +2058,15 @@
         <v>7</v>
       </c>
       <c r="B37" t="str">
-        <f>"XT"&amp;A37</f>
+        <f t="shared" si="0"/>
         <v>XTVF815</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHVF815</v>
       </c>
       <c r="D37" t="str">
-        <f>RIGHT(B37, LEN(B37)-2)</f>
+        <f t="shared" si="1"/>
         <v>VF815</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -2087,7 +2076,7 @@
         <v>134</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2095,15 +2084,15 @@
         <v>6</v>
       </c>
       <c r="B38" t="str">
-        <f>"XT"&amp;A38</f>
+        <f t="shared" si="0"/>
         <v>XTVF823</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHVF823</v>
       </c>
       <c r="D38" t="str">
-        <f>RIGHT(B38, LEN(B38)-2)</f>
+        <f t="shared" si="1"/>
         <v>VF823</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2113,7 +2102,7 @@
         <v>135</v>
       </c>
       <c r="G38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2121,15 +2110,15 @@
         <v>5</v>
       </c>
       <c r="B39" t="str">
-        <f>"XT"&amp;A39</f>
+        <f t="shared" si="0"/>
         <v>XTVG121</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHVG121</v>
       </c>
       <c r="D39" t="str">
-        <f>RIGHT(B39, LEN(B39)-2)</f>
+        <f t="shared" si="1"/>
         <v>VG121</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -2139,7 +2128,7 @@
         <v>136</v>
       </c>
       <c r="G39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2147,15 +2136,15 @@
         <v>4</v>
       </c>
       <c r="B40" t="str">
-        <f>"XT"&amp;A40</f>
+        <f t="shared" si="0"/>
         <v>XTVG138</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHVG138</v>
       </c>
       <c r="D40" t="str">
-        <f>RIGHT(B40, LEN(B40)-2)</f>
+        <f t="shared" si="1"/>
         <v>VG138</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -2165,7 +2154,7 @@
         <v>137</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2173,11 +2162,11 @@
         <v>35</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBCG10</v>
       </c>
       <c r="D41" t="str">
-        <f>RIGHT(A41, LEN(A41)-2)</f>
+        <f t="shared" ref="D41:D72" si="3">RIGHT(A41, LEN(A41)-2)</f>
         <v>BCG10</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -2187,7 +2176,7 @@
         <v>99</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2195,11 +2184,11 @@
         <v>36</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBCH7</v>
       </c>
       <c r="D42" t="str">
-        <f>RIGHT(A42, LEN(A42)-2)</f>
+        <f t="shared" si="3"/>
         <v>BCH7</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2209,7 +2198,7 @@
         <v>100</v>
       </c>
       <c r="G42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2217,11 +2206,11 @@
         <v>37</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBCJ13</v>
       </c>
       <c r="D43" t="str">
-        <f>RIGHT(A43, LEN(A43)-2)</f>
+        <f t="shared" si="3"/>
         <v>BCJ13</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -2231,7 +2220,7 @@
         <v>101</v>
       </c>
       <c r="G43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2239,11 +2228,11 @@
         <v>38</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBCK7</v>
       </c>
       <c r="D44" t="str">
-        <f>RIGHT(A44, LEN(A44)-2)</f>
+        <f t="shared" si="3"/>
         <v>BCK7</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2253,7 +2242,7 @@
         <v>102</v>
       </c>
       <c r="G44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2261,11 +2250,11 @@
         <v>39</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBCL7</v>
       </c>
       <c r="D45" t="str">
-        <f>RIGHT(A45, LEN(A45)-2)</f>
+        <f t="shared" si="3"/>
         <v>BCL7</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2275,7 +2264,7 @@
         <v>103</v>
       </c>
       <c r="G45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2283,11 +2272,11 @@
         <v>40</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBCM13</v>
       </c>
       <c r="D46" t="str">
-        <f>RIGHT(A46, LEN(A46)-2)</f>
+        <f t="shared" si="3"/>
         <v>BCM13</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2297,7 +2286,7 @@
         <v>104</v>
       </c>
       <c r="G46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2305,11 +2294,11 @@
         <v>94</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBCN10</v>
       </c>
       <c r="D47" t="str">
-        <f>RIGHT(A47, LEN(A47)-2)</f>
+        <f t="shared" si="3"/>
         <v>BCN10</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2319,7 +2308,7 @@
         <v>105</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2327,11 +2316,11 @@
         <v>41</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBLC12</v>
       </c>
       <c r="D48" t="str">
-        <f>RIGHT(A48, LEN(A48)-2)</f>
+        <f t="shared" si="3"/>
         <v>BLC12</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -2341,7 +2330,7 @@
         <v>106</v>
       </c>
       <c r="G48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2349,11 +2338,11 @@
         <v>42</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBLD10</v>
       </c>
       <c r="D49" t="str">
-        <f>RIGHT(A49, LEN(A49)-2)</f>
+        <f t="shared" si="3"/>
         <v>BLD10</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -2363,7 +2352,7 @@
         <v>107</v>
       </c>
       <c r="G49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2371,11 +2360,11 @@
         <v>43</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBLE9</v>
       </c>
       <c r="D50" t="str">
-        <f>RIGHT(A50, LEN(A50)-2)</f>
+        <f t="shared" si="3"/>
         <v>BLE9</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -2385,7 +2374,7 @@
         <v>108</v>
       </c>
       <c r="G50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2393,11 +2382,11 @@
         <v>44</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBLF19</v>
       </c>
       <c r="D51" t="str">
-        <f>RIGHT(A51, LEN(A51)-2)</f>
+        <f t="shared" si="3"/>
         <v>BLF19</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -2407,7 +2396,7 @@
         <v>109</v>
       </c>
       <c r="G51" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2415,11 +2404,11 @@
         <v>45</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBLG10</v>
       </c>
       <c r="D52" t="str">
-        <f>RIGHT(A52, LEN(A52)-2)</f>
+        <f t="shared" si="3"/>
         <v>BLG10</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -2429,7 +2418,7 @@
         <v>110</v>
       </c>
       <c r="G52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2437,11 +2426,11 @@
         <v>46</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBLM5</v>
       </c>
       <c r="D53" t="str">
-        <f>RIGHT(A53, LEN(A53)-2)</f>
+        <f t="shared" si="3"/>
         <v>BLM5</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -2451,7 +2440,7 @@
         <v>111</v>
       </c>
       <c r="G53" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2459,11 +2448,11 @@
         <v>47</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBLS1</v>
       </c>
       <c r="D54" t="str">
-        <f>RIGHT(A54, LEN(A54)-2)</f>
+        <f t="shared" si="3"/>
         <v>BLS1</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -2473,7 +2462,7 @@
         <v>112</v>
       </c>
       <c r="G54" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2481,11 +2470,11 @@
         <v>48</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBLS5</v>
       </c>
       <c r="D55" t="str">
-        <f>RIGHT(A55, LEN(A55)-2)</f>
+        <f t="shared" si="3"/>
         <v>BLS5</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -2495,7 +2484,7 @@
         <v>113</v>
       </c>
       <c r="G55" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2503,11 +2492,11 @@
         <v>49</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBMB9</v>
       </c>
       <c r="D56" t="str">
-        <f>RIGHT(A56, LEN(A56)-2)</f>
+        <f t="shared" si="3"/>
         <v>BMB9</v>
       </c>
       <c r="E56" s="1"/>
@@ -2515,7 +2504,7 @@
         <v>114</v>
       </c>
       <c r="G56" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2523,11 +2512,11 @@
         <v>61</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBP1030</v>
       </c>
       <c r="D57" t="str">
-        <f>RIGHT(A57, LEN(A57)-2)</f>
+        <f t="shared" si="3"/>
         <v>BP1030</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -2537,7 +2526,7 @@
         <v>115</v>
       </c>
       <c r="G57" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2545,11 +2534,11 @@
         <v>51</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBP110</v>
       </c>
       <c r="D58" t="str">
-        <f>RIGHT(A58, LEN(A58)-2)</f>
+        <f t="shared" si="3"/>
         <v>BP110</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -2559,7 +2548,7 @@
         <v>116</v>
       </c>
       <c r="G58" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2567,11 +2556,11 @@
         <v>62</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBP1310</v>
       </c>
       <c r="D59" t="str">
-        <f>RIGHT(A59, LEN(A59)-2)</f>
+        <f t="shared" si="3"/>
         <v>BP1310</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -2581,7 +2570,7 @@
         <v>117</v>
       </c>
       <c r="G59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2589,11 +2578,11 @@
         <v>52</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBP511</v>
       </c>
       <c r="D60" t="str">
-        <f>RIGHT(A60, LEN(A60)-2)</f>
+        <f t="shared" si="3"/>
         <v>BP511</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -2603,7 +2592,7 @@
         <v>118</v>
       </c>
       <c r="G60" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2611,11 +2600,11 @@
         <v>50</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBP70A</v>
       </c>
       <c r="D61" t="str">
-        <f>RIGHT(A61, LEN(A61)-2)</f>
+        <f t="shared" si="3"/>
         <v>BP70A</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -2625,7 +2614,7 @@
         <v>119</v>
       </c>
       <c r="G61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2633,11 +2622,11 @@
         <v>53</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBP718</v>
       </c>
       <c r="D62" t="str">
-        <f>RIGHT(A62, LEN(A62)-2)</f>
+        <f t="shared" si="3"/>
         <v>BP718</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -2647,7 +2636,7 @@
         <v>120</v>
       </c>
       <c r="G62" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2655,11 +2644,11 @@
         <v>54</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBP727FD</v>
       </c>
       <c r="D63" t="str">
-        <f>RIGHT(A63, LEN(A63)-2)</f>
+        <f t="shared" si="3"/>
         <v>BP727FD</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -2669,7 +2658,7 @@
         <v>121</v>
       </c>
       <c r="G63" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2677,11 +2666,11 @@
         <v>55</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBP808</v>
       </c>
       <c r="D64" t="str">
-        <f>RIGHT(A64, LEN(A64)-2)</f>
+        <f t="shared" si="3"/>
         <v>BP808</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -2691,7 +2680,7 @@
         <v>122</v>
       </c>
       <c r="G64" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2699,11 +2688,11 @@
         <v>56</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBP819</v>
       </c>
       <c r="D65" t="str">
-        <f>RIGHT(A65, LEN(A65)-2)</f>
+        <f t="shared" si="3"/>
         <v>BP819</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -2713,7 +2702,7 @@
         <v>123</v>
       </c>
       <c r="G65" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2721,11 +2710,11 @@
         <v>57</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>XTCHXTBP820</v>
       </c>
       <c r="D66" t="str">
-        <f>RIGHT(A66, LEN(A66)-2)</f>
+        <f t="shared" si="3"/>
         <v>BP820</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -2735,7 +2724,7 @@
         <v>124</v>
       </c>
       <c r="G66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2743,11 +2732,11 @@
         <v>58</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C93" si="1">"XTCH"&amp;A67</f>
+        <f t="shared" ref="C67:C93" si="4">"XTCH"&amp;A67</f>
         <v>XTCHXTBP827</v>
       </c>
       <c r="D67" t="str">
-        <f>RIGHT(A67, LEN(A67)-2)</f>
+        <f t="shared" si="3"/>
         <v>BP827</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -2757,7 +2746,7 @@
         <v>125</v>
       </c>
       <c r="G67" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2765,11 +2754,11 @@
         <v>59</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTBP828</v>
       </c>
       <c r="D68" t="str">
-        <f>RIGHT(A68, LEN(A68)-2)</f>
+        <f t="shared" si="3"/>
         <v>BP828</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -2779,7 +2768,7 @@
         <v>126</v>
       </c>
       <c r="G68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2787,11 +2776,11 @@
         <v>60</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTBP970G</v>
       </c>
       <c r="D69" t="str">
-        <f>RIGHT(A69, LEN(A69)-2)</f>
+        <f t="shared" si="3"/>
         <v>BP970G</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -2801,7 +2790,7 @@
         <v>127</v>
       </c>
       <c r="G69" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2809,11 +2798,11 @@
         <v>63</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTCGRD54</v>
       </c>
       <c r="D70" t="str">
-        <f>RIGHT(A70, LEN(A70)-2)</f>
+        <f t="shared" si="3"/>
         <v>CGRD54</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -2823,7 +2812,7 @@
         <v>128</v>
       </c>
       <c r="G70" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2831,11 +2820,11 @@
         <v>67</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTENEL12</v>
       </c>
       <c r="D71" t="str">
-        <f>RIGHT(A71, LEN(A71)-2)</f>
+        <f t="shared" si="3"/>
         <v>ENEL12</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -2845,7 +2834,7 @@
         <v>129</v>
       </c>
       <c r="G71" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2853,11 +2842,11 @@
         <v>68</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTENEL14</v>
       </c>
       <c r="D72" t="str">
-        <f>RIGHT(A72, LEN(A72)-2)</f>
+        <f t="shared" si="3"/>
         <v>ENEL14</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -2867,7 +2856,7 @@
         <v>130</v>
       </c>
       <c r="G72" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2875,11 +2864,11 @@
         <v>69</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTENEL15</v>
       </c>
       <c r="D73" t="str">
-        <f>RIGHT(A73, LEN(A73)-2)</f>
+        <f t="shared" ref="D73:D93" si="5">RIGHT(A73, LEN(A73)-2)</f>
         <v>ENEL15</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -2889,7 +2878,7 @@
         <v>131</v>
       </c>
       <c r="G73" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2897,11 +2886,11 @@
         <v>70</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTENEL19</v>
       </c>
       <c r="D74" t="str">
-        <f>RIGHT(A74, LEN(A74)-2)</f>
+        <f t="shared" si="5"/>
         <v>ENEL19</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -2911,7 +2900,7 @@
         <v>132</v>
       </c>
       <c r="G74" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2919,11 +2908,11 @@
         <v>71</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTENEL20</v>
       </c>
       <c r="D75" t="str">
-        <f>RIGHT(A75, LEN(A75)-2)</f>
+        <f t="shared" si="5"/>
         <v>ENEL20</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -2933,7 +2922,7 @@
         <v>133</v>
       </c>
       <c r="G75" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2941,11 +2930,11 @@
         <v>72</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTENEL21</v>
       </c>
       <c r="D76" t="str">
-        <f>RIGHT(A76, LEN(A76)-2)</f>
+        <f t="shared" si="5"/>
         <v>ENEL21</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -2955,7 +2944,7 @@
         <v>134</v>
       </c>
       <c r="G76" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2963,11 +2952,11 @@
         <v>95</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTENEL22</v>
       </c>
       <c r="D77" t="str">
-        <f>RIGHT(A77, LEN(A77)-2)</f>
+        <f t="shared" si="5"/>
         <v>ENEL22</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -2977,7 +2966,7 @@
         <v>135</v>
       </c>
       <c r="G77" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2985,11 +2974,11 @@
         <v>64</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTENEL3E</v>
       </c>
       <c r="D78" t="str">
-        <f>RIGHT(A78, LEN(A78)-2)</f>
+        <f t="shared" si="5"/>
         <v>ENEL3E</v>
       </c>
       <c r="E78" s="4" t="s">
@@ -2999,7 +2988,7 @@
         <v>136</v>
       </c>
       <c r="G78" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3007,11 +2996,11 @@
         <v>65</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTENEL5</v>
       </c>
       <c r="D79" t="str">
-        <f>RIGHT(A79, LEN(A79)-2)</f>
+        <f t="shared" si="5"/>
         <v>ENEL5</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -3021,7 +3010,7 @@
         <v>137</v>
       </c>
       <c r="G79" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3029,11 +3018,11 @@
         <v>66</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTENEL8</v>
       </c>
       <c r="D80" t="str">
-        <f>RIGHT(A80, LEN(A80)-2)</f>
+        <f t="shared" si="5"/>
         <v>ENEL8</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -3043,7 +3032,7 @@
         <v>66</v>
       </c>
       <c r="G80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3051,11 +3040,11 @@
         <v>96</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTENEL9</v>
       </c>
       <c r="D81" t="str">
-        <f>RIGHT(A81, LEN(A81)-2)</f>
+        <f t="shared" si="5"/>
         <v>ENEL9</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -3065,7 +3054,7 @@
         <v>96</v>
       </c>
       <c r="G81" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3073,11 +3062,11 @@
         <v>73</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTGPH3</v>
       </c>
       <c r="D82" t="str">
-        <f>RIGHT(A82, LEN(A82)-2)</f>
+        <f t="shared" si="5"/>
         <v>GPH3</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -3087,7 +3076,7 @@
         <v>73</v>
       </c>
       <c r="G82" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3095,11 +3084,11 @@
         <v>79</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTLI109</v>
       </c>
       <c r="D83" t="str">
-        <f>RIGHT(A83, LEN(A83)-2)</f>
+        <f t="shared" si="5"/>
         <v>LI109</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -3109,7 +3098,7 @@
         <v>79</v>
       </c>
       <c r="G83" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3117,11 +3106,11 @@
         <v>74</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTLI42B</v>
       </c>
       <c r="D84" t="str">
-        <f>RIGHT(A84, LEN(A84)-2)</f>
+        <f t="shared" si="5"/>
         <v>LI42B</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -3131,7 +3120,7 @@
         <v>74</v>
       </c>
       <c r="G84" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3139,11 +3128,11 @@
         <v>75</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTLI50B</v>
       </c>
       <c r="D85" t="str">
-        <f>RIGHT(A85, LEN(A85)-2)</f>
+        <f t="shared" si="5"/>
         <v>LI50B</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -3153,7 +3142,7 @@
         <v>75</v>
       </c>
       <c r="G85" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3161,11 +3150,11 @@
         <v>76</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTLI70B</v>
       </c>
       <c r="D86" t="str">
-        <f>RIGHT(A86, LEN(A86)-2)</f>
+        <f t="shared" si="5"/>
         <v>LI70B</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -3175,7 +3164,7 @@
         <v>76</v>
       </c>
       <c r="G86" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3183,11 +3172,11 @@
         <v>77</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTLI90</v>
       </c>
       <c r="D87" t="str">
-        <f>RIGHT(A87, LEN(A87)-2)</f>
+        <f t="shared" si="5"/>
         <v>LI90</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -3197,7 +3186,7 @@
         <v>77</v>
       </c>
       <c r="G87" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3205,11 +3194,11 @@
         <v>78</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTLI90B</v>
       </c>
       <c r="D88" t="str">
-        <f>RIGHT(A88, LEN(A88)-2)</f>
+        <f t="shared" si="5"/>
         <v>LI90B</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -3219,7 +3208,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3227,11 +3216,11 @@
         <v>82</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTLPE10</v>
       </c>
       <c r="D89" t="str">
-        <f>RIGHT(A89, LEN(A89)-2)</f>
+        <f t="shared" si="5"/>
         <v>LPE10</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -3241,7 +3230,7 @@
         <v>82</v>
       </c>
       <c r="G89" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3249,11 +3238,11 @@
         <v>83</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTLPE12</v>
       </c>
       <c r="D90" t="str">
-        <f>RIGHT(A90, LEN(A90)-2)</f>
+        <f t="shared" si="5"/>
         <v>LPE12</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -3263,7 +3252,7 @@
         <v>83</v>
       </c>
       <c r="G90" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3271,11 +3260,11 @@
         <v>93</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTLPE5</v>
       </c>
       <c r="D91" t="str">
-        <f>RIGHT(A91, LEN(A91)-2)</f>
+        <f t="shared" si="5"/>
         <v>LPE5</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -3285,7 +3274,7 @@
         <v>93</v>
       </c>
       <c r="G91" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3293,11 +3282,11 @@
         <v>80</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTLPE6</v>
       </c>
       <c r="D92" t="str">
-        <f>RIGHT(A92, LEN(A92)-2)</f>
+        <f t="shared" si="5"/>
         <v>LPE6</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -3307,7 +3296,7 @@
         <v>80</v>
       </c>
       <c r="G92" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3315,11 +3304,11 @@
         <v>81</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XTCHXTLPE8</v>
       </c>
       <c r="D93" t="str">
-        <f>RIGHT(A93, LEN(A93)-2)</f>
+        <f t="shared" si="5"/>
         <v>LPE8</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -3329,7 +3318,7 @@
         <v>81</v>
       </c>
       <c r="G93" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="143">
   <si>
     <t>NPF975</t>
   </si>
@@ -439,282 +439,6 @@
   </si>
   <si>
     <t>Added XT and CH</t>
-  </si>
-  <si>
-    <t>XTCHBCF10</t>
-  </si>
-  <si>
-    <t>XTCHBP1130</t>
-  </si>
-  <si>
-    <t>XTCHENEL23</t>
-  </si>
-  <si>
-    <t>XTCHNB10L</t>
-  </si>
-  <si>
-    <t>XTCHNB11L</t>
-  </si>
-  <si>
-    <t>XTCHNB2LH</t>
-  </si>
-  <si>
-    <t>XTCHNB4L</t>
-  </si>
-  <si>
-    <t>XTCHNB5L</t>
-  </si>
-  <si>
-    <t>XTCHNB6L</t>
-  </si>
-  <si>
-    <t>XTCHNB7L</t>
-  </si>
-  <si>
-    <t>XTCHNB8L</t>
-  </si>
-  <si>
-    <t>XTCHNB9L</t>
-  </si>
-  <si>
-    <t>XTCHNP45</t>
-  </si>
-  <si>
-    <t>XTCHNP48</t>
-  </si>
-  <si>
-    <t>XTCHNP50</t>
-  </si>
-  <si>
-    <t>XTCHNP85</t>
-  </si>
-  <si>
-    <t>XTCHNP95</t>
-  </si>
-  <si>
-    <t>XTCHNPBG1</t>
-  </si>
-  <si>
-    <t>XTCHNPBN1</t>
-  </si>
-  <si>
-    <t>XTCHNPBX1</t>
-  </si>
-  <si>
-    <t>XTCHNPF975</t>
-  </si>
-  <si>
-    <t>XTCHNPFH50</t>
-  </si>
-  <si>
-    <t>XTCHNPFM500H</t>
-  </si>
-  <si>
-    <t>XTCHNPFV100</t>
-  </si>
-  <si>
-    <t>XTCHNPFV50</t>
-  </si>
-  <si>
-    <t>XTCHNPFV70</t>
-  </si>
-  <si>
-    <t>XTCHNPFW50</t>
-  </si>
-  <si>
-    <t>XTCHNPW126</t>
-  </si>
-  <si>
-    <t>XTCHSLB10A</t>
-  </si>
-  <si>
-    <t>XTCHVBG260</t>
-  </si>
-  <si>
-    <t>XTCHVBG6</t>
-  </si>
-  <si>
-    <t>XTCHVBK180</t>
-  </si>
-  <si>
-    <t>XTCHVBK360</t>
-  </si>
-  <si>
-    <t>XTCHVBN130</t>
-  </si>
-  <si>
-    <t>XTCHVBN260</t>
-  </si>
-  <si>
-    <t>XTCHVF815</t>
-  </si>
-  <si>
-    <t>XTCHVF823</t>
-  </si>
-  <si>
-    <t>XTCHVG121</t>
-  </si>
-  <si>
-    <t>XTCHVG138</t>
-  </si>
-  <si>
-    <t>XTCHXTBCG10</t>
-  </si>
-  <si>
-    <t>XTCHXTBCH7</t>
-  </si>
-  <si>
-    <t>XTCHXTBCJ13</t>
-  </si>
-  <si>
-    <t>XTCHXTBCK7</t>
-  </si>
-  <si>
-    <t>XTCHXTBCL7</t>
-  </si>
-  <si>
-    <t>XTCHXTBCM13</t>
-  </si>
-  <si>
-    <t>XTCHXTBCN10</t>
-  </si>
-  <si>
-    <t>XTCHXTBLC12</t>
-  </si>
-  <si>
-    <t>XTCHXTBLD10</t>
-  </si>
-  <si>
-    <t>XTCHXTBLE9</t>
-  </si>
-  <si>
-    <t>XTCHXTBLF19</t>
-  </si>
-  <si>
-    <t>XTCHXTBLG10</t>
-  </si>
-  <si>
-    <t>XTCHXTBLM5</t>
-  </si>
-  <si>
-    <t>XTCHXTBLS1</t>
-  </si>
-  <si>
-    <t>XTCHXTBLS5</t>
-  </si>
-  <si>
-    <t>XTCHXTBMB9</t>
-  </si>
-  <si>
-    <t>XTCHXTBP1030</t>
-  </si>
-  <si>
-    <t>XTCHXTBP110</t>
-  </si>
-  <si>
-    <t>XTCHXTBP1310</t>
-  </si>
-  <si>
-    <t>XTCHXTBP511</t>
-  </si>
-  <si>
-    <t>XTCHXTBP70A</t>
-  </si>
-  <si>
-    <t>XTCHXTBP718</t>
-  </si>
-  <si>
-    <t>XTCHXTBP727FD</t>
-  </si>
-  <si>
-    <t>XTCHXTBP808</t>
-  </si>
-  <si>
-    <t>XTCHXTBP819</t>
-  </si>
-  <si>
-    <t>XTCHXTBP820</t>
-  </si>
-  <si>
-    <t>XTCHXTBP827</t>
-  </si>
-  <si>
-    <t>XTCHXTBP828</t>
-  </si>
-  <si>
-    <t>XTCHXTBP970G</t>
-  </si>
-  <si>
-    <t>XTCHXTCGRD54</t>
-  </si>
-  <si>
-    <t>XTCHXTENEL12</t>
-  </si>
-  <si>
-    <t>XTCHXTENEL14</t>
-  </si>
-  <si>
-    <t>XTCHXTENEL15</t>
-  </si>
-  <si>
-    <t>XTCHXTENEL19</t>
-  </si>
-  <si>
-    <t>XTCHXTENEL20</t>
-  </si>
-  <si>
-    <t>XTCHXTENEL21</t>
-  </si>
-  <si>
-    <t>XTCHXTENEL22</t>
-  </si>
-  <si>
-    <t>XTCHXTENEL3E</t>
-  </si>
-  <si>
-    <t>XTCHXTENEL5</t>
-  </si>
-  <si>
-    <t>XTCHXTENEL8</t>
-  </si>
-  <si>
-    <t>XTCHXTENEL9</t>
-  </si>
-  <si>
-    <t>XTCHXTGPH3</t>
-  </si>
-  <si>
-    <t>XTCHXTLI109</t>
-  </si>
-  <si>
-    <t>XTCHXTLI42B</t>
-  </si>
-  <si>
-    <t>XTCHXTLI50B</t>
-  </si>
-  <si>
-    <t>XTCHXTLI70B</t>
-  </si>
-  <si>
-    <t>XTCHXTLI90</t>
-  </si>
-  <si>
-    <t>XTCHXTLI90B</t>
-  </si>
-  <si>
-    <t>XTCHXTLPE10</t>
-  </si>
-  <si>
-    <t>XTCHXTLPE12</t>
-  </si>
-  <si>
-    <t>XTCHXTLPE5</t>
-  </si>
-  <si>
-    <t>XTCHXTLPE6</t>
-  </si>
-  <si>
-    <t>XTCHXTLPE8</t>
   </si>
   <si>
     <t>Batteries battery camera kamera camcorder dslr digital lithium lithium-ion charger rechargeable</t>
@@ -1094,7 +818,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +854,7 @@
         <v>138</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s">
         <v>139</v>
@@ -1158,11 +882,12 @@
       <c r="F2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="str">
+        <f>C2</f>
+        <v>XTCHBCF10</v>
+      </c>
+      <c r="H2" t="s">
         <v>141</v>
-      </c>
-      <c r="H2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1187,11 +912,12 @@
       <c r="F3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G3" t="s">
-        <v>142</v>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="3">C3</f>
+        <v>XTCHBP1130</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1216,11 +942,12 @@
       <c r="F4" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G4" t="s">
-        <v>143</v>
+      <c r="G4" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHENEL23</v>
       </c>
       <c r="H4" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1245,8 +972,9 @@
       <c r="F5" t="s">
         <v>102</v>
       </c>
-      <c r="G5" t="s">
-        <v>144</v>
+      <c r="G5" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNB10L</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1271,8 +999,9 @@
       <c r="F6" t="s">
         <v>103</v>
       </c>
-      <c r="G6" t="s">
-        <v>145</v>
+      <c r="G6" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNB11L</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,8 +1026,9 @@
       <c r="F7" t="s">
         <v>104</v>
       </c>
-      <c r="G7" t="s">
-        <v>146</v>
+      <c r="G7" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNB2LH</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,8 +1053,9 @@
       <c r="F8" t="s">
         <v>105</v>
       </c>
-      <c r="G8" t="s">
-        <v>147</v>
+      <c r="G8" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNB4L</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1349,8 +1080,9 @@
       <c r="F9" t="s">
         <v>106</v>
       </c>
-      <c r="G9" t="s">
-        <v>148</v>
+      <c r="G9" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNB5L</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1375,8 +1107,9 @@
       <c r="F10" t="s">
         <v>107</v>
       </c>
-      <c r="G10" t="s">
-        <v>149</v>
+      <c r="G10" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNB6L</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1401,8 +1134,9 @@
       <c r="F11" t="s">
         <v>108</v>
       </c>
-      <c r="G11" t="s">
-        <v>150</v>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNB7L</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,8 +1161,9 @@
       <c r="F12" t="s">
         <v>109</v>
       </c>
-      <c r="G12" t="s">
-        <v>151</v>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNB8L</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1453,8 +1188,9 @@
       <c r="F13" t="s">
         <v>110</v>
       </c>
-      <c r="G13" t="s">
-        <v>152</v>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNB9L</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,8 +1215,9 @@
       <c r="F14" t="s">
         <v>111</v>
       </c>
-      <c r="G14" t="s">
-        <v>153</v>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNP45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,8 +1242,9 @@
       <c r="F15" t="s">
         <v>112</v>
       </c>
-      <c r="G15" t="s">
-        <v>154</v>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNP48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1531,8 +1269,9 @@
       <c r="F16" t="s">
         <v>113</v>
       </c>
-      <c r="G16" t="s">
-        <v>155</v>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNP50</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1557,8 +1296,9 @@
       <c r="F17" t="s">
         <v>114</v>
       </c>
-      <c r="G17" t="s">
-        <v>156</v>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNP85</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1583,8 +1323,9 @@
       <c r="F18" t="s">
         <v>115</v>
       </c>
-      <c r="G18" t="s">
-        <v>157</v>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNP95</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1609,8 +1350,9 @@
       <c r="F19" t="s">
         <v>116</v>
       </c>
-      <c r="G19" t="s">
-        <v>158</v>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNPBG1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1635,8 +1377,9 @@
       <c r="F20" t="s">
         <v>117</v>
       </c>
-      <c r="G20" t="s">
-        <v>159</v>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNPBN1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1661,8 +1404,9 @@
       <c r="F21" t="s">
         <v>118</v>
       </c>
-      <c r="G21" t="s">
-        <v>160</v>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNPBX1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1687,8 +1431,9 @@
       <c r="F22" t="s">
         <v>119</v>
       </c>
-      <c r="G22" t="s">
-        <v>161</v>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNPF975</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1713,8 +1458,9 @@
       <c r="F23" t="s">
         <v>120</v>
       </c>
-      <c r="G23" t="s">
-        <v>162</v>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNPFH50</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1739,8 +1485,9 @@
       <c r="F24" t="s">
         <v>121</v>
       </c>
-      <c r="G24" t="s">
-        <v>163</v>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNPFM500H</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,8 +1512,9 @@
       <c r="F25" t="s">
         <v>122</v>
       </c>
-      <c r="G25" t="s">
-        <v>164</v>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNPFV100</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1791,8 +1539,9 @@
       <c r="F26" t="s">
         <v>123</v>
       </c>
-      <c r="G26" t="s">
-        <v>165</v>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNPFV50</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1817,8 +1566,9 @@
       <c r="F27" t="s">
         <v>124</v>
       </c>
-      <c r="G27" t="s">
-        <v>166</v>
+      <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNPFV70</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1843,8 +1593,9 @@
       <c r="F28" t="s">
         <v>125</v>
       </c>
-      <c r="G28" t="s">
-        <v>167</v>
+      <c r="G28" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNPFW50</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1869,8 +1620,9 @@
       <c r="F29" t="s">
         <v>126</v>
       </c>
-      <c r="G29" t="s">
-        <v>168</v>
+      <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNPW126</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1895,8 +1647,9 @@
       <c r="F30" t="s">
         <v>127</v>
       </c>
-      <c r="G30" t="s">
-        <v>169</v>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHSLB10A</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1921,8 +1674,9 @@
       <c r="F31" t="s">
         <v>128</v>
       </c>
-      <c r="G31" t="s">
-        <v>170</v>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVBG260</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1947,8 +1701,9 @@
       <c r="F32" t="s">
         <v>129</v>
       </c>
-      <c r="G32" t="s">
-        <v>171</v>
+      <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVBG6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1971,8 +1726,9 @@
       <c r="F33" t="s">
         <v>130</v>
       </c>
-      <c r="G33" t="s">
-        <v>172</v>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVBK180</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1997,8 +1753,9 @@
       <c r="F34" t="s">
         <v>131</v>
       </c>
-      <c r="G34" t="s">
-        <v>173</v>
+      <c r="G34" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVBK360</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2023,8 +1780,9 @@
       <c r="F35" t="s">
         <v>132</v>
       </c>
-      <c r="G35" t="s">
-        <v>174</v>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVBN130</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2049,8 +1807,9 @@
       <c r="F36" t="s">
         <v>133</v>
       </c>
-      <c r="G36" t="s">
-        <v>175</v>
+      <c r="G36" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVBN260</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2075,8 +1834,9 @@
       <c r="F37" t="s">
         <v>134</v>
       </c>
-      <c r="G37" t="s">
-        <v>176</v>
+      <c r="G37" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVF815</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,8 +1861,9 @@
       <c r="F38" t="s">
         <v>135</v>
       </c>
-      <c r="G38" t="s">
-        <v>177</v>
+      <c r="G38" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVF823</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2127,8 +1888,9 @@
       <c r="F39" t="s">
         <v>136</v>
       </c>
-      <c r="G39" t="s">
-        <v>178</v>
+      <c r="G39" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVG121</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2153,20 +1915,17 @@
       <c r="F40" t="s">
         <v>137</v>
       </c>
-      <c r="G40" t="s">
-        <v>179</v>
+      <c r="G40" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVG138</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C41" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBCG10</v>
-      </c>
       <c r="D41" t="str">
-        <f t="shared" ref="D41:D72" si="3">RIGHT(A41, LEN(A41)-2)</f>
+        <f t="shared" ref="D41:D72" si="4">RIGHT(A41, LEN(A41)-2)</f>
         <v>BCG10</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -2175,20 +1934,17 @@
       <c r="F41" t="s">
         <v>99</v>
       </c>
-      <c r="G41" t="s">
-        <v>180</v>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C42" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBCH7</v>
-      </c>
       <c r="D42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BCH7</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2197,20 +1953,17 @@
       <c r="F42" t="s">
         <v>100</v>
       </c>
-      <c r="G42" t="s">
-        <v>181</v>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C43" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBCJ13</v>
-      </c>
       <c r="D43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BCJ13</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -2219,20 +1972,17 @@
       <c r="F43" t="s">
         <v>101</v>
       </c>
-      <c r="G43" t="s">
-        <v>182</v>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C44" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBCK7</v>
-      </c>
       <c r="D44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BCK7</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2241,20 +1991,17 @@
       <c r="F44" t="s">
         <v>102</v>
       </c>
-      <c r="G44" t="s">
-        <v>183</v>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C45" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBCL7</v>
-      </c>
       <c r="D45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BCL7</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2263,20 +2010,17 @@
       <c r="F45" t="s">
         <v>103</v>
       </c>
-      <c r="G45" t="s">
-        <v>184</v>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C46" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBCM13</v>
-      </c>
       <c r="D46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BCM13</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2285,20 +2029,17 @@
       <c r="F46" t="s">
         <v>104</v>
       </c>
-      <c r="G46" t="s">
-        <v>185</v>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C47" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBCN10</v>
-      </c>
       <c r="D47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BCN10</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2307,20 +2048,17 @@
       <c r="F47" t="s">
         <v>105</v>
       </c>
-      <c r="G47" t="s">
-        <v>186</v>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C48" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBLC12</v>
-      </c>
       <c r="D48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BLC12</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -2329,20 +2067,17 @@
       <c r="F48" t="s">
         <v>106</v>
       </c>
-      <c r="G48" t="s">
-        <v>187</v>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C49" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBLD10</v>
-      </c>
       <c r="D49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BLD10</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -2351,20 +2086,17 @@
       <c r="F49" t="s">
         <v>107</v>
       </c>
-      <c r="G49" t="s">
-        <v>188</v>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C50" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBLE9</v>
-      </c>
       <c r="D50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BLE9</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -2373,20 +2105,17 @@
       <c r="F50" t="s">
         <v>108</v>
       </c>
-      <c r="G50" t="s">
-        <v>189</v>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C51" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBLF19</v>
-      </c>
       <c r="D51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BLF19</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -2395,20 +2124,17 @@
       <c r="F51" t="s">
         <v>109</v>
       </c>
-      <c r="G51" t="s">
-        <v>190</v>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C52" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBLG10</v>
-      </c>
       <c r="D52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BLG10</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -2417,20 +2143,17 @@
       <c r="F52" t="s">
         <v>110</v>
       </c>
-      <c r="G52" t="s">
-        <v>191</v>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C53" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBLM5</v>
-      </c>
       <c r="D53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BLM5</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -2439,20 +2162,17 @@
       <c r="F53" t="s">
         <v>111</v>
       </c>
-      <c r="G53" t="s">
-        <v>192</v>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C54" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBLS1</v>
-      </c>
       <c r="D54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BLS1</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -2461,20 +2181,17 @@
       <c r="F54" t="s">
         <v>112</v>
       </c>
-      <c r="G54" t="s">
-        <v>193</v>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C55" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBLS5</v>
-      </c>
       <c r="D55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BLS5</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -2483,40 +2200,34 @@
       <c r="F55" t="s">
         <v>113</v>
       </c>
-      <c r="G55" t="s">
-        <v>194</v>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C56" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBMB9</v>
-      </c>
       <c r="D56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BMB9</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" t="s">
         <v>114</v>
       </c>
-      <c r="G56" t="s">
-        <v>195</v>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C57" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBP1030</v>
-      </c>
       <c r="D57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BP1030</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -2525,20 +2236,17 @@
       <c r="F57" t="s">
         <v>115</v>
       </c>
-      <c r="G57" t="s">
-        <v>196</v>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C58" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBP110</v>
-      </c>
       <c r="D58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BP110</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -2547,20 +2255,17 @@
       <c r="F58" t="s">
         <v>116</v>
       </c>
-      <c r="G58" t="s">
-        <v>197</v>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C59" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBP1310</v>
-      </c>
       <c r="D59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BP1310</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -2569,20 +2274,17 @@
       <c r="F59" t="s">
         <v>117</v>
       </c>
-      <c r="G59" t="s">
-        <v>198</v>
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C60" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBP511</v>
-      </c>
       <c r="D60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BP511</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -2591,20 +2293,17 @@
       <c r="F60" t="s">
         <v>118</v>
       </c>
-      <c r="G60" t="s">
-        <v>199</v>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C61" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBP70A</v>
-      </c>
       <c r="D61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BP70A</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -2613,20 +2312,17 @@
       <c r="F61" t="s">
         <v>119</v>
       </c>
-      <c r="G61" t="s">
-        <v>200</v>
+      <c r="G61">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C62" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBP718</v>
-      </c>
       <c r="D62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BP718</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -2635,20 +2331,17 @@
       <c r="F62" t="s">
         <v>120</v>
       </c>
-      <c r="G62" t="s">
-        <v>201</v>
+      <c r="G62">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C63" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBP727FD</v>
-      </c>
       <c r="D63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BP727FD</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -2657,20 +2350,17 @@
       <c r="F63" t="s">
         <v>121</v>
       </c>
-      <c r="G63" t="s">
-        <v>202</v>
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C64" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBP808</v>
-      </c>
       <c r="D64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BP808</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -2679,20 +2369,17 @@
       <c r="F64" t="s">
         <v>122</v>
       </c>
-      <c r="G64" t="s">
-        <v>203</v>
+      <c r="G64">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C65" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBP819</v>
-      </c>
       <c r="D65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BP819</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -2701,20 +2388,17 @@
       <c r="F65" t="s">
         <v>123</v>
       </c>
-      <c r="G65" t="s">
-        <v>204</v>
+      <c r="G65">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C66" t="str">
-        <f t="shared" si="2"/>
-        <v>XTCHXTBP820</v>
-      </c>
       <c r="D66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BP820</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -2723,20 +2407,17 @@
       <c r="F66" t="s">
         <v>124</v>
       </c>
-      <c r="G66" t="s">
-        <v>205</v>
+      <c r="G66">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C67" t="str">
-        <f t="shared" ref="C67:C93" si="4">"XTCH"&amp;A67</f>
-        <v>XTCHXTBP827</v>
-      </c>
       <c r="D67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BP827</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -2745,20 +2426,17 @@
       <c r="F67" t="s">
         <v>125</v>
       </c>
-      <c r="G67" t="s">
-        <v>206</v>
+      <c r="G67">
+        <f t="shared" ref="G67:G93" si="5">C67</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C68" t="str">
+      <c r="D68" t="str">
         <f t="shared" si="4"/>
-        <v>XTCHXTBP828</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" si="3"/>
         <v>BP828</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -2767,20 +2445,17 @@
       <c r="F68" t="s">
         <v>126</v>
       </c>
-      <c r="G68" t="s">
-        <v>207</v>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C69" t="str">
+      <c r="D69" t="str">
         <f t="shared" si="4"/>
-        <v>XTCHXTBP970G</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="3"/>
         <v>BP970G</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -2789,20 +2464,17 @@
       <c r="F69" t="s">
         <v>127</v>
       </c>
-      <c r="G69" t="s">
-        <v>208</v>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C70" t="str">
+      <c r="D70" t="str">
         <f t="shared" si="4"/>
-        <v>XTCHXTCGRD54</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" si="3"/>
         <v>CGRD54</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -2811,20 +2483,17 @@
       <c r="F70" t="s">
         <v>128</v>
       </c>
-      <c r="G70" t="s">
-        <v>209</v>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C71" t="str">
+      <c r="D71" t="str">
         <f t="shared" si="4"/>
-        <v>XTCHXTENEL12</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="3"/>
         <v>ENEL12</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -2833,20 +2502,17 @@
       <c r="F71" t="s">
         <v>129</v>
       </c>
-      <c r="G71" t="s">
-        <v>210</v>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C72" t="str">
+      <c r="D72" t="str">
         <f t="shared" si="4"/>
-        <v>XTCHXTENEL14</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="3"/>
         <v>ENEL14</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -2855,20 +2521,17 @@
       <c r="F72" t="s">
         <v>130</v>
       </c>
-      <c r="G72" t="s">
-        <v>211</v>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C73" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTENEL15</v>
-      </c>
       <c r="D73" t="str">
-        <f t="shared" ref="D73:D93" si="5">RIGHT(A73, LEN(A73)-2)</f>
+        <f t="shared" ref="D73:D93" si="6">RIGHT(A73, LEN(A73)-2)</f>
         <v>ENEL15</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -2877,20 +2540,17 @@
       <c r="F73" t="s">
         <v>131</v>
       </c>
-      <c r="G73" t="s">
-        <v>212</v>
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C74" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTENEL19</v>
-      </c>
       <c r="D74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ENEL19</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -2899,20 +2559,17 @@
       <c r="F74" t="s">
         <v>132</v>
       </c>
-      <c r="G74" t="s">
-        <v>213</v>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C75" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTENEL20</v>
-      </c>
       <c r="D75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ENEL20</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -2921,20 +2578,17 @@
       <c r="F75" t="s">
         <v>133</v>
       </c>
-      <c r="G75" t="s">
-        <v>214</v>
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C76" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTENEL21</v>
-      </c>
       <c r="D76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ENEL21</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -2943,20 +2597,17 @@
       <c r="F76" t="s">
         <v>134</v>
       </c>
-      <c r="G76" t="s">
-        <v>215</v>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C77" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTENEL22</v>
-      </c>
       <c r="D77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ENEL22</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -2965,20 +2616,17 @@
       <c r="F77" t="s">
         <v>135</v>
       </c>
-      <c r="G77" t="s">
-        <v>216</v>
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C78" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTENEL3E</v>
-      </c>
       <c r="D78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ENEL3E</v>
       </c>
       <c r="E78" s="4" t="s">
@@ -2987,20 +2635,17 @@
       <c r="F78" t="s">
         <v>136</v>
       </c>
-      <c r="G78" t="s">
-        <v>217</v>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C79" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTENEL5</v>
-      </c>
       <c r="D79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ENEL5</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -3009,20 +2654,17 @@
       <c r="F79" t="s">
         <v>137</v>
       </c>
-      <c r="G79" t="s">
-        <v>218</v>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C80" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTENEL8</v>
-      </c>
       <c r="D80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ENEL8</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -3031,20 +2673,17 @@
       <c r="F80" t="s">
         <v>66</v>
       </c>
-      <c r="G80" t="s">
-        <v>219</v>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C81" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTENEL9</v>
-      </c>
       <c r="D81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ENEL9</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -3053,20 +2692,17 @@
       <c r="F81" t="s">
         <v>96</v>
       </c>
-      <c r="G81" t="s">
-        <v>220</v>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C82" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTGPH3</v>
-      </c>
       <c r="D82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>GPH3</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -3075,20 +2711,17 @@
       <c r="F82" t="s">
         <v>73</v>
       </c>
-      <c r="G82" t="s">
-        <v>221</v>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C83" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTLI109</v>
-      </c>
       <c r="D83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>LI109</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -3097,20 +2730,17 @@
       <c r="F83" t="s">
         <v>79</v>
       </c>
-      <c r="G83" t="s">
-        <v>222</v>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C84" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTLI42B</v>
-      </c>
       <c r="D84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>LI42B</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -3119,20 +2749,17 @@
       <c r="F84" t="s">
         <v>74</v>
       </c>
-      <c r="G84" t="s">
-        <v>223</v>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C85" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTLI50B</v>
-      </c>
       <c r="D85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>LI50B</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -3141,20 +2768,17 @@
       <c r="F85" t="s">
         <v>75</v>
       </c>
-      <c r="G85" t="s">
-        <v>224</v>
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C86" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTLI70B</v>
-      </c>
       <c r="D86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>LI70B</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -3163,20 +2787,17 @@
       <c r="F86" t="s">
         <v>76</v>
       </c>
-      <c r="G86" t="s">
-        <v>225</v>
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C87" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTLI90</v>
-      </c>
       <c r="D87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>LI90</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -3185,20 +2806,17 @@
       <c r="F87" t="s">
         <v>77</v>
       </c>
-      <c r="G87" t="s">
-        <v>226</v>
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C88" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTLI90B</v>
-      </c>
       <c r="D88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>LI90B</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -3207,20 +2825,17 @@
       <c r="F88" t="s">
         <v>78</v>
       </c>
-      <c r="G88" t="s">
-        <v>227</v>
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C89" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTLPE10</v>
-      </c>
       <c r="D89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>LPE10</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -3229,20 +2844,17 @@
       <c r="F89" t="s">
         <v>82</v>
       </c>
-      <c r="G89" t="s">
-        <v>228</v>
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C90" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTLPE12</v>
-      </c>
       <c r="D90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>LPE12</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -3251,20 +2863,17 @@
       <c r="F90" t="s">
         <v>83</v>
       </c>
-      <c r="G90" t="s">
-        <v>229</v>
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C91" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTLPE5</v>
-      </c>
       <c r="D91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>LPE5</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -3273,20 +2882,17 @@
       <c r="F91" t="s">
         <v>93</v>
       </c>
-      <c r="G91" t="s">
-        <v>230</v>
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C92" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTLPE6</v>
-      </c>
       <c r="D92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>LPE6</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -3295,20 +2901,17 @@
       <c r="F92" t="s">
         <v>80</v>
       </c>
-      <c r="G92" t="s">
-        <v>231</v>
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C93" t="str">
-        <f t="shared" si="4"/>
-        <v>XTCHXTLPE8</v>
-      </c>
       <c r="D93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>LPE8</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -3317,8 +2920,9 @@
       <c r="F93" t="s">
         <v>81</v>
       </c>
-      <c r="G93" t="s">
-        <v>232</v>
+      <c r="G93">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3344,13 +2948,480 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="12195" windowHeight="9510"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="12195" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="157">
   <si>
     <t>NPF975</t>
   </si>
@@ -445,6 +445,48 @@
   </si>
   <si>
     <t>(with chargers)</t>
+  </si>
+  <si>
+    <t>ENEL8</t>
+  </si>
+  <si>
+    <t>ENEL9</t>
+  </si>
+  <si>
+    <t>GPH3</t>
+  </si>
+  <si>
+    <t>LI109</t>
+  </si>
+  <si>
+    <t>LI42B</t>
+  </si>
+  <si>
+    <t>LI50B</t>
+  </si>
+  <si>
+    <t>LI70B</t>
+  </si>
+  <si>
+    <t>LI90</t>
+  </si>
+  <si>
+    <t>LI90B</t>
+  </si>
+  <si>
+    <t>LPE10</t>
+  </si>
+  <si>
+    <t>LPE12</t>
+  </si>
+  <si>
+    <t>LPE5</t>
+  </si>
+  <si>
+    <t>LPE6</t>
+  </si>
+  <si>
+    <t>LPE8</t>
   </si>
 </sst>
 </file>
@@ -468,12 +510,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -503,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -513,6 +573,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,9 +880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,475 +3012,1121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A92"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="10" t="str">
+        <f>RIGHT(A1, LEN(A1)-2)</f>
+        <v>BCF10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="10" t="str">
+        <f t="shared" ref="B2:B65" si="0">RIGHT(A2, LEN(A2)-2)</f>
+        <v>BP1130</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>ENEL23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB10L</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB11L</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB2LH</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB4L</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB5L</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB6L</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB7L</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB8L</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB9L</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NP45</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NP48</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NP50</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NP85</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NP95</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPBG1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPBN1</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPBX1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPF975</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPFH50</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPFM500H</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPFV100</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPFV50</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPFV70</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPFW50</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPW126</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>SLB10A</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VBG260</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VBG6</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VBK180</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VBK360</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VBN130</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VBN260</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VF815</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VF823</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B38" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VG121</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VG138</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>BCF10</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>BP1130</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>ENEL23</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB10L</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB11L</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B45" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB2LH</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB4L</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B47" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB5L</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B48" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB6L</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B49" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB7L</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B50" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB8L</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B51" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NB9L</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B52" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NP45</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B53" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NP48</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B54" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NP50</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B55" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NP85</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B56" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NP95</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B57" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPBG1</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B58" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPBN1</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B59" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPBX1</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B60" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPF975</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B61" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPFH50</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B62" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPFM500H</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B63" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPFV100</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B64" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPFV50</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B65" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NPFV70</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B66" s="10" t="str">
+        <f t="shared" ref="B66:B92" si="1">RIGHT(A66, LEN(A66)-2)</f>
+        <v>NPFW50</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B67" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>NPW126</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B68" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>SLB10A</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B69" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>VBG260</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B70" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>VBG6</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B71" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>VBK180</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B72" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>VBK360</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B73" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>VBN130</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B74" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>VBN260</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B75" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>VF815</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B76" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>VF823</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B77" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>VG121</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B78" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>VG138</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B79" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>ENEL8</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B80" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>ENEL9</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B81" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>GPH3</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B82" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>LI109</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B83" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>LI42B</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B84" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>LI50B</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B85" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>LI70B</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B86" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>LI90</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B87" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>LI90B</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B88" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>LPE10</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B89" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>LPE12</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B90" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>LPE5</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B91" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>LPE6</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>81</v>
+      </c>
+      <c r="B92" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>LPE8</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="161">
   <si>
     <t>NPF975</t>
   </si>
@@ -487,13 +487,25 @@
   </si>
   <si>
     <t>LPE8</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Paste these</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original </t>
+  </si>
+  <si>
+    <t>With CH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,8 +521,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +552,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -577,6 +603,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,8 +915,8 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D93"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,1120 +3046,1514 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="2" max="2" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="10" t="str">
-        <f>RIGHT(A1, LEN(A1)-2)</f>
+      <c r="B2" s="10" t="str">
+        <f>RIGHT(A2, LEN(A2)-2)</f>
         <v>BCF10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="15" t="str">
+        <f>"XTCH"&amp;B2</f>
+        <v>XTCHBCF10</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="10" t="str">
-        <f t="shared" ref="B2:B65" si="0">RIGHT(A2, LEN(A2)-2)</f>
+      <c r="B3" s="10" t="str">
+        <f t="shared" ref="B3:B66" si="0">RIGHT(A3, LEN(A3)-2)</f>
         <v>BP1130</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="15" t="str">
+        <f t="shared" ref="C3:C66" si="1">"XTCH"&amp;B3</f>
+        <v>XTCHBP1130</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>ENEL23</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHENEL23</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB10L</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB10L</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB11L</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB11L</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB2LH</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB2LH</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB4L</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB4L</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB5L</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB5L</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB6L</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB6L</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB7L</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB7L</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB8L</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB8L</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="10" t="str">
+      <c r="B13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB9L</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB9L</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NP45</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNP45</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="10" t="str">
+      <c r="B15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NP48</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNP48</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NP50</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNP50</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NP85</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNP85</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NP95</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNP95</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="10" t="str">
+      <c r="B19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPBG1</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPBG1</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPBN1</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPBN1</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPBX1</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPBX1</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPF975</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="C22" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPF975</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="10" t="str">
+      <c r="B23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPFH50</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPFH50</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="10" t="str">
+      <c r="B24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPFM500H</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPFM500H</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="10" t="str">
+      <c r="B25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPFV100</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPFV100</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="10" t="str">
+      <c r="B26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPFV50</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPFV50</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="10" t="str">
+      <c r="B27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPFV70</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPFV70</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="10" t="str">
+      <c r="B28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPFW50</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPFW50</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="10" t="str">
+      <c r="B29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPW126</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPW126</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="10" t="str">
+      <c r="B30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>SLB10A</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHSLB10A</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="10" t="str">
+      <c r="B31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VBG260</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHVBG260</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="10" t="str">
+      <c r="B32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VBG6</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHVBG6</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="10" t="str">
+      <c r="B33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VBK180</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHVBK180</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="10" t="str">
+      <c r="B34" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VBK360</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHVBK360</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="10" t="str">
+      <c r="B35" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VBN130</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHVBN130</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="10" t="str">
+      <c r="B36" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VBN260</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHVBN260</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="10" t="str">
+      <c r="B37" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VF815</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHVF815</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="10" t="str">
+      <c r="B38" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VF823</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHVF823</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="10" t="str">
+      <c r="B39" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VG121</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHVG121</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="10" t="str">
+      <c r="B40" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VG138</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHVG138</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="10" t="str">
+      <c r="B41" s="10" t="str">
         <f t="shared" si="0"/>
         <v>BCF10</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHBCF10</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="10" t="str">
+      <c r="B42" s="10" t="str">
         <f t="shared" si="0"/>
         <v>BP1130</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHBP1130</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B43" s="10" t="str">
         <f t="shared" si="0"/>
         <v>ENEL23</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHENEL23</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="10" t="str">
+      <c r="B44" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB10L</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB10L</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="10" t="str">
+      <c r="B45" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB11L</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB11L</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="10" t="str">
+      <c r="B46" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB2LH</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB2LH</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="10" t="str">
+      <c r="B47" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB4L</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB4L</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="10" t="str">
+      <c r="B48" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB5L</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB5L</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="10" t="str">
+      <c r="B49" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB6L</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB6L</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="10" t="str">
+      <c r="B50" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB7L</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB7L</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="10" t="str">
+      <c r="B51" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB8L</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB8L</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="10" t="str">
+      <c r="B52" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NB9L</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNB9L</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="10" t="str">
+      <c r="B53" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NP45</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNP45</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="10" t="str">
+      <c r="B54" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NP48</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNP48</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="10" t="str">
+      <c r="B55" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NP50</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNP50</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="10" t="str">
+      <c r="B56" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NP85</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNP85</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="10" t="str">
+      <c r="B57" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NP95</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNP95</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="10" t="str">
+      <c r="B58" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPBG1</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPBG1</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="10" t="str">
+      <c r="B59" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPBN1</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPBN1</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="10" t="str">
+      <c r="B60" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPBX1</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPBX1</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="10" t="str">
+      <c r="B61" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPF975</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="C61" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPF975</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="10" t="str">
+      <c r="B62" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPFH50</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPFH50</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="10" t="str">
+      <c r="B63" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPFM500H</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPFM500H</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="10" t="str">
+      <c r="B64" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPFV100</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPFV100</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="10" t="str">
+      <c r="B65" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPFV50</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPFV50</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="10" t="str">
+      <c r="B66" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NPFV70</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>XTCHNPFV70</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="10" t="str">
-        <f t="shared" ref="B66:B92" si="1">RIGHT(A66, LEN(A66)-2)</f>
+      <c r="B67" s="10" t="str">
+        <f t="shared" ref="B67:B93" si="2">RIGHT(A67, LEN(A67)-2)</f>
         <v>NPFW50</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="15" t="str">
+        <f t="shared" ref="C67:C93" si="3">"XTCH"&amp;B67</f>
+        <v>XTCHNPFW50</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B68" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>NPW126</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C68" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHNPW126</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B69" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>SLB10A</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHSLB10A</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B70" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>VBG260</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVBG260</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B71" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>VBG6</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVBG6</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B72" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>VBK180</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVBK180</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B73" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>VBK360</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVBK360</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B73" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B74" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>VBN130</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVBN130</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B75" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>VBN260</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVBN260</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B76" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>VF815</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVF815</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B77" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>VF823</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVF823</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B78" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>VG121</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVG121</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B78" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B79" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>VG138</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHVG138</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B80" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>ENEL8</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHENEL8</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B81" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>ENEL9</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHENEL9</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B82" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>GPH3</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHGPH3</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B83" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>LI109</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHLI109</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B84" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>LI42B</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C84" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHLI42B</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B85" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>LI50B</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHLI50B</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B86" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>LI70B</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHLI70B</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B87" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>LI90</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHLI90</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B87" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B88" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>LI90B</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHLI90B</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B89" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>LPE10</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHLPE10</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B90" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>LPE12</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHLPE12</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B91" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>LPE5</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHLPE5</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B91" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B92" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>LPE6</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHLPE6</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B93" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>LPE8</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>XTCHLPE8</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>156</v>
       </c>
     </row>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="162">
   <si>
     <t>NPF975</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>With CH</t>
+  </si>
+  <si>
+    <t>Main Keywords</t>
   </si>
 </sst>
 </file>
@@ -915,8 +918,8 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3052,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,7 +3062,7 @@
     <col min="3" max="3" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -3081,7 +3084,9 @@
       <c r="E1" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="18" t="s">
+        <v>161</v>
+      </c>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
@@ -3099,6 +3104,9 @@
       </c>
       <c r="D2" s="7" t="s">
         <v>90</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -7,8 +7,8 @@
     <workbookView xWindow="360" yWindow="345" windowWidth="12195" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Original Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Good Looks" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="163">
   <si>
     <t>NPF975</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Main Keywords</t>
+  </si>
+  <si>
+    <t>DMC-F2 DMCF2 F2 DMC-F3 DMCF3 F3 DMC-FH1 DMCFH1 FH1 DMC-FH20 DMCFH20 FH20 DMC-FH22 DMCFH22 FH22 DMC-FH3 DMCFH3 FH3 DMC-FP8 DMCFP8 FP8 DMC-FS10 DMCFS10 FS10 DMC-FS11 DMCFS11 FS11 DMC-FS12 DMCFS12 FS12 DMC-FS15 DMCFS15 FS15 DMC-FS25 DMCFS25 FS25 DMC-FS30 DMCFS30 FS30 DMC-FS33 DMCFS33 FS33 DMC-FS4 DMCFS4 FS4 DMC-FS42 DMCFS42 FS42 DMC-FS6 DMCFS6 FS6 DMC-FS62 DMCFS62 FS62 DMC-FS7 DMCFS7 FS7 DMC-FS8 DMCFS8 FS8 DMC-FT1 DMCFT1 FT1 DMC-FT2 DMCFT2 FT2 DMC-FT3 DMCFT3 FT3 DMC-FT4 DMCFT4 FT4 DMC-FX25 DMCFX25 FX25 DMC-FX40 DMCFX40 FX40 DMC-FX48 DMCFX48 FX48 DMC-FX550 DMCFX550 FX550 DMC-FX580 DMCFX580 FX580 DMC-FX60 DMCFX60 FX60 DMC-FX65 DMCFX65 FX65 DMC-FX66 DMCFX66 FX66 DMC-FX68 DMCFX68 FX68 DMC-FX70 DMCFX70 FX70 DMC-FX75 DMCFX75 FX75 DMC-FX700 DMCFX700 FX700 DMC-TS1 DMCTS1 TS1 DMC-TS2 DMCTS2 TS2 DMC-TS3 DMCTS3 TS3 DMC-TS4 DMCTS4 TS4 DMC-F2K DMCF2K F2K DMC-F2P DMCF2P F2P DMC-F2S DMCF2S F2S DMC-FP8S DMCFP8S FP8S DMC-FP8K DMCFP8K FP8K DMC-FP8R DMCFP8R FP8R DMC-FH1A DMCFH1A FH1A DMC-FH1K DMCFH1K FH1K DMC-FH1P DMCFH1P FH1P DMC-FH1S DMCFH1S FH1S DMC-FH3A DMCFH3A FH3A DMC-FH3K DMCFH3K FH3K DMC-FH3P DMCFH3P FH3P DMC-FH3S DMCFH3S FH3S DMC-FH3R DMCFH3R FH3R DMC-FH3K DMCFH3K FH3K DMC-FH20A DMCFH20A FH20A DMC-FH20K DMCFH20K FH20K DMC-FH20R DMCFH20R FH20R DMC-FH20S DMCFH20S FH20S DMC-FH20V DMCFH20V FH20V DMC-FS12A DMCFS12A FS12A DMC-FS12G DMCFS12G FS12G DMC-FS12K DMCFS12K FS12K DMC-FS12P DMCFS12P FS12P DMC-FS12S DMCFS12S FS12S DMC-FS15A DMCFS15A FS15A DMC-FS15K DMCFS15K FS15K DMC-FS15S DMCFS15S FS15S DMC-FS25K DMCFS25K FS25K DMC-FS25N DMCFS25N FS25N DMC-FS25S DMCFS25S FS25S DMC-FS4K DMCFS4K FS4K DMC-FS42K DMCFS42K FS42K DMC-FS42P DMCFS42P FS42P DMC-FS42S DMCFS42S FS42S DMC-FS62A DMCFS62A FS62A DMC-FS62K DMCFS62K FS62K DMC-FS62P DMCFS62P FS62P DMC-FS62R DMCFS62R FS62R DMC-FS62S DMCFS62S FS62S DMC-FS8S DMCFS8S FS8S DMC-FS7A DMCFS7A FS7A DMC-FS7G DMCFS7G FS7G DMC-FS7K DMCFS7K FS7K DMC-FS7P DMCFS7P FS7P DMC-FS7S DMCFS7S FS7S DMC-FX48K DMCFX48K FX48K DMC-FX48S DMCFX48S FX48S DMC-FX580K DMCFX580K FX580K DMC-FX580S DMCFX580S FX580S DMC-FX75K DMCFX75K FX75K DMC-FX75S DMCFX75S FX75S DMC-TS2A DMCTS2A TS2A DMC-TS2D DMCTS2D TS2D DMC-TS2S DMCTS2S TS2S DMC-TS2Y DMCTS2Y TS2Y DMC-TS1D DMCTS1D TS1D DMC-TS1G DMCTS1G TS1G DMC-TS1S DMCTS1S TS1S</t>
   </si>
 </sst>
 </file>
@@ -3051,8 +3054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,7 +3064,7 @@
     <col min="2" max="2" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="16" bestFit="1" customWidth="1"/>
@@ -3104,6 +3107,9 @@
       </c>
       <c r="D2" s="7" t="s">
         <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>162</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>141</v>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="171">
   <si>
     <t>NPF975</t>
   </si>
@@ -498,20 +498,44 @@
     <t xml:space="preserve">Original </t>
   </si>
   <si>
-    <t>With CH</t>
-  </si>
-  <si>
     <t>Main Keywords</t>
   </si>
   <si>
     <t>DMC-F2 DMCF2 F2 DMC-F3 DMCF3 F3 DMC-FH1 DMCFH1 FH1 DMC-FH20 DMCFH20 FH20 DMC-FH22 DMCFH22 FH22 DMC-FH3 DMCFH3 FH3 DMC-FP8 DMCFP8 FP8 DMC-FS10 DMCFS10 FS10 DMC-FS11 DMCFS11 FS11 DMC-FS12 DMCFS12 FS12 DMC-FS15 DMCFS15 FS15 DMC-FS25 DMCFS25 FS25 DMC-FS30 DMCFS30 FS30 DMC-FS33 DMCFS33 FS33 DMC-FS4 DMCFS4 FS4 DMC-FS42 DMCFS42 FS42 DMC-FS6 DMCFS6 FS6 DMC-FS62 DMCFS62 FS62 DMC-FS7 DMCFS7 FS7 DMC-FS8 DMCFS8 FS8 DMC-FT1 DMCFT1 FT1 DMC-FT2 DMCFT2 FT2 DMC-FT3 DMCFT3 FT3 DMC-FT4 DMCFT4 FT4 DMC-FX25 DMCFX25 FX25 DMC-FX40 DMCFX40 FX40 DMC-FX48 DMCFX48 FX48 DMC-FX550 DMCFX550 FX550 DMC-FX580 DMCFX580 FX580 DMC-FX60 DMCFX60 FX60 DMC-FX65 DMCFX65 FX65 DMC-FX66 DMCFX66 FX66 DMC-FX68 DMCFX68 FX68 DMC-FX70 DMCFX70 FX70 DMC-FX75 DMCFX75 FX75 DMC-FX700 DMCFX700 FX700 DMC-TS1 DMCTS1 TS1 DMC-TS2 DMCTS2 TS2 DMC-TS3 DMCTS3 TS3 DMC-TS4 DMCTS4 TS4 DMC-F2K DMCF2K F2K DMC-F2P DMCF2P F2P DMC-F2S DMCF2S F2S DMC-FP8S DMCFP8S FP8S DMC-FP8K DMCFP8K FP8K DMC-FP8R DMCFP8R FP8R DMC-FH1A DMCFH1A FH1A DMC-FH1K DMCFH1K FH1K DMC-FH1P DMCFH1P FH1P DMC-FH1S DMCFH1S FH1S DMC-FH3A DMCFH3A FH3A DMC-FH3K DMCFH3K FH3K DMC-FH3P DMCFH3P FH3P DMC-FH3S DMCFH3S FH3S DMC-FH3R DMCFH3R FH3R DMC-FH3K DMCFH3K FH3K DMC-FH20A DMCFH20A FH20A DMC-FH20K DMCFH20K FH20K DMC-FH20R DMCFH20R FH20R DMC-FH20S DMCFH20S FH20S DMC-FH20V DMCFH20V FH20V DMC-FS12A DMCFS12A FS12A DMC-FS12G DMCFS12G FS12G DMC-FS12K DMCFS12K FS12K DMC-FS12P DMCFS12P FS12P DMC-FS12S DMCFS12S FS12S DMC-FS15A DMCFS15A FS15A DMC-FS15K DMCFS15K FS15K DMC-FS15S DMCFS15S FS15S DMC-FS25K DMCFS25K FS25K DMC-FS25N DMCFS25N FS25N DMC-FS25S DMCFS25S FS25S DMC-FS4K DMCFS4K FS4K DMC-FS42K DMCFS42K FS42K DMC-FS42P DMCFS42P FS42P DMC-FS42S DMCFS42S FS42S DMC-FS62A DMCFS62A FS62A DMC-FS62K DMCFS62K FS62K DMC-FS62P DMCFS62P FS62P DMC-FS62R DMCFS62R FS62R DMC-FS62S DMCFS62S FS62S DMC-FS8S DMCFS8S FS8S DMC-FS7A DMCFS7A FS7A DMC-FS7G DMCFS7G FS7G DMC-FS7K DMCFS7K FS7K DMC-FS7P DMCFS7P FS7P DMC-FS7S DMCFS7S FS7S DMC-FX48K DMCFX48K FX48K DMC-FX48S DMCFX48S FX48S DMC-FX580K DMCFX580K FX580K DMC-FX580S DMCFX580S FX580S DMC-FX75K DMCFX75K FX75K DMC-FX75S DMCFX75S FX75S DMC-TS2A DMCTS2A TS2A DMC-TS2D DMCTS2D TS2D DMC-TS2S DMCTS2S TS2S DMC-TS2Y DMCTS2Y TS2Y DMC-TS1D DMCTS1D TS1D DMC-TS1G DMCTS1G TS1G DMC-TS1S DMCTS1S TS1S</t>
+  </si>
+  <si>
+    <t>DMW-BCF10 / CGA-S/106B is the best replacement for the following OEM battery part numbers: Panasonic DMW-BCF10, DMWBCF10, DMW-BCF10PP, DMWBCF10PP, DMW-BCF10E, DMWBCF10E, CGA-S106B, CGA-S106, CGA-S/106C, CGAS106, CGA-S/106B</t>
+  </si>
+  <si>
+    <t>More keywords</t>
+  </si>
+  <si>
+    <t>Rm'ed XT</t>
+  </si>
+  <si>
+    <t>XT+CH</t>
+  </si>
+  <si>
+    <t>Samsung NX-300 NX300 NX-500 NX500 NX-2000 NX2000</t>
+  </si>
+  <si>
+    <t>ED-BP1130 EDBP1130 BP1130</t>
+  </si>
+  <si>
+    <t>NIKON COOLPIX B700 B700 COOLPIX P600 P600 COOLPIX P610 P610 COOLPIX P900 P900 COOLPIX S810c S810c EN-EL23 ENEL23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Powershot SX40 HS SX40HS  Powershot SX50 HS SX50HS  Powershot SX60 HS SX60HS  Powershot G1 X  G1X  Powershot G3 X  G3X  Powershot G15  G15  Powershot G16  G16</t>
+  </si>
+  <si>
+    <t>Canon NB10L Canon NB-10L Canon 5668B001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,19 +553,40 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -568,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -591,11 +636,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -605,21 +666,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3055,31 +3118,31 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="88.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>158</v>
@@ -3087,11 +3150,12 @@
       <c r="E1" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -3109,9 +3173,12 @@
         <v>90</v>
       </c>
       <c r="E2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3130,6 +3197,12 @@
       <c r="D3" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="E3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3146,6 +3219,9 @@
       <c r="D4" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="E4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -3161,6 +3237,12 @@
       </c>
       <c r="D5" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="172">
   <si>
     <t>NPF975</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>Canon NB10L Canon NB-10L Canon 5668B001</t>
+  </si>
+  <si>
+    <t>PowerShot ELPH 110 HS 110 HS ELPH 110 HS PowerShot 110 HS PowerShot ELPH 115 IS 115 IS ELPH 115 IS PowerShot 115 PowerShot ELPH 130 IS ELPH 130 IS PowerShot 130 IS PowerShot ELPH 135 ELPH 135 PowerShot 135 PowerShot ELPH 140 IS ELPH 140 IS PowerShot 140 IS PowerShot ELPH 150 IS ELPH 150 IS PowerShot 150 IS PowerShot ELPH 160 ELPH 160 PowerShot 160 PowerShot ELPH 170 IS ELPH 170 IS PowerShot 170 IS PowerShot ELPH 320 HS 320 HS ELPH 320 HS PowerShot 320 HS PowerShot ELPH 340 HS 340 HS ELPH 340 HS PowerShot 340 HS PowerShot ELPH 350 HS 350 HS ELPH 350 HS PowerShot 350 HS IXUS 240 HS 240 HS 240HS PowerShot A2300 A2300 PowerShot A2400 IS A2400 IS A2400 PowerShot A2500 A2500 PowerShot A2600 A2600 PowerShot A3400 IS A3400 IS A3400 PowerShot A3500 IS A3500 IS A3500 PowerShot A4000 IS A4000 IS A4000 IS A4000 PowerShot SX400 IS SX400 IS SX400 IS SX400 PowerShot SX410 IS SX410 IS SX410 IS SX410 NB11L NB-11L NB-11LH NB11LH</t>
   </si>
 </sst>
 </file>
@@ -3118,7 +3121,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3260,6 +3263,9 @@
       <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="181">
   <si>
     <t>NPF975</t>
   </si>
@@ -532,13 +532,40 @@
   </si>
   <si>
     <t>PowerShot ELPH 110 HS 110 HS ELPH 110 HS PowerShot 110 HS PowerShot ELPH 115 IS 115 IS ELPH 115 IS PowerShot 115 PowerShot ELPH 130 IS ELPH 130 IS PowerShot 130 IS PowerShot ELPH 135 ELPH 135 PowerShot 135 PowerShot ELPH 140 IS ELPH 140 IS PowerShot 140 IS PowerShot ELPH 150 IS ELPH 150 IS PowerShot 150 IS PowerShot ELPH 160 ELPH 160 PowerShot 160 PowerShot ELPH 170 IS ELPH 170 IS PowerShot 170 IS PowerShot ELPH 320 HS 320 HS ELPH 320 HS PowerShot 320 HS PowerShot ELPH 340 HS 340 HS ELPH 340 HS PowerShot 340 HS PowerShot ELPH 350 HS 350 HS ELPH 350 HS PowerShot 350 HS IXUS 240 HS 240 HS 240HS PowerShot A2300 A2300 PowerShot A2400 IS A2400 IS A2400 PowerShot A2500 A2500 PowerShot A2600 A2600 PowerShot A3400 IS A3400 IS A3400 PowerShot A3500 IS A3500 IS A3500 PowerShot A4000 IS A4000 IS A4000 IS A4000 PowerShot SX400 IS SX400 IS SX400 IS SX400 PowerShot SX410 IS SX410 IS SX410 IS SX410 NB11L NB-11L NB-11LH NB11LH</t>
+  </si>
+  <si>
+    <t>PowerShot S30 /  S30  PowerShot S40 /  S40  PowerShot S45 / S45  PowerShot S50 / S50  PowerShot S55 /  S55  PowerShot S60 / S60  PowerShot S70 / S70  PowerShot S80 /  S80  PowerShot G7 /  G7  PowerShot G9 /  G9  DC310  DC320  DC330  DC410  DC420  HV20  HG10  Digital Rebel XT /  Rebel XT /  XT  Digital Rebel XTi / Rebel XTi /  XTi  EOS Kiss Digital N  EOS-350D EOS 350D /  350D  EOS-400D EOS 400D /  440D  Optura 30 / Optura 30  Optura 40 / Optura 40  Optura 50 / Optura 50  Optura 400 / Optura 400  Optura 500 / Optura 500  Optura 60 / Optura 60  ZR-100 / ZR100  ZR-200 / ZR200  ZR-300 / ZR300  ZR-400 / ZR400  ZR-500 / ZR500  ZR-600 / ZR600  ZR-700 / ZR700  Elura 40MC / Elura 40MC  Elura 50 / Elura 50  Elura 60 / Elura 60  Elura 65 / Elura 65  Elura 70 / Elura 70  Elura 80 / Elura 80  Elura 85 / Elura 85  Elura 90 / Elura 90  FVM20 / FVM20  FVM30 / FVM30  FVM100 KIT / FVM100  FVM200 / FVM200  FV500 / FV 500  IXY DV3 / IXY DV3  IXY DVM3 / IXY DMV3  IXY DV5 / IXY DV 5  MV5 / MV 5  MV5i / MV 5i  MV5iMC MV5i MC  MV6iMC MV6i MC  MV800 MV-800  MV830 MV-830  MV830i MV-830i  MV850i MV-850i  MV880X MV-880X  MV920 MV-920  MVX20i MV X20i MVX-20i  MVX25i MV X25i MVX-25i  MVX30i MV X30i MVX-30i  MVX35i MV X35i MVX-35i  MVX40i MV X40i MVX-40i  MVX45i MV X45i MVX-45i  MVX200 MV X200 MVX-200  MVX200i MV X200i MVX-200i  MVX250i MV X250i MVX-250i  MVX300i MV X300i MVX-300i  MVX330i MV X330i MVX-330i  MVX350i MV X350i MVX-350i  VIXIA HF R10 HFR10  VIXIA HF R11 HFR11 VIXIA HF R100 HFR100</t>
+  </si>
+  <si>
+    <t>ELPH 100 HS, 100HS ELPH 300 HS, 300HS ELPH 310 HS, 310HS ELPH 330 HS, 330HS Canon PowerShot TX1 Canon Digital Series Digital 40 Digital 50 Canon PowerShot SD Series Powershot SD40 Powershot SD30 PowerShot SD30 Digital ELPH Powershot SD200 Powershot SD300 Powershot SD400 Powershot SD430 Powershot SD430 Wireless Powershot SD450 Powershot SD600 Powershot SD630 Powershot SD750 Powershot SD780 Powershot SD940 IS Powershot SD960 Powershot SD960 IS Digital ELPH Powershot SD1000 Powershot SD1100 IS Powershot SD1100 IS Digital ELPH Powershot SD1400 IS Canon IXY Digital Series IXY Digital 10 IXY Digital 40 IXY Digital 45 IXY Digital 50 IXY Digital 55 IXY Digital 60 IXY Digital 70 IXY Digital 80 IXY Digital 90 IXY Digital L3 IXY Digital L4 IXY Digital Wireless Canon Digital IXUS Series Digital IXUS iZoom, IXUS i Zoom Digital IXUS i7 Zoom Digital IXUS Wireless Digital IXUS 30 Digital IXUS 40 Digital IXUS 50 Digital IXUS 55 Digital IXUS 60 Digital IXUS 65 Digital IXUS 70 Digital IXUS 75 Digital IXUS 80 IS Digital IXUS 100 IS Digital IXUS 110 IS Digital IXUS 120 IS Digital IXUS 130</t>
+  </si>
+  <si>
+    <t>Canon NB4L Canon NB-4L Battery-Biz B-9645 BatteryValues B-9645 Lenmar DLC-4L DigiPower BP-CN4L DSMiller B-9645 Energizer ER-D150 Hi-Capacity B-9645 Maxell B-9645 Maxell DC3787 Power Battery BP-CN4L Sakar BP-NB4.</t>
+  </si>
+  <si>
+    <t>Powershot S110 Canon S110 Powershot SD700 IS SD700IS Powershot SD700 IS Digital ELPH Powershot SD790 IS SD790IS Powershot SD790 IS Digital ELPH Powershot SD800 IS SD800IS Powershot SD800 IS Digital ELPH Powershot SD850 IS SD850IS Powershot SD850 IS Digital ELPH Powershot SD870 IS SD870IS Powershot SD870 IS Digital ELPH Powershot SD880 IS SD880IS Powershot SD880 IS Digital ELPH Powershot SD890 IS SD890IS Powershot SD890 IS Digital ELPH Powershot SD900 Powershot SD950 IS SD950IS Powershot SD950 IS Digital ELPH Powershot SD970 IS SD970IS Powershot SD970 IS Digital ELPH Powershot SD990 IS SD990IS Powershot SD990 IS Digital ELPH Powershot SX200 IS SX200IS Powershot SX210 IS SX210IS Powershot SX230 HS SX230HS Powershot S100 IXY Digital 910 IS 910IS IXY Digital 900 IS 900IS IXY Digital 820 IS 820IS IXY Digital 810 IS 810IS IXY Digital 800 IS 800IS IXY Digital 2000 IS 2000IS IXY Digital 1000 Digital IXUS 90 IS 90IS Digital IXUS 900 Ti 900Ti Digital IXUS 950 IS 950IS Digital IXUS 960 IS 960IS Digital IXUS 970 IS 970IS Digital IXUS 980 IS 980IS Digital IXUS 990 IS 990IS Digital IXUS 800 IS 800IS Digital IXUS 850 IS 850IS Digital IXUS 860 IS 860IS Digital IXUS 870 IS 870IS</t>
+  </si>
+  <si>
+    <t>Canon NB5L Canon NB-5L 1135B001</t>
+  </si>
+  <si>
+    <t>Powershot ELPH 500 HS 500HS 500 HS ELPH 500 Powershot SD770 IS SD770IS SD770 IS SD770 IS Powershot SD980 IS SD980IS SD980 IS SD980 IS Powershot SD1200 IS SD1200IS SD1200 IS SD1200 IS Powershot SD1300 IS SD1300IS SD1300 IS SD1300IS Powershot SD3500 IS SD3500IS SD3500 IS SD3500IS Powershot SD4000 IS SD4000IS SD4000 IS SD4000IS Powershot D10 D10 IS D 10 D10 Powershot D20 D20 D 20 Powershot D30 D30 Powershot S90 S90 IS PowerShot S90 Powershot S95S 95 PowerShot S95 Powershot S120 S120 Powershot S120 Powershot SX170 IS SX170 Powershot SX240 HS Powershot SX260 HS Powershot SX270 HS Powershot SX280 HS Powershot SX500 IS Powershot SX510 HS SX510 Powershot SX520 HS SX520 Powershot SX530 HS SX530 Powershot SX600 HS SX600 Powershot SX610 HS SX610 Powershot SX700 HS SX700 Powershot SX710 HS SX710 IXUS 85 IS IXUS 85 IS IXUS 95 IS IXUS 95 IS IXY Digital 25 IS Digital IXUS 200 IS Digital IXUS 210 Digital IXUS 105</t>
+  </si>
+  <si>
+    <t>Canon NB6L Canon NB-6L Canon NB-6LH Canon NB6LH 2607B001</t>
+  </si>
+  <si>
+    <t>Powershot G10 G10 PowerShot G10 Powershot G11 G11 PowerShot G11 Powershot G12 G12 PowerShot G12 PowerShot SX30 IS SX 30 IS SX30IS PowerShot SX 30 IS</t>
+  </si>
+  <si>
+    <t>Canon NB7L Canon NB-7L 3153B001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,8 +605,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,6 +654,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -682,6 +730,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3121,7 +3176,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3130,8 +3185,8 @@
     <col min="2" max="2" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="24" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="16" customWidth="1"/>
     <col min="8" max="8" width="88.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -3150,10 +3205,10 @@
       <c r="D1" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="23" t="s">
         <v>163</v>
       </c>
       <c r="H1" s="19" t="s">
@@ -3175,10 +3230,10 @@
       <c r="D2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="24" t="s">
         <v>162</v>
       </c>
       <c r="H2" s="18" t="s">
@@ -3200,10 +3255,10 @@
       <c r="D3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="24" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3222,7 +3277,7 @@
       <c r="D4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="21" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3241,10 +3296,10 @@
       <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="24" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3263,7 +3318,7 @@
       <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="21" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3282,6 +3337,9 @@
       <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="E7" s="21" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -3298,6 +3356,12 @@
       <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="E8" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -3314,6 +3378,12 @@
       <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="E9" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -3330,6 +3400,12 @@
       <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="E10" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -3345,6 +3421,12 @@
       </c>
       <c r="D11" s="7" t="s">
         <v>29</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="186">
   <si>
     <t>NPF975</t>
   </si>
@@ -492,9 +492,6 @@
     <t>Keywords</t>
   </si>
   <si>
-    <t>Paste these</t>
-  </si>
-  <si>
     <t xml:space="preserve">Original </t>
   </si>
   <si>
@@ -559,6 +556,24 @@
   </si>
   <si>
     <t>Canon NB7L Canon NB-7L 3153B001</t>
+  </si>
+  <si>
+    <t>Paste</t>
+  </si>
+  <si>
+    <t>Powershot A2200 A2200 Power Shot A2200 Powershot A3000 IS A3000IS A3000 IS A3000 A3000 IS Powershot A3100 IS A3100IS A3100 IS A3100 A3100 IS Powershot A3200 IS A3200IS A3200 IS A3200 A3200 IS Powershot A3300 IS A3300IS A3300 IS A3300 A3300 IS</t>
+  </si>
+  <si>
+    <t>Canon NB8L Canon NB-8L</t>
+  </si>
+  <si>
+    <t>PowerShot N PowerShot N2 Powershot ELPH 510 HS, 510HS Powershot ELPH 520 HS, 520HS Powershot ELPH 530 HS, 530HS Powershot SD4500 IS, SD4500IS IXUS 1000 HS, IXUS 1000HS IXY 50S Canon NB9L NB-9L</t>
+  </si>
+  <si>
+    <t>J10, J12, J15, J20, J25, J26, J27, J28, J29, J30, J32, J35, J37, J38, J40, J100, J110, J120, J150, J210, J250 JV100, JV105, JV150, JV200, JV205, JV250, JV255, JV300, JV500 JX200, JX205, JX210, JX250, JX255, JX280, JX290, JX295, JX300, JX305, JX310, JX315, JX320, JX330, JX335, JX350, JX355, JX360, JX370, JX375, JX380, JX390, JX400, JX405, JX420, JX440, JX500, JX520, JX530, JX550, JX580, JX590, JX600, JX650, JX660, JX680, JX700, JX710 JZ100, JZ110, JZ200, JZ250, JZ260, JZ300, JZ305, JZ310, JZ500, JZ505, JZ510 XP10, XP11, XP15, XP20, XP22, XP30, XP31, XP50, XP60, XP70, XP75, XP80, XP90 T190, T200, T205, T300, T305, T310, T350, T360, T400, T410, T500, T510, T550, T555, T560 Z10, Z20, Z30, Z31, Z33, Z35, Z37, Z70, Z71, Z80, Z81, Z90, Z91, Z100, Z110, Z115, Z200, Z250, Z300, Z700, Z707, Z800,Z808, Z900, Z909, Z950, Z1000, Z1010 Mini 90 L30, L55, L90 NP-45, NP45, NP-45A, NP45A, NP-45S, NP45S.</t>
+  </si>
+  <si>
+    <t>Fujifilm XQ1  XQ2  NP-48 NP48</t>
   </si>
 </sst>
 </file>
@@ -3175,8 +3190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,35 +3199,35 @@
     <col min="1" max="1" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="88.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="19" style="16" customWidth="1"/>
+    <col min="8" max="8" width="33" style="18" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="D1" s="13" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>157</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3231,10 +3246,10 @@
         <v>90</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>162</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>141</v>
@@ -3256,10 +3271,13 @@
         <v>91</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>167</v>
+      <c r="H3" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3278,7 +3296,10 @@
         <v>89</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3297,10 +3318,13 @@
         <v>27</v>
       </c>
       <c r="E5" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>170</v>
+      <c r="H5" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3319,7 +3343,10 @@
         <v>26</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3338,7 +3365,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3357,10 +3387,13 @@
         <v>32</v>
       </c>
       <c r="E8" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>174</v>
+      <c r="H8" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3379,10 +3412,13 @@
         <v>31</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>176</v>
+      <c r="H9" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3401,10 +3437,13 @@
         <v>30</v>
       </c>
       <c r="E10" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>178</v>
+      <c r="H10" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3423,10 +3462,13 @@
         <v>29</v>
       </c>
       <c r="E11" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>180</v>
+      <c r="H11" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3444,6 +3486,15 @@
       <c r="D12" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="E12" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -3460,6 +3511,12 @@
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="E13" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -3476,6 +3533,12 @@
       <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="E14" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -3492,6 +3555,12 @@
       <c r="D15" s="7" t="s">
         <v>88</v>
       </c>
+      <c r="E15" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -3508,8 +3577,11 @@
       <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H16" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>114</v>
       </c>
@@ -3524,8 +3596,11 @@
       <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H17" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>115</v>
       </c>
@@ -3540,8 +3615,11 @@
       <c r="D18" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H18" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>116</v>
       </c>
@@ -3556,8 +3634,11 @@
       <c r="D19" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H19" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>117</v>
       </c>
@@ -3572,8 +3653,11 @@
       <c r="D20" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H20" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>118</v>
       </c>
@@ -3588,8 +3672,11 @@
       <c r="D21" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H21" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>119</v>
       </c>
@@ -3604,8 +3691,11 @@
       <c r="D22" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H22" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>120</v>
       </c>
@@ -3620,8 +3710,11 @@
       <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H23" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>121</v>
       </c>
@@ -3636,8 +3729,11 @@
       <c r="D24" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H24" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>122</v>
       </c>
@@ -3652,8 +3748,11 @@
       <c r="D25" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H25" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>123</v>
       </c>
@@ -3668,8 +3767,11 @@
       <c r="D26" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H26" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>124</v>
       </c>
@@ -3684,8 +3786,11 @@
       <c r="D27" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H27" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>125</v>
       </c>
@@ -3700,8 +3805,11 @@
       <c r="D28" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H28" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>126</v>
       </c>
@@ -3716,8 +3824,11 @@
       <c r="D29" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H29" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>127</v>
       </c>
@@ -3732,8 +3843,11 @@
       <c r="D30" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H30" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>128</v>
       </c>
@@ -3748,8 +3862,11 @@
       <c r="D31" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H31" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>129</v>
       </c>
@@ -3764,8 +3881,11 @@
       <c r="D32" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H32" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>130</v>
       </c>
@@ -3780,8 +3900,11 @@
       <c r="D33" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H33" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>131</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="D34" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H34" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>132</v>
       </c>
@@ -3812,8 +3938,11 @@
       <c r="D35" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H35" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>133</v>
       </c>
@@ -3828,8 +3957,11 @@
       <c r="D36" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H36" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>134</v>
       </c>
@@ -3844,8 +3976,11 @@
       <c r="D37" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H37" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>135</v>
       </c>
@@ -3860,8 +3995,11 @@
       <c r="D38" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H38" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>136</v>
       </c>
@@ -3876,8 +4014,11 @@
       <c r="D39" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H39" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>137</v>
       </c>
@@ -3892,8 +4033,11 @@
       <c r="D40" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H40" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>99</v>
       </c>
@@ -3908,8 +4052,11 @@
       <c r="D41" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H41" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>100</v>
       </c>
@@ -3924,8 +4071,11 @@
       <c r="D42" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H42" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>101</v>
       </c>
@@ -3940,8 +4090,11 @@
       <c r="D43" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H43" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -3956,8 +4109,11 @@
       <c r="D44" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H44" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>103</v>
       </c>
@@ -3972,8 +4128,11 @@
       <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H45" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>104</v>
       </c>
@@ -3988,8 +4147,11 @@
       <c r="D46" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H46" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>105</v>
       </c>
@@ -4004,8 +4166,11 @@
       <c r="D47" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H47" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>106</v>
       </c>
@@ -4020,8 +4185,11 @@
       <c r="D48" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H48" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>107</v>
       </c>
@@ -4036,8 +4204,11 @@
       <c r="D49" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H49" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>108</v>
       </c>
@@ -4052,8 +4223,11 @@
       <c r="D50" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H50" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>109</v>
       </c>
@@ -4068,8 +4242,11 @@
       <c r="D51" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H51" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>110</v>
       </c>
@@ -4084,8 +4261,11 @@
       <c r="D52" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H52" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>111</v>
       </c>
@@ -4100,8 +4280,11 @@
       <c r="D53" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H53" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>112</v>
       </c>
@@ -4116,8 +4299,11 @@
       <c r="D54" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H54" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>113</v>
       </c>
@@ -4132,8 +4318,11 @@
       <c r="D55" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H55" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>114</v>
       </c>
@@ -4148,8 +4337,11 @@
       <c r="D56" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H56" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>115</v>
       </c>
@@ -4164,8 +4356,11 @@
       <c r="D57" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H57" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>116</v>
       </c>
@@ -4180,8 +4375,11 @@
       <c r="D58" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H58" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>117</v>
       </c>
@@ -4196,8 +4394,11 @@
       <c r="D59" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H59" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>118</v>
       </c>
@@ -4212,8 +4413,11 @@
       <c r="D60" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H60" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>119</v>
       </c>
@@ -4228,8 +4432,11 @@
       <c r="D61" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H61" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>120</v>
       </c>
@@ -4244,8 +4451,11 @@
       <c r="D62" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H62" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>121</v>
       </c>
@@ -4260,8 +4470,11 @@
       <c r="D63" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H63" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>122</v>
       </c>
@@ -4276,8 +4489,11 @@
       <c r="D64" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H64" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>123</v>
       </c>
@@ -4292,8 +4508,11 @@
       <c r="D65" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H65" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>124</v>
       </c>
@@ -4308,8 +4527,11 @@
       <c r="D66" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H66" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>125</v>
       </c>
@@ -4324,8 +4546,11 @@
       <c r="D67" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H67" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>126</v>
       </c>
@@ -4340,8 +4565,11 @@
       <c r="D68" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H68" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>127</v>
       </c>
@@ -4356,8 +4584,11 @@
       <c r="D69" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H69" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>128</v>
       </c>
@@ -4372,8 +4603,11 @@
       <c r="D70" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H70" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>129</v>
       </c>
@@ -4388,8 +4622,11 @@
       <c r="D71" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H71" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>130</v>
       </c>
@@ -4404,8 +4641,11 @@
       <c r="D72" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H72" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>131</v>
       </c>
@@ -4420,8 +4660,11 @@
       <c r="D73" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H73" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>132</v>
       </c>
@@ -4436,8 +4679,11 @@
       <c r="D74" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H74" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>133</v>
       </c>
@@ -4452,8 +4698,11 @@
       <c r="D75" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H75" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>134</v>
       </c>
@@ -4468,8 +4717,11 @@
       <c r="D76" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H76" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>135</v>
       </c>
@@ -4484,8 +4736,11 @@
       <c r="D77" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H77" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>136</v>
       </c>
@@ -4500,8 +4755,11 @@
       <c r="D78" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H78" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>137</v>
       </c>
@@ -4516,8 +4774,11 @@
       <c r="D79" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H79" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>66</v>
       </c>
@@ -4532,8 +4793,11 @@
       <c r="D80" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H80" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>96</v>
       </c>
@@ -4548,8 +4812,11 @@
       <c r="D81" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H81" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>73</v>
       </c>
@@ -4564,8 +4831,11 @@
       <c r="D82" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H82" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>79</v>
       </c>
@@ -4580,8 +4850,11 @@
       <c r="D83" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H83" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>74</v>
       </c>
@@ -4596,8 +4869,11 @@
       <c r="D84" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H84" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>75</v>
       </c>
@@ -4612,8 +4888,11 @@
       <c r="D85" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H85" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>76</v>
       </c>
@@ -4628,8 +4907,11 @@
       <c r="D86" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H86" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>77</v>
       </c>
@@ -4644,8 +4926,11 @@
       <c r="D87" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H87" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>78</v>
       </c>
@@ -4660,8 +4945,11 @@
       <c r="D88" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H88" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>82</v>
       </c>
@@ -4676,8 +4964,11 @@
       <c r="D89" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H89" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>83</v>
       </c>
@@ -4692,8 +4983,11 @@
       <c r="D90" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H90" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>93</v>
       </c>
@@ -4708,8 +5002,11 @@
       <c r="D91" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H91" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>80</v>
       </c>
@@ -4724,8 +5021,11 @@
       <c r="D92" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H92" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>81</v>
       </c>
@@ -4739,6 +5039,9 @@
       </c>
       <c r="D93" s="7" t="s">
         <v>156</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="205">
   <si>
     <t>NPF975</t>
   </si>
@@ -574,6 +574,63 @@
   </si>
   <si>
     <t>Fujifilm XQ1  XQ2  NP-48 NP48</t>
+  </si>
+  <si>
+    <t>Fujifilm NP-85, NP85 Fujifilm FinePix S1 Fujifilm FinePix SL1000 Fujifilm FinePix SL305 Fujifilm FinePix SL300 Fujifilm FinePix SL280 Fujifilm FinePix SL260 Fujifilm FinePix SL240</t>
+  </si>
+  <si>
+    <t>Fujifilm X30 Fujifilm X100 Fujifilm X100S Fujifilm X100T Fujifilm X-S1 Fujifilm Fujifilm X30 Fujifilm X100 Fujifilm X100S Fujifilm X100T Fujifilm X-S1 Fujifilm FinePix F30 Fujifilm FinePix F31 fd, F31fd Fujifilm FinePix Real 3D W1FinePix F30 Fujifilm FinePix F31 fd, F31fd Fujifilm FinePix Real 3D W1</t>
+  </si>
+  <si>
+    <t>Fuji NP-95, Fuji NP95</t>
+  </si>
+  <si>
+    <t>DSC-H3, DSCH3, H3 DSC-H7, DSCH7, H7 DSC-H9, DSCH9, H9 DSC-H10, DSCH10, H10 DSC-H20, DSCH20, H20 DSC-H50, DSCH50, H50 DSC-H55, DSCH55, H55 DSC-H70, DSCH70, H70 DSC-H90, DSCH90, H90 DSC-HX5, DSCHX5, HX5 DSC-HX5V, DSCHX5V, HX5V DSC-HX7V, DSCHX7V, HX7V DSC-HX9V, DSCHX9V, HX9V DSC-HX10, DSCHX10, HX10 DSC-HX20, DSCHX20, HX20 DSC-HX30, DSCHX30, HX30 DSC-N1, DSCN1, N1 DSC-N2, DSCN2, N2 DSC-T100, DSCT100, T100 DSC-T20, DSCT20, T20 DSC-W100, DSCW100, W100 DSC-W120 DSCW120, W120 DSC-W130 DSCW130, W130 DSC-W150 DSCW150, W150 DSC-W170 DSCW170, W170 DSC-W200, DSCW200, W200 DSC-W210, DSCW210, W210 DSC-W215, DSCW215, W215 DSC-W220, DSCW220, W220 DSC-W230, DSCW230, W230 DSC-W270, DSCW270, W270 DSC-W290, DSCW290, W290 DSC-W300, DSCW300, W300 DSC-W30, DSCW30, W30 DSC-W35, DSCW35, W35 DSC-W50, DSCW50, W50 DSC-W55, DSCW55, W55 DSC-W70, DSCW70, W70 DSC-W80, DSCW80, W80 DSC-W90, DSCW90, W90 DSC-WX1, DSCWX1, WX1 DSC-WX10, DSCWX10, WX10 HDR-GW77, HDRGW77, GW77</t>
+  </si>
+  <si>
+    <t>Sony NP-BG1, Sony NPBG1, Sony BG1, Sony NP-FG1, Sony NPFG1/M8, Sony FG1</t>
+  </si>
+  <si>
+    <t>DSC-QX10, DSCQX10, QX10 DSC-QX30, DSCQX30, QX30 DSC-QX100, DSCQX100, QX100 DSC-TF1, DSCTF1, TF1 DSC-TX66, DSCTX66, TX66 DSC-TX200, DSCTX200, TX200 DSC-TX20, DSCTX20, TX20 DSC-TX30, DSCTX30, TX30 DSC-TX1, DSCTX1, TX1 DSC-TX10, DSCTX10, TX10 DSC-TX100, DSCTX100, TX100 DSC-TX5, DSCTX5, TX5 DSC-TX55, DSCTX55, TX55 DSC-TX7, DSCTX7, TX7 DSC-TX9, DSCTX9, TX9 DSC-T99, DSCT99, T99 DSC-T110, DSCT110, T110 DSC-W310, DSCW310, W310 DSC-W320, DSCW320, W320 DSC-W330, DSCW330, W330 DSC-W350, DSCW350, W350 DSC-W360, DSCW360, W360 DSC-W380, DSCW380, W380 DSC-W390, DSCW390, W390 DSC-W510, DSCW510, W510 DSC-W530, DSCW530, W530 DSC-W560, DSCW560, W560 DSC-W570, DSCW570, W570 DSC-W610, DSCW610, W610 DSC-W620, DSCW620, W620 DSC-W630, DSCW630, W630 DSC-W650, DSCW650, W650 DSC-W690, DSCW690, W690 DSC-W710, DSCW710, W710 DSC-W730, DSCW730, W730 DSC-W800, DSCW800, W800 DSC-W830, DSCW830, W830 DSC-WX5, DSCWX5, WX5 DSC-WX7, DSCWX7, WX7 DSC-WX9, DSCWX9, WX9 DSC-WX50, DSCWX50, WX50 DSC-WX70, DSCWX70, WX70 DSC-WX80, DSCWX80, WX80 DSC-WX100, DSCWX100, WX100 DSC-WX150, DSCWX150, WX150 DSC-WX220, DSCWX220, WX220</t>
+  </si>
+  <si>
+    <t>Sony NP-BN1, Sony NPBN1</t>
+  </si>
+  <si>
+    <t>Sony DSC-RX1, Sony RX1 Sony DSC-RX1R, Sony RX1R Sony DSC-RX1R II, Sony RX1R II Sony DSC-RX100, DSCRX100, Sony RX100 Sony DSC-RX100 II, DSCRX100 II, Sony RX100 II, Sony RX100 M2 Sony DSC-RX100 III, DSCRX100 III, Sony RX100 III, Sony RX100 M3 Sony DSC-RX100 IV, DSCRX100 IV, Sony RX100 IV, Sony RX100 M4 Sony DSC-WX300, DSCWX300, Sony WX300 Sony DSC-WX350, DSCWX350, Sony WX350 Sony DSC-WX500, DSCWX500, Sony WX500 Sony DSC-HX400, DSCHX400, Sony HX400 Sony DSC-H400, DSCH400, Sony H400 Sony DSC-HX300, DSCHX300, Sony HX300 Sony DSC-HX50V, DSCHX50V, Sony HX90 Sony DSC-HX90, DSCHX90, Sony HX50 Sony FDR-X1000, FDRX1000, Sony X1000 Sony HDR-AS10, HDRAS10, Sony AS10 Sony HDR-AS15, HDRAS15, Sony AS15 Sony HDR-AS20, HDRAS20, Sony AS20 Sony HDR-AS30V, HDRAS30V, Sony AS30V Sony HDR-AS100, HDRAS100, Sony AS100 Sony HDR-AS200, HDRAS200, Sony AS200 Sony HDR-CX240, HDRCX240, Sony CX240 Sony HDR-CX405, HDRCX405, Sony CX405 Sony HDR-CX440, HDRCX440, Sony CX440 Sony HDR-GW66, HDRGW66, Sony GW66 Sony HDR-MV1, HDRMV1, Sony MV1 Sony HDR-PJ275, HDRPJ275, Sony PJ275 Sony HDR-PJ440, HDRPJ440, Sony PJ440</t>
+  </si>
+  <si>
+    <t>Sony NP-BX1, Sony NPBX</t>
+  </si>
+  <si>
+    <t>CCD-RV100, CCDRV100, RV100 CCD-RV200, CCDRV200, RV200 CCD-SC5, CCDSC5, SC5 CCD-SC6, CCDSC6, SC6 CCD-SC7, CCDSC7, SC7 CCD-SC8, CCDSC8, SC8 CCD-SC9, CCDSC9, SC9 CCD-SC55, CCDSC55, SC55 CCD-SC65, CCDSC65, SC65 CCD-TR1, CCDTR1, TR1 CCD-TR11, CCDTR11, TR11 CCD-TR1100E, CCDTR1100E, TR1100E CCD-TR12, CCDTR12, TR12 CCD-TR18, CCDTR18, TR18 CCD-TR2, CCDTR2, TR2 CCD-TR200, CCDTR200, TR200 CCD-TR205, CCDTR205, TR205 CCD-TR215, CCDTR215, TR215 CCD-TR2200, CCDTR2200, TR2200 CCD-TR2300, CCDTR2300, TR2300 CCD-TR280, CCDTR280, TR280 CCD-TR290, CCDTR290, TR290 CCD-TR3, CCDTR3, TR3 CCD-TR300, CCDTR300, TR300 CCD-TR3000, CCDTR3000, TR3000 CCD-TR3100, CCDTR3100, TR3100 CCD-TR311, CCDTR311, TR311 CCD-TR315, CCDTR315, TR315 CCD-TR317, CCDTR317, TR317 CCD-TR3200, CCDTR3200, TR3200 CCD-TR3300, CCDTR3300, TR3300 CCD-TR411, CCDTR411, TR411 CCD-TR412, CCDTR412, TR412 CCD-TR413, CCDTR413, TR413 CCD-TR414, CCDTR414, TR414 CCD-TR415, CCDTR415, TR415 CCD-TR416, CCDTR416, TR416 CCD-TR417, CCDTR417, TR417 CCD-TR425, CCDTR425, TR425 CCD-TR427, CCDTR427, TR427 CCD-TR500, CCDTR500, TR500 CCD-TR511, CCDTR511, TR511 CCD-TR512, CCDTR512, TR512 CCD-TR515, CCDTR515, TR515 CCD-TR516, CCDTR516, TR516 CCD-TR517, CCDTR517, TR517 CCD-TR555, CCDTR555, TR555 CCD-TR57, CCDTR57, TR57 CCD-TR610, CCDTR610, TR610 CCD-TR617, CCDTR617, TR617 CCD-TR618, CCDTR618, TR618 CCD-TR640, CCDTR640, TR640 CCD-TR67, CCDTR67, TR67 CCD-TR710, CCDTR710, TR710 CCD-TR713, CCDTR713, TR713 CCD-TR716, CCDTR716, TR716 CCD-TR717, CCDTR717, TR717 CCD-TR718, CCDTR718, TR718 CCD-TR728, CCDTR728, TR728 CCD-TR730, CCDTR730, TR730 CCD-TR76, CCDTR76, TR76 CCD-TR760, CCDTR760, TR760 CCD-TR810, CCDTR810, TR810 CCD-TR818, CCDTR818, TR818 CCD-TR840, CCDTR840, TR840 CCD-TR845, CCDTR845, TR845 CCD-TR87, CCDTR87, TR87 CCD-TR910, CCDTR910, TR910 CCD-TR913, CCDTR913, TR913 CCD-TR917, CCDTR917, TR917 CCD-TR918, CCDTR918, TR918 CCD-TR930, CCDTR930, TR930 CCD-TR940, CCDTR940, TR940 CCD-TR950, CCDTR950, TR950 CCD-TR97, CCDTR97, TR97 CCD-TRT97, CCDTRT97, TRT97 CCD-TRV101, CCDTRV101, TRV101 CCD-TRV15, CCDTRV15, TRV15 CCD-TRV16, CCDTRV16, TRV16 CCD-TRV17, CCDTRV17, TRV17 CCD-TRV201, CCDTRV201, TRV201 CCD-TRV215, CCDTRV215, TRV215 CCD-TRV25, CCDTRV25, TRV25 CCD-TRV26, CCDTRV26, TRV26 CCD-TRV27, CCDTRV27, TRV27 CCD-TRV300, CCDTRV300, TRV300 CCD-TRV3000, CCDTRV3000, TRV3000 CCD-TRV315, CCDTRV315, TRV315 CCD-TRV35, CCDTRV35, TRV35 CCD-TRV36, CCDTRV36, TRV36 CCD-TRV37, CCDTRV37, TRV37 CCD-TRV4, CCDTRV4, TRV4 CCD-TRV41, CCDTRV41, TRV41 CCD-TRV43, CCDTRV43, TRV43 CCD-TRV45, CCDTRV45, TRV45 CCD-TRV46, CCDTRV46, TRV46 CCD-TRV47, CCDTRV47, TRV47 CCD-TRV48, CCDTRV48, TRV48 CCD-TRV49, CCDTRV49, TRV49 CCD-TRV51, CCDTRV51, TRV51 CCD-TRV510, CCDTRV510, TRV510 CCD-TRV517, CCDTRV517, TRV517 CCD-TRV54, CCDTRV54, TRV54 CCD-TRV55, CCDTRV55, TRV55 CCD-TRV56, CCDTRV56, TRV56 CCD-TRV57, CCDTRV57, TRV57 CCD-TRV58, CCDTRV58, TRV58 CCD-TRV59, CCDTRV59, TRV59 CCD-TRV615, CCDTRV615, TRV615 CCD-TRV62, CCDTRV62, TRV62 CCD-TRV63, CCDTRV63, TRV63 CCD-TRV65, CCDTRV65, TRV65 CCD-TRV66, CCDTRV66, TRV66 CCD-TRV67, CCDTRV67, TRV67 CCD-TRV68, CCDTRV68, TRV68 CCD-TRV71, CCDTRV71, TRV71 CCD-TRV715, CCDTRV715, TRV715 CCD-TRV716, CCDTRV716, TRV716 CCD-TRV72, CCDTRV72, TRV72 CCD-TRV720, CCDTRV720, TRV720 CCD-TRV75, CCDTRV75, TRV75 CCD-TRV78, CCDTRV78, TRV78 CCD-TRV80, CCDTRV80, TRV80 CCD-TRV81, CCDTRV81, TRV81 CCD-TRV815, CCDTRV815, TRV815 CCD-TRV82, CCDTRV82, TRV82 CCD-TRV85, CCDTRV85, TRV85 CCD-TRV86, CCDTRV86, TRV86 CCD-TRV87, CCDTRV87, TRV87 CCD-TRV88, CCDTRV88, TRV88 CCD-TRV90, CCDTRV90, TRV90 CCD-TRV91, CCDTRV91, TRV91 CCD-TRV92, CCDTRV92, TRV92 CCD-TRV93, CCDTRV93, TRV93 CCD-TRV930, CCDTRV930, TRV930 CCD-TRV94, CCDTRV94, TRV94 CCD-TRV940, CCDTRV940, TRV940 CCD-TRV95, CCDTRV95, TRV95 CCD-TRV97, CCDTRV97, TRV97 CCD-TRV98, CCDTRV98, TRV98 CCD-TRV99, CCDTRV99, TRV99 CVX-V18NS, CVXV18NS, V18NS CVX-V18NSP, CVXV18NSP, V18NSP DCR-SC100, DCRSC100, SC100 DCR-TR7, DCRTR7, TR7 DCR-TR7000, DCRTR7000, TR7000 DCR-TR7100, DCRTR7100, TR7100 DCR-TR8000, DCRTR8000, TR8000 DCR-TR8100, DCRTR8100, TR8100 DCR-TRU47, DCRTRU47, TRU47 DCR-TRV103, DCRTRV103, TRV103 DCR-TRV110, DCRTRV110, TRV110 DCR-TRV120, DCRTRV120, TRV120 DCR-TRV125, DCRTRV125, TRV125 DCR-TRV130, DCRTRV130, TRV130 DCR-TRV203, DCRTRV203, TRV203 DCR-TRV210, DCRTRV210, TRV210 DCR-TRV220, DCRTRV220, TRV220 DCR-TRV310, DCRTRV310, TRV310 DCR-TRV315, DCRTRV315, TRV315 DCR-TRV320, DCRTRV320, TRV320 DCR-TRV410, DCRTRV410, TRV410 DCR-TRV420, DCRTRV420, TRV420 DCR-TRV49, DCRTRV49, TRV49 DCR-TRV5, DCRTRV5, TRV5 DCR-TRV510, DCRTRV510, TRV510 DCR-TRV520, DCRTRV520, TRV520 DCR-TRV525, DCRTRV525, TRV525 DCR-TRV58, DCRTRV58, TRV58 DCR-TRV620, DCRTRV620, TRV620 DCR-TRV7, DCRTRV7, TRV7 DCR-TRV720, DCRTRV720, TRV720 DCR-TRV735, DCRTRV735, TRV735 DCR-TRV820, DCRTRV820, TRV820 DCR-TRV9, DCRTRV9, TRV9 DCR-TRV900, DCRTRV900, TRV900 DCR-TRV935, DCRTRV935, TRV935 DCR-TV900, DCRTV900, TV900 DCR-VX2000, DCRVX2000, VX2000 DCR-VX2001, DCRVX2001, VX2001 DCR-VX2100, DCRVX2100, VX2100 DCR-VX9, DCRVX9, VX9 DCR-VX9000, DCRVX9000, VX9000 DSR-200, DSR200 DSR-DU1, DSRDU1 DSR-PD100, DSRPD100 DSR-PD150, DSRPD150 DSR-PD170, DSRPD170 DSR-PD190, DSRPD190 DSR-V10, DSRV10 EVO-250, EVO250 FDR-AX1, FDRAX1 NEX-EA50, NEXEA50 NEX-FS100, NEXFS100 NEX-FS700, NEXFS700 GV-A100, GVA100 GV-A500, GVA500 GV-A700, GVA700 GV-HD700, GVHD700 GV-D200, GVD200 GV-D300, GVD300 GV-D700, GVD700 GV-D800, GVD800 GV-D900, GVD900 HDR-AX2000, HDRAX2000, AX2000 HDR-FX1, HDRFX1, FX1 HDR-FX1000, HDRFX1000, FX1000 HDR-FX7, HDRFX7, FX7 HVL-20DW, HVL20DW HVL-20DW2, HVL20DW2 HVL-LBPA, HVLLBPA HVL-ML20, HVLML20 HVR-DR60, HVRDR60 HVR-HD1000, HVRHD1000 HVR-M10, HVRM10 HVR-V1J, HVRV1J, V1J HVR-V1U, HVRV1U, V1U HVR-Z1, HVRZ1, Z1 HVR-Z1U, HVRZ1U, Z1U HVR-Z5, HVRZ5, Z5 HVR-Z7U, HVRZ7U, Z7U HXR-MC1500, HXRMC1500, MC1500 HXR-MC2000, HXRMC2000, MC2000 HXR-MC2500, HXRMC2500, MC2500 HXR-NX3, HXRNX3, NX3 HXR-NX5, HXRNX5, NX5 MPK-DVF4, MPKDVF4 PBD-D50, PBDD50 PBD-V30, PBDV30 PLM-100, PLM100 PLM-50, PLM50 PLM-A35, PLMA35 PLM-A55, PLMA55</t>
+  </si>
+  <si>
+    <t>Sony NP-F950, NPF950, Sony NP-F960, NPF960, Sony NP-F970, NPF970</t>
+  </si>
+  <si>
+    <t>Sony Alpha SLT-A57, Sony Alpha A57 Sony Alpha SLT-A58, Sony Alpha A58 Sony Alpha SLT-A65, SLTA65, A65 Sony Alpha SLT-A77, SLTA77, A77 Sony Alpha SLT-A77 II, SLTA77 II, A77 2 Sony Alpha SLT-A99, Sony Alpha A99 Sony Alpha A100, A100 Sony Alpha A200, A200 Sony Alpha A300, A300 Sony Alpha A350, A350 Sony Alpha A500, A500 Sony Alpha A550, A550 Sony Alpha A560, A560 Sony Alpha A580, A580 Sony Alpha A700, A700 Sony Alpha A850, A850 Sony Alpha A900, A900</t>
+  </si>
+  <si>
+    <t>Sony NP-FM500H, Sony NPFM500H</t>
+  </si>
+  <si>
+    <t>DCR-PJ5, DCRPJ5, PJ5 DCR-SR15, DCRSR15, SR15 DCR-SR20, DCRSR20, SR20 DCR-SR21, DCRSR21, SR21 DCR-SR68, DCRSR68, SR68 DCR-SR78, DCRSR78, SR78 DCR-SR88, DCRSR88, SR88 DCR-SX15, DCRSX15, SX15 DCR-SX20, DCRSX20, SX20 DCR-SX21, DCRSX21, SX21 DCR-SX33, DCRSX33, SX33 DCR-SX34, DCRSX34, SX34 DCR-SX43, DCRSX43, SX43 DCR-SX44, DCRSX44, SX44 DCR-SX45, DCRSX45, SX45 DCR-SX53, DCRSX53, SX53 DCR-SX63, DCRSX63, SX63 DCR-SX65, DCRSX65, SX65 DCR-SX83, DCRSX83, SX83 DCR-SX85, DCRSX85, SX85 Digital Recording Binoculars DEV-3 Digital Recording Binoculars DEV-5 FDR-AX33, AX33 FDR-AX100, AX100 Handycam NEX-VG10, NEXVG10, VG10 Handycam NEX-VG20, NEXVG20, VG20 Handycam NEX-VG30, NEXVG30, VG30 Handycam NEX-VG900, VG900 HDR-CX110, HDRCX110, CX110 HDR-CX130, HDRCX130, CX130 HDR-CX150, HDRCX150, CX150 HDR-CX160, HDRCX160, CX160 HDR-CX170, HDRCX170, CX170 HDR-CX190, HDRCX190, CX190 HDR-CX200, HDRCX200, CX200 HDR-CX210, HDRCX210, CX210 HDR-CX220, HDRCX220, CX220 HDR-CX230, HDRCX230, CX230 HDR-CX250, HDRCX250, CX250 HDR-CX260V, HDRCX260V, CX260V HDR-CX280, HDRCX280, CX280 HDR-CX290, HDRCX290, CX290 HDR-CX300, HDRCX300, CX300 HDR-CX320, HDRCX320, CX320 HDR-CX330, HDRCX330, CX330 HDR-CX350, HDRCX350, CX350 HDR-CX360, HDRCX360, CX360 HDR-CX370, HDRCX370, CX370 HDR-CX380, HDRCX380, CX380 HDR-CX390, HDRCX390, CX390 HDR-CX400, HDRCX400, CX400 HDR-CX410, HDRCX410, CX410 HDR-CX430, HDRCX430, CX430 HDR-CX510, HDRCX510, CX510 HDR-CX550, HDRCX550, CX550 HDR-CX560, HDRCX560, CX560 HDR-CX580, HDRCX580, CX580 HDR-CX700, HDRCX700, CX700 HDR-CX730, HDRCX730, CX730 HDR-CX740, HDRCX740, CX740 HDR-CX760, HDRCX760, CX760 HDR-CX900, HDRCX900, CX900 HDR-HC9, HDRHC9, HC9 HDR-PJ10, HDRPJ10, PJ10 HDR-PJ200, HDRPJ200, PJ200 HDR-PJ230, HDRPJ230, PJ230 HDR-PJ260, HDRPJ260, PJ260 HDR-PJ26V, HDRPJ26V, PJ26V HDR-PJ30V, HDRPJ30V, PJ30V HDR-PJ320, HDRPJ320, PJ320 HDR-PJ330, HDRPJ330, PJ330 HDR-PJ340, HDRPJ340, PJ340 HDR-PJ350, HDRPJ350, PJ350 HDR-PJ380, HDRPJ380, PJ380 HDR-PJ390, HDRPJ390, PJ390 HDR-PJ420, HDRPJ420, PJ420 HDR-PJ430, HDRPJ430, PJ430 HDR-PJ50V, HDRPJ50V, PJ50V HDR-PJ510, HDRPJ510, PJ510 HDR-PJ540, HDRPJ540, PJ540 HDR-PJ580V, HDRPJ580V, PJ580V HDR-PJ650V, HDRPJ650V, PJ650V HDR-PJ670, HDRPJ670, PJ670 HDR-PJ710V, HDRPJ710V, PJ710V HDR-PJ760V, HDRPJ760V, PJ760V HDR-PJ790V, HDRPJ790V, PJ790V HDR-PJ810, HDRPJ810, PJ810 HDR-TD10V, HDRTD10V, TD10V HDR-TD20V, HDRTD20V, TD20V HDR-TD30V, HDRTD30V, TD30V HDR-XR150, HDRXR150, XR150 HDR-XR155, HDRXR155, XR155 HDR-XR160, HDRXR160, XR160 HDR-XR260V, HDRXR260V, XR260V HDR-XR350, HDRXR350, XR350 HDR-XR550, HDRXR550, XR550 HXR-MC50, HXRMC50, MC50 HXR-NX30, HXRNX30, NX30 HXR-NX70, HXRNX70, NX70</t>
+  </si>
+  <si>
+    <t>NP-FV100, NPFV100</t>
+  </si>
+  <si>
+    <t>DCR-PJ5, DCRPJ5, PJ5 DCR-PJ5E, DCRPJ5E, PJ5E DCR-SR15, DCRSR15, SR15 DCR-SR15E, DCRSR15E, SR15E DCR-SR20, DCRSR20, SR20 DCR-SR20E, DCRSR20E, SR20E DCR-SR21, DCRSR21, SR21 DCR-SR21E, DCRSR21E, SR21E DCR-SR68, DCRSR68, SR68 DCR-SR78, DCRSR78, SR78 DCR-SR78E, DCRSR78E, SR78E DCR-SR88, DCRSR88, SR88 DCR-SX15, DCRSX15, SX15 DCR-SX15E, DCRSX15E, SX15E DCR-SX20, DCRSX20, SX20 DCR-SX20E, DCRSX20E, SX20E DCR-SX21, DCRSX21, SX21 DCR-SX21E, DCRSX21E, SX21E DCR-SX33, DCRSX33, SX33 DCR-SX33E, DCRSX33E, SX33E DCR-SX34, DCRSX34, SX34 DCR-SX34E, DCRSX34E, SX34E DCR-SX43, DCRSX43, SX43 DCR-SX43E, DCRSX43E, SX43E DCR-SX44, DCRSX44, SX44 DCR-SX45, DCRSX45, SX45 DCR-SX45/L, DCRSX45/L, SX45/L DCR-SX45/S, DCRSX45/S, SX45/S DCR-SX45E, DCRSX45E, SX45E DCR-SX53, DCRSX53, SX53 DCR-SX53E, DCRSX53E, SX53E DCR-SX63, DCRSX63, SX63 DCR-SX65, DCRSX65, SX65 DCR-SX83, DCRSX83, SX83 DCR-SX85, DCRSX85, SX85 DCR-SX85/S, DCRSX85/S, SX85/S DCR-SX85E, DCRSX85E, SX85E Digital Recording Binoculars DEV-3 Digital Recording Binoculars DEV-5 FDR-AX33, FDRAX33, AX33 Handycam NEX-VG10, NEXVG10, VG10 Handycam NEX-VG20, NEXVG20, VG20 Handycam NEX-VG20H, NEXVG20H, VG20H Handycam NEX-VG30, NEXVG30, VG30 Handycam NEX-VG900, VG900 HDR-CX110, HDRCX110, CX110 HDR-CX130, HDRCX130, CX130 HDR-CX150, HDRCX150, CX150 HDR-CX150E, HDRCX150E, CX150E HDR-CX160, HDRCX160, CX160 HDR-CX170, HDRCX170, CX170 HDR-CX190, HDRCX190, CX190 HDR-CX200, HDRCX200, CX200 HDR-CX210, HDRCX210, CX210 HDR-CX220, HDRCX220, CX220 HDR-CX230, HDRCX230, CX230 HDR-CX250, HDRCX250, CX250 HDR-CX260V, HDRCX260V, CX260V HDR-CX280, HDRCX280, CX280 HDR-CX290, HDRCX290, CX290 HDR-CX300, HDRCX300, CX300 HDR-CX320, HDRCX320, CX320 HDR-CX330, HDRCX330, CX330 HDR-CX350, HDRCX350, CX350 HDR-CX350E, HDRCX350E, CX350E HDR-CX350V, HDRCX350V, CX350V HDR-CX360, HDRCX360, CX360 HDR-CX370, HDRCX370, CX370 HDR-CX370V, HDRCX370V, CX370V HDR-CX380, HDRCX380, CX380 HDR-CX390, HDRCX390, CX390 HDR-CX400, HDRCX400, CX400 HDR-CX410, HDRCX410, CX410 HDR-CX430, HDRCX430, CX430 HDR-CX510, HDRCX510, CX510 HDR-CX550, HDRCX550, CX550 HDR-CX550E, HDRCX550E, CX550E HDR-CX550V, HDRCX550V, CX550V HDR-CX560, HDRCX560, CX560 HDR-CX560V, HDRCX560V, CX560V HDR-CX580, HDRCX580, CX580 HDR-CX580V, HDRCX580V, CX580V HDR-CX700, HDRCX700, CX700 HDR-CX700V, HDRCX700V, CX700V HDR-CX730, HDRCX730, CX730 HDR-CX740, HDRCX740, CX740 HDR-CX760, HDRCX760, CX760 HDR-CX760V, HDRCX760V, CX760V HDR-HC9, HDRHC9, HC9 HDR-PJ10, HDRPJ10, PJ10 HDR-PJ200, HDRPJ200, PJ200 HDR-PJ230, HDRPJ230, PJ230 HDR-PJ260, HDRPJ260, PJ260 HDR-PJ26V, HDRPJ26V, PJ26V HDR-PJ30V, HDRPJ30V, PJ30V HDR-PJ320, HDRPJ320, PJ320 HDR-PJ330, HDRPJ330, PJ330 HDR-PJ340, HDRPJ340, PJ340 HDR-PJ350, HDRPJ350, PJ350 HDR-PJ380, HDRPJ380, PJ380 HDR-PJ390, HDRPJ390, PJ390 HDR-PJ420, HDRPJ420, PJ420 HDR-PJ430, HDRPJ430, PJ430 HDR-PJ430V, HDRPJ430V, PJ430V HDR-PJ50V, HDRPJ50V, PJ50V HDR-PJ510, HDRPJ510, PJ510 HDR-PJ540, HDRPJ540, PJ540 HDR-PJ580V, HDRPJ580V, PJ580V HDR-PJ650V, HDRPJ650V, PJ650V HDR-PJ670, HDRPJ670, PJ670 HDR-PJ710V, HDRPJ710V, PJ710V HDR-PJ760V, HDRPJ760V, PJ760V HDR-PJ790V, HDRPJ790V, PJ790V HDR-PJ810, HDRPJ810, PJ810 HDR-TD10V, HDRTD10V, TD10V HDR-TD20V, HDRTD20V, TD20V HDR-TD30V, HDRTD30V, TD30V HDR-XR150, HDRXR150, XR150 HDR-XR150E, HDRXR150E, XR150E HDR-XR155, HDRXR155, XR155 HDR-XR160, HDRXR160, XR160 HDR-XR260V, HDRXR260V, XR260V HDR-XR350, HDRXR350, XR350 HDR-XR350E, HDRXR350E, XR350E HDR-XR350V, HDRXR350V, XR350V HDR-XR550, HDRXR550, XR550 HDR-XR550E, HRDXR550E, XR550E HDR-XR550V, HRDXR550V, XR550V HXR-MC50, HXRMC50, MC50 HXR-MC50E, HXRMC50E, MC50E HXR-MC50U, HXRMC50U, MC50U HXR-NX30, HXRNX30, NX30 HXR-NX70, HXRNX70, NX70</t>
+  </si>
+  <si>
+    <t>NP-FV40, NPFV40, NP-FV50, NPFV50, NP-FV60, NPFV60, NP-FV0, NPFV30.</t>
+  </si>
+  <si>
+    <t>NP-FV70, NPFV70</t>
+  </si>
+  <si>
+    <t>Sony Alpha NEX-F3, Sony NEX-F3 Sony Alpha NEX-7, Sony NEX7 Sony Alpha NEX-6, Sony NEX-6 Sony Alpha NEX-5R, Sony NEX-5R Sony Alpha NEX-5T, Sony NEX-5T Sony Alpha NEX-5, Sony NEX5 Sony Alpha NEX-5N, Sony NEX5N Sony Alpha NEX-3, Sony NEX3 Sony Alpha NEX-3N, Sony NEX3N, Sony NEX-3N Sony Alpha NEX-C3, Sony NEXC3 Sony Alpha NEX-C5, Sony NEXC5 Sony Alpha SLT-A33, SLTA33 Sony Alpha SLT-A37, SLTA37 Sony Alpha SLT-A55, SLTA55 Sony Alpha A3000, Sony A3000 Sony Alpha A3500, Sony A3500 Sony Alpha A5000, Sony A5000 Sony Alpha A5100, Sony A5100 Sony Alpha A6000, Sony A6000 Sony α7, Sony Alpha 7, Sony A7 Sony α7 II, Sony Alpha 7 II, Sony A7II Sony α7R, Sony Alpha 7R, Sony A7R Sony α7R II, Sony Alpha 7R II, Sony A7RII Sony α7S, Sony Alpha 7S, Sony A7S Sony α7S II, Sony Alpha 7S II, Sony A7SII Sony Cybershot DSC-RX10, DSCRX10, RX10 Sony Cybershot DSC-RX10 II, DSCRX10II, RX10 II Sony ILCE-QX1, QX1</t>
   </si>
 </sst>
 </file>
@@ -3190,8 +3247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,9 +3257,9 @@
     <col min="2" max="2" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="19" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="16" customWidth="1"/>
     <col min="8" max="8" width="33" style="18" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3577,6 +3634,9 @@
       <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="E16" s="21" t="s">
+        <v>185</v>
+      </c>
       <c r="H16" s="18" t="s">
         <v>141</v>
       </c>
@@ -3596,6 +3656,9 @@
       <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="E17" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="H17" s="18" t="s">
         <v>141</v>
       </c>
@@ -3615,6 +3678,12 @@
       <c r="D18" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="E18" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>188</v>
+      </c>
       <c r="H18" s="18" t="s">
         <v>141</v>
       </c>
@@ -3634,6 +3703,12 @@
       <c r="D19" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="E19" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>190</v>
+      </c>
       <c r="H19" s="18" t="s">
         <v>141</v>
       </c>
@@ -3653,6 +3728,12 @@
       <c r="D20" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E20" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>192</v>
+      </c>
       <c r="H20" s="18" t="s">
         <v>141</v>
       </c>
@@ -3672,6 +3753,12 @@
       <c r="D21" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="E21" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>194</v>
+      </c>
       <c r="H21" s="18" t="s">
         <v>141</v>
       </c>
@@ -3691,6 +3778,9 @@
       <c r="D22" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="E22" s="21" t="s">
+        <v>195</v>
+      </c>
       <c r="H22" s="18" t="s">
         <v>141</v>
       </c>
@@ -3710,6 +3800,12 @@
       <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="E23" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>196</v>
+      </c>
       <c r="H23" s="18" t="s">
         <v>141</v>
       </c>
@@ -3729,6 +3825,12 @@
       <c r="D24" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="E24" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>198</v>
+      </c>
       <c r="H24" s="18" t="s">
         <v>141</v>
       </c>
@@ -3748,6 +3850,12 @@
       <c r="D25" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="E25" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>200</v>
+      </c>
       <c r="H25" s="18" t="s">
         <v>141</v>
       </c>
@@ -3767,6 +3875,12 @@
       <c r="D26" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="E26" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>202</v>
+      </c>
       <c r="H26" s="18" t="s">
         <v>141</v>
       </c>
@@ -3786,6 +3900,12 @@
       <c r="D27" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="E27" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>203</v>
+      </c>
       <c r="H27" s="18" t="s">
         <v>141</v>
       </c>
@@ -3804,6 +3924,9 @@
       </c>
       <c r="D28" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>141</v>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="219">
   <si>
     <t>NPF975</t>
   </si>
@@ -631,6 +631,48 @@
   </si>
   <si>
     <t>Sony Alpha NEX-F3, Sony NEX-F3 Sony Alpha NEX-7, Sony NEX7 Sony Alpha NEX-6, Sony NEX-6 Sony Alpha NEX-5R, Sony NEX-5R Sony Alpha NEX-5T, Sony NEX-5T Sony Alpha NEX-5, Sony NEX5 Sony Alpha NEX-5N, Sony NEX5N Sony Alpha NEX-3, Sony NEX3 Sony Alpha NEX-3N, Sony NEX3N, Sony NEX-3N Sony Alpha NEX-C3, Sony NEXC3 Sony Alpha NEX-C5, Sony NEXC5 Sony Alpha SLT-A33, SLTA33 Sony Alpha SLT-A37, SLTA37 Sony Alpha SLT-A55, SLTA55 Sony Alpha A3000, Sony A3000 Sony Alpha A3500, Sony A3500 Sony Alpha A5000, Sony A5000 Sony Alpha A5100, Sony A5100 Sony Alpha A6000, Sony A6000 Sony α7, Sony Alpha 7, Sony A7 Sony α7 II, Sony Alpha 7 II, Sony A7II Sony α7R, Sony Alpha 7R, Sony A7R Sony α7R II, Sony Alpha 7R II, Sony A7RII Sony α7S, Sony Alpha 7S, Sony A7S Sony α7S II, Sony Alpha 7S II, Sony A7SII Sony Cybershot DSC-RX10, DSCRX10, RX10 Sony Cybershot DSC-RX10 II, DSCRX10II, RX10 II Sony ILCE-QX1, QX1</t>
+  </si>
+  <si>
+    <t>Fujifilm X-A1 Fujifilm X-A2 Fujifilm X-E1 Fujifilm X-E2 Fujifilm X-M1 Fujifilm X-Pro1 Fujifilm X-T1 Fujifilm X-T1 IR Fujifilm X-T10 Fujifilm FinePix HS30EXR Fujifilm FinePix HS33EXR Fujifilm FinePix HS35EXR Fujifilm FinePix HS50EXR</t>
+  </si>
+  <si>
+    <t>Fuji NP-W126, NPW126</t>
+  </si>
+  <si>
+    <t>Samsung EX2F Samsung L100, L110, L120, L200, L210, L310W, L313 Samsung ES50, ES55 Samsung HZ10W, HZ15W Samsung IT100 Samsung M100, M110, M310W Samsung NV9 Samsung P800, P1000 Samsung PL50, PL51, PL55, PL57, PL60, PL65, PL70 Samsung SL102, SL105, SL202, SL203, SL310, SL310W, SL420, SL502, SL620, SL720, SL820 Samsung TL9 Samsung WB150F Samsung WB250F Samsung WB350F Samsung WB380 Samsung WB500 Samsung WB550 Samsung WB750 Samsung WB850F Samsung WB800F Samsung WB1100F Samsung WB1101F Samsung WB1102 Samsung WB2100 Samsung HMX-U100 Samsung HMX-U100UN, HMXU100UN, U100UN Samsung HMX-U100SN, HMXU100SN, U100SN</t>
+  </si>
+  <si>
+    <t>Samsung SLB-10A, SLB10A, 4302-001221, 4302001221</t>
+  </si>
+  <si>
+    <t>AG-AC7, AGAC7, AC7 AG-HMC40, AGHMC40, HMC40 AG-HMC70, AGHMC70, HMC70 AG-HMC150, AGHMC150, HMC150 HDC-DX1, HDCDX1, HDCDX1 HDC-DX3, HDCDX3, HDCDX3 HDC-HS100 HDC-HS100GK, HDCHS100GK, HS100GK HDC-HS20 HDC-HS20K, HDCHS20K, HS20K HDC-HS200 HDC-HS200K, HDCHS200K, HS200K HDC-HS250 HDC-HS250K, HDCHS250K, HS250K HDC-HS300 HDC-HS300K, HDCHS300K, HS300K HDC-HS700 HDC-HS700K, HDCHS700K, HS700K HDC-HS9, HDCHS9, HS9 HDC-SD100 HDC-SD100GK, HDCSD100GK, SD100GK HDC-SD200, HDCSD200, SD200 HDC-SD20 HDC-SD20K, HDCSD20K, SD20K HDC-SD3, HDCSD3, SD3 HDC-SD9, HDCSD9, SD9 HDC-SD600 HDC-SD600K, HDCSD600K, SD600K HDC-SD700 HDC-SD700K, HDCSD700K, SD700K HDC-SX5, HDCSX5, SX5 HDC-SDT750 HDC-SDT750K, HDCSDT750K, SDT750K HDC-TM20 HDC-TM20K, HDCTM20K, TM20K HDC-TM20K8, HDCTM20K8, TM20K8 HDC-TM20R, HDCTM20R, TM20R HDC-TM20S, HDCTM20S, TM20S HDC-TM300 HDC-TM300K, HDCTM300K, TM300K HDC-TM700 HDC-TM700K, HDCTM700K, TM700K PV-GS90, PVGS90, GS90 SDR-H40 SDR-H41 SDR-H50 SDR-H60 SDR-H79 SDR-H79K, SDRH79K, H79K SDR-H79P, SDRH79P, H79P SDR-H80 SDR-H80S, SDRH80S, H80S SDR-H80K, SDRH80K, H80K SDR-H80A, SDRH80A, H80A SDR-H80R, SDRH80R, H80R SDR-H90 SDR-H90K, SDRH90K, H90K VDR-D50 VDR-D50P, VDRD50P, D50P VDR-D51, VDRD51, D51</t>
+  </si>
+  <si>
+    <t>VW-VBG260, VW-VBG260K, VW-VBG260E, VW-VBG260PP, VWVBG260, VWVBG260K, VWVBG260E, VWVBG260PP</t>
+  </si>
+  <si>
+    <t>AG-AC7, AGAC7, AC7 AG-AC130A, AGAC130A, AC130A AG-AC160A, AGAC160A, AC160A AG-HMC40, AGHMC40, HMC40 AG-HMC70, AGHMC70, HMC70 AG-HMC150, AGHMC150, HMC150 HDC-DX1, HDCDX1, HDCDX1 HDC-DX3, HDCDX3, HDCDX3 HDC-HS100 HDC-HS100GK, HDCHS100GK, HS100GK HDC-HS20 HDC-HS20K, HDCHS20K, HS20K HDC-HS200 HDC-HS200K, HDCHS200K, HS200K HDC-HS250 HDC-HS250K, HDCHS250K, HS250K HDC-HS300 HDC-HS300K, HDCHS300K, HS300K HDC-HS700 HDC-HS700K, HDCHS700K, HS700K HDC-HS9, HDCHS9, HS9 HDC-SD100 HDC-SD100GK, HDCSD100GK, SD100GK HDC-SD200, HDCSD200, SD200 HDC-SD20 HDC-SD20K, HDCSD20K, SD20K HDC-SD3, HDCSD3, SD3 HDC-SD9, HDCSD9, SD9 HDC-SD600 HDC-SD600K, HDCSD600K, SD600K HDC-SD700 HDC-SD700K, HDCSD700K, SD700K HDC-SX5, HDCSX5, SX5 HDC-SDT750 HDC-SDT750K, HDCSDT750K, SDT750K HDC-TM20 HDC-TM20K, HDCTM20K, TM20K HDC-TM20K8, HDCTM20K8, TM20K8 HDC-TM20R, HDCTM20R, TM20R HDC-TM20S, HDCTM20S, TM20S HDC-TM300 HDC-TM300K, HDCTM300K, TM300K HDC-TM700 HDC-TM700K, HDCTM700K, TM700K PV-GS90, PVGS90, GS90 SDR-H79 SDR-H79K, SDRH79K, H79K SDR-H79P, SDRH79P, H79P SDR-H80 SDR-H80S, SDRH80S, H80S SDR-H80K, SDRH80K, H80K SDR-H80A, SDRH80A, H80A SDR-H80R, SDRH80R, H80R SDR-H90 SDR-H90K, SDRH90K, H90K VDR-D50 VDR-D50P, VDRD50P, D50P VDR-D51, VDRD51, D51</t>
+  </si>
+  <si>
+    <t>VW-VBG6, VW-VBG6K, VW-VBG6E, VW-VBG6PP, VWVBG6, VWVBG6K, VWVBG6E, VWVBG6PP</t>
+  </si>
+  <si>
+    <t>HC-V10 HC-V10K, HCV10K, V10K HC-V100 HC-V100K, HCV100K, V100K HC-V100M, HCV100M, V100M HC-V500 HC-V500K, HCV500K, V500K HC-V500M, HCV500M, V500M HDC-SD40 HDC-SD40K, HDCSD40K, SD40K HDC-SD60 HDC-SD60K, HDCSD60K, SD60K HDC-SD60S, HDCSD60S, SD60S HDC-SD80 HDC-SD80K, HDCSD80K, SD80K HDC-SD80S, HDCSD80S, SD80S HDC-SD80R, HDCSD80R, SD80R HDC-SD90 HDC-SD90K, HDCSD90K, SD90K HDC-SDX1 HDC-SDX1H, HDCSDX1H, SDX1H HDC-TMX1, HDCTMX1, TMX1 HDC-TM40 HDC-TM40K, HDCTM40K, TM40K HDC-TM41 HDC-TM41H, HDCTM41H, TM41H HDC-TM55 HDC-TM55K, HDCTM55K, TM55K HDC-TM60 HDC-TM60K, HDCTM60K, TM60K HDC-TM80 HDC-TM80K, HDCTM80K, TM80K HDC-TM80S, HDCTM80S, TM80S HDC-TM80R, HDCTM80R, TM80R HDC-TM90 HDC-TM90K, HDCTM90K, TM90K HDC-TMX1, HDCTMX1, TMX1 HDC-HS40 HDC-HS40K, HDCHS40K, HS40K HDC-HS60 HDC-HS60K, HDCHS60K, HS60K HDC-HS80 HDC-HS80K, HDCHS80K, HS80K SDR-H85 SDR-H85A, SDRH85A, H85A SDR-H85K, SDRH85K, H85K SDR-H85S, SDRH85S, H85S SDR-H95 SDR-H95K, SDRH95K, H95K SDR-H100 SDR-H100K, SDRH100K, H100K SDR-H100S, SDRH100S, H100S SDR-H100R, SDRH100R, H100R SDR-H101 SDR-H101K, SDRH101K, H101K SDR-H101R, SDRH101R, H101R SDR-HS60 SDR-HS60K, SDRHS60K, HS60K SDR-HS80 SDR-HS80K, SDRHS80K, HS80K SDR-S45, SDRS45, S45 SDR-S50 SDR-S50A, SDRS50A, S50A SDR-S50K, SDRS50K, S50K SDR-S50N, SDRS50N, S50N SDR-S70 SDR-S70K, SDRS70K, S70K SDR-S70S, SDRS70S, S70S SDR-S70R, SDRS70R, S70R SDR-S71 SDR-S71K, SDRS71K, S71K SDR-T50 SDR-T50K, SDRT50K, T50K SDR-T55 SDR-T55K, SDRT55K, T55K SDR-T70 SDR-T70K, SDRT70K, T70K SDR-T71 SDR-T71K, SDRT71K, T71K SDR-T76 SDR-T76K, SDRT76K, T76K</t>
+  </si>
+  <si>
+    <t>VW-VBL090, VWVBL090, VBL090, VW-VBL90, VWVBL90, VBL90, VW-VBK180, VW-VBK180K, VW-VBK180PP, VWVBK180, VWVBK180K, VWVBK180PP, VW-VBK180E, VWVBK180E, VW-VBK360, VW-VBK360K, VW-VBK360PP, VWVBK360, VWVBK360K, VWVBK360PP, VW-VBK360E, VWVBK360E</t>
+  </si>
+  <si>
+    <t>HC-X900, HCX900, X900 HC-X920, HCX920, X920 HDC-HS900 HDC-HS900K, HDCHS900K, HS900K HDC-SD800 HDC-SD800K, HDCSD800K, SD800K HDC-SD900 HDC-SD900K, HDCSD900K, SD900K HDC-SD909 HDC-SD909K, HDCSD909K, SD909K HDC-TM900 HDC-TM900K, HDCTM900K, TM900K</t>
+  </si>
+  <si>
+    <t>VW-VBN130, VW-VBN130K, VW-VBN130PP, VW-VBN130E, VWVBN130, VWVBN130K, VWVBN130PP, VWVBN130E</t>
+  </si>
+  <si>
+    <t>VW-VBN260, VW-VBN260K, VW-VBN260PP, VW-VBN260E, VWVBN260, VWVBN260K, VWVBN260PP, VWVBN260E</t>
+  </si>
+  <si>
+    <t>GC-PX10, GCPX10, PX10 GC-PX100, GCPX100, PX100 GR-D720US, GRD720US, D720US GR-D720EK, GRD720EK, D720EK GR-D720EX, GRD720EX, D720EX GR-D720, GRD720 GR-D725US, GRD725US, D725US GR-D725EK, GRD725EK, D725EK GR-D725EX, GRD725EX, D725EX GR-D725, GRD725 GR-D726US, GRD726US, D726US GR-D726EK, GRD726EK, D726EK GR-D726EX, GRD726EX, D726EX GR-D726, GRD726 GR-D728US, GRD728US, D728US GR-D728EK, GRD728EK, D728EK GR-D728EX, GRD728EX, D728EX GR-D728, GRD728 GR-D740US, GRD740US, D740US GR-D740EK, GRD740EK, D740EK GR-D740EX, GRD740EX, D740EX GR-D740, GRD740 GR-D745US, GRD745US, D745US GR-D745EK, GRD745EK, D745EK GR-D745EX, GRD745EX, D745EX GR-D745, GRD745 GR-D746US, GRD746US, D746US GR-D746EK, GRD746EK, D746EK GR-D746EX, GRD746EX, D746EX GR-D746, GRD746 GR-D750US, GRD750US, D750US GR-D750EK, GRD750EK, D750EK GR-D750EX, GRD750EX, D750EX GR-D750, GRD750 GR-D760US, GRD760US, D760US GR-D760EK, GRD760EK, D760EK GR-D760EX, GRD760EX, D760EX GR-D760, GRD760 GR-D770US, GRD770US, D770US GR-D770EK, GRD770EK, D770EK GR-D770EX, GRD770EX, D770EX GR-D770, GRD770 GR-D770E, GRD770E, D770E GR-D770VS, GRD770VS, D770VS GR-D771US, GRD771US, D771US GR-D771EK, GRD771EK, D771EK GR-D771EX, GRD771EX, D771EX GR-D771, GRD771 GR-D775US, GRD775US, D775US GR-D775EK, GRD775EK, D775EK GR-D775EX, GRD775EX, D775EX GR-D775, GRD775 GR-D790US, GRD790US, D790US GR-D790EK, GRD790EK, D790EK GR-D790EX, GRD790EX, D790EX GR-D790, GRD790 GR-D796US, GRD796US, D796US GR-D796EK, GRD796EK, D796EK GR-D796EX, GRD796EX, D796EX GR-D796, GRD796 GR-D850US, GRD850US, D850US GR-D850EK, GRD850EK, D850EK GR-D850EX, GRD850EX, D850EX GR-D850, GRD850 GR-D870US, GRD870US, D870US GR-D870EK, GRD870EK, D870EK GR-D870EX, GRD870EX, D870EX GR-D870, GRD870 GR-D875US, GRD875US, D875US GR-D875EK, GRD875EK, D875EK GR-D875EX, GRD875EX, D875EX GR-D875, GRD875 GR-DA30US, GRDA30US, DA30US GR-DA30, GRDA30 GS-TD1, GSTD1, TD1 GY-HM70U, GYHM70U GY-HM100, GYHM100 GY-HM100U, GYHM100U GY-HM100E, GYHM100E GY-HM100EC, GYHM100EC GY-HM150, GYHM150 GY-HM150U, GYHM150U GY-HM150E, GYHM150E GY-HMZ1, GYHMZ1 GY-HMZ1E, GYHMZ1E GY-HMZ1U, GYHMZ1U Everio GZ-MG130US, GZMG130US, MG130US Everio GZ-MG130EK, GZMG130EK, MG130EK Everio GZ-MG130EX, GZMG130EX, MG130EX Everio GZ-MG130, GZMG130 Everio GZ-MG131US, GZMG131US, MG131US Everio GZ-MG131EK, GZMG131EK, MG131EK Everio GZ-MG131EX, GZMG131EX, MG131EX Everio GZ-MG131, GZMG131 Everio GZ-MG132US, GZMG132US, MG132US Everio GZ-MG132EK, GZMG132EK, MG132EK Everio GZ-MG132EX, GZMG132EX, MG132EX Everio GZ-MG132, GZMG132 Everio GZ-MG133US, GZMG133US, MG133US Everio GZ-MG133EK, GZMG133EK, MG133EK Everio GZ-MG133EX, GZMG133EX, MG133EX Everio GZ-MG133, GZMG133 Everio GZ-MG134US, GZMG134US, MG134US Everio GZ-MG134EK, GZMG134EK, MG134EK Everio GZ-MG134EX, GZMG134EX, MG134EX Everio GZ-MG134, GZMG134 Everio GZ-MG135US, GZMG135US, MG135US Everio GZ-MG135EK, GZMG135EK, MG135EK Everio GZ-MG135EX, GZMG135EX, MG135EX Everio GZ-MG135, GZMG135 Everio GZ-MG148US, GZMG148US, MG148US Everio GZ-MG148EK, GZMG148EK, MG148EK Everio GZ-MG148EX, GZMG148EX, MG148EX Everio GZ-MG148, GZMG148 Everio GZ-MG150US, GZMG150US, MG150US Everio GZ-MG150EK, GZMG150EK, MG150EK Everio GZ-MG150EX, GZMG150EX, MG150EX Everio GZ-MG150, GZMG150 Everio GZ-MG155US, GZMG155US, MG155US Everio GZ-MG155EK, GZMG155EK, MG155EK Everio GZ-MG155EX, GZMG155EX, MG155EX Everio GZ-MG155, GZMG155 Everio GZ-MG157US, GZMG157US, MG157US Everio GZ-MG157EK, GZMG157EK, MG157EK Everio GZ-MG157EX, GZMG157EX, MG157EX Everio GZ-MG157, GZMG157 Everio GZ-MG175US, GZMG175US, MG175US Everio GZ-MG175EK, GZMG175EK, MG175EK Everio GZ-MG175EX, GZMG175EX, MG175EX Everio GZ-MG175, GZMG175 Everio GZ-MG177US, GZMG177US, MG177US Everio GZ-MG177EK, GZMG177EK, MG177EK Everio GZ-MG177EX, GZMG177EX, MG177EX Everio GZ-MG177, GZMG177 Everio GZ-MG230, GZMG230, MG230 Everio GZ-MG255US, GZMG255US, MG255US Everio GZ-MG255EK, GZMG255EK, MG255EK Everio GZ-MG255EX, GZMG255EX, MG255EX Everio GZ-MG255, GZMG255 Everio GZ-MG275US, GZMG275US, MG275US Everio GZ-MG275EK, GZMG275EK, MG275EK Everio GZ-MG275EX, GZMG275EX, MG275EX Everio GZ-MG275, GZMG275 Everio GZ-MG275E, GZMG275E Everio GZ-MG330, GZMG330 Everio GZ-MG330A, GZMG330A Everio GZ-MG330H, GZMG330H Everio GZ-MG330R, GZMG330R Everio GZ-MG330HUS, GZMG330HUS, MG330HUS Everio GZ-MG330RUS, GZMG330RUS, MG330RUS Everio GZ-MG330AUS, GZMG330AUS, MG330US Everio GZ-MG335, GZMG335 Everio GZ-MG335H, GZMG335H Everio GZ-MG335W, GZMG335W Everio GZ-MG335HUS, GZMG335HUS, MG335HUS Everio GZ-MG335WUS, GZMG335WUS, MG335WUS Everio GZ-MG340, GZMG340 Everio GZ-MG340B, GZMG340B Everio GZ-MG340BUS, GZMG340BUS, MG340BUS Everio GZ-MG360, GZMG360 Everio GZ-MG360B, GZMG360B Everio GZ-MG360BUS, GZMG360BUS, MG360BUS Everio GZ-MG365, GZMG365 Everio GZ-MG365B, GZMG365B Everio GZ-MG365BUS, GZMG365BUS, MG365BUS Everio GZ-MG430, GZMG430 Everio GZ-MG430H, GZMG430H Everio GZ-MG430HUS, GZMG430HUS, MG430HUS Everio GZ-MG435, GZMG435 Everio GZ-MG435H, GZMG435H Everio GZ-MG435HUS, GZMG435HUS, MG435HUS Everio GZ-MG465, GZMG465 Everio GZ-MG465B, GZMG465B Everio GZ-MG465BUS, GZMG465BUS, MG465BUS Everio GZ-MG555US, GZMG555US, MG555US Everio GZ-MG555EK, GZMG555EK, MG555EK Everio GZ-MG555EX, GZMG555EX, MG555EX Everio GZ-MG555, GZMG555 Everio GZ-MG575US, GZMG575US, MG575US Everio GZ-MG575EK, GZMG575EK, MG575EK Everio GZ-MG575EX, GZMG575EX, MG575EX Everio GZ-MG575, GZMG575 GZ-MG630A, GZMG630A, MG630A GZ-MG630R, GZMG630R, MG630R GZ-MG630S, GZMG630S, MG630S GZ-MG630US, GZMG630US, MG630US GZ-MG670B, GZMG670B, MG670B GZ-MG670US, GZMG670US, MG670US GZ-MG680B, GZMG680B, MG680B GZ-MG680US, GZMG680US, MG680US GZ-MG730US, GZMG730US, MG730US Everio GZ-MS100, GZMS100 Everio GZ-MS100US, GZMS100US, MS100US Everio GZ-MS100RUS, GZMS100RUS, MS100RUS Everio GZ-MS100R, GZMS100R Everio GZ-MS120, GZMS120, MS120 Everio GZ-MS120A, GZMS120A, MS120A Everio GZ-MS120R, GZMS120R, MS120R Everio GZ-MS120B, GZMS120B, MS120B Everio GZ-MS130, GZMS130 Everio GZ-MS130A, GZMS130A, MS130A Everio GZ-MS130R, GZMS130R, MS130R Everio GZ-MS130B, GZMS130B, MS130B Everio GZ-HD3US, GZHD3US, HD3US Everio GZ-HD3EK, GZHD3EK, HD3EK Everio GZ-HD3EX, GZHD3EX, HD3EX Everio GZ-HD3, GZHD3 Everio GZ-HD5US, GZHD5US, HD5US Everio GZ-HD5EK, GZHD5EK, HD5EK Everio GZ-HD5EX, GZHD5EX, HD5EX Everio GZ-HD5, GZHD5 Everio GZ-HD6US, GZHD6US, HD6US Everio GZ-HD6EK, GZHD6EK, HD6EK Everio GZ-HD6EX, GZHD6EX, HD6EX Everio GZ-HD6, GZHD6 Everio GZ-HD7US, GZHD7US, HD7US Everio GZ-HD7EK, GZHD7EK, HD7EK Everio GZ-HD7EX, GZHD7EX, HD7EX Everio GZ-HD7, GZHD7 Everio GZ-HD10US, GZHD10US, HD10US Everio GZ-HD10EK, GZHD10EK, HD10EK Everio GZ-HD10EX, GZHD10EX, HD10EX Everio GZ-HD10, GZHD10 Everio GZ-HD30US, GZHD30US, HD30US Everio GZ-HD30EK, GZHD30EK, HD30EK Everio GZ-HD30EX, GZHD30EX, HD30EX Everio GZ-HD30, GZHD30 Everio GZ-HD40US, GZHD40US, HD40US Everio GZ-HD40EK, GZHD40EK, HD40EK Everio GZ-HD40EX, GZHD40EX, HD40EX Everio GZ-HD40, GZHD40 GZ-HD300, GZHD300 GZ-HD300B, GZHD300B, HD300B GZ-HD300R, GZHD300R, HD300R GZ-HD300A, GZHD300A, HD300A GZ-HD200B, GZHD200B, HD200B GZ-HD200R, GZHD200R, HD200R GZ-HD200A, GZHD200A, HD200A GZ-HM1, GZHM1, HM1 GZ-HM200, GZHM200, HM200 GZ-HM400, GZHM400, HM400 GZ-X900, GZX900, X900 Victor JVC BN-VF815U, BN-VF815, BNVF815U, BNVF815, BN-VF815US, BNVF815US, BN-VF815USM, BNVF815USM, BN-VF815JP, BNVF815JP</t>
   </si>
 </sst>
 </file>
@@ -3247,8 +3289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3947,6 +3989,12 @@
       <c r="D29" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="E29" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>206</v>
+      </c>
       <c r="H29" s="18" t="s">
         <v>141</v>
       </c>
@@ -3966,6 +4014,12 @@
       <c r="D30" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="E30" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>208</v>
+      </c>
       <c r="H30" s="18" t="s">
         <v>141</v>
       </c>
@@ -3985,6 +4039,12 @@
       <c r="D31" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="E31" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>210</v>
+      </c>
       <c r="H31" s="18" t="s">
         <v>141</v>
       </c>
@@ -4004,6 +4064,12 @@
       <c r="D32" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="E32" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>212</v>
+      </c>
       <c r="H32" s="18" t="s">
         <v>141</v>
       </c>
@@ -4023,6 +4089,12 @@
       <c r="D33" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="E33" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>214</v>
+      </c>
       <c r="H33" s="18" t="s">
         <v>141</v>
       </c>
@@ -4042,6 +4114,12 @@
       <c r="D34" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="E34" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>214</v>
+      </c>
       <c r="H34" s="18" t="s">
         <v>141</v>
       </c>
@@ -4061,6 +4139,12 @@
       <c r="D35" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="E35" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>216</v>
+      </c>
       <c r="H35" s="18" t="s">
         <v>141</v>
       </c>
@@ -4080,6 +4164,12 @@
       <c r="D36" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="E36" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>217</v>
+      </c>
       <c r="H36" s="18" t="s">
         <v>141</v>
       </c>
@@ -4098,6 +4188,9 @@
       </c>
       <c r="D37" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>141</v>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Ecost\Bundle Templates\Excel\AMZ\Data-Extract\MAZ-KW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="345" windowWidth="12195" windowHeight="9510" activeTab="1"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Good Looks" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -492,9 +497,6 @@
     <t>Keywords</t>
   </si>
   <si>
-    <t xml:space="preserve">Original </t>
-  </si>
-  <si>
     <t>Main Keywords</t>
   </si>
   <si>
@@ -673,13 +675,16 @@
   </si>
   <si>
     <t>GC-PX10, GCPX10, PX10 GC-PX100, GCPX100, PX100 GR-D720US, GRD720US, D720US GR-D720EK, GRD720EK, D720EK GR-D720EX, GRD720EX, D720EX GR-D720, GRD720 GR-D725US, GRD725US, D725US GR-D725EK, GRD725EK, D725EK GR-D725EX, GRD725EX, D725EX GR-D725, GRD725 GR-D726US, GRD726US, D726US GR-D726EK, GRD726EK, D726EK GR-D726EX, GRD726EX, D726EX GR-D726, GRD726 GR-D728US, GRD728US, D728US GR-D728EK, GRD728EK, D728EK GR-D728EX, GRD728EX, D728EX GR-D728, GRD728 GR-D740US, GRD740US, D740US GR-D740EK, GRD740EK, D740EK GR-D740EX, GRD740EX, D740EX GR-D740, GRD740 GR-D745US, GRD745US, D745US GR-D745EK, GRD745EK, D745EK GR-D745EX, GRD745EX, D745EX GR-D745, GRD745 GR-D746US, GRD746US, D746US GR-D746EK, GRD746EK, D746EK GR-D746EX, GRD746EX, D746EX GR-D746, GRD746 GR-D750US, GRD750US, D750US GR-D750EK, GRD750EK, D750EK GR-D750EX, GRD750EX, D750EX GR-D750, GRD750 GR-D760US, GRD760US, D760US GR-D760EK, GRD760EK, D760EK GR-D760EX, GRD760EX, D760EX GR-D760, GRD760 GR-D770US, GRD770US, D770US GR-D770EK, GRD770EK, D770EK GR-D770EX, GRD770EX, D770EX GR-D770, GRD770 GR-D770E, GRD770E, D770E GR-D770VS, GRD770VS, D770VS GR-D771US, GRD771US, D771US GR-D771EK, GRD771EK, D771EK GR-D771EX, GRD771EX, D771EX GR-D771, GRD771 GR-D775US, GRD775US, D775US GR-D775EK, GRD775EK, D775EK GR-D775EX, GRD775EX, D775EX GR-D775, GRD775 GR-D790US, GRD790US, D790US GR-D790EK, GRD790EK, D790EK GR-D790EX, GRD790EX, D790EX GR-D790, GRD790 GR-D796US, GRD796US, D796US GR-D796EK, GRD796EK, D796EK GR-D796EX, GRD796EX, D796EX GR-D796, GRD796 GR-D850US, GRD850US, D850US GR-D850EK, GRD850EK, D850EK GR-D850EX, GRD850EX, D850EX GR-D850, GRD850 GR-D870US, GRD870US, D870US GR-D870EK, GRD870EK, D870EK GR-D870EX, GRD870EX, D870EX GR-D870, GRD870 GR-D875US, GRD875US, D875US GR-D875EK, GRD875EK, D875EK GR-D875EX, GRD875EX, D875EX GR-D875, GRD875 GR-DA30US, GRDA30US, DA30US GR-DA30, GRDA30 GS-TD1, GSTD1, TD1 GY-HM70U, GYHM70U GY-HM100, GYHM100 GY-HM100U, GYHM100U GY-HM100E, GYHM100E GY-HM100EC, GYHM100EC GY-HM150, GYHM150 GY-HM150U, GYHM150U GY-HM150E, GYHM150E GY-HMZ1, GYHMZ1 GY-HMZ1E, GYHMZ1E GY-HMZ1U, GYHMZ1U Everio GZ-MG130US, GZMG130US, MG130US Everio GZ-MG130EK, GZMG130EK, MG130EK Everio GZ-MG130EX, GZMG130EX, MG130EX Everio GZ-MG130, GZMG130 Everio GZ-MG131US, GZMG131US, MG131US Everio GZ-MG131EK, GZMG131EK, MG131EK Everio GZ-MG131EX, GZMG131EX, MG131EX Everio GZ-MG131, GZMG131 Everio GZ-MG132US, GZMG132US, MG132US Everio GZ-MG132EK, GZMG132EK, MG132EK Everio GZ-MG132EX, GZMG132EX, MG132EX Everio GZ-MG132, GZMG132 Everio GZ-MG133US, GZMG133US, MG133US Everio GZ-MG133EK, GZMG133EK, MG133EK Everio GZ-MG133EX, GZMG133EX, MG133EX Everio GZ-MG133, GZMG133 Everio GZ-MG134US, GZMG134US, MG134US Everio GZ-MG134EK, GZMG134EK, MG134EK Everio GZ-MG134EX, GZMG134EX, MG134EX Everio GZ-MG134, GZMG134 Everio GZ-MG135US, GZMG135US, MG135US Everio GZ-MG135EK, GZMG135EK, MG135EK Everio GZ-MG135EX, GZMG135EX, MG135EX Everio GZ-MG135, GZMG135 Everio GZ-MG148US, GZMG148US, MG148US Everio GZ-MG148EK, GZMG148EK, MG148EK Everio GZ-MG148EX, GZMG148EX, MG148EX Everio GZ-MG148, GZMG148 Everio GZ-MG150US, GZMG150US, MG150US Everio GZ-MG150EK, GZMG150EK, MG150EK Everio GZ-MG150EX, GZMG150EX, MG150EX Everio GZ-MG150, GZMG150 Everio GZ-MG155US, GZMG155US, MG155US Everio GZ-MG155EK, GZMG155EK, MG155EK Everio GZ-MG155EX, GZMG155EX, MG155EX Everio GZ-MG155, GZMG155 Everio GZ-MG157US, GZMG157US, MG157US Everio GZ-MG157EK, GZMG157EK, MG157EK Everio GZ-MG157EX, GZMG157EX, MG157EX Everio GZ-MG157, GZMG157 Everio GZ-MG175US, GZMG175US, MG175US Everio GZ-MG175EK, GZMG175EK, MG175EK Everio GZ-MG175EX, GZMG175EX, MG175EX Everio GZ-MG175, GZMG175 Everio GZ-MG177US, GZMG177US, MG177US Everio GZ-MG177EK, GZMG177EK, MG177EK Everio GZ-MG177EX, GZMG177EX, MG177EX Everio GZ-MG177, GZMG177 Everio GZ-MG230, GZMG230, MG230 Everio GZ-MG255US, GZMG255US, MG255US Everio GZ-MG255EK, GZMG255EK, MG255EK Everio GZ-MG255EX, GZMG255EX, MG255EX Everio GZ-MG255, GZMG255 Everio GZ-MG275US, GZMG275US, MG275US Everio GZ-MG275EK, GZMG275EK, MG275EK Everio GZ-MG275EX, GZMG275EX, MG275EX Everio GZ-MG275, GZMG275 Everio GZ-MG275E, GZMG275E Everio GZ-MG330, GZMG330 Everio GZ-MG330A, GZMG330A Everio GZ-MG330H, GZMG330H Everio GZ-MG330R, GZMG330R Everio GZ-MG330HUS, GZMG330HUS, MG330HUS Everio GZ-MG330RUS, GZMG330RUS, MG330RUS Everio GZ-MG330AUS, GZMG330AUS, MG330US Everio GZ-MG335, GZMG335 Everio GZ-MG335H, GZMG335H Everio GZ-MG335W, GZMG335W Everio GZ-MG335HUS, GZMG335HUS, MG335HUS Everio GZ-MG335WUS, GZMG335WUS, MG335WUS Everio GZ-MG340, GZMG340 Everio GZ-MG340B, GZMG340B Everio GZ-MG340BUS, GZMG340BUS, MG340BUS Everio GZ-MG360, GZMG360 Everio GZ-MG360B, GZMG360B Everio GZ-MG360BUS, GZMG360BUS, MG360BUS Everio GZ-MG365, GZMG365 Everio GZ-MG365B, GZMG365B Everio GZ-MG365BUS, GZMG365BUS, MG365BUS Everio GZ-MG430, GZMG430 Everio GZ-MG430H, GZMG430H Everio GZ-MG430HUS, GZMG430HUS, MG430HUS Everio GZ-MG435, GZMG435 Everio GZ-MG435H, GZMG435H Everio GZ-MG435HUS, GZMG435HUS, MG435HUS Everio GZ-MG465, GZMG465 Everio GZ-MG465B, GZMG465B Everio GZ-MG465BUS, GZMG465BUS, MG465BUS Everio GZ-MG555US, GZMG555US, MG555US Everio GZ-MG555EK, GZMG555EK, MG555EK Everio GZ-MG555EX, GZMG555EX, MG555EX Everio GZ-MG555, GZMG555 Everio GZ-MG575US, GZMG575US, MG575US Everio GZ-MG575EK, GZMG575EK, MG575EK Everio GZ-MG575EX, GZMG575EX, MG575EX Everio GZ-MG575, GZMG575 GZ-MG630A, GZMG630A, MG630A GZ-MG630R, GZMG630R, MG630R GZ-MG630S, GZMG630S, MG630S GZ-MG630US, GZMG630US, MG630US GZ-MG670B, GZMG670B, MG670B GZ-MG670US, GZMG670US, MG670US GZ-MG680B, GZMG680B, MG680B GZ-MG680US, GZMG680US, MG680US GZ-MG730US, GZMG730US, MG730US Everio GZ-MS100, GZMS100 Everio GZ-MS100US, GZMS100US, MS100US Everio GZ-MS100RUS, GZMS100RUS, MS100RUS Everio GZ-MS100R, GZMS100R Everio GZ-MS120, GZMS120, MS120 Everio GZ-MS120A, GZMS120A, MS120A Everio GZ-MS120R, GZMS120R, MS120R Everio GZ-MS120B, GZMS120B, MS120B Everio GZ-MS130, GZMS130 Everio GZ-MS130A, GZMS130A, MS130A Everio GZ-MS130R, GZMS130R, MS130R Everio GZ-MS130B, GZMS130B, MS130B Everio GZ-HD3US, GZHD3US, HD3US Everio GZ-HD3EK, GZHD3EK, HD3EK Everio GZ-HD3EX, GZHD3EX, HD3EX Everio GZ-HD3, GZHD3 Everio GZ-HD5US, GZHD5US, HD5US Everio GZ-HD5EK, GZHD5EK, HD5EK Everio GZ-HD5EX, GZHD5EX, HD5EX Everio GZ-HD5, GZHD5 Everio GZ-HD6US, GZHD6US, HD6US Everio GZ-HD6EK, GZHD6EK, HD6EK Everio GZ-HD6EX, GZHD6EX, HD6EX Everio GZ-HD6, GZHD6 Everio GZ-HD7US, GZHD7US, HD7US Everio GZ-HD7EK, GZHD7EK, HD7EK Everio GZ-HD7EX, GZHD7EX, HD7EX Everio GZ-HD7, GZHD7 Everio GZ-HD10US, GZHD10US, HD10US Everio GZ-HD10EK, GZHD10EK, HD10EK Everio GZ-HD10EX, GZHD10EX, HD10EX Everio GZ-HD10, GZHD10 Everio GZ-HD30US, GZHD30US, HD30US Everio GZ-HD30EK, GZHD30EK, HD30EK Everio GZ-HD30EX, GZHD30EX, HD30EX Everio GZ-HD30, GZHD30 Everio GZ-HD40US, GZHD40US, HD40US Everio GZ-HD40EK, GZHD40EK, HD40EK Everio GZ-HD40EX, GZHD40EX, HD40EX Everio GZ-HD40, GZHD40 GZ-HD300, GZHD300 GZ-HD300B, GZHD300B, HD300B GZ-HD300R, GZHD300R, HD300R GZ-HD300A, GZHD300A, HD300A GZ-HD200B, GZHD200B, HD200B GZ-HD200R, GZHD200R, HD200R GZ-HD200A, GZHD200A, HD200A GZ-HM1, GZHM1, HM1 GZ-HM200, GZHM200, HM200 GZ-HM400, GZHM400, HM400 GZ-X900, GZX900, X900 Victor JVC BN-VF815U, BN-VF815, BNVF815U, BNVF815, BN-VF815US, BNVF815US, BN-VF815USM, BNVF815USM, BN-VF815JP, BNVF815JP</t>
+  </si>
+  <si>
+    <t>Original1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,6 +735,15 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -835,7 +849,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -851,6 +864,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,6 +875,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -909,7 +926,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -944,7 +961,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1238,7 +1255,7 @@
         <v>XTBP1130</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="2">"XTCH"&amp;A3</f>
+        <f t="shared" ref="C3:C40" si="2">"XTCH"&amp;A3</f>
         <v>XTCHBP1130</v>
       </c>
       <c r="D3" t="str">
@@ -3289,44 +3306,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="33" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="33" style="17" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>158</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3337,20 +3352,20 @@
         <f>RIGHT(A2, LEN(A2)-2)</f>
         <v>BCF10</v>
       </c>
-      <c r="C2" s="15" t="str">
+      <c r="C2" s="14" t="str">
         <f>"XTCH"&amp;B2</f>
         <v>XTCHBCF10</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3362,20 +3377,20 @@
         <f t="shared" ref="B3:B66" si="0">RIGHT(A3, LEN(A3)-2)</f>
         <v>BP1130</v>
       </c>
-      <c r="C3" s="15" t="str">
+      <c r="C3" s="14" t="str">
         <f t="shared" ref="C3:C66" si="1">"XTCH"&amp;B3</f>
         <v>XTCHBP1130</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3387,17 +3402,17 @@
         <f t="shared" si="0"/>
         <v>ENEL23</v>
       </c>
-      <c r="C4" s="15" t="str">
+      <c r="C4" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHENEL23</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3409,20 +3424,20 @@
         <f t="shared" si="0"/>
         <v>NB10L</v>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB10L</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3434,17 +3449,17 @@
         <f t="shared" si="0"/>
         <v>NB11L</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB11L</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="18" t="s">
+      <c r="E6" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3456,17 +3471,17 @@
         <f t="shared" si="0"/>
         <v>NB2LH</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB2LH</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="E7" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3478,20 +3493,20 @@
         <f t="shared" si="0"/>
         <v>NB4L</v>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB4L</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3503,20 +3518,20 @@
         <f t="shared" si="0"/>
         <v>NB5L</v>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C9" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB5L</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3528,20 +3543,20 @@
         <f t="shared" si="0"/>
         <v>NB6L</v>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C10" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB6L</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3553,20 +3568,20 @@
         <f t="shared" si="0"/>
         <v>NB7L</v>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB7L</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3578,20 +3593,20 @@
         <f t="shared" si="0"/>
         <v>NB8L</v>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C12" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB8L</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3603,17 +3618,17 @@
         <f t="shared" si="0"/>
         <v>NB9L</v>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="C13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB9L</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="E13" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3625,17 +3640,17 @@
         <f t="shared" si="0"/>
         <v>NP45</v>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C14" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNP45</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="H14" s="18" t="s">
+      <c r="E14" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3647,17 +3662,17 @@
         <f t="shared" si="0"/>
         <v>NP48</v>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C15" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNP48</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="18" t="s">
+      <c r="E15" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3669,17 +3684,17 @@
         <f t="shared" si="0"/>
         <v>NP50</v>
       </c>
-      <c r="C16" s="15" t="str">
+      <c r="C16" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNP50</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="E16" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3691,17 +3706,17 @@
         <f t="shared" si="0"/>
         <v>NP85</v>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNP85</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="18" t="s">
+      <c r="E17" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3713,20 +3728,20 @@
         <f t="shared" si="0"/>
         <v>NP95</v>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNP95</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3738,20 +3753,20 @@
         <f t="shared" si="0"/>
         <v>NPBG1</v>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C19" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPBG1</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3763,20 +3778,20 @@
         <f t="shared" si="0"/>
         <v>NPBN1</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPBN1</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3788,20 +3803,20 @@
         <f t="shared" si="0"/>
         <v>NPBX1</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPBX1</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3813,17 +3828,17 @@
         <f t="shared" si="0"/>
         <v>NPF975</v>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPF975</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H22" s="18" t="s">
+      <c r="E22" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3835,20 +3850,20 @@
         <f t="shared" si="0"/>
         <v>NPFH50</v>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPFH50</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3860,20 +3875,20 @@
         <f t="shared" si="0"/>
         <v>NPFM500H</v>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPFM500H</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="F24" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3885,20 +3900,20 @@
         <f t="shared" si="0"/>
         <v>NPFV100</v>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="C25" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPFV100</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3910,20 +3925,20 @@
         <f t="shared" si="0"/>
         <v>NPFV50</v>
       </c>
-      <c r="C26" s="15" t="str">
+      <c r="C26" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPFV50</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F26" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3935,20 +3950,20 @@
         <f t="shared" si="0"/>
         <v>NPFV70</v>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPFV70</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="H27" s="18" t="s">
+      <c r="E27" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3960,17 +3975,17 @@
         <f t="shared" si="0"/>
         <v>NPFW50</v>
       </c>
-      <c r="C28" s="15" t="str">
+      <c r="C28" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPFW50</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="H28" s="18" t="s">
+      <c r="E28" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3982,20 +3997,20 @@
         <f t="shared" si="0"/>
         <v>NPW126</v>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPW126</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4007,20 +4022,20 @@
         <f t="shared" si="0"/>
         <v>SLB10A</v>
       </c>
-      <c r="C30" s="15" t="str">
+      <c r="C30" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHSLB10A</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4032,20 +4047,20 @@
         <f t="shared" si="0"/>
         <v>VBG260</v>
       </c>
-      <c r="C31" s="15" t="str">
+      <c r="C31" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHVBG260</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4057,20 +4072,20 @@
         <f t="shared" si="0"/>
         <v>VBG6</v>
       </c>
-      <c r="C32" s="15" t="str">
+      <c r="C32" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHVBG6</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4082,20 +4097,20 @@
         <f t="shared" si="0"/>
         <v>VBK180</v>
       </c>
-      <c r="C33" s="15" t="str">
+      <c r="C33" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHVBK180</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="F33" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4107,20 +4122,20 @@
         <f t="shared" si="0"/>
         <v>VBK360</v>
       </c>
-      <c r="C34" s="15" t="str">
+      <c r="C34" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHVBK360</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4132,20 +4147,20 @@
         <f t="shared" si="0"/>
         <v>VBN130</v>
       </c>
-      <c r="C35" s="15" t="str">
+      <c r="C35" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHVBN130</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F35" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4157,20 +4172,20 @@
         <f t="shared" si="0"/>
         <v>VBN260</v>
       </c>
-      <c r="C36" s="15" t="str">
+      <c r="C36" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHVBN260</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="H36" s="18" t="s">
+      <c r="E36" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H36" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4182,17 +4197,17 @@
         <f t="shared" si="0"/>
         <v>VF815</v>
       </c>
-      <c r="C37" s="15" t="str">
+      <c r="C37" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHVF815</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="H37" s="18" t="s">
+      <c r="E37" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4204,14 +4219,14 @@
         <f t="shared" si="0"/>
         <v>VF823</v>
       </c>
-      <c r="C38" s="15" t="str">
+      <c r="C38" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHVF823</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4223,14 +4238,14 @@
         <f t="shared" si="0"/>
         <v>VG121</v>
       </c>
-      <c r="C39" s="15" t="str">
+      <c r="C39" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHVG121</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4242,14 +4257,14 @@
         <f t="shared" si="0"/>
         <v>VG138</v>
       </c>
-      <c r="C40" s="15" t="str">
+      <c r="C40" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHVG138</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4261,14 +4276,14 @@
         <f t="shared" si="0"/>
         <v>BCF10</v>
       </c>
-      <c r="C41" s="15" t="str">
+      <c r="C41" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHBCF10</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4280,14 +4295,14 @@
         <f t="shared" si="0"/>
         <v>BP1130</v>
       </c>
-      <c r="C42" s="15" t="str">
+      <c r="C42" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHBP1130</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4299,14 +4314,14 @@
         <f t="shared" si="0"/>
         <v>ENEL23</v>
       </c>
-      <c r="C43" s="15" t="str">
+      <c r="C43" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHENEL23</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4318,14 +4333,14 @@
         <f t="shared" si="0"/>
         <v>NB10L</v>
       </c>
-      <c r="C44" s="15" t="str">
+      <c r="C44" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB10L</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4337,14 +4352,14 @@
         <f t="shared" si="0"/>
         <v>NB11L</v>
       </c>
-      <c r="C45" s="15" t="str">
+      <c r="C45" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB11L</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4356,14 +4371,14 @@
         <f t="shared" si="0"/>
         <v>NB2LH</v>
       </c>
-      <c r="C46" s="15" t="str">
+      <c r="C46" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB2LH</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4375,14 +4390,14 @@
         <f t="shared" si="0"/>
         <v>NB4L</v>
       </c>
-      <c r="C47" s="15" t="str">
+      <c r="C47" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB4L</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="18" t="s">
+      <c r="H47" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4394,14 +4409,14 @@
         <f t="shared" si="0"/>
         <v>NB5L</v>
       </c>
-      <c r="C48" s="15" t="str">
+      <c r="C48" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB5L</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4413,14 +4428,14 @@
         <f t="shared" si="0"/>
         <v>NB6L</v>
       </c>
-      <c r="C49" s="15" t="str">
+      <c r="C49" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB6L</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4432,14 +4447,14 @@
         <f t="shared" si="0"/>
         <v>NB7L</v>
       </c>
-      <c r="C50" s="15" t="str">
+      <c r="C50" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB7L</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4451,14 +4466,14 @@
         <f t="shared" si="0"/>
         <v>NB8L</v>
       </c>
-      <c r="C51" s="15" t="str">
+      <c r="C51" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB8L</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4470,14 +4485,14 @@
         <f t="shared" si="0"/>
         <v>NB9L</v>
       </c>
-      <c r="C52" s="15" t="str">
+      <c r="C52" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNB9L</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4489,14 +4504,14 @@
         <f t="shared" si="0"/>
         <v>NP45</v>
       </c>
-      <c r="C53" s="15" t="str">
+      <c r="C53" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNP45</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4508,14 +4523,14 @@
         <f t="shared" si="0"/>
         <v>NP48</v>
       </c>
-      <c r="C54" s="15" t="str">
+      <c r="C54" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNP48</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4527,14 +4542,14 @@
         <f t="shared" si="0"/>
         <v>NP50</v>
       </c>
-      <c r="C55" s="15" t="str">
+      <c r="C55" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNP50</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="H55" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4546,14 +4561,14 @@
         <f t="shared" si="0"/>
         <v>NP85</v>
       </c>
-      <c r="C56" s="15" t="str">
+      <c r="C56" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNP85</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="18" t="s">
+      <c r="H56" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4565,14 +4580,14 @@
         <f t="shared" si="0"/>
         <v>NP95</v>
       </c>
-      <c r="C57" s="15" t="str">
+      <c r="C57" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNP95</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4584,14 +4599,14 @@
         <f t="shared" si="0"/>
         <v>NPBG1</v>
       </c>
-      <c r="C58" s="15" t="str">
+      <c r="C58" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPBG1</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="18" t="s">
+      <c r="H58" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4603,14 +4618,14 @@
         <f t="shared" si="0"/>
         <v>NPBN1</v>
       </c>
-      <c r="C59" s="15" t="str">
+      <c r="C59" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPBN1</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="18" t="s">
+      <c r="H59" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4622,14 +4637,14 @@
         <f t="shared" si="0"/>
         <v>NPBX1</v>
       </c>
-      <c r="C60" s="15" t="str">
+      <c r="C60" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPBX1</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H60" s="18" t="s">
+      <c r="H60" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4641,14 +4656,14 @@
         <f t="shared" si="0"/>
         <v>NPF975</v>
       </c>
-      <c r="C61" s="15" t="str">
+      <c r="C61" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPF975</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="H61" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4660,14 +4675,14 @@
         <f t="shared" si="0"/>
         <v>NPFH50</v>
       </c>
-      <c r="C62" s="15" t="str">
+      <c r="C62" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPFH50</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H62" s="18" t="s">
+      <c r="H62" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4679,14 +4694,14 @@
         <f t="shared" si="0"/>
         <v>NPFM500H</v>
       </c>
-      <c r="C63" s="15" t="str">
+      <c r="C63" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPFM500H</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H63" s="18" t="s">
+      <c r="H63" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4698,14 +4713,14 @@
         <f t="shared" si="0"/>
         <v>NPFV100</v>
       </c>
-      <c r="C64" s="15" t="str">
+      <c r="C64" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPFV100</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="18" t="s">
+      <c r="H64" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4717,14 +4732,14 @@
         <f t="shared" si="0"/>
         <v>NPFV50</v>
       </c>
-      <c r="C65" s="15" t="str">
+      <c r="C65" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPFV50</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="H65" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4736,14 +4751,14 @@
         <f t="shared" si="0"/>
         <v>NPFV70</v>
       </c>
-      <c r="C66" s="15" t="str">
+      <c r="C66" s="14" t="str">
         <f t="shared" si="1"/>
         <v>XTCHNPFV70</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="18" t="s">
+      <c r="H66" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4755,14 +4770,14 @@
         <f t="shared" ref="B67:B93" si="2">RIGHT(A67, LEN(A67)-2)</f>
         <v>NPFW50</v>
       </c>
-      <c r="C67" s="15" t="str">
+      <c r="C67" s="14" t="str">
         <f t="shared" ref="C67:C93" si="3">"XTCH"&amp;B67</f>
         <v>XTCHNPFW50</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="18" t="s">
+      <c r="H67" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4774,14 +4789,14 @@
         <f t="shared" si="2"/>
         <v>NPW126</v>
       </c>
-      <c r="C68" s="15" t="str">
+      <c r="C68" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHNPW126</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4793,14 +4808,14 @@
         <f t="shared" si="2"/>
         <v>SLB10A</v>
       </c>
-      <c r="C69" s="15" t="str">
+      <c r="C69" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHSLB10A</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H69" s="18" t="s">
+      <c r="H69" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4812,14 +4827,14 @@
         <f t="shared" si="2"/>
         <v>VBG260</v>
       </c>
-      <c r="C70" s="15" t="str">
+      <c r="C70" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHVBG260</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="18" t="s">
+      <c r="H70" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4831,14 +4846,14 @@
         <f t="shared" si="2"/>
         <v>VBG6</v>
       </c>
-      <c r="C71" s="15" t="str">
+      <c r="C71" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHVBG6</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="18" t="s">
+      <c r="H71" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4850,14 +4865,14 @@
         <f t="shared" si="2"/>
         <v>VBK180</v>
       </c>
-      <c r="C72" s="15" t="str">
+      <c r="C72" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHVBK180</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="18" t="s">
+      <c r="H72" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4869,14 +4884,14 @@
         <f t="shared" si="2"/>
         <v>VBK360</v>
       </c>
-      <c r="C73" s="15" t="str">
+      <c r="C73" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHVBK360</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H73" s="18" t="s">
+      <c r="H73" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4888,14 +4903,14 @@
         <f t="shared" si="2"/>
         <v>VBN130</v>
       </c>
-      <c r="C74" s="15" t="str">
+      <c r="C74" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHVBN130</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H74" s="18" t="s">
+      <c r="H74" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4907,14 +4922,14 @@
         <f t="shared" si="2"/>
         <v>VBN260</v>
       </c>
-      <c r="C75" s="15" t="str">
+      <c r="C75" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHVBN260</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="18" t="s">
+      <c r="H75" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4926,14 +4941,14 @@
         <f t="shared" si="2"/>
         <v>VF815</v>
       </c>
-      <c r="C76" s="15" t="str">
+      <c r="C76" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHVF815</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H76" s="18" t="s">
+      <c r="H76" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4945,14 +4960,14 @@
         <f t="shared" si="2"/>
         <v>VF823</v>
       </c>
-      <c r="C77" s="15" t="str">
+      <c r="C77" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHVF823</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="18" t="s">
+      <c r="H77" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4964,14 +4979,14 @@
         <f t="shared" si="2"/>
         <v>VG121</v>
       </c>
-      <c r="C78" s="15" t="str">
+      <c r="C78" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHVG121</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H78" s="18" t="s">
+      <c r="H78" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4983,14 +4998,14 @@
         <f t="shared" si="2"/>
         <v>VG138</v>
       </c>
-      <c r="C79" s="15" t="str">
+      <c r="C79" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHVG138</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H79" s="18" t="s">
+      <c r="H79" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5002,14 +5017,14 @@
         <f t="shared" si="2"/>
         <v>ENEL8</v>
       </c>
-      <c r="C80" s="15" t="str">
+      <c r="C80" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHENEL8</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5021,14 +5036,14 @@
         <f t="shared" si="2"/>
         <v>ENEL9</v>
       </c>
-      <c r="C81" s="15" t="str">
+      <c r="C81" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHENEL9</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="H81" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5040,14 +5055,14 @@
         <f t="shared" si="2"/>
         <v>GPH3</v>
       </c>
-      <c r="C82" s="15" t="str">
+      <c r="C82" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHGPH3</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H82" s="18" t="s">
+      <c r="H82" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5059,14 +5074,14 @@
         <f t="shared" si="2"/>
         <v>LI109</v>
       </c>
-      <c r="C83" s="15" t="str">
+      <c r="C83" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHLI109</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H83" s="18" t="s">
+      <c r="H83" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5078,14 +5093,14 @@
         <f t="shared" si="2"/>
         <v>LI42B</v>
       </c>
-      <c r="C84" s="15" t="str">
+      <c r="C84" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHLI42B</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H84" s="18" t="s">
+      <c r="H84" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5097,14 +5112,14 @@
         <f t="shared" si="2"/>
         <v>LI50B</v>
       </c>
-      <c r="C85" s="15" t="str">
+      <c r="C85" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHLI50B</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H85" s="18" t="s">
+      <c r="H85" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5116,14 +5131,14 @@
         <f t="shared" si="2"/>
         <v>LI70B</v>
       </c>
-      <c r="C86" s="15" t="str">
+      <c r="C86" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHLI70B</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H86" s="18" t="s">
+      <c r="H86" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5135,14 +5150,14 @@
         <f t="shared" si="2"/>
         <v>LI90</v>
       </c>
-      <c r="C87" s="15" t="str">
+      <c r="C87" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHLI90</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H87" s="18" t="s">
+      <c r="H87" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5154,14 +5169,14 @@
         <f t="shared" si="2"/>
         <v>LI90B</v>
       </c>
-      <c r="C88" s="15" t="str">
+      <c r="C88" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHLI90B</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H88" s="18" t="s">
+      <c r="H88" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5173,14 +5188,14 @@
         <f t="shared" si="2"/>
         <v>LPE10</v>
       </c>
-      <c r="C89" s="15" t="str">
+      <c r="C89" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHLPE10</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H89" s="18" t="s">
+      <c r="H89" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5192,14 +5207,14 @@
         <f t="shared" si="2"/>
         <v>LPE12</v>
       </c>
-      <c r="C90" s="15" t="str">
+      <c r="C90" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHLPE12</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H90" s="18" t="s">
+      <c r="H90" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5211,14 +5226,14 @@
         <f t="shared" si="2"/>
         <v>LPE5</v>
       </c>
-      <c r="C91" s="15" t="str">
+      <c r="C91" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHLPE5</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H91" s="18" t="s">
+      <c r="H91" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5230,14 +5245,14 @@
         <f t="shared" si="2"/>
         <v>LPE6</v>
       </c>
-      <c r="C92" s="15" t="str">
+      <c r="C92" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHLPE6</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H92" s="18" t="s">
+      <c r="H92" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5249,14 +5264,14 @@
         <f t="shared" si="2"/>
         <v>LPE8</v>
       </c>
-      <c r="C93" s="15" t="str">
+      <c r="C93" s="14" t="str">
         <f t="shared" si="3"/>
         <v>XTCHLPE8</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H93" s="18" t="s">
+      <c r="H93" s="17" t="s">
         <v>141</v>
       </c>
     </row>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="12195" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="12195" windowHeight="9510" tabRatio="487" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original Sheet" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="234">
   <si>
     <t>NPF975</t>
   </si>
@@ -673,6 +673,51 @@
   </si>
   <si>
     <t>GC-PX10, GCPX10, PX10 GC-PX100, GCPX100, PX100 GR-D720US, GRD720US, D720US GR-D720EK, GRD720EK, D720EK GR-D720EX, GRD720EX, D720EX GR-D720, GRD720 GR-D725US, GRD725US, D725US GR-D725EK, GRD725EK, D725EK GR-D725EX, GRD725EX, D725EX GR-D725, GRD725 GR-D726US, GRD726US, D726US GR-D726EK, GRD726EK, D726EK GR-D726EX, GRD726EX, D726EX GR-D726, GRD726 GR-D728US, GRD728US, D728US GR-D728EK, GRD728EK, D728EK GR-D728EX, GRD728EX, D728EX GR-D728, GRD728 GR-D740US, GRD740US, D740US GR-D740EK, GRD740EK, D740EK GR-D740EX, GRD740EX, D740EX GR-D740, GRD740 GR-D745US, GRD745US, D745US GR-D745EK, GRD745EK, D745EK GR-D745EX, GRD745EX, D745EX GR-D745, GRD745 GR-D746US, GRD746US, D746US GR-D746EK, GRD746EK, D746EK GR-D746EX, GRD746EX, D746EX GR-D746, GRD746 GR-D750US, GRD750US, D750US GR-D750EK, GRD750EK, D750EK GR-D750EX, GRD750EX, D750EX GR-D750, GRD750 GR-D760US, GRD760US, D760US GR-D760EK, GRD760EK, D760EK GR-D760EX, GRD760EX, D760EX GR-D760, GRD760 GR-D770US, GRD770US, D770US GR-D770EK, GRD770EK, D770EK GR-D770EX, GRD770EX, D770EX GR-D770, GRD770 GR-D770E, GRD770E, D770E GR-D770VS, GRD770VS, D770VS GR-D771US, GRD771US, D771US GR-D771EK, GRD771EK, D771EK GR-D771EX, GRD771EX, D771EX GR-D771, GRD771 GR-D775US, GRD775US, D775US GR-D775EK, GRD775EK, D775EK GR-D775EX, GRD775EX, D775EX GR-D775, GRD775 GR-D790US, GRD790US, D790US GR-D790EK, GRD790EK, D790EK GR-D790EX, GRD790EX, D790EX GR-D790, GRD790 GR-D796US, GRD796US, D796US GR-D796EK, GRD796EK, D796EK GR-D796EX, GRD796EX, D796EX GR-D796, GRD796 GR-D850US, GRD850US, D850US GR-D850EK, GRD850EK, D850EK GR-D850EX, GRD850EX, D850EX GR-D850, GRD850 GR-D870US, GRD870US, D870US GR-D870EK, GRD870EK, D870EK GR-D870EX, GRD870EX, D870EX GR-D870, GRD870 GR-D875US, GRD875US, D875US GR-D875EK, GRD875EK, D875EK GR-D875EX, GRD875EX, D875EX GR-D875, GRD875 GR-DA30US, GRDA30US, DA30US GR-DA30, GRDA30 GS-TD1, GSTD1, TD1 GY-HM70U, GYHM70U GY-HM100, GYHM100 GY-HM100U, GYHM100U GY-HM100E, GYHM100E GY-HM100EC, GYHM100EC GY-HM150, GYHM150 GY-HM150U, GYHM150U GY-HM150E, GYHM150E GY-HMZ1, GYHMZ1 GY-HMZ1E, GYHMZ1E GY-HMZ1U, GYHMZ1U Everio GZ-MG130US, GZMG130US, MG130US Everio GZ-MG130EK, GZMG130EK, MG130EK Everio GZ-MG130EX, GZMG130EX, MG130EX Everio GZ-MG130, GZMG130 Everio GZ-MG131US, GZMG131US, MG131US Everio GZ-MG131EK, GZMG131EK, MG131EK Everio GZ-MG131EX, GZMG131EX, MG131EX Everio GZ-MG131, GZMG131 Everio GZ-MG132US, GZMG132US, MG132US Everio GZ-MG132EK, GZMG132EK, MG132EK Everio GZ-MG132EX, GZMG132EX, MG132EX Everio GZ-MG132, GZMG132 Everio GZ-MG133US, GZMG133US, MG133US Everio GZ-MG133EK, GZMG133EK, MG133EK Everio GZ-MG133EX, GZMG133EX, MG133EX Everio GZ-MG133, GZMG133 Everio GZ-MG134US, GZMG134US, MG134US Everio GZ-MG134EK, GZMG134EK, MG134EK Everio GZ-MG134EX, GZMG134EX, MG134EX Everio GZ-MG134, GZMG134 Everio GZ-MG135US, GZMG135US, MG135US Everio GZ-MG135EK, GZMG135EK, MG135EK Everio GZ-MG135EX, GZMG135EX, MG135EX Everio GZ-MG135, GZMG135 Everio GZ-MG148US, GZMG148US, MG148US Everio GZ-MG148EK, GZMG148EK, MG148EK Everio GZ-MG148EX, GZMG148EX, MG148EX Everio GZ-MG148, GZMG148 Everio GZ-MG150US, GZMG150US, MG150US Everio GZ-MG150EK, GZMG150EK, MG150EK Everio GZ-MG150EX, GZMG150EX, MG150EX Everio GZ-MG150, GZMG150 Everio GZ-MG155US, GZMG155US, MG155US Everio GZ-MG155EK, GZMG155EK, MG155EK Everio GZ-MG155EX, GZMG155EX, MG155EX Everio GZ-MG155, GZMG155 Everio GZ-MG157US, GZMG157US, MG157US Everio GZ-MG157EK, GZMG157EK, MG157EK Everio GZ-MG157EX, GZMG157EX, MG157EX Everio GZ-MG157, GZMG157 Everio GZ-MG175US, GZMG175US, MG175US Everio GZ-MG175EK, GZMG175EK, MG175EK Everio GZ-MG175EX, GZMG175EX, MG175EX Everio GZ-MG175, GZMG175 Everio GZ-MG177US, GZMG177US, MG177US Everio GZ-MG177EK, GZMG177EK, MG177EK Everio GZ-MG177EX, GZMG177EX, MG177EX Everio GZ-MG177, GZMG177 Everio GZ-MG230, GZMG230, MG230 Everio GZ-MG255US, GZMG255US, MG255US Everio GZ-MG255EK, GZMG255EK, MG255EK Everio GZ-MG255EX, GZMG255EX, MG255EX Everio GZ-MG255, GZMG255 Everio GZ-MG275US, GZMG275US, MG275US Everio GZ-MG275EK, GZMG275EK, MG275EK Everio GZ-MG275EX, GZMG275EX, MG275EX Everio GZ-MG275, GZMG275 Everio GZ-MG275E, GZMG275E Everio GZ-MG330, GZMG330 Everio GZ-MG330A, GZMG330A Everio GZ-MG330H, GZMG330H Everio GZ-MG330R, GZMG330R Everio GZ-MG330HUS, GZMG330HUS, MG330HUS Everio GZ-MG330RUS, GZMG330RUS, MG330RUS Everio GZ-MG330AUS, GZMG330AUS, MG330US Everio GZ-MG335, GZMG335 Everio GZ-MG335H, GZMG335H Everio GZ-MG335W, GZMG335W Everio GZ-MG335HUS, GZMG335HUS, MG335HUS Everio GZ-MG335WUS, GZMG335WUS, MG335WUS Everio GZ-MG340, GZMG340 Everio GZ-MG340B, GZMG340B Everio GZ-MG340BUS, GZMG340BUS, MG340BUS Everio GZ-MG360, GZMG360 Everio GZ-MG360B, GZMG360B Everio GZ-MG360BUS, GZMG360BUS, MG360BUS Everio GZ-MG365, GZMG365 Everio GZ-MG365B, GZMG365B Everio GZ-MG365BUS, GZMG365BUS, MG365BUS Everio GZ-MG430, GZMG430 Everio GZ-MG430H, GZMG430H Everio GZ-MG430HUS, GZMG430HUS, MG430HUS Everio GZ-MG435, GZMG435 Everio GZ-MG435H, GZMG435H Everio GZ-MG435HUS, GZMG435HUS, MG435HUS Everio GZ-MG465, GZMG465 Everio GZ-MG465B, GZMG465B Everio GZ-MG465BUS, GZMG465BUS, MG465BUS Everio GZ-MG555US, GZMG555US, MG555US Everio GZ-MG555EK, GZMG555EK, MG555EK Everio GZ-MG555EX, GZMG555EX, MG555EX Everio GZ-MG555, GZMG555 Everio GZ-MG575US, GZMG575US, MG575US Everio GZ-MG575EK, GZMG575EK, MG575EK Everio GZ-MG575EX, GZMG575EX, MG575EX Everio GZ-MG575, GZMG575 GZ-MG630A, GZMG630A, MG630A GZ-MG630R, GZMG630R, MG630R GZ-MG630S, GZMG630S, MG630S GZ-MG630US, GZMG630US, MG630US GZ-MG670B, GZMG670B, MG670B GZ-MG670US, GZMG670US, MG670US GZ-MG680B, GZMG680B, MG680B GZ-MG680US, GZMG680US, MG680US GZ-MG730US, GZMG730US, MG730US Everio GZ-MS100, GZMS100 Everio GZ-MS100US, GZMS100US, MS100US Everio GZ-MS100RUS, GZMS100RUS, MS100RUS Everio GZ-MS100R, GZMS100R Everio GZ-MS120, GZMS120, MS120 Everio GZ-MS120A, GZMS120A, MS120A Everio GZ-MS120R, GZMS120R, MS120R Everio GZ-MS120B, GZMS120B, MS120B Everio GZ-MS130, GZMS130 Everio GZ-MS130A, GZMS130A, MS130A Everio GZ-MS130R, GZMS130R, MS130R Everio GZ-MS130B, GZMS130B, MS130B Everio GZ-HD3US, GZHD3US, HD3US Everio GZ-HD3EK, GZHD3EK, HD3EK Everio GZ-HD3EX, GZHD3EX, HD3EX Everio GZ-HD3, GZHD3 Everio GZ-HD5US, GZHD5US, HD5US Everio GZ-HD5EK, GZHD5EK, HD5EK Everio GZ-HD5EX, GZHD5EX, HD5EX Everio GZ-HD5, GZHD5 Everio GZ-HD6US, GZHD6US, HD6US Everio GZ-HD6EK, GZHD6EK, HD6EK Everio GZ-HD6EX, GZHD6EX, HD6EX Everio GZ-HD6, GZHD6 Everio GZ-HD7US, GZHD7US, HD7US Everio GZ-HD7EK, GZHD7EK, HD7EK Everio GZ-HD7EX, GZHD7EX, HD7EX Everio GZ-HD7, GZHD7 Everio GZ-HD10US, GZHD10US, HD10US Everio GZ-HD10EK, GZHD10EK, HD10EK Everio GZ-HD10EX, GZHD10EX, HD10EX Everio GZ-HD10, GZHD10 Everio GZ-HD30US, GZHD30US, HD30US Everio GZ-HD30EK, GZHD30EK, HD30EK Everio GZ-HD30EX, GZHD30EX, HD30EX Everio GZ-HD30, GZHD30 Everio GZ-HD40US, GZHD40US, HD40US Everio GZ-HD40EK, GZHD40EK, HD40EK Everio GZ-HD40EX, GZHD40EX, HD40EX Everio GZ-HD40, GZHD40 GZ-HD300, GZHD300 GZ-HD300B, GZHD300B, HD300B GZ-HD300R, GZHD300R, HD300R GZ-HD300A, GZHD300A, HD300A GZ-HD200B, GZHD200B, HD200B GZ-HD200R, GZHD200R, HD200R GZ-HD200A, GZHD200A, HD200A GZ-HM1, GZHM1, HM1 GZ-HM200, GZHM200, HM200 GZ-HM400, GZHM400, HM400 GZ-X900, GZX900, X900 Victor JVC BN-VF815U, BN-VF815, BNVF815U, BNVF815, BN-VF815US, BNVF815US, BN-VF815USM, BNVF815USM, BN-VF815JP, BNVF815JP</t>
+  </si>
+  <si>
+    <t>Victor JVC BN-VF815U, BN-VF815, BNVF815U, BNVF815, BN-VF815US, BNVF815US, BN-VF815USM, BNVF815USM, BN-VF815JP, BNVF815JP</t>
+  </si>
+  <si>
+    <t>GC-PX10, GCPX10, PX10 GR-D720US, GRD720US, D720US GR-D720EK, GRD720EK, D720EK GR-D720EX, GRD720EX, D720EX GR-D720, GRD720 GR-D725US, GRD725US, D725US GR-D725EK, GRD725EK, D725EK GR-D725EX, GRD725EX, D725EX GR-D725, GRD725 GR-D726US, GRD726US, D726US GR-D726EK, GRD726EK, D726EK GR-D726EX, GRD726EX, D726EX GR-D726, GRD726 GR-D728US, GRD728US, D728US GR-D728EK, GRD728EK, D728EK GR-D728EX, GRD728EX, D728EX GR-D728, GRD728 GR-D740US, GRD740US, D740US GR-D740EK, GRD740EK, D740EK GR-D740EX, GRD740EX, D740EX GR-D740, GRD740 GR-D745US, GRD745US, D745US GR-D745EK, GRD745EK, D745EK GR-D745EX, GRD745EX, D745EX GR-D745, GRD745 GR-D746US, GRD746US, D746US GR-D746EK, GRD746EK, D746EK GR-D746EX, GRD746EX, D746EX GR-D746, GRD746 GR-D750US, GRD750US, D750US GR-D750EK, GRD750EK, D750EK GR-D750EX, GRD750EX, D750EX GR-D750, GRD750 GR-D760US, GRD760US, D760US GR-D760EK, GRD760EK, D760EK GR-D760EX, GRD760EX, D760EX GR-D760, GRD760 GR-D770US, GRD770US, D770US GR-D770EK, GRD770EK, D770EK GR-D770EX, GRD770EX, D770EX GR-D770, GRD770 GR-D770E, GRD770E, D770E GR-D770VS, GRD770VS, D770VS GR-D771US, GRD771US, D771US GR-D771EK, GRD771EK, D771EK GR-D771EX, GRD771EX, D771EX GR-D771, GRD771 GR-D775US, GRD775US, D775US GR-D775EK, GRD775EK, D775EK GR-D775EX, GRD775EX, D775EX GR-D775, GRD775 GR-D790US, GRD790US, D790US GR-D790EK, GRD790EK, D790EK GR-D790EX, GRD790EX, D790EX GR-D790, GRD790 GR-D796US, GRD796US, D796US GR-D796EK, GRD796EK, D796EK GR-D796EX, GRD796EX, D796EX GR-D796, GRD796 GR-D850US, GRD850US, D850US GR-D850EK, GRD850EK, D850EK GR-D850EX, GRD850EX, D850EX GR-D850, GRD850 GR-D870US, GRD870US, D870US GR-D870EK, GRD870EK, D870EK GR-D870EX, GRD870EX, D870EX GR-D870, GRD870 GR-D875US, GRD875US, D875US GR-D875EK, GRD875EK, D875EK GR-D875EX, GRD875EX, D875EX GR-D875, GRD875 GR-DA30US, GRDA30US, DA30US GR-DA30, GRDA30 GS-TD1, GSTD1, TD1 GY-HM70U, GYHM70U GY-HM100, GYHM100 GY-HM100U, GYHM100U GY-HM100E, GYHM100E GY-HM100EC, GYHM100EC GY-HM150, GYHM150 GY-HM150U, GYHM150U GY-HM150E, GYHM150E GY-HM170U, GYHM170U GY-HMZ1, GYHMZ1 GY-HMZ1E, GYHMZ1E GY-HMZ1U, GYHMZ1U Everio GZ-MG130US, GZMG130US, MG130US Everio GZ-MG130EK, GZMG130EK, MG130EK Everio GZ-MG130EX, GZMG130EX, MG130EX Everio GZ-MG130, GZMG130 Everio GZ-MG131US, GZMG131US, MG131US Everio GZ-MG131EK, GZMG131EK, MG131EK Everio GZ-MG131EX, GZMG131EX, MG131EX Everio GZ-MG131, GZMG131 Everio GZ-MG132US, GZMG132US, MG132US Everio GZ-MG132EK, GZMG132EK, MG132EK Everio GZ-MG132EX, GZMG132EX, MG132EX Everio GZ-MG132, GZMG132 Everio GZ-MG133US, GZMG133US, MG133US Everio GZ-MG133EK, GZMG133EK, MG133EK Everio GZ-MG133EX, GZMG133EX, MG133EX Everio GZ-MG133, GZMG133 Everio GZ-MG134US, GZMG134US, MG134US Everio GZ-MG134EK, GZMG134EK, MG134EK Everio GZ-MG134EX, GZMG134EX, MG134EX Everio GZ-MG134, GZMG134 Everio GZ-MG135US, GZMG135US, MG135US Everio GZ-MG135EK, GZMG135EK, MG135EK Everio GZ-MG135EX, GZMG135EX, MG135EX Everio GZ-MG135, GZMG135 Everio GZ-MG148US, GZMG148US, MG148US Everio GZ-MG148EK, GZMG148EK, MG148EK Everio GZ-MG148EX, GZMG148EX, MG148EX Everio GZ-MG148, GZMG148 Everio GZ-MG150US, GZMG150US, MG150US Everio GZ-MG150EK, GZMG150EK, MG150EK Everio GZ-MG150EX, GZMG150EX, MG150EX Everio GZ-MG150, GZMG150 Everio GZ-MG155US, GZMG155US, MG155US Everio GZ-MG155EK, GZMG155EK, MG155EK Everio GZ-MG155EX, GZMG155EX, MG155EX Everio GZ-MG155, GZMG155 Everio GZ-MG157US, GZMG157US, MG157US Everio GZ-MG157EK, GZMG157EK, MG157EK Everio GZ-MG157EX, GZMG157EX, MG157EX Everio GZ-MG157, GZMG157 Everio GZ-MG175US, GZMG175US, MG175US Everio GZ-MG175EK, GZMG175EK, MG175EK Everio GZ-MG175EX, GZMG175EX, MG175EX Everio GZ-MG175, GZMG175 Everio GZ-MG177US, GZMG177US, MG177US Everio GZ-MG177EK, GZMG177EK, MG177EK Everio GZ-MG177EX, GZMG177EX, MG177EX Everio GZ-MG177, GZMG177 Everio GZ-MG230, GZMG230, MG230 Everio GZ-MG255US, GZMG255US, MG255US Everio GZ-MG255EK, GZMG255EK, MG255EK Everio GZ-MG255EX, GZMG255EX, MG255EX Everio GZ-MG255, GZMG255 Everio GZ-MG275US, GZMG275US, MG275US Everio GZ-MG275EK, GZMG275EK, MG275EK Everio GZ-MG275EX, GZMG275EX, MG275EX Everio GZ-MG275, GZMG275 Everio GZ-MG275E, GZMG275E Everio GZ-MG330, GZMG330 Everio GZ-MG330A, GZMG330A Everio GZ-MG330H, GZMG330H Everio GZ-MG330R, GZMG330R Everio GZ-MG330HUS, GZMG330HUS, MG330HUS Everio GZ-MG330RUS, GZMG330RUS, MG330RUS Everio GZ-MG330AUS, GZMG330AUS, MG330US Everio GZ-MG335, GZMG335 Everio GZ-MG335H, GZMG335H Everio GZ-MG335W, GZMG335W Everio GZ-MG335HUS, GZMG335HUS, MG335HUS Everio GZ-MG335WUS, GZMG335WUS, MG335WUS Everio GZ-MG340, GZMG340 Everio GZ-MG340B, GZMG340B Everio GZ-MG340BUS, GZMG340BUS, MG340BUS Everio GZ-MG360, GZMG360 Everio GZ-MG360B, GZMG360B Everio GZ-MG360BUS, GZMG360BUS, MG360BUS Everio GZ-MG365, GZMG365 Everio GZ-MG365B, GZMG365B Everio GZ-MG365BUS, GZMG365BUS, MG365BUS Everio GZ-MG430, GZMG430 Everio GZ-MG430H, GZMG430H Everio GZ-MG430HUS, GZMG430HUS, MG430HUS Everio GZ-MG435, GZMG435 Everio GZ-MG435H, GZMG435H Everio GZ-MG435HUS, GZMG435HUS, MG435HUS Everio GZ-MG465, GZMG465 Everio GZ-MG465B, GZMG465B Everio GZ-MG465BUS, GZMG465BUS, MG465BUS Everio GZ-MG555US, GZMG555US, MG555US Everio GZ-MG555EK, GZMG555EK, MG555EK Everio GZ-MG555EX, GZMG555EX, MG555EX Everio GZ-MG555, GZMG555 Everio GZ-MG575US, GZMG575US, MG575US Everio GZ-MG575EK, GZMG575EK, MG575EK Everio GZ-MG575EX, GZMG575EX, MG575EX Everio GZ-MG575, GZMG575 GZ-MG630A, GZMG630A, MG630A GZ-MG630R, GZMG630R, MG630R GZ-MG630S, GZMG630S, MG630S GZ-MG630US, GZMG630US, MG630US GZ-MG670B, GZMG670B, MG670B GZ-MG670US, GZMG670US, MG670US GZ-MG680B, GZMG680B, MG680B GZ-MG680US, GZMG680US, MG680US GZ-MG730US, GZMG730US, MG730US Everio GZ-MS100, GZMS100 Everio GZ-MS100US, GZMS100US, MS100US Everio GZ-MS100RUS, GZMS100RUS, MS100RUS Everio GZ-MS100R, GZMS100R Everio GZ-MS120, GZMS120, MS120 Everio GZ-MS120A, GZMS120A, MS120A Everio GZ-MS120R, GZMS120R, MS120R Everio GZ-MS120B, GZMS120B, MS120B Everio GZ-MS130, GZMS130 Everio GZ-MS130A, GZMS130A, MS130A Everio GZ-MS130R, GZMS130R, MS130R Everio GZ-MS130B, GZMS130B, MS130B Everio GZ-HD3US, GZHD3US, HD3US Everio GZ-HD3EK, GZHD3EK, HD3EK Everio GZ-HD3EX, GZHD3EX, HD3EX Everio GZ-HD3, GZHD3 Everio GZ-HD5US, GZHD5US, HD5US Everio GZ-HD5EK, GZHD5EK, HD5EK Everio GZ-HD5EX, GZHD5EX, HD5EX Everio GZ-HD5, GZHD5 Everio GZ-HD6US, GZHD6US, HD6US Everio GZ-HD6EK, GZHD6EK, HD6EK Everio GZ-HD6EX, GZHD6EX, HD6EX Everio GZ-HD6, GZHD6 Everio GZ-HD7US, GZHD7US, HD7US Everio GZ-HD7EK, GZHD7EK, HD7EK Everio GZ-HD7EX, GZHD7EX, HD7EX Everio GZ-HD7, GZHD7 Everio GZ-HD10US, GZHD10US, HD10US Everio GZ-HD10EK, GZHD10EK, HD10EK Everio GZ-HD10EX, GZHD10EX, HD10EX Everio GZ-HD10, GZHD10 Everio GZ-HD30US, GZHD30US, HD30US Everio GZ-HD30EK, GZHD30EK, HD30EK Everio GZ-HD30EX, GZHD30EX, HD30EX Everio GZ-HD30, GZHD30 Everio GZ-HD40US, GZHD40US, HD40US Everio GZ-HD40EK, GZHD40EK, HD40EK Everio GZ-HD40EX, GZHD40EX, HD40EX Everio GZ-HD40, GZHD40 GZ-HD300, GZHD300 GZ-HD300B, GZHD300B, HD300B GZ-HD300R, GZHD300R, HD300R GZ-HD300A, GZHD300A, HD300A GZ-HD200B, GZHD200B, HD200B GZ-HD200R, GZHD200R, HD200R GZ-HD200A, GZHD200A, HD200A GZ-HM1, GZHM1, HM1 GZ-HM200, GZHM200, HM200 GZ-HM400, GZHM400, HM400 GZ-X900, GZX900, X900</t>
+  </si>
+  <si>
+    <t>Victor JVC BN-VF823U, BN-VF823, BNVF823U, BNVF823, BN-VF823US, BNVF823US, BN-VF823USM, BNVF823USM, BN-VF823JP, BNVF823JP</t>
+  </si>
+  <si>
+    <t>GZ-E10, GZE10, E10 GZ-E100, GZE100, E100 GZ-E200, GZE200, E200 GZ-E205, GZE205, E205 GZ-E220, GZE220, E220 GZ-E300, GZE300, E300 GZ-E306, GZE306, E306 GZ-E505, GZ-EX210, GZEX210, EX210 GZ-EX215, GZEX215, EX215 GZ-EX250 GZ-EX250BUS, GZEX250BUS, EX250BUS GZ-EX310, GZEX310, EX310 GZ-EX355, GZEX355, EX355 GZ-EX515, GZEX515, EX515 GZ-EX555, GZEX555, EX555 GZ-GX1, GZGX1, GX1 GZ-HD500, GZHD500, HD500 GZ-HD510, GZHD510, HD510 GZ-HD520, GZHD520, HD520 GZ-HD550, GZHD550, HD550 GZ-HD620, GZHD620, HD620 GZ-HD750, GZHD750, HD750 GZ-HD760, GZHD760, HD760 GZ-HM30 GZ-HM30U, GZHM30U, HM30U GZ-HM35 GZ-HM35U, GZHM35U, HM35U GZ-HM300, GZHM300, HM300 GZ-HM310, GZHM310, HM310 GZ-HM320, GZHM320, HM320 GZ-HM330, GZHM330, HM330 GZ-HM334, GZHM334, HM334 GZ-HM335, GZHM335, HM335 GZ-HM340, GZHM340, HM340 GZ-HM350, GZHM350, HM350 GZ-HM40, GZHM40, HM40 GZ-HM430, GZHM430, HM430 GZ-HM435, GZHM435, HM435 GZ-HM440, GZHM440, HM440 GZ-HM445, GZHM445, HM445 GZ-HM446, GZHM446, HM446 GZ-HM450, GZHM450, HM450 GZ-HM50 GZ-HM50U, GZHM50U, HM50U GZ-HM550, GZHM550, HM550 GZ-HM570, GZHM570, HM570 GZ-HM65, GZHM65, HM65 GZ-HM650, GZHM650, HM650 GZ-HM655 GZHM655, HM655 GZ-HM670 GZHM670, HM670 GZ-HM690 GZHM690, HM690 GZ-HM845, GZHM845, HM845 GZ-HM860, GZHM860, HM860 GZ-HM870, GZHM870, HM870 GZ-HM880, GZHM880, HM880 GZ-HM890, GZHM890, HM890 GZ-HM960, GZHM960, HM960 GZ-HM980, GZHM980, HM980 GZ-HM990, GZHM990, HM990 GZ-MG750, GZMG750, MG750 GZ-MG760, GZMG760, MG760 GZ-MS110, GZMS110, MS110 GZ-MS118, GZMS118, MS118 GZ-MS150, GZMS150, MS150 GZ-MS210, GZMS210, MS210 GZ-MS215, GZMS215, MS215 GZ-MS216, GZMS216, MS216 GZ-MS230, GZMS230, MS230 GZ-MS240, GZMS240, MS240 GZ-MS250, GZMS250, MS250</t>
+  </si>
+  <si>
+    <t>JVC BN-VG121, BN-VG121U, BN-VG121E, BN-VG121US, BN-VG121USM, BNVG121, BNVG121U, BNVG121E, BNVG121USM, LY37166-002B, LY37166-002C</t>
+  </si>
+  <si>
+    <t>GZ-E10, GZE10, E10 GZ-E100, GZE100, E100 GZ-E200, GZE200, E200 GZ-E205, GZE205, E205 GZ-E220, GZE220, E220 GZ-E300, GZE300, E300 GZ-E306, GZE306, E306 GZ-E505, GZE505, E505 GZ-EX210, GZEX210, EX210 GZ-EX215, GZEX215, EX215 GZ-EX250 GZ-EX250BUS, GZEX250BUS, EX250BUS GZ-EX310, GZEX310, EX310 GZ-EX355, GZEX355, EX355 GZ-EX515, GZEX515, EX515 GZ-EX555, GZEX555, EX555 GZ-GX1, GZGX1, GX1 GZ-HD500, GZHD500, HD500 GZ-HD510, GZHD510, HD510 GZ-HD520, GZHD520, HD520 GZ-HD550, GZHD550, HD550 GZ-HD620, GZHD620, HD620 GZ-HD750, GZHD750, HD750 GZ-HD760, GZHD760, HD760 GZ-HM30 GZ-HM30U, GZHM30U, HM30U GZ-HM35 GZ-HM35U, GZHM35U, HM35U GZ-HM300, GZHM300, HM300 GZ-HM310, GZHM310, HM310 GZ-HM320, GZHM320, HM320 GZ-HM330, GZHM330, HM330 GZ-HM334, GZHM334, HM334 GZ-HM335, GZHM335, HM335 GZ-HM340, GZHM340, HM340 GZ-HM350, GZHM350, HM350 GZ-HM40, GZHM40, HM40 GZ-HM430, GZHM430, HM430 GZ-HM435, GZHM435, HM435 GZ-HM440, GZHM440, HM440 GZ-HM445, GZHM445, HM445 GZ-HM446, GZHM446, HM446 GZ-HM450, GZHM450, HM450 GZ-HM50 GZ-HM50U, GZHM50U, HM50U GZ-HM550, GZHM550, HM550 GZ-HM570, GZHM570, HM570 GZ-HM65, GZHM65, HM65 GZ-HM650, GZHM650, HM650 GZ-HM655 GZHM655, HM655 GZ-HM670 GZHM670, HM670 GZ-HM690 GZHM690, HM690 GZ-HM845, GZHM845, HM845 GZ-HM860, GZHM860, HM860 GZ-HM870, GZHM870, HM870 GZ-HM880, GZHM880, HM880 GZ-HM890, GZHM890, HM890 GZ-HM960, GZHM960, HM960 GZ-HM980, GZHM980, HM980 GZ-HM990, GZHM990, HM990 GZ-MG750, GZMG750, MG750 GZ-MG760, GZMG760, MG760 GZ-MS110, GZMS110, MS110 GZ-MS118, GZMS118, MS118 GZ-MS150, GZMS150, MS150 GZ-MS210, GZMS210, MS210 GZ-MS215, GZMS215, MS215 GZ-MS216, GZMS216, MS216 GZ-MS230, GZMS230, MS230 GZ-MS240, GZMS240, MS240 GZ-MS250, GZMS250, MS250</t>
+  </si>
+  <si>
+    <t>Victor JVC BN-VG138, BN-VG138E, BN-VG138U, BN-VG138USM, BNVG138, BNVG138U, BNVG138E, BNVG138USM</t>
+  </si>
+  <si>
+    <t>DMC-F2, DMCF2, F2 DMC-F3, DMCF3, F3 DMC-FH1, DMCFH1, FH1 DMC-FH20, DMCFH20, FH20 DMC-FH22, DMCFH22, FH22 DMC-FH3, DMCFH3, FH3 DMC-FP8, DMCFP8, FP8 DMC-FS10, DMCFS10, FS10 DMC-FS11, DMCFS11, FS11 DMC-FS12, DMCFS12, FS12 DMC-FS15, DMCFS15, FS15 DMC-FS25, DMCFS25, FS25 DMC-FS30, DMCFS30, FS30 DMC-FS33, DMCFS33, FS33 DMC-FS4, DMCFS4, FS4 DMC-FS42, DMCFS42, FS42 DMC-FS6, DMCFS6, FS6 DMC-FS62, DMCFS62, FS62 DMC-FS7, DMCFS7, FS7 DMC-FS8, DMCFS8, FS8 DMC-FT1, DMCFT1, FT1 DMC-FT2, DMCFT2, FT2 DMC-FT3, DMCFT3, FT3 DMC-FT4, DMCFT4, FT4 DMC-FX25, DMCFX25, FX25 DMC-FX40, DMCFX40, FX40 DMC-FX48, DMCFX48, FX48 DMC-FX550, DMCFX550, FX550 DMC-FX580, DMCFX580, FX580 DMC-FX60, DMCFX60, FX60 DMC-FX65, DMCFX65, FX65 DMC-FX66, DMCFX66, FX66 DMC-FX68, DMCFX68, FX68 DMC-FX70, DMCFX70, FX70 DMC-FX75, DMCFX75, FX75 DMC-FX700, DMCFX700, FX700 DMC-TS1, DMCTS1, TS1 DMC-TS2, DMCTS2, TS2 DMC-TS3, DMCTS3, TS3 DMC-TS4, DMCTS4, TS4 DMC-F2K, DMCF2K, F2K DMC-F2P, DMCF2P, F2P DMC-F2S, DMCF2S, F2S DMC-FP8S, DMCFP8S, FP8S DMC-FP8K, DMCFP8K, FP8K DMC-FP8R, DMCFP8R, FP8R DMC-FH1A, DMCFH1A, FH1A DMC-FH1K, DMCFH1K, FH1K DMC-FH1P, DMCFH1P, FH1P DMC-FH1S, DMCFH1S, FH1S DMC-FH3A, DMCFH3A, FH3A DMC-FH3K, DMCFH3K, FH3K DMC-FH3P, DMCFH3P, FH3P DMC-FH3S, DMCFH3S, FH3S DMC-FH3R, DMCFH3R, FH3R DMC-FH3K, DMCFH3K, FH3K DMC-FH20A, DMCFH20A, FH20A DMC-FH20K, DMCFH20K, FH20K DMC-FH20R, DMCFH20R, FH20R DMC-FH20S, DMCFH20S, FH20S DMC-FH20V, DMCFH20V, FH20V DMC-FS12A, DMCFS12A, FS12A DMC-FS12G, DMCFS12G, FS12G DMC-FS12K, DMCFS12K, FS12K DMC-FS12P, DMCFS12P, FS12P DMC-FS12S, DMCFS12S, FS12S DMC-FS15A, DMCFS15A, FS15A DMC-FS15K, DMCFS15K, FS15K DMC-FS15S, DMCFS15S, FS15S DMC-FS25K, DMCFS25K, FS25K DMC-FS25N, DMCFS25N, FS25N DMC-FS25S, DMCFS25S, FS25S DMC-FS4K, DMCFS4K, FS4K DMC-FS42K, DMCFS42K, FS42K DMC-FS42P, DMCFS42P, FS42P DMC-FS42S, DMCFS42S, FS42S DMC-FS62A, DMCFS62A, FS62A DMC-FS62K, DMCFS62K, FS62K DMC-FS62P, DMCFS62P, FS62P DMC-FS62R, DMCFS62R, FS62R DMC-FS62S, DMCFS62S, FS62S DMC-FS8S, DMCFS8S, FS8S DMC-FS7A, DMCFS7A, FS7A DMC-FS7G, DMCFS7G, FS7G DMC-FS7K, DMCFS7K, FS7K DMC-FS7P, DMCFS7P, FS7P DMC-FS7S, DMCFS7S, FS7S DMC-FX48K, DMCFX48K, FX48K DMC-FX48S, DMCFX48S, FX48S DMC-FX580K, DMCFX580K, FX580K DMC-FX580S, DMCFX580S, FX580S DMC-FX75K, DMCFX75K, FX75K DMC-FX75S, DMCFX75S, FX75S DMC-TS2A, DMCTS2A, TS2A DMC-TS2D, DMCTS2D, TS2D DMC-TS2S, DMCTS2S, TS2S DMC-TS2Y, DMCTS2Y, TS2Y DMC-TS1D, DMCTS1D, TS1D DMC-TS1G, DMCTS1G, TS1G DMC-TS1S, DMCTS1S, TS1S</t>
+  </si>
+  <si>
+    <t>Panasonic DMW-BCF10, DMWBCF10, DMW-BCF10PP, DMWBCF10PP, DMW-BCF10E, DMWBCF10E, CGA-S106B, CGA-S106, CGA-S/106C, CGAS106, CGA-S/106B</t>
+  </si>
+  <si>
+    <t>Samsung NX-300, NX300 Samsung NX-500, NX500 Samsung NX-2000, NX2000</t>
+  </si>
+  <si>
+    <t>Samsung ED-BP1130, EDBP1130, BP1130</t>
+  </si>
+  <si>
+    <t>Nikon COOLPIX B700, Nikon B700 Nikon COOLPIX P600, Nikon P600 Nikon COOLPIX P610, Nikon P610 Nikon COOLPIX P900, Nikon P900 Nikon COOLPIX S810c, Nikon S810c</t>
+  </si>
+  <si>
+    <t>Nikon EN-EL23, ENEL23</t>
+  </si>
+  <si>
+    <t>Canon Powershot SX40 HS, SX40HS Canon Powershot SX50 HS, SX50HS Canon Powershot SX60 HS, SX60HS Canon Powershot G1 X, Canon G1X Canon Powershot G3 X, Canon G3X Canon Powershot G15, Canon G15 Canon Powershot G16, Canon G16</t>
+  </si>
+  <si>
+    <t>Canon NB10L, Canon NB-10L, Canon 5668B001</t>
   </si>
 </sst>
 </file>
@@ -3289,8 +3334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4192,6 +4237,9 @@
       <c r="E37" s="21" t="s">
         <v>218</v>
       </c>
+      <c r="F37" s="24" t="s">
+        <v>219</v>
+      </c>
       <c r="H37" s="18" t="s">
         <v>141</v>
       </c>
@@ -4211,6 +4259,12 @@
       <c r="D38" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E38" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>221</v>
+      </c>
       <c r="H38" s="18" t="s">
         <v>141</v>
       </c>
@@ -4230,6 +4284,12 @@
       <c r="D39" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="E39" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>223</v>
+      </c>
       <c r="H39" s="18" t="s">
         <v>141</v>
       </c>
@@ -4249,6 +4309,12 @@
       <c r="D40" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="E40" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>225</v>
+      </c>
       <c r="H40" s="18" t="s">
         <v>141</v>
       </c>
@@ -4268,6 +4334,12 @@
       <c r="D41" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="E41" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>227</v>
+      </c>
       <c r="H41" s="18" t="s">
         <v>141</v>
       </c>
@@ -4287,6 +4359,12 @@
       <c r="D42" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="E42" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>229</v>
+      </c>
       <c r="H42" s="18" t="s">
         <v>141</v>
       </c>
@@ -4306,6 +4384,12 @@
       <c r="D43" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="E43" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>231</v>
+      </c>
       <c r="H43" s="18" t="s">
         <v>141</v>
       </c>
@@ -4324,6 +4408,12 @@
       </c>
       <c r="D44" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>233</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>141</v>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -717,7 +717,7 @@
     <t>Canon NB10L, Canon NB-10L, Canon 5668B001</t>
   </si>
   <si>
-    <t>Original2</t>
+    <t>Original</t>
   </si>
 </sst>
 </file>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="247">
   <si>
     <t>NPF975</t>
   </si>
@@ -718,6 +718,45 @@
   </si>
   <si>
     <t>Original</t>
+  </si>
+  <si>
+    <t>Canon PowerShot ELPH 110 HS, Canon 110 HS, Canon ELPH 110 HS, Canon PowerShot 110 HS Canon PowerShot ELPH 115 IS, Canon 115 IS, Canon ELPH 115 IS, Canon PowerShot 115 Canon PowerShot ELPH 130 IS, Canon ELPH 130 IS, Canon PowerShot 130 IS Canon PowerShot ELPH 135, Canon ELPH 135, Canon PowerShot 135 Canon PowerShot ELPH 140 IS, Canon ELPH 140 IS, Canon PowerShot 140 IS Canon PowerShot ELPH 150 IS, Canon ELPH 150 IS, Canon PowerShot 150 IS Canon PowerShot ELPH 160, Canon ELPH 160, Canon PowerShot 160 Canon PowerShot ELPH 170 IS, Canon ELPH 170 IS, Canon PowerShot 170 IS Canon PowerShot ELPH 320 HS, Canon 320 HS, Canon ELPH 320 HS, Canon PowerShot 320 HS Canon PowerShot ELPH 340 HS, Canon 340 HS, Canon ELPH 340 HS, Canon PowerShot 340 HS Canon PowerShot ELPH 350 HS, Canon 350 HS, Canon ELPH 350 HS, Canon PowerShot 350 HS Canon IXUS 240 HS, Canon 240 HS, 240HS Canon PowerShot A2300, Canon A2300 Canon PowerShot A2400 IS, Canon A2400 IS, Canon A2400 Canon PowerShot A2500, Canon A2500 Canon PowerShot A2600, Canon A2600 Canon PowerShot A3400 IS, Canon A3400 IS, Canon A3400 Canon PowerShot A3500 IS, Canon A3500 IS, Canon A3500 Canon PowerShot A4000 IS, A4000 IS, Canon A4000 IS, Canon A4000 Canon PowerShot SX400 IS, SX400 IS, Canon SX400 IS, Canon SX400 Canon PowerShot SX410 IS, SX410 IS, Canon SX410 IS, Canon SX410</t>
+  </si>
+  <si>
+    <t>Canon NB11L, Canon NB-11L, NB-11LH, NB11LH</t>
+  </si>
+  <si>
+    <t>Canon PowerShot S30 / Canon S30 Canon PowerShot S40 / Canon S40 Canon PowerShot S45 /Canon S45 Canon PowerShot S50 /Canon S50 Canon PowerShot S55 / Canon S55 Canon PowerShot S60 /Canon S60 Canon PowerShot S70 /Canon S70 Canon PowerShot S80 / Canon S80 Canon PowerShot G7 / Canon G7 Canon PowerShot G9 / Canon G9 Canon DC310 Canon DC320 Canon DC330 Canon DC410 Canon DC420 Canon HV20 Canon HG10 Canon Digital Rebel XT / Canon Rebel XT / Canon XT Canon Digital Rebel XTi /Canon Rebel XTi / Canon XTi Canon EOS Kiss Digital N Canon EOS-350D, EOS 350D / Canon 350D Canon EOS-400D, EOS 400D / Canon 440D Canon Optura 30 / Optura 30 Canon Optura 40 / Optura 40 Canon Optura 50 / Optura 50 Canon Optura 400 / Optura 400 Canon Optura 500 / Optura 500 Canon Optura 60 / Optura 60 Canon ZR-100 / ZR100 Canon ZR-200 / ZR200 Canon ZR-300 / ZR300 Canon ZR-400 / ZR400 Canon ZR-500 / ZR500 Canon ZR-600 / ZR600 Canon ZR-700 / ZR700 Canon Elura 40MC / Elura 40MC Canon Elura 50 / Elura 50 Canon Elura 60 / Elura 60 Canon Elura 65 / Elura 65 Canon Elura 70 / Elura 70 Canon Elura 80 / Elura 80 Canon Elura 85 / Elura 85 Canon Elura 90 / Elura 90 Canon FVM20 / FVM20 Canon FVM30 / FVM30 Canon FVM100 KIT / FVM100 Canon FVM200 / FVM200 Canon FV500 / FV 500 Canon IXY DV3 / IXY DV3 Canon IXY DVM3 / IXY DMV3 Canon IXY DV5 / IXY DV 5 Canon MV5 / MV 5 Canon MV5i / MV 5i Canon MV5iMC, MV5i MC Canon MV6iMC, MV6i MC Canon MV800, MV-800 Canon MV830, MV-830 Canon MV830i, MV-830i Canon MV850i, MV-850i Canon MV880X, MV-880X Canon MV920, MV-920 Canon MVX20i, MV X20i, MVX-20i Canon MVX25i, MV X25i, MVX-25i Canon MVX30i, MV X30i, MVX-30i Canon MVX35i, MV X35i, MVX-35i Canon MVX40i, MV X40i, MVX-40i Canon MVX45i, MV X45i, MVX-45i Canon MVX200, MV X200, MVX-200 Canon MVX200i, MV X200i, MVX-200i Canon MVX250i, MV X250i, MVX-250i Canon MVX300i, MV X300i, MVX-300i Canon MVX330i, MV X330i, MVX-330i Canon MVX350i, MV X350i, MVX-350i Canon VIXIA HF R10, HFR10 Canon VIXIA HF R11, HFR11 Canon VIXIA HF R100, HFR100</t>
+  </si>
+  <si>
+    <t>Canon BP-2L5, BP2L5, BTI-CNNB2L, Battery-Biz B-9581, BatteryValues B-9581, BTI BTI-CNNB2L, Canon 7302A001AA, Canon DDNB-2L, Canon HS-DCL2L, Canon LIC2L12, Canon NB2L, Canon NB2LH, Canon NB-2L, Canon NB-2LH, Delkin DDNB-2L, DigiPower BP-CN2L, DSMiller B-9581, Duracell DRC2L, Duracell DRC2LRES, Energizer ER-D120, GP VCL004, Hahnel HL-HL-2L, Hama 47219, Hi-Capacity B-9581, IDP PR-109DG, Lenmar DLC2L, Lenmar DLC2L12, Lenmar LIC2LI2, Maxell B-9581, Maxell DC3778, Polaroid B-9581, Polaroid PR-109DG, Power Battery BP-CN2L, Rayovac RV-DC1200, Sakar BP-2LCL, Uniross VB102186, US Power BCD1067, Varta P38, Vivanco BP-0567</t>
+  </si>
+  <si>
+    <t>Canon NB4L, Canon NB-4L, Battery-Biz B-9645, BatteryValues B-9645, Lenmar DLC-4L, DigiPower BP-CN4L, DSMiller B-9645, Energizer ER-D150, Hi-Capacity B-9645, Maxell B-9645, Maxell DC3787, Power Battery BP-CN4L, Sakar BP-NB4</t>
+  </si>
+  <si>
+    <t>Powershot S110, Canon S110 Powershot SD700 IS, SD700IS Powershot SD700 IS Digital ELPH Powershot SD790 IS, SD790IS Powershot SD790 IS Digital ELPH Powershot SD800 IS, SD800IS Powershot SD800 IS Digital ELPH Powershot SD850 IS, SD850IS Powershot SD850 IS Digital ELPH Powershot SD870 IS, SD870IS Powershot SD870 IS Digital ELPH Powershot SD880 IS, SD880IS Powershot SD880 IS Digital ELPH Powershot SD890 IS, SD890IS Powershot SD890 IS Digital ELPH Powershot SD900 Powershot SD950 IS, SD950IS Powershot SD950 IS Digital ELPH Powershot SD970 IS, SD970IS Powershot SD970 IS Digital ELPH Powershot SD990 IS, SD990IS Powershot SD990 IS Digital ELPH Powershot SX200 IS, SX200IS Powershot SX210 IS, SX210IS Powershot SX230 HS, SX230HS Powershot S100 IXY Digital 910 IS, 910IS IXY Digital 900 IS, 900IS IXY Digital 820 IS, 820IS IXY Digital 810 IS, 810IS IXY Digital 800 IS, 800IS IXY Digital 2000 IS, 2000IS IXY Digital 1000 Digital IXUS 90 IS, 90IS Digital IXUS 900 Ti, 900Ti Digital IXUS 950 IS, 950IS Digital IXUS 960 IS, 960IS Digital IXUS 970 IS, 970IS Digital IXUS 980 IS, 980IS Digital IXUS 990 IS, 990IS Digital IXUS 800 IS, 800IS Digital IXUS 850 IS, 850IS Digital IXUS 860 IS, 860IS Digital IXUS 870 IS, 870IS</t>
+  </si>
+  <si>
+    <t>Canon NB5L, Canon NB-5L, 1135B001</t>
+  </si>
+  <si>
+    <t>Canon Powershot ELPH 500 HS, 500HS, Canon 500 HS, ELPH 500 Canon Powershot SD770 IS, SD770IS, SD770 IS, Canon SD770 IS Canon Powershot SD980 IS, SD980IS, SD980 IS, Canon SD980 IS Canon Powershot SD1200 IS, SD1200IS, SD1200 IS, Canon SD1200 IS Canon Powershot SD1300 IS, SD1300IS, Canon SD1300 IS, Canon SD1300IS Canon Powershot SD3500 IS, SD3500IS, Canon SD3500 IS, Canon SD3500IS Canon Powershot SD4000 IS, SD4000IS, Canon SD4000 IS, Canon SD4000IS Canon Powershot D10, Canon D10 IS, Canon D 10, Canon D10 Canon Powershot D20, Canon D20, Canon D 20 Canon Powershot D30, Canon D30 Canon Powershot S90, Canon S90 IS, PowerShot S90 Canon Powershot S95,S 95 Canon, PowerShot S95 Canon Powershot S120, Canon S120, Powershot S120 Canon Powershot SX170 IS, Canon SX170 Canon Powershot SX240 HS Canon Powershot SX260 HS Canon Powershot SX270 HS Canon Powershot SX280 HS Canon Powershot SX500 IS Canon Powershot SX510 HS, Canon SX510 Canon Powershot SX520 HS, Canon SX520 Canon Powershot SX530 HS, Canon SX530 Canon Powershot SX600 HS, Canon SX600 Canon Powershot SX610 HS, Canon SX610 Canon Powershot SX700 HS, Canon SX700 Canon Powershot SX710 HS, Canon SX710 Canon IXUS 85 IS, IXUS 85 IS Canon IXUS 95 IS, IXUS 95 IS Canon IXY Digital 25 IS Canon Digital IXUS 200 IS Canon Digital IXUS 210 Canon Digital IXUS 105</t>
+  </si>
+  <si>
+    <t>Canon NB6L, Canon NB-6L, Canon NB-6LH, Canon NB6LH, 2607B001</t>
+  </si>
+  <si>
+    <t>Canon Powershot G10, Canon G10, PowerShot G10 Canon Powershot G11, Canon G11, PowerShot G11 Canon Powershot G12, Canon G12, PowerShot G12 Canon PowerShot SX30 IS, Canon SX 30 IS, SX30IS, PowerShot SX 30 IS,</t>
+  </si>
+  <si>
+    <t>Canon NB7L, Canon NB-7L, 3153B001</t>
+  </si>
+  <si>
+    <t>Canon Powershot A2200, Canon A2200, Power Shot A2200 Canon Powershot A3000 IS, A3000IS, A3000 IS, Canon A3000, Canon A3000 IS Canon Powershot A3100 IS, A3100IS, A3100 IS, Canon A3100, Canon A3100 IS Canon Powershot A3200 IS, A3200IS, A3200 IS, Canon A3200, Canon A3200 IS Canon Powershot A3300 IS, A3300IS, A3300 IS, Canon A3300, Canon A3300 IS</t>
+  </si>
+  <si>
+    <t>Canon NB8L, Canon NB-8L</t>
   </si>
 </sst>
 </file>
@@ -3334,7 +3373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4432,6 +4473,12 @@
       <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="E45" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>235</v>
+      </c>
       <c r="H45" s="18" t="s">
         <v>141</v>
       </c>
@@ -4451,6 +4498,12 @@
       <c r="D46" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="E46" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>237</v>
+      </c>
       <c r="H46" s="18" t="s">
         <v>141</v>
       </c>
@@ -4470,6 +4523,12 @@
       <c r="D47" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="E47" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>238</v>
+      </c>
       <c r="H47" s="18" t="s">
         <v>141</v>
       </c>
@@ -4489,6 +4548,12 @@
       <c r="D48" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="E48" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>240</v>
+      </c>
       <c r="H48" s="18" t="s">
         <v>141</v>
       </c>
@@ -4508,6 +4573,12 @@
       <c r="D49" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="E49" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>242</v>
+      </c>
       <c r="H49" s="18" t="s">
         <v>141</v>
       </c>
@@ -4527,6 +4598,12 @@
       <c r="D50" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="E50" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>244</v>
+      </c>
       <c r="H50" s="18" t="s">
         <v>141</v>
       </c>
@@ -4545,6 +4622,12 @@
       </c>
       <c r="D51" s="7" t="s">
         <v>92</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>246</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>141</v>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="293">
   <si>
     <t>NPF975</t>
   </si>
@@ -757,6 +757,144 @@
   </si>
   <si>
     <t>Canon NB8L, Canon NB-8L</t>
+  </si>
+  <si>
+    <t>Canon PowerShot N Canon PowerShot N2 Canon Powershot ELPH 510 HS, 510HS Canon Powershot ELPH 520 HS, 520HS Canon Powershot ELPH 530 HS, 530HS Canon Powershot SD4500 IS, SD4500IS Canon IXUS 1000 HS, IXUS 1000HS Canon IXY 50S</t>
+  </si>
+  <si>
+    <t>Canon NB9L, Canon NB-9L</t>
+  </si>
+  <si>
+    <t>J10, J12, J15, J20, J25, J26, J27, J28, J29, J30, J32, J35, J37, J38, J40, J100, J110, J120, J150, J210, J250 JV100, JV105, JV150, JV200, JV205, JV250, JV255, JV300, JV500 JX200, JX205, JX210, JX250, JX255, JX280, JX290, JX295, JX300, JX305, JX310, JX315, JX320, JX330, JX335, JX350, JX355, JX360, JX370, JX375, JX380, JX390, JX400, JX405, JX420, JX440, JX500, JX520, JX530, JX550, JX580, JX590, JX600, JX650, JX660, JX680, JX700, JX710 JZ100, JZ110, JZ200, JZ250, JZ260, JZ300, JZ305, JZ310, JZ500, JZ505, JZ510 XP10, XP11, XP15, XP20, XP22, XP30, XP31, XP50, XP60, XP70, XP75, XP80, XP90 T190, T200, T205, T300, T305, T310, T350, T360, T400, T410, T500, T510, T550, T555, T560 Z10, Z20, Z30, Z31, Z33, Z35, Z37, Z70, Z71, Z80, Z81, Z90, Z91, Z100, Z110, Z115, Z200, Z250, Z300, Z700, Z707, Z800,Z808, Z900, Z909, Z950, Z1000, Z1010 Mini 90 L30, L55, L90</t>
+  </si>
+  <si>
+    <t>Fujifilm NP-45, NP45, NP-45A, NP45A, NP-45S, NP45S</t>
+  </si>
+  <si>
+    <t>Fujifilm XQ1 Fujifilm XQ2</t>
+  </si>
+  <si>
+    <t>Fujifilm NP-48, NP48</t>
+  </si>
+  <si>
+    <t>EX-V7, EXV7, V7 EX-V8, EXV8, V8 EX-V7SR, EXV7SR, V7SR EX-V8SR, EXV8SR, V8SR</t>
+  </si>
+  <si>
+    <t>Casio NP-50, NP50, Casio NP-50DBA, NP50DBA</t>
+  </si>
+  <si>
+    <t>Fujifilm NP-85, NP85</t>
+  </si>
+  <si>
+    <t>Fujifilm FinePix S1 Fujifilm FinePix SL1000 Fujifilm FinePix SL305 Fujifilm FinePix SL300 Fujifilm FinePix SL280 Fujifilm FinePix SL260 Fujifilm FinePix SL240"</t>
+  </si>
+  <si>
+    <t>Fujifilm X30 Fujifilm X100 Fujifilm X100S Fujifilm X100T Fujifilm X-S1 Fujifilm FinePix F30 Fujifilm FinePix F31 fd, F31fd Fujifilm FinePix Real 3D W1</t>
+  </si>
+  <si>
+    <t>Sony NP-BX1, Sony NPBX1.</t>
+  </si>
+  <si>
+    <t>AC-VQH10, ACVQH10, VQH10 Alpha DSLR-A230, A230 Alpha DSLR-A290, A290 Alpha DSLR-A330, A330 Alpha DSLR-A380, A380 Alpha DSLR-A390, A390 Cyber-shot DSC-HX1, DSCHX1, HX1 Cyber-shot DSC-HX100, DSCHX100, HX100 Cyber-shot DSC-HX200, DSCHX200, HX200 DCR-DVD103, DCRDVD103, DVD103 DCR-DVD105, DCRDVD105, DVD105 DCR-DVD106, DCRDVD106, DVD106 DCR-DVD108, DCRDVD108, DVD108 DCR-DVD109, DCRDVD109, DVD109 DCR-DVD202, DCRDVD202, DVD202 DCR-DVD203, DCRDVD203, DVD203 DCR-DVD205, DCRDVD205, DVD205 DCR-DVD305, DCRDVD305, DVD305 DCR-DVD306, DCRDVD306, DVD306 DCR-DVD308, DCRDVD308, DVD308 DCR-DVD403, DCRDVD403, DVD403 DCR-DVD404, DCRDVD404, DVD404 DCR-DVD405, DCRDVD405, DVD405 DCR-DVD406, DCRDVD406, DVD406 DCR-DVD407, DCRDVD407, DVD407 DCR-DVD408, DCRDVD408, DVD408 DCR-DVD505, DCRDVD505, DVD505 DCR-DVD506, DCRDVD506, DVD506 DCR-DVD508, DCRDVD508, DVD508 DCR-DVD602, DCRDVD602, DVD602 DCR-DVD605, DCRDVD605, DVD605 DCR-DVD610, DCRDVD610, DVD610 DCR-DVD650, DCRDVD650, DVD650 DCR-DVD653, DCRDVD653, DVD653 DCR-DVD703, DCRDVD703, DVD703 DCR-DVD705, DCRDVD705, DVD705 DCR-DVD708, DCRDVD708, DVD708 DCR-DVD710, DCRDVD710, DVD710 DCR-DVD755, DCRDVD755, DVD755 DCR-DVD803, DCRDVD803, DVD803 DCR-DVD805, DCRDVD805, DVD805 DCR-DVD808, DCRDVD808, DVD808 DCR-DVD810, DCRDVD810, DVD810 DCR-DVD850, DCRDVD850, DVD850 DCR-DVD905, DCRDVD905, DVD905 DCR-DVD908, DCRDVD908, DVD908 DCR-DVD910, DCRDVD910, DVD910 DCR-DVD92, DCRDVD92, DVD92 DCR-HC16, DCRHC16, HC16 DCR-HC17, DCRHC17, HC17 DCR-HC18, DCRHC18, HC18 DCR-HC19, DCRHC19, HC19 DCR-HC20, DCRHC20, HC20 DCR-HC21, DCRHC21, HC21 DCR-HC22, DCRHC22, HC22 DCR-HC23, DCRHC23, HC23 DCR-HC24, DCRHC24, HC24 DCR-HC26, DCRHC26, HC26 DCR-HC27, DCRHC27, HC27 DCR-HC28, DCRHC28, HC28 DCR-HC30, DCRHC30, HC30 DCR-HC32, DCRHC32, HC32 DCR-HC33, DCRHC33, HC33 DCR-HC35, DCRHC35, HC35 DCR-HC36, DCRHC36, HC36 DCR-HC37, DCRHC37, HC37 DCR-HC38, DCRHC38, HC38 DCR-HC39, DCRHC39, HC39 DCR-HC40, DCRHC40, HC40 DCR-HC41, DCRHC41, HC41 DCR-HC42, DCRHC42, HC42 DCR-HC43, DCRHC43, HC43 DCR-HC44, DCRHC44, HC44 DCR-HC45, DCRHC45, HC45 DCR-HC46, DCRHC46, HC46 DCR-HC47, DCRHC47, HC47 DCR-HC48, DCRHC48, HC48 DCR-HC5, DCRHC5, HC5 DCR-HC52, DCRHC52, HC52 DCR-HC62, DCRHC62, HC62 DCR-HC65, DCRHC65, HC65 DCR-HC7, DCRHC7, HC7 DCR-HC8, DCRHC8, HC8 DCR-HC85, DCRHC85, HC85 DCR-HC94, DCRHC94, HC94 DCR-HC96, DCRHC96, HC96 DCR-SR10, DCRSR10, SR10 DCR-SR100, DCRSR100, SR100 DCR-SR11, DCRSR11, SR11 DCR-SR12, DCRSR12, SR12 DCR-SR190, DCRSR190, SR190 DCR-SR200, DCRSR200, SR200 DCR-SR220, DCRSR220, SR220 DCR-SR290, DCRSR290, SR290 DCR-SR30, DCRSR30, SR30 DCR-SR300, DCRSR300, SR300 DCR-SR32, DCRSR32, SR32 DCR-SR33, DCRSR33, SR33 DCR-SR35, DCRSR35, SR35 DCR-SR36, DCRSR36, SR36 DCR-SR37, DCRSR37, SR37 DCR-SR38, DCRSR38, SR38 DCR-SR40, DCRSR40, SR40 DCR-SR42, DCRSR42, SR42 DCR-SR45, DCRSR45, SR45 DCR-SR46, DCRSR46, SR46 DCR-SR47, DCRSR47, SR47 DCR-SR48, DCRSR48, SR48 DCR-SR50, DCRSR50, SR50 DCR-SR52, DCRSR52, SR52 DCR-SR55, DCRSR55, SR55 DCR-SR57, DCRSR57, SR57 DCR-SR60, DCRSR60, SR60 DCR-SR62, DCRSR62, SR62 DCR-SR65, DCRSR65, SR65 DCR-SR67, DCRSR67, SR6 DCR-SR70, DCRSR70, SR70 DCR-SR72, DCRSR72, SR72 DCR-SR75, DCRSR75, SR75 DCR-SR77, DCRSR77, SR77 DCR-SR8, DCRSR8, SR8 DCR-SR80, DCRSR80, SR80 DCR-SR82, DCRSR82, SR82 DCR-SR85, DCRSR85, SR85 DCR-SR87, DCRSR87, SR87 DCR-SR90, DCRSR90, SR90 DCR-SX30, DCRSX30, SX30 DCR-SX31, DCRSX31, SX31 DCR-SX40, DCRSX40, SX40 DCR-SX41, DCRSX41, SX41 DCR-SX50, DCRSX50, SX50 DCR-SX60, DCRSX60, SX60 DCR-UX5, DCRUX5, UX5 DCR-UX7, DCRUX7, UX7 HDR-CX100, HDRCX100, CX100 HDR-CX105, HDRCX105, CX105 HDR-CX106, HDRCX106, CX106 HDR-CX11, HDRCX11, CX11 HDR-CX12, HDRCX12, CX12 HDR-CX500V, HDRCX500V, CX500V HDR-CX505VE, HDRCX505VE, CX505VE HDR-CX520V, HDRCX520V, CX520V HDR-CX6, HDRCX6, CX6 HDR-CX7, HDRCX7, CX7 HDR-HC28, HDRHC28, HC28 HDR-HC3, HDRHC3, HC3 HDR-HC38, HDRHC38, HC38 HDR-HC48, HDRHC48, HC48 HDR-HC5, HDRHC5, HC5 HDR-HC62, HDRHC62, HC62 HDR-HC7, HDRHC7, HC7 HDR-HC9, HDRHC9, HC9 HDR-HC96, HDRHC96, HC96 HDR-SR10, HDRSR10, SR10 HDR-SR100, HDRSR100, SR100 HDR-SR11, HDRSR11, SR11 HDR-SR12, HDRSR12, SR12 HDR-SR200, HDRSR200, SR200 HDR-SR220, HDRSR220, SR220 HDR-SR30, HDRSR30, SR30 HDR-SR300, HDRSR300, SR300 HDR-SR40, HDRSR40, SR40 HDR-SR42, HDRSR42, SR42 HDR-SR45, HDRSR45, SR45 HDR-SR47, HDRSR47, SR47 HDR-SR5, HDRSR5, SR5 HDR-SR50, HDRSR50, SR50 HDR-SR56, HDRSR56, SR56 HDR-SR5C, HDRSR5C, SR5C HDR-SR60, HDRSR60, SR60 HDR-SR62, HDRSR62, SR62 HDR-SR67, HDRSR67, SR67 HDR-SR7, HDRSR7, SR7 HDR-SR70, HDRSR70, SR70 HDR-SR8, HDRSR8, SR8 HDR-SR80, HDRSR80, SR80 HDR-SR82, HDRSR82, SR82 HDR-SR87, HDRSR87, SR87 HDR-SR90, HDRSR90, SR90 HDR-TG1, HDRTG1, TG1 HDR-TG3, HDRTG3, TG3 HDR-TG5V, HDRTG5V, TG5V HDR-UX10, HDRUX10, UX10 HDR-UX19, HDRUX19, UX19 HDR-UX20, HDRUX20, UX20 HDR-UX3, HDRUX3, UX3 HDR-UX5, HDRUX5, UX5 HDR-UX7, HDRUX7, UX7 HDR-XR100, HDRXR100, XR100 HDR-XR105, HDRXR105, XR105 HDR-XR106, HDRXR106, XR106 HDR-XR200V, HDRXR200V, XR200V HDR-XR500V, HDRXR500V, XR500V HDR-XR520V, HDRXR520V, XR520V HXR-MC1, HXRMC1, MC1</t>
+  </si>
+  <si>
+    <t>Sony H Series: NP-FH40, NPFH40, NP-FH50, NPFH50, NP-FH60, NPFH60</t>
+  </si>
+  <si>
+    <t>NP-FV40, NPFV40, NP-FV50, NPFV50, NP-FV60, NPFV60, NP-FV0, NPFV30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuji NP-W126, NPW126</t>
+  </si>
+  <si>
+    <t>VW-VBG6, VW-VBG6K, VW-VBG6E, VW-VBG6PP, VWVBG6, VWVBG6K, VWVBG6E, VWVBG6PP.</t>
+  </si>
+  <si>
+    <t>GC-PX10, GCPX10, PX10 GC-PX100, GCPX100, PX100 GR-D720US, GRD720US, D720US GR-D720EK, GRD720EK, D720EK GR-D720EX, GRD720EX, D720EX GR-D720, GRD720 GR-D725US, GRD725US, D725US GR-D725EK, GRD725EK, D725EK GR-D725EX, GRD725EX, D725EX GR-D725, GRD725 GR-D726US, GRD726US, D726US GR-D726EK, GRD726EK, D726EK GR-D726EX, GRD726EX, D726EX GR-D726, GRD726 GR-D728US, GRD728US, D728US GR-D728EK, GRD728EK, D728EK GR-D728EX, GRD728EX, D728EX GR-D728, GRD728 GR-D740US, GRD740US, D740US GR-D740EK, GRD740EK, D740EK GR-D740EX, GRD740EX, D740EX GR-D740, GRD740 GR-D745US, GRD745US, D745US GR-D745EK, GRD745EK, D745EK GR-D745EX, GRD745EX, D745EX GR-D745, GRD745 GR-D746US, GRD746US, D746US GR-D746EK, GRD746EK, D746EK GR-D746EX, GRD746EX, D746EX GR-D746, GRD746 GR-D750US, GRD750US, D750US GR-D750EK, GRD750EK, D750EK GR-D750EX, GRD750EX, D750EX GR-D750, GRD750 GR-D760US, GRD760US, D760US GR-D760EK, GRD760EK, D760EK GR-D760EX, GRD760EX, D760EX GR-D760, GRD760 GR-D770US, GRD770US, D770US GR-D770EK, GRD770EK, D770EK GR-D770EX, GRD770EX, D770EX GR-D770, GRD770 GR-D770E, GRD770E, D770E GR-D770VS, GRD770VS, D770VS GR-D771US, GRD771US, D771US GR-D771EK, GRD771EK, D771EK GR-D771EX, GRD771EX, D771EX GR-D771, GRD771 GR-D775US, GRD775US, D775US GR-D775EK, GRD775EK, D775EK GR-D775EX, GRD775EX, D775EX GR-D775, GRD775 GR-D790US, GRD790US, D790US GR-D790EK, GRD790EK, D790EK GR-D790EX, GRD790EX, D790EX GR-D790, GRD790 GR-D796US, GRD796US, D796US GR-D796EK, GRD796EK, D796EK GR-D796EX, GRD796EX, D796EX GR-D796, GRD796 GR-D850US, GRD850US, D850US GR-D850EK, GRD850EK, D850EK GR-D850EX, GRD850EX, D850EX GR-D850, GRD850 GR-D870US, GRD870US, D870US GR-D870EK, GRD870EK, D870EK GR-D870EX, GRD870EX, D870EX GR-D870, GRD870 GR-D875US, GRD875US, D875US GR-D875EK, GRD875EK, D875EK GR-D875EX, GRD875EX, D875EX GR-D875, GRD875 GR-DA30US, GRDA30US, DA30US GR-DA30, GRDA30 GS-TD1, GSTD1, TD1 GY-HM70U, GYHM70U GY-HM100, GYHM100 GY-HM100U, GYHM100U GY-HM100E, GYHM100E GY-HM100EC, GYHM100EC GY-HM150, GYHM150 GY-HM150U, GYHM150U GY-HM150E, GYHM150E GY-HMZ1, GYHMZ1 GY-HMZ1E, GYHMZ1E GY-HMZ1U, GYHMZ1U Everio GZ-MG130US, GZMG130US, MG130US Everio GZ-MG130EK, GZMG130EK, MG130EK Everio GZ-MG130EX, GZMG130EX, MG130EX Everio GZ-MG130, GZMG130 Everio GZ-MG131US, GZMG131US, MG131US Everio GZ-MG131EK, GZMG131EK, MG131EK Everio GZ-MG131EX, GZMG131EX, MG131EX Everio GZ-MG131, GZMG131 Everio GZ-MG132US, GZMG132US, MG132US Everio GZ-MG132EK, GZMG132EK, MG132EK Everio GZ-MG132EX, GZMG132EX, MG132EX Everio GZ-MG132, GZMG132 Everio GZ-MG133US, GZMG133US, MG133US Everio GZ-MG133EK, GZMG133EK, MG133EK Everio GZ-MG133EX, GZMG133EX, MG133EX Everio GZ-MG133, GZMG133 Everio GZ-MG134US, GZMG134US, MG134US Everio GZ-MG134EK, GZMG134EK, MG134EK Everio GZ-MG134EX, GZMG134EX, MG134EX Everio GZ-MG134, GZMG134 Everio GZ-MG135US, GZMG135US, MG135US Everio GZ-MG135EK, GZMG135EK, MG135EK Everio GZ-MG135EX, GZMG135EX, MG135EX Everio GZ-MG135, GZMG135 Everio GZ-MG148US, GZMG148US, MG148US Everio GZ-MG148EK, GZMG148EK, MG148EK Everio GZ-MG148EX, GZMG148EX, MG148EX Everio GZ-MG148, GZMG148 Everio GZ-MG150US, GZMG150US, MG150US Everio GZ-MG150EK, GZMG150EK, MG150EK Everio GZ-MG150EX, GZMG150EX, MG150EX Everio GZ-MG150, GZMG150 Everio GZ-MG155US, GZMG155US, MG155US Everio GZ-MG155EK, GZMG155EK, MG155EK Everio GZ-MG155EX, GZMG155EX, MG155EX Everio GZ-MG155, GZMG155 Everio GZ-MG157US, GZMG157US, MG157US Everio GZ-MG157EK, GZMG157EK, MG157EK Everio GZ-MG157EX, GZMG157EX, MG157EX Everio GZ-MG157, GZMG157 Everio GZ-MG175US, GZMG175US, MG175US Everio GZ-MG175EK, GZMG175EK, MG175EK Everio GZ-MG175EX, GZMG175EX, MG175EX Everio GZ-MG175, GZMG175 Everio GZ-MG177US, GZMG177US, MG177US Everio GZ-MG177EK, GZMG177EK, MG177EK Everio GZ-MG177EX, GZMG177EX, MG177EX Everio GZ-MG177, GZMG177 Everio GZ-MG230, GZMG230, MG230 Everio GZ-MG255US, GZMG255US, MG255US Everio GZ-MG255EK, GZMG255EK, MG255EK Everio GZ-MG255EX, GZMG255EX, MG255EX Everio GZ-MG255, GZMG255 Everio GZ-MG275US, GZMG275US, MG275US Everio GZ-MG275EK, GZMG275EK, MG275EK Everio GZ-MG275EX, GZMG275EX, MG275EX Everio GZ-MG275, GZMG275 Everio GZ-MG275E, GZMG275E Everio GZ-MG330, GZMG330 Everio GZ-MG330A, GZMG330A Everio GZ-MG330H, GZMG330H Everio GZ-MG330R, GZMG330R Everio GZ-MG330HUS, GZMG330HUS, MG330HUS Everio GZ-MG330RUS, GZMG330RUS, MG330RUS Everio GZ-MG330AUS, GZMG330AUS, MG330US Everio GZ-MG335, GZMG335 Everio GZ-MG335H, GZMG335H Everio GZ-MG335W, GZMG335W Everio GZ-MG335HUS, GZMG335HUS, MG335HUS Everio GZ-MG335WUS, GZMG335WUS, MG335WUS Everio GZ-MG340, GZMG340 Everio GZ-MG340B, GZMG340B Everio GZ-MG340BUS, GZMG340BUS, MG340BUS Everio GZ-MG360, GZMG360 Everio GZ-MG360B, GZMG360B Everio GZ-MG360BUS, GZMG360BUS, MG360BUS Everio GZ-MG365, GZMG365 Everio GZ-MG365B, GZMG365B Everio GZ-MG365BUS, GZMG365BUS, MG365BUS Everio GZ-MG430, GZMG430 Everio GZ-MG430H, GZMG430H Everio GZ-MG430HUS, GZMG430HUS, MG430HUS Everio GZ-MG435, GZMG435 Everio GZ-MG435H, GZMG435H Everio GZ-MG435HUS, GZMG435HUS, MG435HUS Everio GZ-MG465, GZMG465 Everio GZ-MG465B, GZMG465B Everio GZ-MG465BUS, GZMG465BUS, MG465BUS Everio GZ-MG555US, GZMG555US, MG555US Everio GZ-MG555EK, GZMG555EK, MG555EK Everio GZ-MG555EX, GZMG555EX, MG555EX Everio GZ-MG555, GZMG555 Everio GZ-MG575US, GZMG575US, MG575US Everio GZ-MG575EK, GZMG575EK, MG575EK Everio GZ-MG575EX, GZMG575EX, MG575EX Everio GZ-MG575, GZMG575 GZ-MG630A, GZMG630A, MG630A GZ-MG630R, GZMG630R, MG630R GZ-MG630S, GZMG630S, MG630S GZ-MG630US, GZMG630US, MG630US GZ-MG670B, GZMG670B, MG670B GZ-MG670US, GZMG670US, MG670US GZ-MG680B, GZMG680B, MG680B GZ-MG680US, GZMG680US, MG680US GZ-MG730US, GZMG730US, MG730US Everio GZ-MS100, GZMS100 Everio GZ-MS100US, GZMS100US, MS100US Everio GZ-MS100RUS, GZMS100RUS, MS100RUS Everio GZ-MS100R, GZMS100R Everio GZ-MS120, GZMS120, MS120 Everio GZ-MS120A, GZMS120A, MS120A Everio GZ-MS120R, GZMS120R, MS120R Everio GZ-MS120B, GZMS120B, MS120B Everio GZ-MS130, GZMS130 Everio GZ-MS130A, GZMS130A, MS130A Everio GZ-MS130R, GZMS130R, MS130R Everio GZ-MS130B, GZMS130B, MS130B Everio GZ-HD3US, GZHD3US, HD3US Everio GZ-HD3EK, GZHD3EK, HD3EK Everio GZ-HD3EX, GZHD3EX, HD3EX Everio GZ-HD3, GZHD3 Everio GZ-HD5US, GZHD5US, HD5US Everio GZ-HD5EK, GZHD5EK, HD5EK Everio GZ-HD5EX, GZHD5EX, HD5EX Everio GZ-HD5, GZHD5 Everio GZ-HD6US, GZHD6US, HD6US Everio GZ-HD6EK, GZHD6EK, HD6EK Everio GZ-HD6EX, GZHD6EX, HD6EX Everio GZ-HD6, GZHD6 Everio GZ-HD7US, GZHD7US, HD7US Everio GZ-HD7EK, GZHD7EK, HD7EK Everio GZ-HD7EX, GZHD7EX, HD7EX Everio GZ-HD7, GZHD7 Everio GZ-HD10US, GZHD10US, HD10US Everio GZ-HD10EK, GZHD10EK, HD10EK Everio GZ-HD10EX, GZHD10EX, HD10EX Everio GZ-HD10, GZHD10 Everio GZ-HD30US, GZHD30US, HD30US Everio GZ-HD30EK, GZHD30EK, HD30EK Everio GZ-HD30EX, GZHD30EX, HD30EX Everio GZ-HD30, GZHD30 Everio GZ-HD40US, GZHD40US, HD40US Everio GZ-HD40EK, GZHD40EK, HD40EK Everio GZ-HD40EX, GZHD40EX, HD40EX Everio GZ-HD40, GZHD40 GZ-HD300, GZHD300 GZ-HD300B, GZHD300B, HD300B GZ-HD300R, GZHD300R, HD300R GZ-HD300A, GZHD300A, HD300A GZ-HD200B, GZHD200B, HD200B GZ-HD200R, GZHD200R, HD200R GZ-HD200A, GZHD200A, HD200A GZ-HM1, GZHM1, HM1 GZ-HM200, GZHM200, HM200 GZ-HM400, GZHM400, HM400 GZ-X900, GZX900, X900</t>
+  </si>
+  <si>
+    <t>Victor JVC BN-VG121, BN-VG121U, BN-VG121E, BN-VG121US, BN-VG121USM, BNVG121, BNVG121U, BNVG121E, BNVG121USM, LY37166-002B, LY37166-002C</t>
+  </si>
+  <si>
+    <t>Nikon Coolpix P1 Nikon Coolpix P2 Nikon Coolpix S1 Nikon Coolpix S2 Nikon Coolpix S3 Nikon Coolpix S5 Nikon Coolpix S50 Nikon Coolpix S50c Nikon Coolpix S51 Nikon Coolpix S51c Nikon Coolpix S52 Nikon Coolpix S52c Nikon Coolpix S6 Nikon Coolpix S7 Nikon Coolpix S7c Nikon Coolpix S8 Nikon Coolpix S9 Nikon Cool-Station MV-11, MV11 Nikon Cool-Station MV-12, MV12</t>
+  </si>
+  <si>
+    <t>Nikon EN-EL8, ENEL8</t>
+  </si>
+  <si>
+    <t>Nikon D40 DSLR, Nikon D40 Nikon D40X DSLR, Nikon D40X Nikon D60 DSLR, Nikon D60 Nikon D3000 DSLR, Nikon D3000 Nikon D5000 DSLR, Nikon D5000</t>
+  </si>
+  <si>
+    <t>Nikon EN-EL9, ENEL9, EN-EL9a, ENEL9a, EN-EL9e, ENEL9e</t>
+  </si>
+  <si>
+    <t>Gopro HD HERO3 White Edition Gopro HD HERO3 Black Edition Gopro HD HERO3 Silver Edition GoPro HERO3+ Black Edition GoPro HERO3+ Silver Edition</t>
+  </si>
+  <si>
+    <t>Pentax K-50 Pentax K-30 Pentax K-r Pentax K-S1 Pentax K-S2</t>
+  </si>
+  <si>
+    <t>Pentax D-LI109, DLI109, Pentax D-L1109, DL-1109, DL1109</t>
+  </si>
+  <si>
+    <t>µ 550WP µ 700 µ 7000 µ 710 µ 720 µ 720SW µ 725SW µ 730 µ 740 µ 750 µ 760 µ 770SW µ 780 µ 790SW µ 795SW µ 820 µ 830 µ 840 µ 850SW µ 1040 µ 1050SW µ 1060 µ 1070 µ 1200 µ 5000 D-630, D630 D-720, D720 D-725, D725 D-730, D730 FE-150, FE150 FE-160, FE160 FE-190, FE190 FE-220, FE220 FE-230, FE230 FE-240, FE240 FE-250, FE250 FE-280, FE280 FE-290, FE290 FE-300, FE300 FE-320, FE320 FE-330, FE330 FE-340, FE340 FE-350, FE350 FE-360, FE360 FE-3000, FE3000 FE-3010, FE3010 FE-4000, FE4000 FE-4010, FE4010 FE-4030, FE4030 FE-5000, FE5000 FE-5010, FE5010 FE-5020, FE5020 FE-5500, FE5500 IR-300, IR300 SP-700, SP700 Stylus 550WP Stylus 700 Stylus 710 Stylus 720SW Stylus 725 Stylus 730 Stylus 740 Stylus 750 Stylus 760 Stylus 770SW Stylus 780 Stylus 790SW Stylus 820 Stylus 830 Stylus 840 Stylus 850SW Stylus 1040 Stylus 1050SW Stylus 1200 Stylus 5010, Stylus 5010 Stylus 7000, Stylus 7000 Stylus 7010, Stylus 7010 Stylus 7020, Stylus 7020 Stylus 7030, Stylus 7030 Stylus 7040, Stylus 7040 TG-310, TG310 TG-320, TG320 Tough-3000, Tough 3000 VG-165, VG165 VG-180, VG180 VH-210, VH210 VG-165, VG165 VG-180, VG180 VR-310, VR310 VR-320, VR320 VR-330, VR330 X-600, X600 X-730, X730 X-785, X785 X-790, X790 X-795, X795 X-800, X800 X-835, X835 X-845, X845 X-855, X855 X-875, X875</t>
+  </si>
+  <si>
+    <t>Olympus LI-40B, Olympus LI40B, Olympus LI-42B, Olympus LI42B</t>
+  </si>
+  <si>
+    <t>Olympus MJU 1010 Olympus MJU 1020 Olympus MJU 1030SW Olympus SH-21, Olympus SH21 Olympus SH-25MR, Olympus SH25 Olympus SP-720UZ, SP720UZ Olympus SP-800UZ, SP800UZ Olympus SP-810UZ, SP810UZ Olympus Stylus 1010 Olympus Stylus 1020 Olympus Stylus 1030SW, 1030SW Olympus Stylus 9000 Olympus Stylus Tough-6000, Tough 6000 Olympus Stylus Tough-6020, Tough 6020 Olympus Stylus Tough-8000, Tough 8000 Olympus Stylus Tough-8010, Tough 8010 Olympus SZ-10, SZ10 Olympus SZ-11, SZ11 Olympus SZ-12, SZ12 Olympus SZ-14, SZ14 Olympus SZ-15, SZ15 Olympus SZ-16, SZ16 Olympus SZ-17, SZ17 Olympus SZ-20, SZ20 Olympus SZ-30MR, SZ30MR Olympus SZ-31MR, SZ31MR Olympus Tough TG-610, TG610 Olympus Tough TG-620, TG620 Olympus Tough TG-630, TG630 Olympus Tough TG-810, TG810 Olympus Tough TG-820, TG820 Olympus Tough TG-830, TG830 Olympus Tough TG-850, TG850 Olympus Tough TG-860 iHS, TG860 Olympus VG-170, Olympus VG170 Olympus VG-190, Olympus VG190 Olympus VH-410, Olympus VH410 Olympus VH-510, Olympus VH510 Olympus VH-520, Olympus VH520 Olympus VR-340, Olympus VR340 Olympus VR-350, Olympus VR350 Olympus VR-360, Olympus VR360 Olympus VR-370, Olympus VR370 Olympus XZ-1, XZ1 Olympus XZ-10, XZ10</t>
+  </si>
+  <si>
+    <t>Olympus LI-50B, Olympus LI50B</t>
+  </si>
+  <si>
+    <t>Olympus D-705, D705 Olympus D-710, D710 Olympus D-715, D715 Olympus FE-4020, FE4020 Olympus FE-4040, FE4040 Olympus VG-110, VG110 Olympus VG-120, VG120 Olympus VG-140, VG140 Olympus VG-150, VG150 Olympus VG-160, VG160 Olympus VR-120, VR120 Olympus VR-130, VR130 Olympus VR-140, VR140 Olympus VR-145, VR145 Olympus X-940, X940</t>
+  </si>
+  <si>
+    <t>Olympus LI-70B, Olympus LI70B</t>
+  </si>
+  <si>
+    <t>Pentax K-01 SLR, K01 DSLR Pentax K-3 SLR, K-3 DSLR Pentax K-3 II SLR, K-3 II DSLR Pentax K-5 SLR, K5 DSLR Pentax K-5 II SLR, K5 II DSLR, K5II Pentax K-5 IIS SLR, K5 IIS DSLR, K5IIS Pentax K-7 SLR, K7 DSLR Pentax 645D Pentax 645Z</t>
+  </si>
+  <si>
+    <t>Pentax D-LI90, DLI90, Pentax D-L190, DL-190, DL190, D-LI90E</t>
+  </si>
+  <si>
+    <t>Olympus XZ-2 iHS, XZ2 Olympus SH-50 iHS, SH50 Olympus SH-1, SH1 Olympus Stylus SP-100, SP100 Olympus Stylus Tough TG-1 iHS, TG1 Olympus Stylus Tough TG-2 iHS, TG2 Olympus Stylus Tough TG-3, TG3</t>
+  </si>
+  <si>
+    <t>Olympus LI-90B, Olympus LI90B, LI-92B, LI92B</t>
+  </si>
+  <si>
+    <t>Canon EOS Rebel T3 Canon EOS 1100D Canon EOS Kiss X50 Canon EOS Rebel T5 Canon EOS 1200D Canon EOS Rebel T6 Canon EOS 1300D</t>
+  </si>
+  <si>
+    <t>Canon LP-E10, Canon LPE10, 5108B002</t>
+  </si>
+  <si>
+    <t>Canon EOS M / EOS-M, Canon M Canon EOS M2, Canon M2 Canon EOS M10, Canon M10 Canon EOS Rebel SL1, Canon Rebel SL1, Canon SL1 Canon EOS 100D, Canon 100D</t>
+  </si>
+  <si>
+    <t>Canon LP-E12, Canon LPE12, 6760B002</t>
+  </si>
+  <si>
+    <t>Canon EOS Rebel XSi Canon EOS Rebel XS Canon EOS 450D Canon EOS 500D Canon EOS 1000D Canon EOS Kiss F Canon EOS Kiss X2 Canon EOS Kiss X3 Canon EOS Rebel T1i</t>
+  </si>
+  <si>
+    <t>Canon LP-E5, Canon LPE5, 3039B001</t>
+  </si>
+  <si>
+    <t>Canon EOS 5D Mark II Canon EOS 5D Mark III Canon EOS 5DS Canon EOS 5DS R Canon 6D Canon EOS 7D Canon EOS 7D Mark II Canon EOS 60D Canon EOS 60Da Canon EOS 70D Canon XC10</t>
+  </si>
+  <si>
+    <t>Canon LP-E6, Canon LP-E6N, Canon LC-E6, Canon LCE6, 3347B001, CBC-E6</t>
+  </si>
+  <si>
+    <t>Canon EOS 550D Canon EOS 600D Canon EOS 650D Canon EOS 700D Canon EOS Kiss X4 Canon EOS Kiss X5 Canon EOS Kiss X6 Canon EOS Rebel T2i Canon EOS Rebel T3i Canon EOS Rebel T4i Canon EOS Rebel T5i</t>
+  </si>
+  <si>
+    <t>Canon LP-E8, Canon LPE8, 4515B002</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1378,8 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4648,6 +4786,12 @@
       <c r="D52" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="E52" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>248</v>
+      </c>
       <c r="H52" s="18" t="s">
         <v>141</v>
       </c>
@@ -4667,6 +4811,12 @@
       <c r="D53" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="E53" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>250</v>
+      </c>
       <c r="H53" s="18" t="s">
         <v>141</v>
       </c>
@@ -4686,6 +4836,12 @@
       <c r="D54" s="7" t="s">
         <v>88</v>
       </c>
+      <c r="E54" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>252</v>
+      </c>
       <c r="H54" s="18" t="s">
         <v>141</v>
       </c>
@@ -4705,6 +4861,12 @@
       <c r="D55" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="E55" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="H55" s="18" t="s">
         <v>141</v>
       </c>
@@ -4724,6 +4886,12 @@
       <c r="D56" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="E56" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="H56" s="18" t="s">
         <v>141</v>
       </c>
@@ -4743,6 +4911,12 @@
       <c r="D57" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="E57" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>187</v>
+      </c>
       <c r="H57" s="18" t="s">
         <v>141</v>
       </c>
@@ -4762,6 +4936,12 @@
       <c r="D58" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="E58" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>189</v>
+      </c>
       <c r="H58" s="18" t="s">
         <v>141</v>
       </c>
@@ -4781,6 +4961,12 @@
       <c r="D59" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E59" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>191</v>
+      </c>
       <c r="H59" s="18" t="s">
         <v>141</v>
       </c>
@@ -4800,6 +4986,12 @@
       <c r="D60" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="E60" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>258</v>
+      </c>
       <c r="H60" s="18" t="s">
         <v>141</v>
       </c>
@@ -4819,6 +5011,9 @@
       <c r="D61" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="E61" s="21" t="s">
+        <v>194</v>
+      </c>
       <c r="H61" s="18" t="s">
         <v>141</v>
       </c>
@@ -4838,6 +5033,12 @@
       <c r="D62" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="E62" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>260</v>
+      </c>
       <c r="H62" s="18" t="s">
         <v>141</v>
       </c>
@@ -4857,6 +5058,12 @@
       <c r="D63" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="E63" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>197</v>
+      </c>
       <c r="H63" s="18" t="s">
         <v>141</v>
       </c>
@@ -4876,6 +5083,12 @@
       <c r="D64" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="E64" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>199</v>
+      </c>
       <c r="H64" s="18" t="s">
         <v>141</v>
       </c>
@@ -4895,6 +5108,12 @@
       <c r="D65" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="E65" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="H65" s="18" t="s">
         <v>141</v>
       </c>
@@ -4914,6 +5133,12 @@
       <c r="D66" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="E66" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>202</v>
+      </c>
       <c r="H66" s="18" t="s">
         <v>141</v>
       </c>
@@ -4933,6 +5158,9 @@
       <c r="D67" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="E67" s="21" t="s">
+        <v>203</v>
+      </c>
       <c r="H67" s="18" t="s">
         <v>141</v>
       </c>
@@ -4952,6 +5180,12 @@
       <c r="D68" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="E68" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>262</v>
+      </c>
       <c r="H68" s="18" t="s">
         <v>141</v>
       </c>
@@ -4971,6 +5205,12 @@
       <c r="D69" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="E69" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>207</v>
+      </c>
       <c r="H69" s="18" t="s">
         <v>141</v>
       </c>
@@ -4990,6 +5230,12 @@
       <c r="D70" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="E70" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>207</v>
+      </c>
       <c r="H70" s="18" t="s">
         <v>141</v>
       </c>
@@ -5009,6 +5255,12 @@
       <c r="D71" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="E71" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>263</v>
+      </c>
       <c r="H71" s="18" t="s">
         <v>141</v>
       </c>
@@ -5028,6 +5280,12 @@
       <c r="D72" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="E72" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="H72" s="18" t="s">
         <v>141</v>
       </c>
@@ -5047,6 +5305,12 @@
       <c r="D73" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="E73" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="H73" s="18" t="s">
         <v>141</v>
       </c>
@@ -5066,6 +5330,12 @@
       <c r="D74" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="E74" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>215</v>
+      </c>
       <c r="H74" s="18" t="s">
         <v>141</v>
       </c>
@@ -5085,6 +5355,9 @@
       <c r="D75" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="E75" s="21" t="s">
+        <v>214</v>
+      </c>
       <c r="H75" s="18" t="s">
         <v>141</v>
       </c>
@@ -5104,6 +5377,12 @@
       <c r="D76" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E76" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>218</v>
+      </c>
       <c r="H76" s="18" t="s">
         <v>141</v>
       </c>
@@ -5123,6 +5402,12 @@
       <c r="D77" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E77" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>220</v>
+      </c>
       <c r="H77" s="18" t="s">
         <v>141</v>
       </c>
@@ -5142,6 +5427,12 @@
       <c r="D78" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="E78" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>265</v>
+      </c>
       <c r="H78" s="18" t="s">
         <v>141</v>
       </c>
@@ -5161,6 +5452,12 @@
       <c r="D79" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="E79" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>224</v>
+      </c>
       <c r="H79" s="18" t="s">
         <v>141</v>
       </c>
@@ -5180,6 +5477,12 @@
       <c r="D80" s="7" t="s">
         <v>143</v>
       </c>
+      <c r="E80" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>267</v>
+      </c>
       <c r="H80" s="18" t="s">
         <v>141</v>
       </c>
@@ -5199,6 +5502,12 @@
       <c r="D81" s="7" t="s">
         <v>144</v>
       </c>
+      <c r="E81" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>269</v>
+      </c>
       <c r="H81" s="18" t="s">
         <v>141</v>
       </c>
@@ -5218,6 +5527,9 @@
       <c r="D82" s="7" t="s">
         <v>145</v>
       </c>
+      <c r="E82" s="21" t="s">
+        <v>270</v>
+      </c>
       <c r="H82" s="18" t="s">
         <v>141</v>
       </c>
@@ -5237,6 +5549,12 @@
       <c r="D83" s="7" t="s">
         <v>146</v>
       </c>
+      <c r="E83" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>272</v>
+      </c>
       <c r="H83" s="18" t="s">
         <v>141</v>
       </c>
@@ -5256,6 +5574,12 @@
       <c r="D84" s="7" t="s">
         <v>147</v>
       </c>
+      <c r="E84" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>274</v>
+      </c>
       <c r="H84" s="18" t="s">
         <v>141</v>
       </c>
@@ -5275,6 +5599,12 @@
       <c r="D85" s="7" t="s">
         <v>148</v>
       </c>
+      <c r="E85" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>276</v>
+      </c>
       <c r="H85" s="18" t="s">
         <v>141</v>
       </c>
@@ -5294,6 +5624,12 @@
       <c r="D86" s="7" t="s">
         <v>149</v>
       </c>
+      <c r="E86" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>278</v>
+      </c>
       <c r="H86" s="18" t="s">
         <v>141</v>
       </c>
@@ -5313,6 +5649,12 @@
       <c r="D87" s="7" t="s">
         <v>150</v>
       </c>
+      <c r="E87" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>280</v>
+      </c>
       <c r="H87" s="18" t="s">
         <v>141</v>
       </c>
@@ -5332,6 +5674,12 @@
       <c r="D88" s="7" t="s">
         <v>151</v>
       </c>
+      <c r="E88" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>282</v>
+      </c>
       <c r="H88" s="18" t="s">
         <v>141</v>
       </c>
@@ -5351,6 +5699,12 @@
       <c r="D89" s="7" t="s">
         <v>152</v>
       </c>
+      <c r="E89" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>284</v>
+      </c>
       <c r="H89" s="18" t="s">
         <v>141</v>
       </c>
@@ -5370,6 +5724,12 @@
       <c r="D90" s="7" t="s">
         <v>153</v>
       </c>
+      <c r="E90" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>286</v>
+      </c>
       <c r="H90" s="18" t="s">
         <v>141</v>
       </c>
@@ -5389,6 +5749,12 @@
       <c r="D91" s="7" t="s">
         <v>154</v>
       </c>
+      <c r="E91" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>288</v>
+      </c>
       <c r="H91" s="18" t="s">
         <v>141</v>
       </c>
@@ -5408,6 +5774,12 @@
       <c r="D92" s="7" t="s">
         <v>155</v>
       </c>
+      <c r="E92" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>290</v>
+      </c>
       <c r="H92" s="18" t="s">
         <v>141</v>
       </c>
@@ -5426,6 +5798,12 @@
       </c>
       <c r="D93" s="7" t="s">
         <v>156</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>292</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>141</v>
@@ -5439,12 +5817,175 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -3511,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="A1:F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3521,8 +3521,8 @@
     <col min="2" max="2" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="24" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" style="16" customWidth="1"/>
     <col min="8" max="8" width="33" style="18" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -3511,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:F93"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3522,8 +3522,8 @@
     <col min="3" max="3" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="16" customWidth="1"/>
     <col min="8" max="8" width="33" style="18" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -507,9 +507,6 @@
     <t>Rm'ed XT</t>
   </si>
   <si>
-    <t>XT+CH</t>
-  </si>
-  <si>
     <t>Samsung NX-300 NX300 NX-500 NX500 NX-2000 NX2000</t>
   </si>
   <si>
@@ -555,9 +552,6 @@
     <t>Canon NB7L Canon NB-7L 3153B001</t>
   </si>
   <si>
-    <t>Paste</t>
-  </si>
-  <si>
     <t>Powershot A2200 A2200 Power Shot A2200 Powershot A3000 IS A3000IS A3000 IS A3000 A3000 IS Powershot A3100 IS A3100IS A3100 IS A3100 A3100 IS Powershot A3200 IS A3200IS A3200 IS A3200 A3200 IS Powershot A3300 IS A3300IS A3300 IS A3300 A3300 IS</t>
   </si>
   <si>
@@ -717,9 +711,6 @@
     <t>Canon NB10L, Canon NB-10L, Canon 5668B001</t>
   </si>
   <si>
-    <t>Original</t>
-  </si>
-  <si>
     <t>Canon PowerShot ELPH 110 HS, Canon 110 HS, Canon ELPH 110 HS, Canon PowerShot 110 HS Canon PowerShot ELPH 115 IS, Canon 115 IS, Canon ELPH 115 IS, Canon PowerShot 115 Canon PowerShot ELPH 130 IS, Canon ELPH 130 IS, Canon PowerShot 130 IS Canon PowerShot ELPH 135, Canon ELPH 135, Canon PowerShot 135 Canon PowerShot ELPH 140 IS, Canon ELPH 140 IS, Canon PowerShot 140 IS Canon PowerShot ELPH 150 IS, Canon ELPH 150 IS, Canon PowerShot 150 IS Canon PowerShot ELPH 160, Canon ELPH 160, Canon PowerShot 160 Canon PowerShot ELPH 170 IS, Canon ELPH 170 IS, Canon PowerShot 170 IS Canon PowerShot ELPH 320 HS, Canon 320 HS, Canon ELPH 320 HS, Canon PowerShot 320 HS Canon PowerShot ELPH 340 HS, Canon 340 HS, Canon ELPH 340 HS, Canon PowerShot 340 HS Canon PowerShot ELPH 350 HS, Canon 350 HS, Canon ELPH 350 HS, Canon PowerShot 350 HS Canon IXUS 240 HS, Canon 240 HS, 240HS Canon PowerShot A2300, Canon A2300 Canon PowerShot A2400 IS, Canon A2400 IS, Canon A2400 Canon PowerShot A2500, Canon A2500 Canon PowerShot A2600, Canon A2600 Canon PowerShot A3400 IS, Canon A3400 IS, Canon A3400 Canon PowerShot A3500 IS, Canon A3500 IS, Canon A3500 Canon PowerShot A4000 IS, A4000 IS, Canon A4000 IS, Canon A4000 Canon PowerShot SX400 IS, SX400 IS, Canon SX400 IS, Canon SX400 Canon PowerShot SX410 IS, SX410 IS, Canon SX410 IS, Canon SX410</t>
   </si>
   <si>
@@ -895,6 +886,15 @@
   </si>
   <si>
     <t>Canon LP-E8, Canon LPE8, 4515B002</t>
+  </si>
+  <si>
+    <t>Paste for Bbatt</t>
+  </si>
+  <si>
+    <t>Original for AMZ</t>
+  </si>
+  <si>
+    <t>XT+CH for AMZ</t>
   </si>
 </sst>
 </file>
@@ -3512,15 +3512,15 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="21" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" style="24" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" style="16" customWidth="1"/>
@@ -3530,16 +3530,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>162</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>163</v>
+        <v>292</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>157</v>
@@ -3592,10 +3592,10 @@
         <v>91</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>165</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>141</v>
@@ -3617,14 +3617,14 @@
         <v>89</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="10" t="str">
@@ -3639,10 +3639,10 @@
         <v>27</v>
       </c>
       <c r="E5" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>167</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>168</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>141</v>
@@ -3664,7 +3664,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>141</v>
@@ -3686,7 +3686,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>141</v>
@@ -3708,10 +3708,10 @@
         <v>32</v>
       </c>
       <c r="E8" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>171</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>172</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>141</v>
@@ -3733,10 +3733,10 @@
         <v>31</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>173</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>174</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>141</v>
@@ -3758,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="E10" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>175</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>176</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>141</v>
@@ -3783,10 +3783,10 @@
         <v>29</v>
       </c>
       <c r="E11" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>177</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>178</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>141</v>
@@ -3808,10 +3808,10 @@
         <v>92</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>141</v>
@@ -3833,7 +3833,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>141</v>
@@ -3855,7 +3855,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>141</v>
@@ -3877,7 +3877,7 @@
         <v>88</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>141</v>
@@ -3899,7 +3899,7 @@
         <v>24</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>141</v>
@@ -3921,7 +3921,7 @@
         <v>23</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>141</v>
@@ -3943,10 +3943,10 @@
         <v>22</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>141</v>
@@ -3968,10 +3968,10 @@
         <v>2</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>141</v>
@@ -3993,10 +3993,10 @@
         <v>20</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>141</v>
@@ -4018,10 +4018,10 @@
         <v>19</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>141</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>141</v>
@@ -4065,10 +4065,10 @@
         <v>21</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>141</v>
@@ -4090,10 +4090,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>141</v>
@@ -4115,10 +4115,10 @@
         <v>15</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>141</v>
@@ -4140,10 +4140,10 @@
         <v>3</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>141</v>
@@ -4165,10 +4165,10 @@
         <v>17</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>141</v>
@@ -4190,7 +4190,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>141</v>
@@ -4212,10 +4212,10 @@
         <v>14</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>141</v>
@@ -4237,10 +4237,10 @@
         <v>33</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>141</v>
@@ -4262,10 +4262,10 @@
         <v>13</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>141</v>
@@ -4287,10 +4287,10 @@
         <v>12</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>141</v>
@@ -4312,10 +4312,10 @@
         <v>10</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>141</v>
@@ -4337,10 +4337,10 @@
         <v>11</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>141</v>
@@ -4362,10 +4362,10 @@
         <v>9</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H35" s="18" t="s">
         <v>141</v>
@@ -4387,10 +4387,10 @@
         <v>8</v>
       </c>
       <c r="E36" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" s="24" t="s">
         <v>214</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>216</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>141</v>
@@ -4412,10 +4412,10 @@
         <v>7</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>141</v>
@@ -4437,10 +4437,10 @@
         <v>6</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>141</v>
@@ -4462,10 +4462,10 @@
         <v>5</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>141</v>
@@ -4487,10 +4487,10 @@
         <v>4</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H40" s="18" t="s">
         <v>141</v>
@@ -4512,10 +4512,10 @@
         <v>90</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>141</v>
@@ -4537,10 +4537,10 @@
         <v>91</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>141</v>
@@ -4562,10 +4562,10 @@
         <v>89</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>141</v>
@@ -4587,10 +4587,10 @@
         <v>27</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>141</v>
@@ -4612,10 +4612,10 @@
         <v>26</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>141</v>
@@ -4637,10 +4637,10 @@
         <v>18</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>141</v>
@@ -4662,10 +4662,10 @@
         <v>32</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>141</v>
@@ -4687,10 +4687,10 @@
         <v>31</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>141</v>
@@ -4712,10 +4712,10 @@
         <v>30</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H49" s="18" t="s">
         <v>141</v>
@@ -4737,10 +4737,10 @@
         <v>29</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H50" s="18" t="s">
         <v>141</v>
@@ -4762,10 +4762,10 @@
         <v>92</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>141</v>
@@ -4787,10 +4787,10 @@
         <v>28</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H52" s="18" t="s">
         <v>141</v>
@@ -4812,10 +4812,10 @@
         <v>25</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H53" s="18" t="s">
         <v>141</v>
@@ -4837,10 +4837,10 @@
         <v>88</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H54" s="18" t="s">
         <v>141</v>
@@ -4862,10 +4862,10 @@
         <v>24</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H55" s="18" t="s">
         <v>141</v>
@@ -4887,10 +4887,10 @@
         <v>23</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H56" s="18" t="s">
         <v>141</v>
@@ -4912,10 +4912,10 @@
         <v>22</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H57" s="18" t="s">
         <v>141</v>
@@ -4937,10 +4937,10 @@
         <v>2</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>141</v>
@@ -4962,10 +4962,10 @@
         <v>20</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>141</v>
@@ -4987,10 +4987,10 @@
         <v>19</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H60" s="18" t="s">
         <v>141</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H61" s="18" t="s">
         <v>141</v>
@@ -5034,10 +5034,10 @@
         <v>21</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H62" s="18" t="s">
         <v>141</v>
@@ -5059,10 +5059,10 @@
         <v>1</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>141</v>
@@ -5084,10 +5084,10 @@
         <v>15</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>141</v>
@@ -5109,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>141</v>
@@ -5134,10 +5134,10 @@
         <v>17</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>141</v>
@@ -5159,7 +5159,7 @@
         <v>16</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>141</v>
@@ -5181,10 +5181,10 @@
         <v>14</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>141</v>
@@ -5206,10 +5206,10 @@
         <v>33</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H69" s="18" t="s">
         <v>141</v>
@@ -5231,10 +5231,10 @@
         <v>13</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H70" s="18" t="s">
         <v>141</v>
@@ -5256,10 +5256,10 @@
         <v>12</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>141</v>
@@ -5281,10 +5281,10 @@
         <v>10</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H72" s="18" t="s">
         <v>141</v>
@@ -5306,10 +5306,10 @@
         <v>11</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H73" s="18" t="s">
         <v>141</v>
@@ -5331,10 +5331,10 @@
         <v>9</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H74" s="18" t="s">
         <v>141</v>
@@ -5356,7 +5356,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H75" s="18" t="s">
         <v>141</v>
@@ -5378,10 +5378,10 @@
         <v>7</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H76" s="18" t="s">
         <v>141</v>
@@ -5403,10 +5403,10 @@
         <v>6</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H77" s="18" t="s">
         <v>141</v>
@@ -5428,10 +5428,10 @@
         <v>5</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H78" s="18" t="s">
         <v>141</v>
@@ -5453,10 +5453,10 @@
         <v>4</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H79" s="18" t="s">
         <v>141</v>
@@ -5478,10 +5478,10 @@
         <v>143</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H80" s="18" t="s">
         <v>141</v>
@@ -5503,10 +5503,10 @@
         <v>144</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H81" s="18" t="s">
         <v>141</v>
@@ -5528,7 +5528,7 @@
         <v>145</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H82" s="18" t="s">
         <v>141</v>
@@ -5550,10 +5550,10 @@
         <v>146</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>141</v>
@@ -5575,10 +5575,10 @@
         <v>147</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>141</v>
@@ -5600,10 +5600,10 @@
         <v>148</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>141</v>
@@ -5625,10 +5625,10 @@
         <v>149</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H86" s="18" t="s">
         <v>141</v>
@@ -5650,10 +5650,10 @@
         <v>150</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H87" s="18" t="s">
         <v>141</v>
@@ -5675,10 +5675,10 @@
         <v>151</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>141</v>
@@ -5700,10 +5700,10 @@
         <v>152</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>141</v>
@@ -5725,10 +5725,10 @@
         <v>153</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>141</v>
@@ -5750,10 +5750,10 @@
         <v>154</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>141</v>
@@ -5775,10 +5775,10 @@
         <v>155</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>141</v>
@@ -5800,10 +5800,10 @@
         <v>156</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>141</v>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -3512,13 +3512,13 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="21" customWidth="1"/>
@@ -3649,7 +3649,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="10" t="str">

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -3512,7 +3512,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -3512,7 +3512,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3671,7 +3671,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="10" t="str">

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -3512,7 +3512,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,7 +3693,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="10" t="str">

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="294">
   <si>
     <t>NPF975</t>
   </si>
@@ -819,9 +819,6 @@
     <t>Nikon EN-EL9, ENEL9, EN-EL9a, ENEL9a, EN-EL9e, ENEL9e</t>
   </si>
   <si>
-    <t>Gopro HD HERO3 White Edition Gopro HD HERO3 Black Edition Gopro HD HERO3 Silver Edition GoPro HERO3+ Black Edition GoPro HERO3+ Silver Edition</t>
-  </si>
-  <si>
     <t>Pentax K-50 Pentax K-30 Pentax K-r Pentax K-S1 Pentax K-S2</t>
   </si>
   <si>
@@ -895,6 +892,12 @@
   </si>
   <si>
     <t>XT+CH for AMZ</t>
+  </si>
+  <si>
+    <t>Gopro HD HERO3 White Edition Gopro HD HERO3 AHDBT-301 / AHDBT-302  Black Edition Gopro HD HERO3 Silver Edition GoPro HERO3+ Black Edition GoPro HERO3+ Silver Edition</t>
+  </si>
+  <si>
+    <t>AHDBT-301 battery charger features world-traveler input voltage of 110v-240v, smart circuit design, and LED indicators with automatic current control to protect battery from overcharging, short circuit, and electronic shock</t>
   </si>
 </sst>
 </file>
@@ -3512,7 +3515,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,16 +3533,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>162</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>157</v>
@@ -3718,7 +3721,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="10" t="str">
@@ -3743,7 +3746,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="10" t="str">
@@ -3768,7 +3771,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B11" s="10" t="str">
@@ -3793,7 +3796,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B12" s="10" t="str">
@@ -5528,7 +5531,10 @@
         <v>145</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>267</v>
+        <v>292</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>293</v>
       </c>
       <c r="H82" s="18" t="s">
         <v>141</v>
@@ -5550,10 +5556,10 @@
         <v>146</v>
       </c>
       <c r="E83" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F83" s="24" t="s">
         <v>268</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>269</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>141</v>
@@ -5575,10 +5581,10 @@
         <v>147</v>
       </c>
       <c r="E84" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="F84" s="24" t="s">
         <v>270</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>271</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>141</v>
@@ -5600,10 +5606,10 @@
         <v>148</v>
       </c>
       <c r="E85" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F85" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>141</v>
@@ -5625,10 +5631,10 @@
         <v>149</v>
       </c>
       <c r="E86" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F86" s="24" t="s">
         <v>274</v>
-      </c>
-      <c r="F86" s="24" t="s">
-        <v>275</v>
       </c>
       <c r="H86" s="18" t="s">
         <v>141</v>
@@ -5650,10 +5656,10 @@
         <v>150</v>
       </c>
       <c r="E87" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="F87" s="24" t="s">
         <v>276</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>277</v>
       </c>
       <c r="H87" s="18" t="s">
         <v>141</v>
@@ -5675,10 +5681,10 @@
         <v>151</v>
       </c>
       <c r="E88" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F88" s="24" t="s">
         <v>278</v>
-      </c>
-      <c r="F88" s="24" t="s">
-        <v>279</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>141</v>
@@ -5700,10 +5706,10 @@
         <v>152</v>
       </c>
       <c r="E89" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F89" s="24" t="s">
         <v>280</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>281</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>141</v>
@@ -5725,10 +5731,10 @@
         <v>153</v>
       </c>
       <c r="E90" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="F90" s="24" t="s">
         <v>282</v>
-      </c>
-      <c r="F90" s="24" t="s">
-        <v>283</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>141</v>
@@ -5750,10 +5756,10 @@
         <v>154</v>
       </c>
       <c r="E91" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F91" s="24" t="s">
         <v>284</v>
-      </c>
-      <c r="F91" s="24" t="s">
-        <v>285</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>141</v>
@@ -5775,10 +5781,10 @@
         <v>155</v>
       </c>
       <c r="E92" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F92" s="24" t="s">
         <v>286</v>
-      </c>
-      <c r="F92" s="24" t="s">
-        <v>287</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>141</v>
@@ -5800,10 +5806,10 @@
         <v>156</v>
       </c>
       <c r="E93" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F93" s="24" t="s">
         <v>288</v>
-      </c>
-      <c r="F93" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>141</v>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="12195" windowHeight="9510" tabRatio="487" activeTab="1"/>
+    <workbookView xWindow="11490" yWindow="-120" windowWidth="12600" windowHeight="10230" tabRatio="487" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Original Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Good Looks" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Charger list" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="692">
   <si>
     <t>NPF975</t>
   </si>
@@ -898,13 +898,1212 @@
   </si>
   <si>
     <t>AHDBT-301 battery charger features world-traveler input voltage of 110v-240v, smart circuit design, and LED indicators with automatic current control to protect battery from overcharging, short circuit, and electronic shock</t>
+  </si>
+  <si>
+    <t>XTCHBCG10</t>
+  </si>
+  <si>
+    <t>XTCHBCH7</t>
+  </si>
+  <si>
+    <t>XTCHBCJ13</t>
+  </si>
+  <si>
+    <t>XTCHBCK7</t>
+  </si>
+  <si>
+    <t>XTCHBCL7</t>
+  </si>
+  <si>
+    <t>XTCHBCM13</t>
+  </si>
+  <si>
+    <t>XTCHBCN10</t>
+  </si>
+  <si>
+    <t>XTCHBLC12</t>
+  </si>
+  <si>
+    <t>XTCHBLD10</t>
+  </si>
+  <si>
+    <t>XTCHBLE9</t>
+  </si>
+  <si>
+    <t>XTCHBLF19</t>
+  </si>
+  <si>
+    <t>XTCHBLG10</t>
+  </si>
+  <si>
+    <t>XTCHBLS1</t>
+  </si>
+  <si>
+    <t>XTCHBMB9</t>
+  </si>
+  <si>
+    <t>XTCHBN1</t>
+  </si>
+  <si>
+    <t>XTCHBNVG121</t>
+  </si>
+  <si>
+    <t>XTCHBP1030</t>
+  </si>
+  <si>
+    <t>XTCHBP110</t>
+  </si>
+  <si>
+    <t>XTCHBP1310</t>
+  </si>
+  <si>
+    <t>XTCHBP511</t>
+  </si>
+  <si>
+    <t>XTCHBP70A</t>
+  </si>
+  <si>
+    <t>XTCHBP727</t>
+  </si>
+  <si>
+    <t>XTCHBP819</t>
+  </si>
+  <si>
+    <t>XTCHBP970</t>
+  </si>
+  <si>
+    <t>XTCHBX1</t>
+  </si>
+  <si>
+    <t>XTCHD54</t>
+  </si>
+  <si>
+    <t>XTCHENEL12</t>
+  </si>
+  <si>
+    <t>XTCHENEL14</t>
+  </si>
+  <si>
+    <t>XTCHENEL15</t>
+  </si>
+  <si>
+    <t>XTCHENEL19</t>
+  </si>
+  <si>
+    <t>XTCHENEL20</t>
+  </si>
+  <si>
+    <t>XTCHENEL21</t>
+  </si>
+  <si>
+    <t>XTCHENEL23</t>
+  </si>
+  <si>
+    <t>XTCHENEL24</t>
+  </si>
+  <si>
+    <t>XTCHENEL3E</t>
+  </si>
+  <si>
+    <t>XTCHENEL5</t>
+  </si>
+  <si>
+    <t>XTCHENEL8</t>
+  </si>
+  <si>
+    <t>XTCHENEL9</t>
+  </si>
+  <si>
+    <t>XTCHFG1</t>
+  </si>
+  <si>
+    <t>XTCHFV50</t>
+  </si>
+  <si>
+    <t>XTCHFW50</t>
+  </si>
+  <si>
+    <t>XTCHGPDUAL</t>
+  </si>
+  <si>
+    <t>XTCHGPDUAL4</t>
+  </si>
+  <si>
+    <t>XTCHGPH3</t>
+  </si>
+  <si>
+    <t>XTCHGPH4</t>
+  </si>
+  <si>
+    <t>XTCHLI109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XTCHLI42B</t>
+  </si>
+  <si>
+    <t>XTCHLI50B</t>
+  </si>
+  <si>
+    <t>XTCHLI70B</t>
+  </si>
+  <si>
+    <t>XTCHLI90</t>
+  </si>
+  <si>
+    <t>XTCHLI90B</t>
+  </si>
+  <si>
+    <t>XTCHLPE10</t>
+  </si>
+  <si>
+    <t>XTCHLPE12</t>
+  </si>
+  <si>
+    <t>XTCHLPE5</t>
+  </si>
+  <si>
+    <t>XTCHLPE6</t>
+  </si>
+  <si>
+    <t>XTCHLPE8</t>
+  </si>
+  <si>
+    <t>XTCHNB10L</t>
+  </si>
+  <si>
+    <t>XTCHNB11L</t>
+  </si>
+  <si>
+    <t>XTCHNB12L</t>
+  </si>
+  <si>
+    <t>XTCHNB2LH</t>
+  </si>
+  <si>
+    <t>XTCHNB4L</t>
+  </si>
+  <si>
+    <t>XTCHNB5L</t>
+  </si>
+  <si>
+    <t>XTCHNB6L</t>
+  </si>
+  <si>
+    <t>XTCHNB7L</t>
+  </si>
+  <si>
+    <t>XTCHNB8L</t>
+  </si>
+  <si>
+    <t>XTCHNB9L</t>
+  </si>
+  <si>
+    <t>XTCHNP45</t>
+  </si>
+  <si>
+    <t>XTCHNP50</t>
+  </si>
+  <si>
+    <t>XTCHNP85</t>
+  </si>
+  <si>
+    <t>XTCHNP95</t>
+  </si>
+  <si>
+    <t>XTCHNPBY1</t>
+  </si>
+  <si>
+    <t>XTCHNPF975</t>
+  </si>
+  <si>
+    <t>XTCHNPW126</t>
+  </si>
+  <si>
+    <t>XTCHSLB10A</t>
+  </si>
+  <si>
+    <t>XTCHVBG</t>
+  </si>
+  <si>
+    <t>XTCHVBK180</t>
+  </si>
+  <si>
+    <t>XTCHVBN130</t>
+  </si>
+  <si>
+    <t>XTCHVF815</t>
+  </si>
+  <si>
+    <t>BCG10</t>
+  </si>
+  <si>
+    <t>BCH7</t>
+  </si>
+  <si>
+    <t>BCJ13</t>
+  </si>
+  <si>
+    <t>BCK7</t>
+  </si>
+  <si>
+    <t>BCL7</t>
+  </si>
+  <si>
+    <t>BCM13</t>
+  </si>
+  <si>
+    <t>BCN10</t>
+  </si>
+  <si>
+    <t>BLC12</t>
+  </si>
+  <si>
+    <t>BLD10</t>
+  </si>
+  <si>
+    <t>BLE9</t>
+  </si>
+  <si>
+    <t>BLF19</t>
+  </si>
+  <si>
+    <t>BLG10</t>
+  </si>
+  <si>
+    <t>BLS1</t>
+  </si>
+  <si>
+    <t>BMB9</t>
+  </si>
+  <si>
+    <t>BN1</t>
+  </si>
+  <si>
+    <t>BNVG121</t>
+  </si>
+  <si>
+    <t>BP1030</t>
+  </si>
+  <si>
+    <t>BP110</t>
+  </si>
+  <si>
+    <t>BP1310</t>
+  </si>
+  <si>
+    <t>BP511</t>
+  </si>
+  <si>
+    <t>BP70A</t>
+  </si>
+  <si>
+    <t>BP727</t>
+  </si>
+  <si>
+    <t>BP819</t>
+  </si>
+  <si>
+    <t>BP970</t>
+  </si>
+  <si>
+    <t>BX1</t>
+  </si>
+  <si>
+    <t>D54</t>
+  </si>
+  <si>
+    <t>ENEL12</t>
+  </si>
+  <si>
+    <t>ENEL14</t>
+  </si>
+  <si>
+    <t>ENEL15</t>
+  </si>
+  <si>
+    <t>ENEL19</t>
+  </si>
+  <si>
+    <t>ENEL20</t>
+  </si>
+  <si>
+    <t>ENEL21</t>
+  </si>
+  <si>
+    <t>ENEL24</t>
+  </si>
+  <si>
+    <t>ENEL3E</t>
+  </si>
+  <si>
+    <t>ENEL5</t>
+  </si>
+  <si>
+    <t>FG1</t>
+  </si>
+  <si>
+    <t>FV50</t>
+  </si>
+  <si>
+    <t>FW50</t>
+  </si>
+  <si>
+    <t>GPDUAL</t>
+  </si>
+  <si>
+    <t>GPDUAL4</t>
+  </si>
+  <si>
+    <t>GPH4</t>
+  </si>
+  <si>
+    <t>HLI42B</t>
+  </si>
+  <si>
+    <t>NB12L</t>
+  </si>
+  <si>
+    <t>NPBY1</t>
+  </si>
+  <si>
+    <t>VBG</t>
+  </si>
+  <si>
+    <t>XTB7</t>
+  </si>
+  <si>
+    <t>XTBN1</t>
+  </si>
+  <si>
+    <t>XTBNVG121</t>
+  </si>
+  <si>
+    <t>XTBP727</t>
+  </si>
+  <si>
+    <t>XTBP970</t>
+  </si>
+  <si>
+    <t>XTBX1</t>
+  </si>
+  <si>
+    <t>XTD54</t>
+  </si>
+  <si>
+    <t>XTENEL24</t>
+  </si>
+  <si>
+    <t>XTFG1</t>
+  </si>
+  <si>
+    <t>XTFV50</t>
+  </si>
+  <si>
+    <t>XTFW50</t>
+  </si>
+  <si>
+    <t>XTGPDUAL</t>
+  </si>
+  <si>
+    <t>XTGPDUAL4</t>
+  </si>
+  <si>
+    <t>XTGPH4</t>
+  </si>
+  <si>
+    <t>XTNB12L</t>
+  </si>
+  <si>
+    <t>XTNPBY1</t>
+  </si>
+  <si>
+    <t>XTVBG</t>
+  </si>
+  <si>
+    <t>DEA65 DEA66</t>
+  </si>
+  <si>
+    <t>DEA75B</t>
+  </si>
+  <si>
+    <t>DEA81 DMWBTC5</t>
+  </si>
+  <si>
+    <t>DEA91A DEA91B NCAYN101G DMWBTC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEA91A DEA91B DMWBTC8 NCAYN101G </t>
+  </si>
+  <si>
+    <t>VSK0800 </t>
+  </si>
+  <si>
+    <t>DMCLF1</t>
+  </si>
+  <si>
+    <t> DEA79B</t>
+  </si>
+  <si>
+    <t>DEA93A DEA93B DMWBTC7</t>
+  </si>
+  <si>
+    <t>DEA99A DEA99B DMWBTC9</t>
+  </si>
+  <si>
+    <t>DMWBTC10</t>
+  </si>
+  <si>
+    <t>DMWBLG10</t>
+  </si>
+  <si>
+    <t>PSBCS1 BCS1</t>
+  </si>
+  <si>
+    <t>DEA83 DMWBTC4</t>
+  </si>
+  <si>
+    <t>BCCSN BCCSN</t>
+  </si>
+  <si>
+    <t>AAVG1 AAVG1U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDBP1030 EDBP1130 </t>
+  </si>
+  <si>
+    <t>CG110</t>
+  </si>
+  <si>
+    <t>EDBP1310 BP1310</t>
+  </si>
+  <si>
+    <t>CB5L CG560 CG570 CG580</t>
+  </si>
+  <si>
+    <t>EABP70A BP70A IABP70A</t>
+  </si>
+  <si>
+    <t>CG700 BP709 BP718 BP745</t>
+  </si>
+  <si>
+    <t>CG800 BP807 BP808 BP809 BP819 BP820 BP827 BP828</t>
+  </si>
+  <si>
+    <t>CG900 BP950G, BP955, BP970G, BP975 BP925</t>
+  </si>
+  <si>
+    <t>BCTRX</t>
+  </si>
+  <si>
+    <t>CGRD08 CGRD16 CGRD28 CGAD54 CGRD120 CGRD220 CGRD320</t>
+  </si>
+  <si>
+    <t>MH65</t>
+  </si>
+  <si>
+    <t>MH24</t>
+  </si>
+  <si>
+    <t>MH25 MH25A</t>
+  </si>
+  <si>
+    <t>MH66</t>
+  </si>
+  <si>
+    <t>MH27</t>
+  </si>
+  <si>
+    <t>MH28</t>
+  </si>
+  <si>
+    <t>MH67P MH67</t>
+  </si>
+  <si>
+    <t>MH31</t>
+  </si>
+  <si>
+    <t>MH18 MH19</t>
+  </si>
+  <si>
+    <t>MH61</t>
+  </si>
+  <si>
+    <t>MH62</t>
+  </si>
+  <si>
+    <t>MH23</t>
+  </si>
+  <si>
+    <t>BCCSG BCTRG</t>
+  </si>
+  <si>
+    <t>CB2LT CB2LW</t>
+  </si>
+  <si>
+    <t>BCTRW</t>
+  </si>
+  <si>
+    <t>AHDBT301 / AHDBT302</t>
+  </si>
+  <si>
+    <t>AHDBT401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHDBT301 / AHDBT302 </t>
+  </si>
+  <si>
+    <t>DBC109 KBC109 DBC109</t>
+  </si>
+  <si>
+    <t>LI40C LI41C Li42C</t>
+  </si>
+  <si>
+    <t>LI50C / UC50</t>
+  </si>
+  <si>
+    <t>LI70C</t>
+  </si>
+  <si>
+    <t>UC90</t>
+  </si>
+  <si>
+    <t>LCE10 CBCE10</t>
+  </si>
+  <si>
+    <t>LCE12</t>
+  </si>
+  <si>
+    <t>LCE5 CBCE5</t>
+  </si>
+  <si>
+    <t>LCE6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCE8
+</t>
+  </si>
+  <si>
+    <t>CB2LC </t>
+  </si>
+  <si>
+    <t>CB2LD</t>
+  </si>
+  <si>
+    <t>CB2LE</t>
+  </si>
+  <si>
+    <t>CB2LV</t>
+  </si>
+  <si>
+    <t>CB2LX</t>
+  </si>
+  <si>
+    <t>NB6L NB6LH</t>
+  </si>
+  <si>
+    <t>CB2LZ</t>
+  </si>
+  <si>
+    <t> CB2LA</t>
+  </si>
+  <si>
+    <t>CB2LB</t>
+  </si>
+  <si>
+    <t>BC45 BC45A BC45W BC45B</t>
+  </si>
+  <si>
+    <t>BC50 BC45W</t>
+  </si>
+  <si>
+    <t>BC85</t>
+  </si>
+  <si>
+    <t>BC65S BC65N BC95</t>
+  </si>
+  <si>
+    <t>BCW126</t>
+  </si>
+  <si>
+    <t>VWBC10</t>
+  </si>
+  <si>
+    <t>VWBC20</t>
+  </si>
+  <si>
+    <t>AAVF8U AAVF8USM</t>
+  </si>
+  <si>
+    <t>DEA79B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A65 DE-A66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A75B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A81 DMW-BTC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A91A DE-A91B NCA-YN101G DMW-BTC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A91A DE-A91B DMW-BTC8 NCA-YN101G </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VSK0800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DMC-LF1</t>
+  </si>
+  <si>
+    <t> DE-A79B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A93A DE-A93B DMW-BTC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A99A DE-A99B DMW-BTC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DMW-BTC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DMW-BLG10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PS-BCS1 BCS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A83 DMW-BTC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BC-CSN BCCSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AA-VG1 AA-VG1U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ED-BP1030 ED-BP1130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CG-110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ED-BP1310 BP1310</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CB-5L CG-560 CG-570 CG-580</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EA-BP70A BP70A IA-BP70A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CG-700 BP-709 BP-718 BP-745</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CG-800 BP-807 BP-808 BP-809 BP-819 BP-820 BP-827 BP-828</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CG-900 BP-950G, BP-955, BP-970G, BP-975 BP-925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BC-TRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CGR-D08 CGR-D16 CGR-D28 CGA-D54 CGR-D120 CGR-D220 CGR-D320</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-25 MH-25A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-67P MH-67</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-18 MH-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-61</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BC-CSG BC-TRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CB-2LT CB-2LW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BC-TRW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AHDBT-301 / AHDBT-302</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AHDBT-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D-BC109 K-BC109 DBC109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LI-40C LI-41C Li-42C</t>
+  </si>
+  <si>
+    <t>LI-50C / UC-50</t>
+  </si>
+  <si>
+    <t>LI-70C</t>
+  </si>
+  <si>
+    <t>UC-90</t>
+  </si>
+  <si>
+    <t>LC-E10 CBC-E10</t>
+  </si>
+  <si>
+    <t>LC-E12</t>
+  </si>
+  <si>
+    <t>LC-E5 CBC-E5</t>
+  </si>
+  <si>
+    <t>LC-E6</t>
+  </si>
+  <si>
+    <t>LC-E8</t>
+  </si>
+  <si>
+    <t>CB-2LC </t>
+  </si>
+  <si>
+    <t>CB-2LD</t>
+  </si>
+  <si>
+    <t>CB-2LE</t>
+  </si>
+  <si>
+    <t>CB-2LT CB-2LW</t>
+  </si>
+  <si>
+    <t>CB-2LV</t>
+  </si>
+  <si>
+    <t>CB-2LX</t>
+  </si>
+  <si>
+    <t>NB-6L NB-6LH</t>
+  </si>
+  <si>
+    <t>CB-2LZ</t>
+  </si>
+  <si>
+    <t> CB-2LA</t>
+  </si>
+  <si>
+    <t>CB-2LB</t>
+  </si>
+  <si>
+    <t>BC-45 BC-45A BC-45W BC-45B</t>
+  </si>
+  <si>
+    <t>BC-50 BC-45W</t>
+  </si>
+  <si>
+    <t>BC-85</t>
+  </si>
+  <si>
+    <t>BC-65S BC-65N BC-95</t>
+  </si>
+  <si>
+    <t>BC-W126</t>
+  </si>
+  <si>
+    <t>VW-BC10</t>
+  </si>
+  <si>
+    <t>VW-BC20</t>
+  </si>
+  <si>
+    <t>AA-VF8U AA-VF8USM</t>
+  </si>
+  <si>
+    <t>batteries volt mah shock electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LI109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LI42B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LI50B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LI70B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LI90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LI90B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LPE10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LPE12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LPE5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LPE6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LPE8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NB10L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NB11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NB12L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NB2LH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NB4L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NB5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NB6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NB7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NB8L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NB9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NP45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NP50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NP85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NP95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NPBY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NPF975</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NPW126</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SLB10A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VBK180</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VBN130</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VF815</t>
+  </si>
+  <si>
+    <t>Removed XT + CH</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Just XT</t>
+  </si>
+  <si>
+    <t>Main keywords</t>
+  </si>
+  <si>
+    <t>volt mah shock electric Batteries battery camera kamera camcorder dslr digital lithium lithium-ion charger rechargeable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A65 DE-A66 DEA65 DEA66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A75B DEA75B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A81 DMW-BTC5 DEA81 DMWBTC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A91A DE-A91B NCA-YN101G DMW-BTC8 DEA91A DEA91B NCAYN101G DMWBTC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A91A DE-A91B DMW-BTC8 NCA-YN101G  DEA91A DEA91B DMWBTC8 NCAYN101G </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VSK0800  VSK0800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DMC-LF1 DMCLF1</t>
+  </si>
+  <si>
+    <t> DE-A79B  DEA79B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A93A DE-A93B DMW-BTC7 DEA93A DEA93B DMWBTC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A99A DE-A99B DMW-BTC9 DEA99A DEA99B DMWBTC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DMW-BTC10 DMWBTC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DMW-BLG10 DMWBLG10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PS-BCS1 BCS1 PSBCS1 BCS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE-A83 DMW-BTC4 DEA83 DMWBTC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BC-CSN BCCSN BCCSN BCCSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AA-VG1 AA-VG1U AAVG1 AAVG1U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ED-BP1030 ED-BP1130  EDBP1030 EDBP1130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CG-110 CG110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ED-BP1310 BP1310 EDBP1310 BP1310</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CB-5L CG-560 CG-570 CG-580 CB5L CG560 CG570 CG580</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EA-BP70A BP70A IA-BP70A EABP70A BP70A IABP70A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CG-700 BP-709 BP-718 BP-745 CG700 BP709 BP718 BP745</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CG-800 BP-807 BP-808 BP-809 BP-819 BP-820 BP-827 BP-828 CG800 BP807 BP808 BP809 BP819 BP820 BP827 BP828</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CG-900 BP-950G, BP-955, BP-970G, BP-975 BP-925 CG900 BP950G, BP955, BP970G, BP975 BP925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BC-TRX BCTRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CGR-D08 CGR-D16 CGR-D28 CGA-D54 CGR-D120 CGR-D220 CGR-D320 CGRD08 CGRD16 CGRD28 CGAD54 CGRD120 CGRD220 CGRD320</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-65 MH65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-24 MH24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-25 MH-25A MH25 MH25A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-66 MH66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-27 MH27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-28 MH28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-67P MH-67 MH67P MH67</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-31 MH31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-18 MH-19 MH18 MH19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-61 MH61</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-62 MH62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MH-23 MH23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BC-CSG BC-TRG BCCSG BCTRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CB-2LT CB-2LW CB2LT CB2LW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BC-TRW BCTRW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AHDBT-301 / AHDBT-302 AHDBT301 / AHDBT302</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AHDBT-401 AHDBT401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AHDBT-301 / AHDBT-302 AHDBT301 / AHDBT302 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D-BC109 K-BC109 DBC109 DBC109 KBC109 DBC109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LI-40C LI-41C Li-42C LI40C LI41C Li42C</t>
+  </si>
+  <si>
+    <t>LI-50C / UC-50 LI50C / UC50</t>
+  </si>
+  <si>
+    <t>LI-70C LI70C</t>
+  </si>
+  <si>
+    <t>UC-90 UC90</t>
+  </si>
+  <si>
+    <t>LC-E10 CBC-E10 LCE10 CBCE10</t>
+  </si>
+  <si>
+    <t>LC-E12 LCE12</t>
+  </si>
+  <si>
+    <t>LC-E5 CBC-E5 LCE5 CBCE5</t>
+  </si>
+  <si>
+    <t>LC-E6 LCE6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-E8 LCE8
+</t>
+  </si>
+  <si>
+    <t>CB-2LC  CB2LC </t>
+  </si>
+  <si>
+    <t>CB-2LD CB2LD</t>
+  </si>
+  <si>
+    <t>CB-2LE CB2LE</t>
+  </si>
+  <si>
+    <t>CB-2LT CB-2LW CB2LT CB2LW</t>
+  </si>
+  <si>
+    <t>CB-2LV CB2LV</t>
+  </si>
+  <si>
+    <t>CB-2LX CB2LX</t>
+  </si>
+  <si>
+    <t>NB-6L NB-6LH NB6L NB6LH</t>
+  </si>
+  <si>
+    <t>CB-2LZ CB2LZ</t>
+  </si>
+  <si>
+    <t> CB-2LA  CB2LA</t>
+  </si>
+  <si>
+    <t>CB-2LB CB2LB</t>
+  </si>
+  <si>
+    <t>BC-45 BC-45A BC-45W BC-45B BC45 BC45A BC45W BC45B</t>
+  </si>
+  <si>
+    <t>BC-50 BC-45W BC50 BC45W</t>
+  </si>
+  <si>
+    <t>BC-85 BC85</t>
+  </si>
+  <si>
+    <t>BC-65S BC-65N BC-95 BC65S BC65N BC95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BC-W126 BCW126</t>
+  </si>
+  <si>
+    <t>VW-BC10 VWBC10</t>
+  </si>
+  <si>
+    <t>VW-BC20 VWBC20</t>
+  </si>
+  <si>
+    <t>AA-VF8U AA-VF8USM AAVF8U AAVF8USM</t>
+  </si>
+  <si>
+    <t>K1-sep</t>
+  </si>
+  <si>
+    <t>K2-sep</t>
+  </si>
+  <si>
+    <t>formula for keywords</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,8 +2158,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1002,8 +2248,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1041,12 +2315,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1076,12 +2368,88 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1382,7 +2750,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61:XFD61"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,21 +4880,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="14" style="16" customWidth="1"/>
     <col min="8" max="8" width="33" style="18" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3588,7 +4957,7 @@
         <v>BP1130</v>
       </c>
       <c r="C3" s="15" t="str">
-        <f t="shared" ref="C3:C66" si="1">"XTCH"&amp;B3</f>
+        <f>"XTCH"&amp;B3</f>
         <v>XTCHBP1130</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -3613,7 +4982,7 @@
         <v>ENEL23</v>
       </c>
       <c r="C4" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C3:C66" si="1">"XTCH"&amp;B4</f>
         <v>XTCHENEL23</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -3821,7 +5190,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="10" t="str">
@@ -5813,6 +7182,1938 @@
       </c>
       <c r="H93" s="18" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="28"/>
+    </row>
+    <row r="95" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="27"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" s="10" t="str">
+        <f>RIGHT(A96, LEN(A96)-2)</f>
+        <v>BCG10</v>
+      </c>
+      <c r="C96" s="15" t="str">
+        <f>"XTCH"&amp;B96</f>
+        <v>XTCHBCG10</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B97" s="10" t="str">
+        <f>RIGHT(A97, LEN(A97)-2)</f>
+        <v>B7</v>
+      </c>
+      <c r="C97" s="15" t="str">
+        <f>"XTCH"&amp;B97</f>
+        <v>XTCHB7</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" s="10" t="str">
+        <f>RIGHT(A98, LEN(A98)-2)</f>
+        <v>BCJ13</v>
+      </c>
+      <c r="C98" s="15" t="str">
+        <f>"XTCH"&amp;B98</f>
+        <v>XTCHBCJ13</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="10" t="str">
+        <f>RIGHT(A99, LEN(A99)-2)</f>
+        <v>BCK7</v>
+      </c>
+      <c r="C99" s="15" t="str">
+        <f>"XTCH"&amp;B99</f>
+        <v>XTCHBCK7</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="10" t="str">
+        <f>RIGHT(A100, LEN(A100)-2)</f>
+        <v>BCL7</v>
+      </c>
+      <c r="C100" s="15" t="str">
+        <f>"XTCH"&amp;B100</f>
+        <v>XTCHBCL7</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="H100" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" s="10" t="str">
+        <f>RIGHT(A101, LEN(A101)-2)</f>
+        <v>BCM13</v>
+      </c>
+      <c r="C101" s="15" t="str">
+        <f>"XTCH"&amp;B101</f>
+        <v>XTCHBCM13</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="H101" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" s="10" t="str">
+        <f>RIGHT(A102, LEN(A102)-2)</f>
+        <v>BCN10</v>
+      </c>
+      <c r="C102" s="15" t="str">
+        <f>"XTCH"&amp;B102</f>
+        <v>XTCHBCN10</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" s="10" t="str">
+        <f>RIGHT(A103, LEN(A103)-2)</f>
+        <v>BLC12</v>
+      </c>
+      <c r="C103" s="15" t="str">
+        <f>"XTCH"&amp;B103</f>
+        <v>XTCHBLC12</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="10" t="str">
+        <f>RIGHT(A104, LEN(A104)-2)</f>
+        <v>BLD10</v>
+      </c>
+      <c r="C104" s="15" t="str">
+        <f>"XTCH"&amp;B104</f>
+        <v>XTCHBLD10</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="10" t="str">
+        <f>RIGHT(A105, LEN(A105)-2)</f>
+        <v>BLE9</v>
+      </c>
+      <c r="C105" s="15" t="str">
+        <f>"XTCH"&amp;B105</f>
+        <v>XTCHBLE9</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" s="10" t="str">
+        <f>RIGHT(A106, LEN(A106)-2)</f>
+        <v>BLF19</v>
+      </c>
+      <c r="C106" s="15" t="str">
+        <f>"XTCH"&amp;B106</f>
+        <v>XTCHBLF19</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" s="10" t="str">
+        <f>RIGHT(A107, LEN(A107)-2)</f>
+        <v>BLG10</v>
+      </c>
+      <c r="C107" s="15" t="str">
+        <f>"XTCH"&amp;B107</f>
+        <v>XTCHBLG10</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="H107" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" s="10" t="str">
+        <f>RIGHT(A108, LEN(A108)-2)</f>
+        <v>BLS1</v>
+      </c>
+      <c r="C108" s="15" t="str">
+        <f>"XTCH"&amp;B108</f>
+        <v>XTCHBLS1</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="H108" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" s="10" t="str">
+        <f>RIGHT(A109, LEN(A109)-2)</f>
+        <v>BMB9</v>
+      </c>
+      <c r="C109" s="15" t="str">
+        <f>"XTCH"&amp;B109</f>
+        <v>XTCHBMB9</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="H109" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B110" s="10" t="str">
+        <f>RIGHT(A110, LEN(A110)-2)</f>
+        <v>BN1</v>
+      </c>
+      <c r="C110" s="15" t="str">
+        <f>"XTCH"&amp;B110</f>
+        <v>XTCHBN1</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="H110" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B111" s="10" t="str">
+        <f>RIGHT(A111, LEN(A111)-2)</f>
+        <v>BNVG121</v>
+      </c>
+      <c r="C111" s="15" t="str">
+        <f>"XTCH"&amp;B111</f>
+        <v>XTCHBNVG121</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="H111" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112" s="10" t="str">
+        <f>RIGHT(A112, LEN(A112)-2)</f>
+        <v>BP1030</v>
+      </c>
+      <c r="C112" s="15" t="str">
+        <f>"XTCH"&amp;B112</f>
+        <v>XTCHBP1030</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="H112" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B113" s="10" t="str">
+        <f>RIGHT(A113, LEN(A113)-2)</f>
+        <v>BP110</v>
+      </c>
+      <c r="C113" s="15" t="str">
+        <f>"XTCH"&amp;B113</f>
+        <v>XTCHBP110</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="H113" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B114" s="10" t="str">
+        <f>RIGHT(A114, LEN(A114)-2)</f>
+        <v>BP1310</v>
+      </c>
+      <c r="C114" s="15" t="str">
+        <f>"XTCH"&amp;B114</f>
+        <v>XTCHBP1310</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="H114" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="10" t="str">
+        <f>RIGHT(A115, LEN(A115)-2)</f>
+        <v>BP511</v>
+      </c>
+      <c r="C115" s="15" t="str">
+        <f>"XTCH"&amp;B115</f>
+        <v>XTCHBP511</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="H115" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" s="10" t="str">
+        <f>RIGHT(A116, LEN(A116)-2)</f>
+        <v>BP70A</v>
+      </c>
+      <c r="C116" s="15" t="str">
+        <f>"XTCH"&amp;B116</f>
+        <v>XTCHBP70A</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="H116" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B117" s="10" t="str">
+        <f>RIGHT(A117, LEN(A117)-2)</f>
+        <v>BP727</v>
+      </c>
+      <c r="C117" s="15" t="str">
+        <f>"XTCH"&amp;B117</f>
+        <v>XTCHBP727</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="H117" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B118" s="10" t="str">
+        <f>RIGHT(A118, LEN(A118)-2)</f>
+        <v>BP819</v>
+      </c>
+      <c r="C118" s="15" t="str">
+        <f>"XTCH"&amp;B118</f>
+        <v>XTCHBP819</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="H118" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B119" s="10" t="str">
+        <f>RIGHT(A119, LEN(A119)-2)</f>
+        <v>BP970</v>
+      </c>
+      <c r="C119" s="15" t="str">
+        <f>"XTCH"&amp;B119</f>
+        <v>XTCHBP970</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E119" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="H119" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B120" s="10" t="str">
+        <f>RIGHT(A120, LEN(A120)-2)</f>
+        <v>BX1</v>
+      </c>
+      <c r="C120" s="15" t="str">
+        <f>"XTCH"&amp;B120</f>
+        <v>XTCHBX1</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="H120" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B121" s="10" t="str">
+        <f>RIGHT(A121, LEN(A121)-2)</f>
+        <v>D54</v>
+      </c>
+      <c r="C121" s="15" t="str">
+        <f>"XTCH"&amp;B121</f>
+        <v>XTCHD54</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="H121" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" s="10" t="str">
+        <f>RIGHT(A122, LEN(A122)-2)</f>
+        <v>ENEL12</v>
+      </c>
+      <c r="C122" s="15" t="str">
+        <f>"XTCH"&amp;B122</f>
+        <v>XTCHENEL12</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="F122" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="H122" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B123" s="10" t="str">
+        <f>RIGHT(A123, LEN(A123)-2)</f>
+        <v>ENEL14</v>
+      </c>
+      <c r="C123" s="15" t="str">
+        <f>"XTCH"&amp;B123</f>
+        <v>XTCHENEL14</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="H123" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B124" s="10" t="str">
+        <f>RIGHT(A124, LEN(A124)-2)</f>
+        <v>ENEL15</v>
+      </c>
+      <c r="C124" s="15" t="str">
+        <f>"XTCH"&amp;B124</f>
+        <v>XTCHENEL15</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="H124" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B125" s="10" t="str">
+        <f>RIGHT(A125, LEN(A125)-2)</f>
+        <v>ENEL19</v>
+      </c>
+      <c r="C125" s="15" t="str">
+        <f>"XTCH"&amp;B125</f>
+        <v>XTCHENEL19</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="H125" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B126" s="10" t="str">
+        <f>RIGHT(A126, LEN(A126)-2)</f>
+        <v>ENEL20</v>
+      </c>
+      <c r="C126" s="15" t="str">
+        <f>"XTCH"&amp;B126</f>
+        <v>XTCHENEL20</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127" s="10" t="str">
+        <f>RIGHT(A127, LEN(A127)-2)</f>
+        <v>ENEL21</v>
+      </c>
+      <c r="C127" s="15" t="str">
+        <f>"XTCH"&amp;B127</f>
+        <v>XTCHENEL21</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="H127" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" s="10" t="str">
+        <f>RIGHT(A128, LEN(A128)-2)</f>
+        <v>ENEL23</v>
+      </c>
+      <c r="C128" s="15" t="str">
+        <f>"XTCH"&amp;B128</f>
+        <v>XTCHENEL23</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="H128" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B129" s="10" t="str">
+        <f>RIGHT(A129, LEN(A129)-2)</f>
+        <v>ENEL24</v>
+      </c>
+      <c r="C129" s="15" t="str">
+        <f>"XTCH"&amp;B129</f>
+        <v>XTCHENEL24</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="H129" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" s="10" t="str">
+        <f>RIGHT(A130, LEN(A130)-2)</f>
+        <v>ENEL3E</v>
+      </c>
+      <c r="C130" s="15" t="str">
+        <f>"XTCH"&amp;B130</f>
+        <v>XTCHENEL3E</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="H130" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B131" s="10" t="str">
+        <f>RIGHT(A131, LEN(A131)-2)</f>
+        <v>ENEL5</v>
+      </c>
+      <c r="C131" s="15" t="str">
+        <f>"XTCH"&amp;B131</f>
+        <v>XTCHENEL5</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E131" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="H131" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B132" s="10" t="str">
+        <f>RIGHT(A132, LEN(A132)-2)</f>
+        <v>ENEL8</v>
+      </c>
+      <c r="C132" s="15" t="str">
+        <f>"XTCH"&amp;B132</f>
+        <v>XTCHENEL8</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="F132" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="H132" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B133" s="10" t="str">
+        <f t="shared" ref="B133:B173" si="4">RIGHT(A133, LEN(A133)-2)</f>
+        <v>ENEL9</v>
+      </c>
+      <c r="C133" s="15" t="str">
+        <f t="shared" ref="C133:C173" si="5">"XTCH"&amp;B133</f>
+        <v>XTCHENEL9</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="H133" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B134" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>FG1</v>
+      </c>
+      <c r="C134" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHFG1</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="F134" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="H134" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B135" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>FV50</v>
+      </c>
+      <c r="C135" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHFV50</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="H135" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B136" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>FW50</v>
+      </c>
+      <c r="C136" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHFW50</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="H136" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B137" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>GPDUAL</v>
+      </c>
+      <c r="C137" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHGPDUAL</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="H137" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B138" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>GPDUAL4</v>
+      </c>
+      <c r="C138" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHGPDUAL4</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E138" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="F138" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="H138" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B139" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>GPH3</v>
+      </c>
+      <c r="C139" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHGPH3</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="H139" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B140" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>GPH4</v>
+      </c>
+      <c r="C140" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHGPH4</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="F140" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="H140" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B141" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LI109</v>
+      </c>
+      <c r="C141" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHLI109</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="H141" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B142" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LI42B</v>
+      </c>
+      <c r="C142" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHLI42B</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="F142" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="H142" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B143" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LI50B</v>
+      </c>
+      <c r="C143" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHLI50B</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="H143" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LI70B</v>
+      </c>
+      <c r="C144" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHLI70B</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="F144" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="H144" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B145" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LI90</v>
+      </c>
+      <c r="C145" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHLI90</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="F145" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="H145" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B146" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LI90B</v>
+      </c>
+      <c r="C146" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHLI90B</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="F146" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="H146" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LPE10</v>
+      </c>
+      <c r="C147" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHLPE10</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="F147" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="H147" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B148" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LPE12</v>
+      </c>
+      <c r="C148" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHLPE12</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E148" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="F148" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="H148" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B149" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LPE5</v>
+      </c>
+      <c r="C149" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHLPE5</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="F149" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="H149" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B150" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LPE6</v>
+      </c>
+      <c r="C150" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHLPE6</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="F150" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="H150" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B151" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LPE8</v>
+      </c>
+      <c r="C151" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHLPE8</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E151" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="F151" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="H151" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B152" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NB10L</v>
+      </c>
+      <c r="C152" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNB10L</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="F152" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="H152" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B153" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NB11L</v>
+      </c>
+      <c r="C153" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNB11L</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="F153" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="H153" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B154" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NB12L</v>
+      </c>
+      <c r="C154" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNB12L</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="F154" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="H154" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B155" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NB2LH</v>
+      </c>
+      <c r="C155" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNB2LH</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="H155" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B156" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NB4L</v>
+      </c>
+      <c r="C156" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNB4L</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="F156" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="H156" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B157" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NB5L</v>
+      </c>
+      <c r="C157" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNB5L</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="F157" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="H157" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B158" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NB6L</v>
+      </c>
+      <c r="C158" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNB6L</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="F158" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="H158" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B159" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NB7L</v>
+      </c>
+      <c r="C159" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNB7L</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="F159" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="H159" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B160" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NB8L</v>
+      </c>
+      <c r="C160" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNB8L</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E160" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="F160" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="H160" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B161" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NB9L</v>
+      </c>
+      <c r="C161" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNB9L</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="F161" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="H161" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B162" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NP45</v>
+      </c>
+      <c r="C162" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNP45</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="F162" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="H162" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B163" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NP50</v>
+      </c>
+      <c r="C163" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNP50</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="F163" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="H163" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B164" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NP85</v>
+      </c>
+      <c r="C164" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNP85</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="F164" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="H164" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B165" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NP95</v>
+      </c>
+      <c r="C165" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNP95</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="F165" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="H165" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B166" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NPBY1</v>
+      </c>
+      <c r="C166" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNPBY1</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H166" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B167" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NPF975</v>
+      </c>
+      <c r="C167" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNPF975</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H167" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B168" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>NPW126</v>
+      </c>
+      <c r="C168" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHNPW126</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="F168" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="H168" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B169" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>SLB10A</v>
+      </c>
+      <c r="C169" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHSLB10A</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H169" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B170" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>VBG</v>
+      </c>
+      <c r="C170" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHVBG</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H170" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B171" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>VBK180</v>
+      </c>
+      <c r="C171" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHVBK180</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="F171" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="H171" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B172" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>VBN130</v>
+      </c>
+      <c r="C172" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHVBN130</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F172" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="H172" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B173" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>VF815</v>
+      </c>
+      <c r="C173" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>XTCHVF815</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F173" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="H173" s="18" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -5823,175 +9124,2228 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="43" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="43" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+    <row r="1" spans="1:9" s="29" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>611</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>690</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE(G2," ",F2)</f>
+        <v xml:space="preserve"> DE-A65 DE-A66 DEA65 DEA66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="0">CONCATENATE(G3," ",F3)</f>
+        <v xml:space="preserve"> DE-A75B DEA75B</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> DE-A81 DMW-BTC5 DEA81 DMWBTC5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> DE-A91A DE-A91B NCA-YN101G DMW-BTC8 DEA91A DEA91B NCAYN101G DMWBTC8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> DE-A91A DE-A91B DMW-BTC8 NCA-YN101G  DEA91A DEA91B DMWBTC8 NCAYN101G </v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> VSK0800  VSK0800 </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> DMC-LF1 DMCLF1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v> DE-A79B  DEA79B</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> DE-A93A DE-A93B DMW-BTC7 DEA93A DEA93B DMWBTC7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> DE-A99A DE-A99B DMW-BTC9 DEA99A DEA99B DMWBTC9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> DMW-BTC10 DMWBTC10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> DMW-BLG10 DMWBLG10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> PS-BCS1 BCS1 PSBCS1 BCS1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> DE-A83 DMW-BTC4 DEA83 DMWBTC4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> BC-CSN BCCSN BCCSN BCCSN</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> AA-VG1 AA-VG1U AAVG1 AAVG1U</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ED-BP1030 ED-BP1130  EDBP1030 EDBP1130 </v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> CG-110 CG110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ED-BP1310 BP1310 EDBP1310 BP1310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> CB-5L CG-560 CG-570 CG-580 CB5L CG560 CG570 CG580</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>526</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> EA-BP70A BP70A IA-BP70A EABP70A BP70A IABP70A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> CG-700 BP-709 BP-718 BP-745 CG700 BP709 BP718 BP745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> CG-800 BP-807 BP-808 BP-809 BP-819 BP-820 BP-827 BP-828 CG800 BP807 BP808 BP809 BP819 BP820 BP827 BP828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> CG-900 BP-950G, BP-955, BP-970G, BP-975 BP-925 CG900 BP950G, BP955, BP970G, BP975 BP925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> BC-TRX BCTRX</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> CGR-D08 CGR-D16 CGR-D28 CGA-D54 CGR-D120 CGR-D220 CGR-D320 CGRD08 CGRD16 CGRD28 CGAD54 CGRD120 CGRD220 CGRD320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> MH-65 MH65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>533</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> MH-24 MH24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>534</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> MH-25 MH-25A MH25 MH25A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>535</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> MH-66 MH66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> MH-27 MH27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>537</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> MH-28 MH28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> MH-67P MH-67 MH67P MH67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> MH-31 MH31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> MH-18 MH-19 MH18 MH19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> MH-61 MH61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> MH-62 MH62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> MH-23 MH23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> BC-CSG BC-TRG BCCSG BCTRG</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> CB-2LT CB-2LW CB2LT CB2LW</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> BC-TRW BCTRW</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> AHDBT-301 / AHDBT-302 AHDBT301 / AHDBT302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> AHDBT-401 AHDBT401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> AHDBT-301 / AHDBT-302 AHDBT301 / AHDBT302 </v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> AHDBT-401 AHDBT401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="H47"/>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> D-BC109 K-BC109 DBC109 DBC109 KBC109 DBC109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>550</v>
+      </c>
+      <c r="H48"/>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> LI-40C LI-41C Li-42C LI40C LI41C Li42C</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="H49"/>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>LI-50C / UC-50 LI50C / UC50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="H50"/>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>LI-70C LI70C</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="H51"/>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>UC-90 UC90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="H52"/>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>UC-90 UC90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>584</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="H53"/>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>LC-E10 CBC-E10 LCE10 CBCE10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>585</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F54" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>LC-E12 LCE12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F55" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="G55" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="H55"/>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>LC-E5 CBC-E5 LCE5 CBCE5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>587</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="G56" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="H56"/>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>LC-E6 LCE6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="G57" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="H57"/>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">LC-E8 LCE8
+</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>589</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="G58" s="42" t="s">
+        <v>559</v>
+      </c>
+      <c r="H58"/>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>CB-2LC  CB2LC </v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="G59" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="H59"/>
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>CB-2LD CB2LD</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F60" s="41" t="s">
+        <v>490</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>561</v>
+      </c>
+      <c r="H60"/>
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>CB-2LE CB2LE</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F61" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="G61" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="H61"/>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>CB-2LT CB-2LW CB2LT CB2LW</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>593</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F62" s="41" t="s">
+        <v>491</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>CB-2LV CB2LV</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>594</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F63" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>CB-2LX CB2LX</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>595</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F64" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="H64"/>
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>NB-6L NB-6LH NB6L NB6LH</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>596</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>566</v>
+      </c>
+      <c r="H65"/>
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>CB-2LZ CB2LZ</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F66" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
+        <v> CB-2LA  CB2LA</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>598</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F67" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="G67" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="H67"/>
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I79" si="1">CONCATENATE(G67," ",F67)</f>
+        <v>CB-2LB CB2LB</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>599</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F68" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="G68" s="41" t="s">
+        <v>569</v>
+      </c>
+      <c r="H68"/>
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>BC-45 BC-45A BC-45W BC-45B BC45 BC45A BC45W BC45B</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F69" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>BC-50 BC-45W BC50 BC45W</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>601</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="H70"/>
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>BC-85 BC85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>602</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F71" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="G71" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="H71"/>
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>BC-65S BC-65N BC-95 BC65S BC65N BC95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>603</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72"/>
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73"/>
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F74" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="G74" s="41" t="s">
+        <v>573</v>
+      </c>
+      <c r="H74"/>
+      <c r="I74" t="str">
+        <f t="shared" si="1"/>
+        <v>BC-W126 BCW126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>606</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75"/>
+      <c r="I75" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>607</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76"/>
+      <c r="I76" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>608</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>502</v>
+      </c>
+      <c r="G77" s="41" t="s">
+        <v>574</v>
+      </c>
+      <c r="H77"/>
+      <c r="I77" t="str">
+        <f t="shared" si="1"/>
+        <v>VW-BC10 VWBC10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>609</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F78" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>575</v>
+      </c>
+      <c r="H78"/>
+      <c r="I78" t="str">
+        <f t="shared" si="1"/>
+        <v>VW-BC20 VWBC20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>610</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F79" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="G79" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="H79"/>
+      <c r="I79" t="str">
+        <f t="shared" si="1"/>
+        <v>AA-VF8U AA-VF8USM AAVF8U AAVF8USM</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:B79 F80 E1:G79">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C79">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -1852,9 +1852,6 @@
     <t xml:space="preserve"> VF815</t>
   </si>
   <si>
-    <t>Removed XT + CH</t>
-  </si>
-  <si>
     <t>Original</t>
   </si>
   <si>
@@ -1867,82 +1864,7 @@
     <t>volt mah shock electric Batteries battery camera kamera camcorder dslr digital lithium lithium-ion charger rechargeable</t>
   </si>
   <si>
-    <t xml:space="preserve"> DE-A65 DE-A66 DEA65 DEA66</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE-A75B DEA75B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE-A81 DMW-BTC5 DEA81 DMWBTC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE-A91A DE-A91B NCA-YN101G DMW-BTC8 DEA91A DEA91B NCAYN101G DMWBTC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE-A91A DE-A91B DMW-BTC8 NCA-YN101G  DEA91A DEA91B DMWBTC8 NCAYN101G </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VSK0800  VSK0800 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DMC-LF1 DMCLF1</t>
-  </si>
-  <si>
-    <t> DE-A79B  DEA79B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE-A93A DE-A93B DMW-BTC7 DEA93A DEA93B DMWBTC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE-A99A DE-A99B DMW-BTC9 DEA99A DEA99B DMWBTC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DMW-BTC10 DMWBTC10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DMW-BLG10 DMWBLG10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PS-BCS1 BCS1 PSBCS1 BCS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE-A83 DMW-BTC4 DEA83 DMWBTC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BC-CSN BCCSN BCCSN BCCSN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AA-VG1 AA-VG1U AAVG1 AAVG1U</t>
-  </si>
-  <si>
     <t xml:space="preserve">ED-BP1030 ED-BP1130  EDBP1030 EDBP1130 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CG-110 CG110</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ED-BP1310 BP1310 EDBP1310 BP1310</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CB-5L CG-560 CG-570 CG-580 CB5L CG560 CG570 CG580</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EA-BP70A BP70A IA-BP70A EABP70A BP70A IABP70A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CG-700 BP-709 BP-718 BP-745 CG700 BP709 BP718 BP745</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CG-800 BP-807 BP-808 BP-809 BP-819 BP-820 BP-827 BP-828 CG800 BP807 BP808 BP809 BP819 BP820 BP827 BP828</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CG-900 BP-950G, BP-955, BP-970G, BP-975 BP-925 CG900 BP950G, BP955, BP970G, BP975 BP925</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BC-TRX BCTRX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CGR-D08 CGR-D16 CGR-D28 CGA-D54 CGR-D120 CGR-D220 CGR-D320 CGRD08 CGRD16 CGRD28 CGAD54 CGRD120 CGRD220 CGRD320</t>
   </si>
   <si>
     <t xml:space="preserve"> MH-65 MH65</t>
@@ -2094,6 +2016,84 @@
   </si>
   <si>
     <t>formula for keywords</t>
+  </si>
+  <si>
+    <t>Rm'd XT + CH</t>
+  </si>
+  <si>
+    <t>CG-110 CG110</t>
+  </si>
+  <si>
+    <t>AA-VG1 AA-VG1U AAVG1 AAVG1U</t>
+  </si>
+  <si>
+    <t>BC-CSN BCCSN BCCSN BCCSN</t>
+  </si>
+  <si>
+    <t>DE-A83 DMW-BTC4 DEA83 DMWBTC4</t>
+  </si>
+  <si>
+    <t>PS-BCS1 BCS1 PSBCS1 BCS1</t>
+  </si>
+  <si>
+    <t>DMW-BLG10 DMWBLG10</t>
+  </si>
+  <si>
+    <t>DMW-BTC10 DMWBTC10</t>
+  </si>
+  <si>
+    <t>DE-A99A DE-A99B DMW-BTC9 DEA99A DEA99B DMWBTC9</t>
+  </si>
+  <si>
+    <t>DE-A93A DE-A93B DMW-BTC7 DEA93A DEA93B DMWBTC7</t>
+  </si>
+  <si>
+    <t>DE-A79B  DEA79B</t>
+  </si>
+  <si>
+    <t>DMC-LF1 DMCLF1</t>
+  </si>
+  <si>
+    <t>VSK0800  VSK0800 </t>
+  </si>
+  <si>
+    <t>DE-A91A DE-A91B NCA-YN101G DMW-BTC8 DEA91A DEA91B NCAYN101G DMWBTC8</t>
+  </si>
+  <si>
+    <t>DE-A81 DMW-BTC5 DEA81 DMWBTC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE-A91A DE-A91B DMW-BTC8 NCA-YN101G  DEA91A DEA91B DMWBTC8 NCAYN101G </t>
+  </si>
+  <si>
+    <t>DE-A75B DEA75B</t>
+  </si>
+  <si>
+    <t>DE-A65 DE-A66 DEA65 DEA66</t>
+  </si>
+  <si>
+    <t>ED-BP1310 BP1310 EDBP1310 BP1310</t>
+  </si>
+  <si>
+    <t>CB-5L CG-560 CG-570 CG-580 CB5L CG560 CG570 CG580</t>
+  </si>
+  <si>
+    <t>EA-BP70A BP70A IA-BP70A EABP70A BP70A IABP70A</t>
+  </si>
+  <si>
+    <t>CG-700 BP-709 BP-718 BP-745 CG700 BP709 BP718 BP745</t>
+  </si>
+  <si>
+    <t>CG-800 BP-807 BP-808 BP-809 BP-819 BP-820 BP-827 BP-828 CG800 BP807 BP808 BP809 BP819 BP820 BP827 BP828</t>
+  </si>
+  <si>
+    <t>CG-900 BP-950G, BP-955, BP-970G, BP-975 BP-925 CG900 BP950G, BP955, BP970G, BP975 BP925</t>
+  </si>
+  <si>
+    <t>BC-TRX BCTRX</t>
+  </si>
+  <si>
+    <t>CGR-D08 CGR-D16 CGR-D28 CGA-D54 CGR-D120 CGR-D220 CGR-D320 CGRD08 CGRD16 CGRD28 CGAD54 CGRD120 CGRD220 CGRD320</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2188,6 +2188,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -2338,7 +2344,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2372,24 +2378,25 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="43" fontId="9" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent6" xfId="4" builtinId="49"/>
@@ -2398,27 +2405,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9128,13 +9115,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75" style="7" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
@@ -9146,32 +9133,32 @@
   <sheetData>
     <row r="1" spans="1:9" s="29" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>666</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>612</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>611</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>613</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>157</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="45" t="s">
         <v>294</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -9181,10 +9168,10 @@
         <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>616</v>
+        <v>683</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>434</v>
@@ -9199,7 +9186,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="45" t="s">
         <v>295</v>
       </c>
       <c r="B3" s="35" t="s">
@@ -9209,10 +9196,10 @@
         <v>417</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>617</v>
+        <v>682</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F3" s="41" t="s">
         <v>435</v>
@@ -9227,7 +9214,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="45" t="s">
         <v>296</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -9237,10 +9224,10 @@
         <v>37</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>618</v>
+        <v>680</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F4" s="41" t="s">
         <v>436</v>
@@ -9255,7 +9242,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="45" t="s">
         <v>297</v>
       </c>
       <c r="B5" s="35" t="s">
@@ -9265,10 +9252,10 @@
         <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>619</v>
+        <v>679</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F5" s="41" t="s">
         <v>437</v>
@@ -9283,7 +9270,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="45" t="s">
         <v>298</v>
       </c>
       <c r="B6" s="35" t="s">
@@ -9293,10 +9280,10 @@
         <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>620</v>
+        <v>681</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F6" s="41" t="s">
         <v>438</v>
@@ -9311,7 +9298,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="45" t="s">
         <v>299</v>
       </c>
       <c r="B7" s="35" t="s">
@@ -9321,10 +9308,10 @@
         <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>621</v>
+        <v>678</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>439</v>
@@ -9339,7 +9326,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="45" t="s">
         <v>300</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -9349,10 +9336,10 @@
         <v>94</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>622</v>
+        <v>677</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>440</v>
@@ -9367,7 +9354,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="45" t="s">
         <v>301</v>
       </c>
       <c r="B9" s="35" t="s">
@@ -9377,10 +9364,10 @@
         <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>623</v>
+        <v>676</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>441</v>
@@ -9395,7 +9382,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="45" t="s">
         <v>302</v>
       </c>
       <c r="B10" s="35" t="s">
@@ -9405,10 +9392,10 @@
         <v>42</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>442</v>
@@ -9423,7 +9410,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="45" t="s">
         <v>303</v>
       </c>
       <c r="B11" s="35" t="s">
@@ -9433,10 +9420,10 @@
         <v>43</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>625</v>
+        <v>674</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F11" s="41" t="s">
         <v>443</v>
@@ -9451,7 +9438,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="45" t="s">
         <v>304</v>
       </c>
       <c r="B12" s="35" t="s">
@@ -9461,10 +9448,10 @@
         <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>626</v>
+        <v>673</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>444</v>
@@ -9489,10 +9476,10 @@
         <v>45</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>627</v>
+        <v>672</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F13" s="41" t="s">
         <v>445</v>
@@ -9517,10 +9504,10 @@
         <v>47</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>628</v>
+        <v>671</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F14" s="41" t="s">
         <v>446</v>
@@ -9545,10 +9532,10 @@
         <v>49</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>629</v>
+        <v>670</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F15" s="41" t="s">
         <v>447</v>
@@ -9573,10 +9560,10 @@
         <v>418</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F16" s="41" t="s">
         <v>448</v>
@@ -9601,10 +9588,10 @@
         <v>419</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>631</v>
+        <v>668</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F17" s="41" t="s">
         <v>449</v>
@@ -9629,10 +9616,10 @@
         <v>61</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F18" s="41" t="s">
         <v>450</v>
@@ -9657,10 +9644,10 @@
         <v>51</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F19" s="41" t="s">
         <v>451</v>
@@ -9685,10 +9672,10 @@
         <v>62</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>634</v>
+        <v>684</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F20" s="41" t="s">
         <v>452</v>
@@ -9713,10 +9700,10 @@
         <v>52</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>635</v>
+        <v>685</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F21" s="41" t="s">
         <v>453</v>
@@ -9741,10 +9728,10 @@
         <v>50</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>636</v>
+        <v>686</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F22" s="41" t="s">
         <v>454</v>
@@ -9769,10 +9756,10 @@
         <v>420</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>637</v>
+        <v>687</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F23" s="41" t="s">
         <v>455</v>
@@ -9797,10 +9784,10 @@
         <v>56</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>638</v>
+        <v>688</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F24" s="41" t="s">
         <v>456</v>
@@ -9825,10 +9812,10 @@
         <v>421</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>639</v>
+        <v>689</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F25" s="41" t="s">
         <v>457</v>
@@ -9853,10 +9840,10 @@
         <v>422</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>640</v>
+        <v>690</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F26" s="41" t="s">
         <v>458</v>
@@ -9881,10 +9868,10 @@
         <v>423</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>641</v>
+        <v>691</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F27" s="41" t="s">
         <v>459</v>
@@ -9909,10 +9896,10 @@
         <v>67</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F28" s="41" t="s">
         <v>460</v>
@@ -9937,10 +9924,10 @@
         <v>68</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F29" s="41" t="s">
         <v>461</v>
@@ -9965,10 +9952,10 @@
         <v>69</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F30" s="41" t="s">
         <v>462</v>
@@ -9993,10 +9980,10 @@
         <v>70</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F31" s="41" t="s">
         <v>463</v>
@@ -10021,10 +10008,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F32" s="41" t="s">
         <v>464</v>
@@ -10049,10 +10036,10 @@
         <v>72</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F33" s="41" t="s">
         <v>465</v>
@@ -10077,10 +10064,10 @@
         <v>101</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F34" s="41" t="s">
         <v>466</v>
@@ -10105,10 +10092,10 @@
         <v>424</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F35" s="41" t="s">
         <v>467</v>
@@ -10133,10 +10120,10 @@
         <v>64</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F36" s="41" t="s">
         <v>468</v>
@@ -10161,10 +10148,10 @@
         <v>65</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F37" s="41" t="s">
         <v>469</v>
@@ -10189,10 +10176,10 @@
         <v>66</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F38" s="41" t="s">
         <v>470</v>
@@ -10217,10 +10204,10 @@
         <v>96</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>471</v>
@@ -10245,10 +10232,10 @@
         <v>425</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F40" s="41" t="s">
         <v>472</v>
@@ -10273,10 +10260,10 @@
         <v>426</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F41" s="41" t="s">
         <v>473</v>
@@ -10301,10 +10288,10 @@
         <v>427</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F42" s="41" t="s">
         <v>474</v>
@@ -10329,10 +10316,10 @@
         <v>428</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F43" s="41" t="s">
         <v>475</v>
@@ -10357,10 +10344,10 @@
         <v>429</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F44" s="41" t="s">
         <v>476</v>
@@ -10385,10 +10372,10 @@
         <v>73</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F45" s="41" t="s">
         <v>477</v>
@@ -10413,10 +10400,10 @@
         <v>430</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F46" s="41" t="s">
         <v>476</v>
@@ -10441,10 +10428,10 @@
         <v>79</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F47" s="41" t="s">
         <v>478</v>
@@ -10469,10 +10456,10 @@
         <v>74</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F48" s="41" t="s">
         <v>479</v>
@@ -10497,10 +10484,10 @@
         <v>75</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F49" s="41" t="s">
         <v>480</v>
@@ -10525,10 +10512,10 @@
         <v>76</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F50" s="41" t="s">
         <v>481</v>
@@ -10553,10 +10540,10 @@
         <v>77</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F51" s="41" t="s">
         <v>482</v>
@@ -10581,10 +10568,10 @@
         <v>78</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F52" s="41" t="s">
         <v>482</v>
@@ -10609,10 +10596,10 @@
         <v>82</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F53" s="41" t="s">
         <v>483</v>
@@ -10637,10 +10624,10 @@
         <v>83</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F54" s="41" t="s">
         <v>484</v>
@@ -10665,10 +10652,10 @@
         <v>93</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F55" s="41" t="s">
         <v>485</v>
@@ -10693,10 +10680,10 @@
         <v>80</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F56" s="41" t="s">
         <v>486</v>
@@ -10721,10 +10708,10 @@
         <v>81</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F57" s="41" t="s">
         <v>487</v>
@@ -10750,10 +10737,10 @@
         <v>102</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F58" s="42" t="s">
         <v>488</v>
@@ -10778,10 +10765,10 @@
         <v>103</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F59" s="42" t="s">
         <v>489</v>
@@ -10806,10 +10793,10 @@
         <v>431</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F60" s="41" t="s">
         <v>490</v>
@@ -10834,10 +10821,10 @@
         <v>104</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F61" s="41" t="s">
         <v>473</v>
@@ -10862,10 +10849,10 @@
         <v>105</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F62" s="41" t="s">
         <v>491</v>
@@ -10890,10 +10877,10 @@
         <v>106</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F63" s="41" t="s">
         <v>492</v>
@@ -10918,10 +10905,10 @@
         <v>107</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F64" s="41" t="s">
         <v>493</v>
@@ -10946,10 +10933,10 @@
         <v>108</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F65" s="41" t="s">
         <v>494</v>
@@ -10974,10 +10961,10 @@
         <v>109</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F66" s="41" t="s">
         <v>495</v>
@@ -11002,10 +10989,10 @@
         <v>110</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F67" s="42" t="s">
         <v>496</v>
@@ -11030,10 +11017,10 @@
         <v>111</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F68" s="41" t="s">
         <v>497</v>
@@ -11058,10 +11045,10 @@
         <v>113</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F69" s="41" t="s">
         <v>498</v>
@@ -11086,10 +11073,10 @@
         <v>114</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F70" s="41" t="s">
         <v>499</v>
@@ -11114,10 +11101,10 @@
         <v>115</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F71" s="41" t="s">
         <v>500</v>
@@ -11142,10 +11129,10 @@
         <v>432</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
@@ -11166,10 +11153,10 @@
         <v>119</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
@@ -11190,10 +11177,10 @@
         <v>126</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F74" s="41" t="s">
         <v>501</v>
@@ -11218,10 +11205,10 @@
         <v>127</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
@@ -11242,10 +11229,10 @@
         <v>433</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
@@ -11266,10 +11253,10 @@
         <v>130</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F77" s="41" t="s">
         <v>502</v>
@@ -11294,10 +11281,10 @@
         <v>132</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F78" s="41" t="s">
         <v>503</v>
@@ -11322,10 +11309,10 @@
         <v>134</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F79" s="41" t="s">
         <v>504</v>

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -2405,17 +2405,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9114,8 +9104,8 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -9123,8 +9113,8 @@
     <col min="1" max="1" width="13.140625" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" style="43" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="43" customWidth="1"/>
@@ -9466,7 +9456,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="45" t="s">
         <v>305</v>
       </c>
       <c r="B13" s="35" t="s">
@@ -9494,7 +9484,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="45" t="s">
         <v>306</v>
       </c>
       <c r="B14" s="35" t="s">
@@ -9522,7 +9512,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="45" t="s">
         <v>307</v>
       </c>
       <c r="B15" s="35" t="s">
@@ -9550,7 +9540,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="45" t="s">
         <v>308</v>
       </c>
       <c r="B16" s="35" t="s">
@@ -9578,7 +9568,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="45" t="s">
         <v>309</v>
       </c>
       <c r="B17" s="35" t="s">
@@ -9606,7 +9596,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="45" t="s">
         <v>310</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -9634,7 +9624,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="45" t="s">
         <v>311</v>
       </c>
       <c r="B19" s="35" t="s">
@@ -9662,7 +9652,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="45" t="s">
         <v>312</v>
       </c>
       <c r="B20" s="35" t="s">

--- a/XT-CH.XLSX
+++ b/XT-CH.XLSX
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="-120" windowWidth="12600" windowHeight="10230" tabRatio="487" activeTab="2"/>
+    <workbookView xWindow="-135" yWindow="-105" windowWidth="2520" windowHeight="10215" tabRatio="487" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Good Looks" sheetId="2" r:id="rId2"/>
+    <sheet name="Good Looks" sheetId="5" r:id="rId2"/>
     <sheet name="Charger list" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="698">
   <si>
     <t>NPF975</t>
   </si>
@@ -1255,18 +1256,6 @@
   </si>
   <si>
     <t>GPH4</t>
-  </si>
-  <si>
-    <t>HLI42B</t>
-  </si>
-  <si>
-    <t>NB12L</t>
-  </si>
-  <si>
-    <t>NPBY1</t>
-  </si>
-  <si>
-    <t>VBG</t>
   </si>
   <si>
     <t>XTB7</t>
@@ -1534,9 +1523,6 @@
     <t>AAVF8U AAVF8USM</t>
   </si>
   <si>
-    <t>DEA79B</t>
-  </si>
-  <si>
     <t xml:space="preserve"> DE-A65 DE-A66</t>
   </si>
   <si>
@@ -1748,9 +1734,6 @@
   </si>
   <si>
     <t>AA-VF8U AA-VF8USM</t>
-  </si>
-  <si>
-    <t>batteries volt mah shock electric</t>
   </si>
   <si>
     <t xml:space="preserve"> LI109</t>
@@ -2094,6 +2077,42 @@
   </si>
   <si>
     <t>CGR-D08 CGR-D16 CGR-D28 CGA-D54 CGR-D120 CGR-D220 CGR-D320 CGRD08 CGRD16 CGRD28 CGAD54 CGRD120 CGRD220 CGRD320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCG10 </t>
+  </si>
+  <si>
+    <t>BLM5</t>
+  </si>
+  <si>
+    <t>BLS5</t>
+  </si>
+  <si>
+    <t>BP718</t>
+  </si>
+  <si>
+    <t>BP727FD</t>
+  </si>
+  <si>
+    <t>BP808</t>
+  </si>
+  <si>
+    <t>BP820</t>
+  </si>
+  <si>
+    <t>BP827</t>
+  </si>
+  <si>
+    <t>BP828</t>
+  </si>
+  <si>
+    <t>BP970G</t>
+  </si>
+  <si>
+    <t>CGRD54</t>
+  </si>
+  <si>
+    <t>ENEL22</t>
   </si>
 </sst>
 </file>
@@ -2726,8 +2745,8 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4857,27 +4876,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="21" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="24" customWidth="1"/>
     <col min="7" max="7" width="14" style="16" customWidth="1"/>
     <col min="8" max="8" width="33" style="18" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>290</v>
       </c>
@@ -4900,7 +4920,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -4924,13 +4944,20 @@
       <c r="H2" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2">
+        <f>IF(ISERROR(MATCH(B2,I2,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="10" t="str">
-        <f t="shared" ref="B3:B66" si="0">RIGHT(A3, LEN(A3)-2)</f>
+        <f>RIGHT(A3, LEN(A3)-2)</f>
         <v>BP1130</v>
       </c>
       <c r="C3" s="15" t="str">
@@ -4949,17 +4976,24 @@
       <c r="H3" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J40" si="0">IF(ISERROR(MATCH(B3,I3,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A4, LEN(A4)-2)</f>
         <v>ENEL23</v>
       </c>
       <c r="C4" s="15" t="str">
-        <f t="shared" ref="C3:C66" si="1">"XTCH"&amp;B4</f>
+        <f>"XTCH"&amp;B4</f>
         <v>XTCHENEL23</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -4971,17 +5005,24 @@
       <c r="H4" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A5, LEN(A5)-2)</f>
         <v>NB10L</v>
       </c>
       <c r="C5" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B5</f>
         <v>XTCHNB10L</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -4996,17 +5037,24 @@
       <c r="H5" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A6, LEN(A6)-2)</f>
         <v>NB11L</v>
       </c>
       <c r="C6" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B6</f>
         <v>XTCHNB11L</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -5018,17 +5066,24 @@
       <c r="H6" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A7, LEN(A7)-2)</f>
         <v>NB2LH</v>
       </c>
       <c r="C7" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B7</f>
         <v>XTCHNB2LH</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -5040,17 +5095,24 @@
       <c r="H7" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A8, LEN(A8)-2)</f>
         <v>NB4L</v>
       </c>
       <c r="C8" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B8</f>
         <v>XTCHNB4L</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -5065,17 +5127,24 @@
       <c r="H8" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A9, LEN(A9)-2)</f>
         <v>NB5L</v>
       </c>
       <c r="C9" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B9</f>
         <v>XTCHNB5L</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -5090,17 +5159,24 @@
       <c r="H9" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A10, LEN(A10)-2)</f>
         <v>NB6L</v>
       </c>
       <c r="C10" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B10</f>
         <v>XTCHNB6L</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -5115,17 +5191,24 @@
       <c r="H10" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A11, LEN(A11)-2)</f>
         <v>NB7L</v>
       </c>
       <c r="C11" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B11</f>
         <v>XTCHNB7L</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -5140,17 +5223,24 @@
       <c r="H11" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B12" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A12, LEN(A12)-2)</f>
         <v>NB8L</v>
       </c>
       <c r="C12" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B12</f>
         <v>XTCHNB8L</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -5165,17 +5255,24 @@
       <c r="H12" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A13, LEN(A13)-2)</f>
         <v>NB9L</v>
       </c>
       <c r="C13" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B13</f>
         <v>XTCHNB9L</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -5187,17 +5284,24 @@
       <c r="H13" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A14, LEN(A14)-2)</f>
         <v>NP45</v>
       </c>
       <c r="C14" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B14</f>
         <v>XTCHNP45</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -5209,17 +5313,24 @@
       <c r="H14" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B15" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A15, LEN(A15)-2)</f>
         <v>NP48</v>
       </c>
       <c r="C15" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B15</f>
         <v>XTCHNP48</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -5231,17 +5342,24 @@
       <c r="H15" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B16" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A16, LEN(A16)-2)</f>
         <v>NP50</v>
       </c>
       <c r="C16" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B16</f>
         <v>XTCHNP50</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -5253,17 +5371,24 @@
       <c r="H16" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B17" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A17, LEN(A17)-2)</f>
         <v>NP85</v>
       </c>
       <c r="C17" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B17</f>
         <v>XTCHNP85</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -5275,17 +5400,24 @@
       <c r="H17" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B18" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A18, LEN(A18)-2)</f>
         <v>NP95</v>
       </c>
       <c r="C18" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B18</f>
         <v>XTCHNP95</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -5300,17 +5432,24 @@
       <c r="H18" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A19, LEN(A19)-2)</f>
         <v>NPBG1</v>
       </c>
       <c r="C19" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B19</f>
         <v>XTCHNPBG1</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -5325,17 +5464,24 @@
       <c r="H19" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B20" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A20, LEN(A20)-2)</f>
         <v>NPBN1</v>
       </c>
       <c r="C20" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B20</f>
         <v>XTCHNPBN1</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -5350,17 +5496,24 @@
       <c r="H20" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A21, LEN(A21)-2)</f>
         <v>NPBX1</v>
       </c>
       <c r="C21" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B21</f>
         <v>XTCHNPBX1</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -5375,17 +5528,24 @@
       <c r="H21" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A22, LEN(A22)-2)</f>
         <v>NPF975</v>
       </c>
       <c r="C22" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B22</f>
         <v>XTCHNPF975</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -5397,17 +5557,24 @@
       <c r="H22" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A23, LEN(A23)-2)</f>
         <v>NPFH50</v>
       </c>
       <c r="C23" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B23</f>
         <v>XTCHNPFH50</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -5422,17 +5589,24 @@
       <c r="H23" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A24, LEN(A24)-2)</f>
         <v>NPFM500H</v>
       </c>
       <c r="C24" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B24</f>
         <v>XTCHNPFM500H</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -5447,17 +5621,24 @@
       <c r="H24" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B25" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A25, LEN(A25)-2)</f>
         <v>NPFV100</v>
       </c>
       <c r="C25" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B25</f>
         <v>XTCHNPFV100</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -5472,17 +5653,24 @@
       <c r="H25" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B26" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A26, LEN(A26)-2)</f>
         <v>NPFV50</v>
       </c>
       <c r="C26" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B26</f>
         <v>XTCHNPFV50</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -5497,17 +5685,24 @@
       <c r="H26" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B27" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A27, LEN(A27)-2)</f>
         <v>NPFV70</v>
       </c>
       <c r="C27" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B27</f>
         <v>XTCHNPFV70</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -5522,17 +5717,24 @@
       <c r="H27" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A28, LEN(A28)-2)</f>
         <v>NPFW50</v>
       </c>
       <c r="C28" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B28</f>
         <v>XTCHNPFW50</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -5544,17 +5746,24 @@
       <c r="H28" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B29" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A29, LEN(A29)-2)</f>
         <v>NPW126</v>
       </c>
       <c r="C29" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B29</f>
         <v>XTCHNPW126</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -5569,17 +5778,24 @@
       <c r="H29" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>127</v>
       </c>
       <c r="B30" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A30, LEN(A30)-2)</f>
         <v>SLB10A</v>
       </c>
       <c r="C30" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B30</f>
         <v>XTCHSLB10A</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -5594,17 +5810,24 @@
       <c r="H30" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B31" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A31, LEN(A31)-2)</f>
         <v>VBG260</v>
       </c>
       <c r="C31" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B31</f>
         <v>XTCHVBG260</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -5619,17 +5842,24 @@
       <c r="H31" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B32" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A32, LEN(A32)-2)</f>
         <v>VBG6</v>
       </c>
       <c r="C32" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B32</f>
         <v>XTCHVBG6</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -5644,17 +5874,24 @@
       <c r="H32" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B33" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A33, LEN(A33)-2)</f>
         <v>VBK180</v>
       </c>
       <c r="C33" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B33</f>
         <v>XTCHVBK180</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -5669,17 +5906,24 @@
       <c r="H33" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B34" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A34, LEN(A34)-2)</f>
         <v>VBK360</v>
       </c>
       <c r="C34" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B34</f>
         <v>XTCHVBK360</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -5694,17 +5938,24 @@
       <c r="H34" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B35" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A35, LEN(A35)-2)</f>
         <v>VBN130</v>
       </c>
       <c r="C35" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B35</f>
         <v>XTCHVBN130</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -5719,17 +5970,24 @@
       <c r="H35" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>133</v>
       </c>
       <c r="B36" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A36, LEN(A36)-2)</f>
         <v>VBN260</v>
       </c>
       <c r="C36" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B36</f>
         <v>XTCHVBN260</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -5744,17 +6002,24 @@
       <c r="H36" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A37, LEN(A37)-2)</f>
         <v>VF815</v>
       </c>
       <c r="C37" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B37</f>
         <v>XTCHVF815</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -5769,17 +6034,24 @@
       <c r="H37" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B38" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A38, LEN(A38)-2)</f>
         <v>VF823</v>
       </c>
       <c r="C38" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B38</f>
         <v>XTCHVF823</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -5794,17 +6066,24 @@
       <c r="H38" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B39" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A39, LEN(A39)-2)</f>
         <v>VG121</v>
       </c>
       <c r="C39" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B39</f>
         <v>XTCHVG121</v>
       </c>
       <c r="D39" s="7" t="s">
@@ -5819,17 +6098,24 @@
       <c r="H39" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B40" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A40, LEN(A40)-2)</f>
         <v>VG138</v>
       </c>
       <c r="C40" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>"XTCH"&amp;B40</f>
         <v>XTCHVG138</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -5844,740 +6130,918 @@
       <c r="H40" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="I40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="B42" s="10" t="str">
+        <f>RIGHT(A42, LEN(A42)-2)</f>
         <v>BCF10</v>
       </c>
-      <c r="C41" s="15" t="str">
-        <f t="shared" si="1"/>
+      <c r="C42" s="15" t="str">
+        <f>"XTCH"&amp;B42</f>
         <v>XTCHBCF10</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E42" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F42" s="24" t="s">
         <v>224</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>BP1130</v>
-      </c>
-      <c r="C42" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHBP1130</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>226</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="J42" t="str">
+        <f>IF(ISERROR(MATCH(B42,I42,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>ENEL23</v>
+        <f>RIGHT(A43, LEN(A43)-2)</f>
+        <v>BP1130</v>
       </c>
       <c r="C43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHENEL23</v>
+        <f>"XTCH"&amp;B43</f>
+        <v>XTCHBP1130</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J43" t="str">
+        <f>IF(ISERROR(MATCH(B43,I43,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NB10L</v>
+        <f>RIGHT(A44, LEN(A44)-2)</f>
+        <v>ENEL23</v>
       </c>
       <c r="C44" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNB10L</v>
+        <f>"XTCH"&amp;B44</f>
+        <v>XTCHENEL23</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J44" t="str">
+        <f>IF(ISERROR(MATCH(B44,I44,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NB11L</v>
+        <f>RIGHT(A45, LEN(A45)-2)</f>
+        <v>NB10L</v>
       </c>
       <c r="C45" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNB11L</v>
+        <f>"XTCH"&amp;B45</f>
+        <v>XTCHNB10L</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J45" t="str">
+        <f>IF(ISERROR(MATCH(B45,I45,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NB2LH</v>
+        <f>RIGHT(A46, LEN(A46)-2)</f>
+        <v>NB11L</v>
       </c>
       <c r="C46" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNB2LH</v>
+        <f>"XTCH"&amp;B46</f>
+        <v>XTCHNB11L</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J46" t="str">
+        <f>IF(ISERROR(MATCH(B46,I46,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NB4L</v>
+        <f>RIGHT(A47, LEN(A47)-2)</f>
+        <v>NB2LH</v>
       </c>
       <c r="C47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNB4L</v>
+        <f>"XTCH"&amp;B47</f>
+        <v>XTCHNB2LH</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J47" t="str">
+        <f>IF(ISERROR(MATCH(B47,I47,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NB5L</v>
+        <f>RIGHT(A48, LEN(A48)-2)</f>
+        <v>NB4L</v>
       </c>
       <c r="C48" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNB5L</v>
+        <f>"XTCH"&amp;B48</f>
+        <v>XTCHNB4L</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J48" t="str">
+        <f>IF(ISERROR(MATCH(B48,I48,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NB6L</v>
+        <f>RIGHT(A49, LEN(A49)-2)</f>
+        <v>NB5L</v>
       </c>
       <c r="C49" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNB6L</v>
+        <f>"XTCH"&amp;B49</f>
+        <v>XTCHNB5L</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H49" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J49" t="str">
+        <f>IF(ISERROR(MATCH(B49,I49,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NB7L</v>
+        <f>RIGHT(A50, LEN(A50)-2)</f>
+        <v>NB6L</v>
       </c>
       <c r="C50" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNB7L</v>
+        <f>"XTCH"&amp;B50</f>
+        <v>XTCHNB6L</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H50" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J50" t="str">
+        <f>IF(ISERROR(MATCH(B50,I50,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NB8L</v>
+        <f>RIGHT(A51, LEN(A51)-2)</f>
+        <v>NB7L</v>
       </c>
       <c r="C51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNB8L</v>
+        <f>"XTCH"&amp;B51</f>
+        <v>XTCHNB7L</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J51" t="str">
+        <f>IF(ISERROR(MATCH(B51,I51,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NB9L</v>
+        <f>RIGHT(A52, LEN(A52)-2)</f>
+        <v>NB8L</v>
       </c>
       <c r="C52" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNB9L</v>
+        <f>"XTCH"&amp;B52</f>
+        <v>XTCHNB8L</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H52" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J52" t="str">
+        <f>IF(ISERROR(MATCH(B52,I52,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NP45</v>
+        <f>RIGHT(A53, LEN(A53)-2)</f>
+        <v>NB9L</v>
       </c>
       <c r="C53" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNP45</v>
+        <f>"XTCH"&amp;B53</f>
+        <v>XTCHNB9L</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H53" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J53" t="str">
+        <f>IF(ISERROR(MATCH(B53,I53,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NP48</v>
+        <f>RIGHT(A54, LEN(A54)-2)</f>
+        <v>NP45</v>
       </c>
       <c r="C54" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNP48</v>
+        <f>"XTCH"&amp;B54</f>
+        <v>XTCHNP45</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H54" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="J54" t="str">
+        <f>IF(ISERROR(MATCH(B54,I54,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NP50</v>
+        <f>RIGHT(A55, LEN(A55)-2)</f>
+        <v>NP48</v>
       </c>
       <c r="C55" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNP50</v>
+        <f>"XTCH"&amp;B55</f>
+        <v>XTCHNP48</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H55" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55" t="str">
+        <f>IF(ISERROR(MATCH(B55,I55,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NP85</v>
+        <f>RIGHT(A56, LEN(A56)-2)</f>
+        <v>NP50</v>
       </c>
       <c r="C56" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNP85</v>
+        <f>"XTCH"&amp;B56</f>
+        <v>XTCHNP50</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H56" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="J56" t="str">
+        <f>IF(ISERROR(MATCH(B56,I56,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NP95</v>
+        <f>RIGHT(A57, LEN(A57)-2)</f>
+        <v>NP85</v>
       </c>
       <c r="C57" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNP95</v>
+        <f>"XTCH"&amp;B57</f>
+        <v>XTCHNP85</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="H57" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J57" t="str">
+        <f>IF(ISERROR(MATCH(B57,I57,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NPBG1</v>
+        <f>RIGHT(A58, LEN(A58)-2)</f>
+        <v>NP95</v>
       </c>
       <c r="C58" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNPBG1</v>
+        <f>"XTCH"&amp;B58</f>
+        <v>XTCHNP95</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J58" t="str">
+        <f>IF(ISERROR(MATCH(B58,I58,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NPBN1</v>
+        <f>RIGHT(A59, LEN(A59)-2)</f>
+        <v>NPBG1</v>
       </c>
       <c r="C59" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNPBN1</v>
+        <f>"XTCH"&amp;B59</f>
+        <v>XTCHNPBG1</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J59" t="str">
+        <f>IF(ISERROR(MATCH(B59,I59,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NPBX1</v>
+        <f>RIGHT(A60, LEN(A60)-2)</f>
+        <v>NPBN1</v>
       </c>
       <c r="C60" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNPBX1</v>
+        <f>"XTCH"&amp;B60</f>
+        <v>XTCHNPBN1</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="H60" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J60" t="str">
+        <f>IF(ISERROR(MATCH(B60,I60,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NPF975</v>
+        <f>RIGHT(A61, LEN(A61)-2)</f>
+        <v>NPBX1</v>
       </c>
       <c r="C61" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNPF975</v>
+        <f>"XTCH"&amp;B61</f>
+        <v>XTCHNPBX1</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>255</v>
       </c>
       <c r="H61" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J61" t="str">
+        <f>IF(ISERROR(MATCH(B61,I61,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NPFH50</v>
+        <f>RIGHT(A62, LEN(A62)-2)</f>
+        <v>NPF975</v>
       </c>
       <c r="C62" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNPFH50</v>
+        <f>"XTCH"&amp;B62</f>
+        <v>XTCHNPF975</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="H62" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J62" t="str">
+        <f>IF(ISERROR(MATCH(B62,I62,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NPFM500H</v>
+        <f>RIGHT(A63, LEN(A63)-2)</f>
+        <v>NPFH50</v>
       </c>
       <c r="C63" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNPFM500H</v>
+        <f>"XTCH"&amp;B63</f>
+        <v>XTCHNPFH50</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="J63" t="str">
+        <f>IF(ISERROR(MATCH(B63,I63,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B64" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NPFV100</v>
+        <f>RIGHT(A64, LEN(A64)-2)</f>
+        <v>NPFM500H</v>
       </c>
       <c r="C64" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNPFV100</v>
+        <f>"XTCH"&amp;B64</f>
+        <v>XTCHNPFM500H</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="J64" t="str">
+        <f>IF(ISERROR(MATCH(B64,I64,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NPFV50</v>
+        <f>RIGHT(A65, LEN(A65)-2)</f>
+        <v>NPFV100</v>
       </c>
       <c r="C65" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNPFV50</v>
+        <f>"XTCH"&amp;B65</f>
+        <v>XTCHNPFV100</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="J65" t="str">
+        <f>IF(ISERROR(MATCH(B65,I65,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B66" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>NPFV70</v>
+        <f>RIGHT(A66, LEN(A66)-2)</f>
+        <v>NPFV50</v>
       </c>
       <c r="C66" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>XTCHNPFV70</v>
+        <f>"XTCH"&amp;B66</f>
+        <v>XTCHNPFV50</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J66" t="str">
+        <f>IF(ISERROR(MATCH(B66,I66,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B67" s="10" t="str">
-        <f t="shared" ref="B67:B93" si="2">RIGHT(A67, LEN(A67)-2)</f>
-        <v>NPFW50</v>
+        <f>RIGHT(A67, LEN(A67)-2)</f>
+        <v>NPFV70</v>
       </c>
       <c r="C67" s="15" t="str">
-        <f t="shared" ref="C67:C93" si="3">"XTCH"&amp;B67</f>
-        <v>XTCHNPFW50</v>
+        <f>"XTCH"&amp;B67</f>
+        <v>XTCHNPFV70</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>201</v>
+        <v>196</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>200</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J67" t="str">
+        <f>IF(ISERROR(MATCH(B67,I67,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B68" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>NPW126</v>
+        <f>RIGHT(A68, LEN(A68)-2)</f>
+        <v>NPFW50</v>
       </c>
       <c r="C68" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHNPW126</v>
+        <f>"XTCH"&amp;B68</f>
+        <v>XTCHNPFW50</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="F68" s="24" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="J68" t="str">
+        <f>IF(ISERROR(MATCH(B68,I68,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B69" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>SLB10A</v>
+        <f>RIGHT(A69, LEN(A69)-2)</f>
+        <v>NPW126</v>
       </c>
       <c r="C69" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHSLB10A</v>
+        <f>"XTCH"&amp;B69</f>
+        <v>XTCHNPW126</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="H69" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="J69" t="str">
+        <f>IF(ISERROR(MATCH(B69,I69,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VBG260</v>
+        <f>RIGHT(A70, LEN(A70)-2)</f>
+        <v>SLB10A</v>
       </c>
       <c r="C70" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHVBG260</v>
+        <f>"XTCH"&amp;B70</f>
+        <v>XTCHSLB10A</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E70" s="21" t="s">
         <v>204</v>
@@ -6588,71 +7052,92 @@
       <c r="H70" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="J70" t="str">
+        <f>IF(ISERROR(MATCH(B70,I70,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VBG6</v>
+        <f>RIGHT(A71, LEN(A71)-2)</f>
+        <v>VBG260</v>
       </c>
       <c r="C71" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHVBG6</v>
+        <f>"XTCH"&amp;B71</f>
+        <v>XTCHVBG260</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="J71" t="str">
+        <f>IF(ISERROR(MATCH(B71,I71,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VBK180</v>
+        <f>RIGHT(A72, LEN(A72)-2)</f>
+        <v>VBG6</v>
       </c>
       <c r="C72" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHVBK180</v>
+        <f>"XTCH"&amp;B72</f>
+        <v>XTCHVBG6</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="H72" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J72" t="str">
+        <f>IF(ISERROR(MATCH(B72,I72,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VBK360</v>
+        <f>RIGHT(A73, LEN(A73)-2)</f>
+        <v>VBK180</v>
       </c>
       <c r="C73" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHVBK360</v>
+        <f>"XTCH"&amp;B73</f>
+        <v>XTCHVBK180</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>210</v>
@@ -6663,2435 +7148,688 @@
       <c r="H73" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J73" t="str">
+        <f>IF(ISERROR(MATCH(B73,I73,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B74" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VBN130</v>
+        <f>RIGHT(A74, LEN(A74)-2)</f>
+        <v>VBK360</v>
       </c>
       <c r="C74" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHVBN130</v>
+        <f>"XTCH"&amp;B74</f>
+        <v>XTCHVBK360</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H74" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J74" t="str">
+        <f>IF(ISERROR(MATCH(B74,I74,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VBN260</v>
+        <f>RIGHT(A75, LEN(A75)-2)</f>
+        <v>VBN130</v>
       </c>
       <c r="C75" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHVBN260</v>
+        <f>"XTCH"&amp;B75</f>
+        <v>XTCHVBN130</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>212</v>
       </c>
+      <c r="F75" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="H75" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J75" t="str">
+        <f>IF(ISERROR(MATCH(B75,I75,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B76" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VF815</v>
+        <f>RIGHT(A76, LEN(A76)-2)</f>
+        <v>VBN260</v>
       </c>
       <c r="C76" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHVF815</v>
+        <f>"XTCH"&amp;B76</f>
+        <v>XTCHVBN260</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="F76" s="24" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H76" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J76" t="str">
+        <f>IF(ISERROR(MATCH(B76,I76,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B77" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VF823</v>
+        <f>RIGHT(A77, LEN(A77)-2)</f>
+        <v>VF815</v>
       </c>
       <c r="C77" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHVF823</v>
+        <f>"XTCH"&amp;B77</f>
+        <v>XTCHVF815</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H77" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J77" t="str">
+        <f>IF(ISERROR(MATCH(B77,I77,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B78" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VG121</v>
+        <f>RIGHT(A78, LEN(A78)-2)</f>
+        <v>VF823</v>
       </c>
       <c r="C78" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHVG121</v>
+        <f>"XTCH"&amp;B78</f>
+        <v>XTCHVF823</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="H78" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="J78" t="str">
+        <f>IF(ISERROR(MATCH(B78,I78,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B79" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VG138</v>
+        <f>RIGHT(A79, LEN(A79)-2)</f>
+        <v>VG121</v>
       </c>
       <c r="C79" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHVG138</v>
+        <f>"XTCH"&amp;B79</f>
+        <v>XTCHVG121</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="H79" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="J79" t="str">
+        <f>IF(ISERROR(MATCH(B79,I79,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="B80" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>ENEL8</v>
+        <f>RIGHT(A80, LEN(A80)-2)</f>
+        <v>VG138</v>
       </c>
       <c r="C80" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHENEL8</v>
+        <f>"XTCH"&amp;B80</f>
+        <v>XTCHVG138</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="H80" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J80" t="str">
+        <f>IF(ISERROR(MATCH(B80,I80,0)),"",1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B81" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>ENEL9</v>
+        <f>RIGHT(A81, LEN(A81)-2)</f>
+        <v>ENEL8</v>
       </c>
       <c r="C81" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHENEL9</v>
+        <f>"XTCH"&amp;B81</f>
+        <v>XTCHENEL8</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H81" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J81">
+        <f>IF(ISERROR(MATCH(B81,I81,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B82" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>GPH3</v>
+        <f>RIGHT(A82, LEN(A82)-2)</f>
+        <v>ENEL9</v>
       </c>
       <c r="C82" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHGPH3</v>
+        <f>"XTCH"&amp;B82</f>
+        <v>XTCHENEL9</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="H82" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J82">
+        <f>IF(ISERROR(MATCH(B82,I82,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B83" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>LI109</v>
+        <f>RIGHT(A83, LEN(A83)-2)</f>
+        <v>GPH3</v>
       </c>
       <c r="C83" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHLI109</v>
+        <f>"XTCH"&amp;B83</f>
+        <v>XTCHGPH3</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J83">
+        <f>IF(ISERROR(MATCH(B83,I83,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B84" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>LI42B</v>
+        <f>RIGHT(A84, LEN(A84)-2)</f>
+        <v>LI109</v>
       </c>
       <c r="C84" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHLI42B</v>
+        <f>"XTCH"&amp;B84</f>
+        <v>XTCHLI109</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J84">
+        <f>IF(ISERROR(MATCH(B84,I84,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B85" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>LI50B</v>
+        <f>RIGHT(A85, LEN(A85)-2)</f>
+        <v>LI42B</v>
       </c>
       <c r="C85" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHLI50B</v>
+        <f>"XTCH"&amp;B85</f>
+        <v>XTCHLI42B</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J85">
+        <f>IF(ISERROR(MATCH(B85,I85,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>LI70B</v>
+        <f>RIGHT(A86, LEN(A86)-2)</f>
+        <v>LI50B</v>
       </c>
       <c r="C86" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHLI70B</v>
+        <f>"XTCH"&amp;B86</f>
+        <v>XTCHLI50B</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H86" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J86">
+        <f>IF(ISERROR(MATCH(B86,I86,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B87" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>LI90</v>
+        <f>RIGHT(A87, LEN(A87)-2)</f>
+        <v>LI70B</v>
       </c>
       <c r="C87" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHLI90</v>
+        <f>"XTCH"&amp;B87</f>
+        <v>XTCHLI70B</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H87" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J87">
+        <f>IF(ISERROR(MATCH(B87,I87,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B88" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>LI90B</v>
+        <f>RIGHT(A88, LEN(A88)-2)</f>
+        <v>LI90</v>
       </c>
       <c r="C88" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHLI90B</v>
+        <f>"XTCH"&amp;B88</f>
+        <v>XTCHLI90</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J88">
+        <f>IF(ISERROR(MATCH(B88,I88,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B89" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>LPE10</v>
+        <f>RIGHT(A89, LEN(A89)-2)</f>
+        <v>LI90B</v>
       </c>
       <c r="C89" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHLPE10</v>
+        <f>"XTCH"&amp;B89</f>
+        <v>XTCHLI90B</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J89">
+        <f>IF(ISERROR(MATCH(B89,I89,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>LPE12</v>
+        <f>RIGHT(A90, LEN(A90)-2)</f>
+        <v>LPE10</v>
       </c>
       <c r="C90" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHLPE12</v>
+        <f>"XTCH"&amp;B90</f>
+        <v>XTCHLPE10</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J90">
+        <f>IF(ISERROR(MATCH(B90,I90,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B91" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>LPE5</v>
+        <f>RIGHT(A91, LEN(A91)-2)</f>
+        <v>LPE12</v>
       </c>
       <c r="C91" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHLPE5</v>
+        <f>"XTCH"&amp;B91</f>
+        <v>XTCHLPE12</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J91">
+        <f>IF(ISERROR(MATCH(B91,I91,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B92" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>LPE6</v>
+        <f>RIGHT(A92, LEN(A92)-2)</f>
+        <v>LPE5</v>
       </c>
       <c r="C92" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHLPE6</v>
+        <f>"XTCH"&amp;B92</f>
+        <v>XTCHLPE5</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J92">
+        <f>IF(ISERROR(MATCH(B92,I92,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B93" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>LPE8</v>
+        <f>RIGHT(A93, LEN(A93)-2)</f>
+        <v>LPE6</v>
       </c>
       <c r="C93" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>XTCHLPE8</v>
+        <f>"XTCH"&amp;B93</f>
+        <v>XTCHLPE6</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H94" s="28"/>
-    </row>
-    <row r="95" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H95" s="27"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B96" s="10" t="str">
-        <f>RIGHT(A96, LEN(A96)-2)</f>
-        <v>BCG10</v>
-      </c>
-      <c r="C96" s="15" t="str">
-        <f>"XTCH"&amp;B96</f>
-        <v>XTCHBCG10</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="F96" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="H96" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="B97" s="10" t="str">
-        <f>RIGHT(A97, LEN(A97)-2)</f>
-        <v>B7</v>
-      </c>
-      <c r="C97" s="15" t="str">
-        <f>"XTCH"&amp;B97</f>
-        <v>XTCHB7</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="F97" s="24" t="s">
-        <v>507</v>
-      </c>
-      <c r="H97" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B98" s="10" t="str">
-        <f>RIGHT(A98, LEN(A98)-2)</f>
-        <v>BCJ13</v>
-      </c>
-      <c r="C98" s="15" t="str">
-        <f>"XTCH"&amp;B98</f>
-        <v>XTCHBCJ13</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="F98" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="H98" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B99" s="10" t="str">
-        <f>RIGHT(A99, LEN(A99)-2)</f>
-        <v>BCK7</v>
-      </c>
-      <c r="C99" s="15" t="str">
-        <f>"XTCH"&amp;B99</f>
-        <v>XTCHBCK7</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="F99" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="H99" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B100" s="10" t="str">
-        <f>RIGHT(A100, LEN(A100)-2)</f>
-        <v>BCL7</v>
-      </c>
-      <c r="C100" s="15" t="str">
-        <f>"XTCH"&amp;B100</f>
-        <v>XTCHBCL7</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="F100" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="H100" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B101" s="10" t="str">
-        <f>RIGHT(A101, LEN(A101)-2)</f>
-        <v>BCM13</v>
-      </c>
-      <c r="C101" s="15" t="str">
-        <f>"XTCH"&amp;B101</f>
-        <v>XTCHBCM13</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="F101" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="H101" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B102" s="10" t="str">
-        <f>RIGHT(A102, LEN(A102)-2)</f>
-        <v>BCN10</v>
-      </c>
-      <c r="C102" s="15" t="str">
-        <f>"XTCH"&amp;B102</f>
-        <v>XTCHBCN10</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="F102" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="H102" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B103" s="10" t="str">
-        <f>RIGHT(A103, LEN(A103)-2)</f>
-        <v>BLC12</v>
-      </c>
-      <c r="C103" s="15" t="str">
-        <f>"XTCH"&amp;B103</f>
-        <v>XTCHBLC12</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="F103" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="H103" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B104" s="10" t="str">
-        <f>RIGHT(A104, LEN(A104)-2)</f>
-        <v>BLD10</v>
-      </c>
-      <c r="C104" s="15" t="str">
-        <f>"XTCH"&amp;B104</f>
-        <v>XTCHBLD10</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="F104" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="H104" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B105" s="10" t="str">
-        <f>RIGHT(A105, LEN(A105)-2)</f>
-        <v>BLE9</v>
-      </c>
-      <c r="C105" s="15" t="str">
-        <f>"XTCH"&amp;B105</f>
-        <v>XTCHBLE9</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="F105" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="H105" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B106" s="10" t="str">
-        <f>RIGHT(A106, LEN(A106)-2)</f>
-        <v>BLF19</v>
-      </c>
-      <c r="C106" s="15" t="str">
-        <f>"XTCH"&amp;B106</f>
-        <v>XTCHBLF19</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="F106" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="H106" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B107" s="10" t="str">
-        <f>RIGHT(A107, LEN(A107)-2)</f>
-        <v>BLG10</v>
-      </c>
-      <c r="C107" s="15" t="str">
-        <f>"XTCH"&amp;B107</f>
-        <v>XTCHBLG10</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="E107" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="F107" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="H107" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B108" s="10" t="str">
-        <f>RIGHT(A108, LEN(A108)-2)</f>
-        <v>BLS1</v>
-      </c>
-      <c r="C108" s="15" t="str">
-        <f>"XTCH"&amp;B108</f>
-        <v>XTCHBLS1</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="E108" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="F108" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="H108" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B109" s="10" t="str">
-        <f>RIGHT(A109, LEN(A109)-2)</f>
-        <v>BMB9</v>
-      </c>
-      <c r="C109" s="15" t="str">
-        <f>"XTCH"&amp;B109</f>
-        <v>XTCHBMB9</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="H109" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="B110" s="10" t="str">
-        <f>RIGHT(A110, LEN(A110)-2)</f>
-        <v>BN1</v>
-      </c>
-      <c r="C110" s="15" t="str">
-        <f>"XTCH"&amp;B110</f>
-        <v>XTCHBN1</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="F110" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="H110" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="B111" s="10" t="str">
-        <f>RIGHT(A111, LEN(A111)-2)</f>
-        <v>BNVG121</v>
-      </c>
-      <c r="C111" s="15" t="str">
-        <f>"XTCH"&amp;B111</f>
-        <v>XTCHBNVG121</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="F111" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="H111" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B112" s="10" t="str">
-        <f>RIGHT(A112, LEN(A112)-2)</f>
-        <v>BP1030</v>
-      </c>
-      <c r="C112" s="15" t="str">
-        <f>"XTCH"&amp;B112</f>
-        <v>XTCHBP1030</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="F112" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="H112" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B113" s="10" t="str">
-        <f>RIGHT(A113, LEN(A113)-2)</f>
-        <v>BP110</v>
-      </c>
-      <c r="C113" s="15" t="str">
-        <f>"XTCH"&amp;B113</f>
-        <v>XTCHBP110</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="F113" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="H113" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B114" s="10" t="str">
-        <f>RIGHT(A114, LEN(A114)-2)</f>
-        <v>BP1310</v>
-      </c>
-      <c r="C114" s="15" t="str">
-        <f>"XTCH"&amp;B114</f>
-        <v>XTCHBP1310</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="F114" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="H114" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B115" s="10" t="str">
-        <f>RIGHT(A115, LEN(A115)-2)</f>
-        <v>BP511</v>
-      </c>
-      <c r="C115" s="15" t="str">
-        <f>"XTCH"&amp;B115</f>
-        <v>XTCHBP511</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="F115" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="H115" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B116" s="10" t="str">
-        <f>RIGHT(A116, LEN(A116)-2)</f>
-        <v>BP70A</v>
-      </c>
-      <c r="C116" s="15" t="str">
-        <f>"XTCH"&amp;B116</f>
-        <v>XTCHBP70A</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="F116" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="H116" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B117" s="10" t="str">
-        <f>RIGHT(A117, LEN(A117)-2)</f>
-        <v>BP727</v>
-      </c>
-      <c r="C117" s="15" t="str">
-        <f>"XTCH"&amp;B117</f>
-        <v>XTCHBP727</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="F117" s="24" t="s">
-        <v>527</v>
-      </c>
-      <c r="H117" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B118" s="10" t="str">
-        <f>RIGHT(A118, LEN(A118)-2)</f>
-        <v>BP819</v>
-      </c>
-      <c r="C118" s="15" t="str">
-        <f>"XTCH"&amp;B118</f>
-        <v>XTCHBP819</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E118" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="F118" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="H118" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="B119" s="10" t="str">
-        <f>RIGHT(A119, LEN(A119)-2)</f>
-        <v>BP970</v>
-      </c>
-      <c r="C119" s="15" t="str">
-        <f>"XTCH"&amp;B119</f>
-        <v>XTCHBP970</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="F119" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="H119" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="B120" s="10" t="str">
-        <f>RIGHT(A120, LEN(A120)-2)</f>
-        <v>BX1</v>
-      </c>
-      <c r="C120" s="15" t="str">
-        <f>"XTCH"&amp;B120</f>
-        <v>XTCHBX1</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="F120" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="H120" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="B121" s="10" t="str">
-        <f>RIGHT(A121, LEN(A121)-2)</f>
-        <v>D54</v>
-      </c>
-      <c r="C121" s="15" t="str">
-        <f>"XTCH"&amp;B121</f>
-        <v>XTCHD54</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="E121" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="F121" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="H121" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B122" s="10" t="str">
-        <f>RIGHT(A122, LEN(A122)-2)</f>
-        <v>ENEL12</v>
-      </c>
-      <c r="C122" s="15" t="str">
-        <f>"XTCH"&amp;B122</f>
-        <v>XTCHENEL12</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="F122" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="H122" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B123" s="10" t="str">
-        <f>RIGHT(A123, LEN(A123)-2)</f>
-        <v>ENEL14</v>
-      </c>
-      <c r="C123" s="15" t="str">
-        <f>"XTCH"&amp;B123</f>
-        <v>XTCHENEL14</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="F123" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="H123" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B124" s="10" t="str">
-        <f>RIGHT(A124, LEN(A124)-2)</f>
-        <v>ENEL15</v>
-      </c>
-      <c r="C124" s="15" t="str">
-        <f>"XTCH"&amp;B124</f>
-        <v>XTCHENEL15</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="F124" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="H124" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B125" s="10" t="str">
-        <f>RIGHT(A125, LEN(A125)-2)</f>
-        <v>ENEL19</v>
-      </c>
-      <c r="C125" s="15" t="str">
-        <f>"XTCH"&amp;B125</f>
-        <v>XTCHENEL19</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="F125" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="H125" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B126" s="10" t="str">
-        <f>RIGHT(A126, LEN(A126)-2)</f>
-        <v>ENEL20</v>
-      </c>
-      <c r="C126" s="15" t="str">
-        <f>"XTCH"&amp;B126</f>
-        <v>XTCHENEL20</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="F126" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="H126" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B127" s="10" t="str">
-        <f>RIGHT(A127, LEN(A127)-2)</f>
-        <v>ENEL21</v>
-      </c>
-      <c r="C127" s="15" t="str">
-        <f>"XTCH"&amp;B127</f>
-        <v>XTCHENEL21</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="F127" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="H127" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B128" s="10" t="str">
-        <f>RIGHT(A128, LEN(A128)-2)</f>
-        <v>ENEL23</v>
-      </c>
-      <c r="C128" s="15" t="str">
-        <f>"XTCH"&amp;B128</f>
-        <v>XTCHENEL23</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E128" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="F128" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="H128" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="B129" s="10" t="str">
-        <f>RIGHT(A129, LEN(A129)-2)</f>
-        <v>ENEL24</v>
-      </c>
-      <c r="C129" s="15" t="str">
-        <f>"XTCH"&amp;B129</f>
-        <v>XTCHENEL24</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E129" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="F129" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="H129" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B130" s="10" t="str">
-        <f>RIGHT(A130, LEN(A130)-2)</f>
-        <v>ENEL3E</v>
-      </c>
-      <c r="C130" s="15" t="str">
-        <f>"XTCH"&amp;B130</f>
-        <v>XTCHENEL3E</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="E130" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F130" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="H130" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B131" s="10" t="str">
-        <f>RIGHT(A131, LEN(A131)-2)</f>
-        <v>ENEL5</v>
-      </c>
-      <c r="C131" s="15" t="str">
-        <f>"XTCH"&amp;B131</f>
-        <v>XTCHENEL5</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="E131" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="F131" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="H131" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B132" s="10" t="str">
-        <f>RIGHT(A132, LEN(A132)-2)</f>
-        <v>ENEL8</v>
-      </c>
-      <c r="C132" s="15" t="str">
-        <f>"XTCH"&amp;B132</f>
-        <v>XTCHENEL8</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E132" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="F132" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="H132" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B133" s="10" t="str">
-        <f t="shared" ref="B133:B173" si="4">RIGHT(A133, LEN(A133)-2)</f>
-        <v>ENEL9</v>
-      </c>
-      <c r="C133" s="15" t="str">
-        <f t="shared" ref="C133:C173" si="5">"XTCH"&amp;B133</f>
-        <v>XTCHENEL9</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E133" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="F133" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="H133" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="B134" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>FG1</v>
-      </c>
-      <c r="C134" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHFG1</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="F134" s="24" t="s">
-        <v>544</v>
-      </c>
-      <c r="H134" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="B135" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>FV50</v>
-      </c>
-      <c r="C135" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHFV50</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="F135" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="H135" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="B136" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>FW50</v>
-      </c>
-      <c r="C136" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHFW50</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E136" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="F136" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="H136" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="B137" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>GPDUAL</v>
-      </c>
-      <c r="C137" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHGPDUAL</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="E137" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F137" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="H137" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="B138" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>GPDUAL4</v>
-      </c>
-      <c r="C138" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHGPDUAL4</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="E138" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="F138" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="H138" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B139" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>GPH3</v>
-      </c>
-      <c r="C139" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHGPH3</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E139" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="F139" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="H139" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="B140" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>GPH4</v>
-      </c>
-      <c r="C140" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHGPH4</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="E140" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="F140" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="H140" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B141" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>LI109</v>
-      </c>
-      <c r="C141" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHLI109</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E141" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="F141" s="24" t="s">
-        <v>549</v>
-      </c>
-      <c r="H141" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B142" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>LI42B</v>
-      </c>
-      <c r="C142" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHLI42B</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="F142" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="H142" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B143" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>LI50B</v>
-      </c>
-      <c r="C143" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHLI50B</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E143" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="F143" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="H143" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B144" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>LI70B</v>
-      </c>
-      <c r="C144" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHLI70B</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E144" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="F144" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="H144" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B145" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>LI90</v>
-      </c>
-      <c r="C145" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHLI90</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E145" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="F145" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="H145" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B146" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>LI90B</v>
-      </c>
-      <c r="C146" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHLI90B</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E146" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="F146" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="H146" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B147" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>LPE10</v>
-      </c>
-      <c r="C147" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHLPE10</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E147" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="F147" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="H147" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B148" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>LPE12</v>
-      </c>
-      <c r="C148" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHLPE12</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E148" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="F148" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="H148" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B149" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>LPE5</v>
-      </c>
-      <c r="C149" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHLPE5</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="F149" s="24" t="s">
-        <v>556</v>
-      </c>
-      <c r="H149" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B150" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>LPE6</v>
-      </c>
-      <c r="C150" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHLPE6</v>
-      </c>
-      <c r="D150" s="7" t="s">
+      <c r="I93" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E150" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="F150" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="H150" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="9" t="s">
+      <c r="J93">
+        <f>IF(ISERROR(MATCH(B93,I93,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B151" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="B94" s="10" t="str">
+        <f>RIGHT(A94, LEN(A94)-2)</f>
         <v>LPE8</v>
       </c>
-      <c r="C151" s="15" t="str">
-        <f t="shared" si="5"/>
+      <c r="C94" s="15" t="str">
+        <f>"XTCH"&amp;B94</f>
         <v>XTCHLPE8</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D94" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E151" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="F151" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="H151" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B152" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NB10L</v>
-      </c>
-      <c r="C152" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNB10L</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="F152" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="H152" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B153" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NB11L</v>
-      </c>
-      <c r="C153" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNB11L</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="F153" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="H153" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="B154" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NB12L</v>
-      </c>
-      <c r="C154" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNB12L</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="E154" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="F154" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="H154" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B155" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NB2LH</v>
-      </c>
-      <c r="C155" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNB2LH</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="F155" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="H155" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B156" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NB4L</v>
-      </c>
-      <c r="C156" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNB4L</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E156" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="F156" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="H156" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B157" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NB5L</v>
-      </c>
-      <c r="C157" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNB5L</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E157" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="F157" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="H157" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B158" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NB6L</v>
-      </c>
-      <c r="C158" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNB6L</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E158" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="F158" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="H158" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B159" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NB7L</v>
-      </c>
-      <c r="C159" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNB7L</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E159" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="F159" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="H159" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B160" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NB8L</v>
-      </c>
-      <c r="C160" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNB8L</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E160" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="F160" s="24" t="s">
-        <v>567</v>
-      </c>
-      <c r="H160" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B161" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NB9L</v>
-      </c>
-      <c r="C161" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNB9L</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E161" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="F161" s="24" t="s">
-        <v>568</v>
-      </c>
-      <c r="H161" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B162" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NP45</v>
-      </c>
-      <c r="C162" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNP45</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E162" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="F162" s="24" t="s">
-        <v>569</v>
-      </c>
-      <c r="H162" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B163" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NP50</v>
-      </c>
-      <c r="C163" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNP50</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E163" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="F163" s="24" t="s">
-        <v>570</v>
-      </c>
-      <c r="H163" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B164" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NP85</v>
-      </c>
-      <c r="C164" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNP85</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E164" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="F164" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="H164" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B165" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NP95</v>
-      </c>
-      <c r="C165" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNP95</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E165" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="F165" s="24" t="s">
-        <v>572</v>
-      </c>
-      <c r="H165" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B166" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NPBY1</v>
-      </c>
-      <c r="C166" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNPBY1</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H166" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B167" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NPF975</v>
-      </c>
-      <c r="C167" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNPF975</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H167" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B168" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>NPW126</v>
-      </c>
-      <c r="C168" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHNPW126</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E168" s="21" t="s">
-        <v>501</v>
-      </c>
-      <c r="F168" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="H168" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B169" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>SLB10A</v>
-      </c>
-      <c r="C169" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHSLB10A</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H169" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="B170" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>VBG</v>
-      </c>
-      <c r="C170" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHVBG</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H170" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B171" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>VBK180</v>
-      </c>
-      <c r="C171" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHVBK180</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E171" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="F171" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="H171" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B172" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>VBN130</v>
-      </c>
-      <c r="C172" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHVBN130</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="F172" s="24" t="s">
-        <v>575</v>
-      </c>
-      <c r="H172" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B173" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>VF815</v>
-      </c>
-      <c r="C173" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>XTCHVF815</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E173" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="F173" s="24" t="s">
-        <v>576</v>
-      </c>
-      <c r="H173" s="18" t="s">
-        <v>577</v>
-      </c>
+      <c r="E94" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J94">
+        <f>IF(ISERROR(MATCH(B94,I94,0)),"",1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="28"/>
+    </row>
+    <row r="96" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9103,9 +7841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -9123,28 +7861,28 @@
   <sheetData>
     <row r="1" spans="1:9" s="29" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>157</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9158,16 +7896,16 @@
         <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="str">
@@ -9183,19 +7921,19 @@
         <v>373</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="str">
@@ -9214,16 +7952,16 @@
         <v>37</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H4"/>
       <c r="I4" t="str">
@@ -9242,16 +7980,16 @@
         <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="str">
@@ -9270,16 +8008,16 @@
         <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="str">
@@ -9298,16 +8036,16 @@
         <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="str">
@@ -9326,16 +8064,16 @@
         <v>94</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="str">
@@ -9354,16 +8092,16 @@
         <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="str">
@@ -9382,16 +8120,16 @@
         <v>42</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="str">
@@ -9410,16 +8148,16 @@
         <v>43</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="str">
@@ -9438,16 +8176,16 @@
         <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="str">
@@ -9466,16 +8204,16 @@
         <v>45</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="str">
@@ -9494,16 +8232,16 @@
         <v>47</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="str">
@@ -9522,16 +8260,16 @@
         <v>49</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="str">
@@ -9547,19 +8285,19 @@
         <v>386</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H16"/>
       <c r="I16" t="str">
@@ -9575,19 +8313,19 @@
         <v>387</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H17"/>
       <c r="I17" t="str">
@@ -9606,16 +8344,16 @@
         <v>61</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H18"/>
       <c r="I18" t="str">
@@ -9634,16 +8372,16 @@
         <v>51</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="str">
@@ -9662,16 +8400,16 @@
         <v>62</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H20"/>
       <c r="I20" t="str">
@@ -9680,7 +8418,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="45" t="s">
         <v>313</v>
       </c>
       <c r="B21" s="35" t="s">
@@ -9690,16 +8428,16 @@
         <v>52</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="str">
@@ -9718,16 +8456,16 @@
         <v>50</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H22"/>
       <c r="I22" t="str">
@@ -9743,19 +8481,19 @@
         <v>393</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H23"/>
       <c r="I23" t="str">
@@ -9774,16 +8512,16 @@
         <v>56</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="str">
@@ -9799,19 +8537,19 @@
         <v>395</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="H25"/>
       <c r="I25" t="str">
@@ -9827,19 +8565,19 @@
         <v>396</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H26"/>
       <c r="I26" t="str">
@@ -9855,19 +8593,19 @@
         <v>397</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="str">
@@ -9886,16 +8624,16 @@
         <v>67</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="str">
@@ -9914,16 +8652,16 @@
         <v>68</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H29"/>
       <c r="I29" t="str">
@@ -9942,16 +8680,16 @@
         <v>69</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="str">
@@ -9970,16 +8708,16 @@
         <v>70</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="str">
@@ -9998,16 +8736,16 @@
         <v>71</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="str">
@@ -10026,16 +8764,16 @@
         <v>72</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H33"/>
       <c r="I33" t="str">
@@ -10054,16 +8792,16 @@
         <v>101</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H34"/>
       <c r="I34" t="str">
@@ -10079,19 +8817,19 @@
         <v>404</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H35"/>
       <c r="I35" t="str">
@@ -10110,16 +8848,16 @@
         <v>64</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="str">
@@ -10138,16 +8876,16 @@
         <v>65</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H37"/>
       <c r="I37" t="str">
@@ -10166,16 +8904,16 @@
         <v>66</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H38"/>
       <c r="I38" t="str">
@@ -10194,16 +8932,16 @@
         <v>96</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H39"/>
       <c r="I39" t="str">
@@ -10219,19 +8957,19 @@
         <v>407</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H40"/>
       <c r="I40" t="str">
@@ -10247,19 +8985,19 @@
         <v>408</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H41"/>
       <c r="I41" t="str">
@@ -10275,19 +9013,19 @@
         <v>409</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H42"/>
       <c r="I42" t="str">
@@ -10303,19 +9041,19 @@
         <v>410</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H43"/>
       <c r="I43" t="str">
@@ -10331,19 +9069,19 @@
         <v>411</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F44" s="41" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H44"/>
       <c r="I44" t="str">
@@ -10362,16 +9100,16 @@
         <v>73</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F45" s="41" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H45"/>
       <c r="I45" t="str">
@@ -10387,19 +9125,19 @@
         <v>412</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H46"/>
       <c r="I46" t="str">
@@ -10412,22 +9150,22 @@
         <v>339</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C47" s="38" t="s">
         <v>79</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H47"/>
       <c r="I47" t="str">
@@ -10440,22 +9178,22 @@
         <v>340</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C48" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H48"/>
       <c r="I48" t="str">
@@ -10468,22 +9206,22 @@
         <v>341</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C49" s="38" t="s">
         <v>75</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H49"/>
       <c r="I49" t="str">
@@ -10496,22 +9234,22 @@
         <v>342</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>76</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="str">
@@ -10524,22 +9262,22 @@
         <v>343</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C51" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H51"/>
       <c r="I51" t="str">
@@ -10552,22 +9290,22 @@
         <v>344</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C52" s="38" t="s">
         <v>78</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H52"/>
       <c r="I52" t="str">
@@ -10580,22 +9318,22 @@
         <v>345</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C53" s="38" t="s">
         <v>82</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F53" s="41" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G53" s="41" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H53"/>
       <c r="I53" t="str">
@@ -10608,22 +9346,22 @@
         <v>346</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>83</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F54" s="41" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G54" s="41" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H54"/>
       <c r="I54" t="str">
@@ -10636,22 +9374,22 @@
         <v>347</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C55" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F55" s="41" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G55" s="41" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H55"/>
       <c r="I55" t="str">
@@ -10664,22 +9402,22 @@
         <v>348</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C56" s="38" t="s">
         <v>80</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G56" s="41" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H56"/>
       <c r="I56" t="str">
@@ -10692,22 +9430,22 @@
         <v>349</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C57" s="38" t="s">
         <v>81</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F57" s="41" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G57" s="41" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H57"/>
       <c r="I57" t="str">
@@ -10721,22 +9459,22 @@
         <v>350</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C58" s="38" t="s">
         <v>102</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H58"/>
       <c r="I58" t="str">
@@ -10749,22 +9487,22 @@
         <v>351</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C59" s="38" t="s">
         <v>103</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H59"/>
       <c r="I59" t="str">
@@ -10777,22 +9515,22 @@
         <v>352</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F60" s="41" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G60" s="41" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H60"/>
       <c r="I60" t="str">
@@ -10805,22 +9543,22 @@
         <v>353</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C61" s="38" t="s">
         <v>104</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F61" s="41" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G61" s="41" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H61"/>
       <c r="I61" t="str">
@@ -10833,22 +9571,22 @@
         <v>354</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C62" s="38" t="s">
         <v>105</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F62" s="41" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G62" s="41" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H62"/>
       <c r="I62" t="str">
@@ -10861,22 +9599,22 @@
         <v>355</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C63" s="38" t="s">
         <v>106</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F63" s="41" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G63" s="41" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H63"/>
       <c r="I63" t="str">
@@ -10889,22 +9627,22 @@
         <v>356</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C64" s="38" t="s">
         <v>107</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G64" s="41" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H64"/>
       <c r="I64" t="str">
@@ -10917,22 +9655,22 @@
         <v>357</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C65" s="38" t="s">
         <v>108</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="str">
@@ -10945,22 +9683,22 @@
         <v>358</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C66" s="38" t="s">
         <v>109</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F66" s="41" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H66"/>
       <c r="I66" t="str">
@@ -10973,22 +9711,22 @@
         <v>359</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C67" s="38" t="s">
         <v>110</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F67" s="42" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H67"/>
       <c r="I67" t="str">
@@ -11001,22 +9739,22 @@
         <v>360</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C68" s="38" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H68"/>
       <c r="I68" t="str">
@@ -11029,22 +9767,22 @@
         <v>361</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C69" s="38" t="s">
         <v>113</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F69" s="41" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="H69"/>
       <c r="I69" t="str">
@@ -11057,22 +9795,22 @@
         <v>362</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C70" s="38" t="s">
         <v>114</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H70"/>
       <c r="I70" t="str">
@@ -11085,22 +9823,22 @@
         <v>363</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C71" s="38" t="s">
         <v>115</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H71"/>
       <c r="I71" t="str">
@@ -11113,16 +9851,16 @@
         <v>364</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
@@ -11137,16 +9875,16 @@
         <v>365</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C73" s="38" t="s">
         <v>119</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
@@ -11161,22 +9899,22 @@
         <v>366</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C74" s="38" t="s">
         <v>126</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H74"/>
       <c r="I74" t="str">
@@ -11189,16 +9927,16 @@
         <v>367</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C75" s="38" t="s">
         <v>127</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
@@ -11213,16 +9951,16 @@
         <v>368</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
@@ -11237,22 +9975,22 @@
         <v>369</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>130</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H77"/>
       <c r="I77" t="str">
@@ -11265,22 +10003,22 @@
         <v>370</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>132</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H78"/>
       <c r="I78" t="str">
@@ -11293,22 +10031,22 @@
         <v>371</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>134</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H79"/>
       <c r="I79" t="str">
